--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" activeTab="3"/>
+    <workbookView xWindow="13710" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -26,10 +26,13 @@
     <sheet name="Polymer Objects" sheetId="9" r:id="rId12"/>
     <sheet name="Fuel" sheetId="16" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Items (MC)'!$B$2:$I$193</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9115" uniqueCount="8734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9113" uniqueCount="8736">
   <si>
     <t>Uuo</t>
   </si>
@@ -26491,9 +26494,6 @@
     <t>59</t>
   </si>
   <si>
-    <t>5s</t>
-  </si>
-  <si>
     <t>1Y</t>
   </si>
   <si>
@@ -26957,6 +26957,15 @@
   </si>
   <si>
     <t>Flippers [+1]</t>
+  </si>
+  <si>
+    <t>Nylon 6</t>
+  </si>
+  <si>
+    <t>Polycaprolactam</t>
+  </si>
+  <si>
+    <t>OilField</t>
   </si>
 </sst>
 </file>
@@ -27340,6 +27349,54 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TODO"/>
+      <sheetName val="Notes"/>
+      <sheetName val="Enums"/>
+      <sheetName val="Game IDs"/>
+      <sheetName val="Items (MC)"/>
+      <sheetName val="Blocks (MC)"/>
+      <sheetName val="Elements"/>
+      <sheetName val="Minerals"/>
+      <sheetName val="Alloys"/>
+      <sheetName val="Compounds"/>
+      <sheetName val="Polymers"/>
+      <sheetName val="Polymer Objects"/>
+      <sheetName val="Fuel"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>polyvinyl</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>1.0.0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -34847,7 +34904,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>8596</v>
+        <v>8595</v>
       </c>
       <c r="C318" s="14"/>
       <c r="D318" s="12" t="str">
@@ -35200,11 +35257,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N115"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35269,7 +35326,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -35294,7 +35351,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -35315,7 +35372,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -35337,7 +35394,7 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -35357,7 +35414,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -35377,7 +35434,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -35397,7 +35454,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -35417,7 +35474,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -35436,7 +35493,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -35457,7 +35514,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -35477,7 +35534,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -35497,7 +35554,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -35519,7 +35576,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -35539,7 +35596,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -35559,7 +35616,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B16" s="33" t="s">
@@ -35572,7 +35629,7 @@
       <c r="F16" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="1" t="str">
         <f>Enums!$A$42</f>
         <v>polyolefin</v>
       </c>
@@ -35583,7 +35640,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -35596,14 +35653,14 @@
       <c r="F17" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="32" t="str">
+      <c r="H17" s="1" t="str">
         <f>Enums!$A$42</f>
         <v>polyolefin</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -35624,7 +35681,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
@@ -35644,7 +35701,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -35663,7 +35720,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B21" s="33" t="s">
@@ -35683,7 +35740,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -35707,7 +35764,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -35728,7 +35785,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
@@ -35749,7 +35806,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -35773,7 +35830,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -35794,7 +35851,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B27" s="33" t="s">
@@ -35814,7 +35871,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B28" s="33" t="s">
@@ -35835,7 +35892,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -35856,7 +35913,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -35876,7 +35933,7 @@
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B31" s="33" t="s">
@@ -35901,7 +35958,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -35922,7 +35979,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B33" s="33" t="s">
@@ -35943,7 +36000,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -35964,7 +36021,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B35" s="33" t="s">
@@ -35984,7 +36041,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
@@ -36005,7 +36062,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B37" s="33" t="s">
@@ -36026,7 +36083,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
@@ -36047,7 +36104,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
@@ -36067,7 +36124,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B40" s="33" t="s">
@@ -36087,7 +36144,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B41" s="33" t="s">
@@ -36107,7 +36164,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B42" s="33" t="s">
@@ -36121,14 +36178,14 @@
         <v>0</v>
       </c>
       <c r="G42" s="32"/>
-      <c r="H42" s="1" t="str">
+      <c r="H42" s="8" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B43" s="33" t="s">
@@ -36141,14 +36198,14 @@
       <c r="F43" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H43" s="8" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B44" s="33" t="s">
@@ -36168,7 +36225,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B45" s="33" t="s">
@@ -36188,7 +36245,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>Enums!$A$94</f>
+        <f>[1]Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B46" s="33" t="s">
@@ -36452,7 +36509,7 @@
       <c r="F58" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="8" t="str">
+      <c r="H58" s="1" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
       </c>
@@ -36472,7 +36529,7 @@
       <c r="F59" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H59" s="8" t="str">
+      <c r="H59" s="1" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
       </c>
@@ -36616,7 +36673,7 @@
       <c r="F66" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H66" s="32" t="str">
+      <c r="H66" s="1" t="str">
         <f>Enums!$A$32</f>
         <v>polyacrylate</v>
       </c>
@@ -36699,7 +36756,7 @@
       <c r="F70" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H70" s="32" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
       </c>
@@ -36739,7 +36796,7 @@
       <c r="F72" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H72" s="32" t="str">
         <f>Enums!$A$32</f>
         <v>polyacrylate</v>
       </c>
@@ -36759,7 +36816,7 @@
       <c r="F73" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H73" s="32" t="str">
         <f>Enums!$A$32</f>
         <v>polyacrylate</v>
       </c>
@@ -36881,8 +36938,9 @@
       <c r="F79" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>1211</v>
+      <c r="H79" s="8" t="str">
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -36900,8 +36958,9 @@
       <c r="F80" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H80" s="32" t="s">
-        <v>1211</v>
+      <c r="H80" s="8" t="str">
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -36960,8 +37019,9 @@
       <c r="F83" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H83" s="32" t="s">
-        <v>1211</v>
+      <c r="H83" s="1" t="str">
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -36979,8 +37039,9 @@
       <c r="F84" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>1211</v>
+      <c r="H84" s="1" t="str">
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -37038,7 +37099,7 @@
       <c r="F87" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H87" s="8" t="str">
+      <c r="H87" s="1" t="str">
         <f>Enums!$A$39</f>
         <v>polyether</v>
       </c>
@@ -37078,7 +37139,7 @@
       <c r="F89" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H89" s="1" t="str">
+      <c r="H89" s="32" t="str">
         <f>Enums!$A$32</f>
         <v>polyacrylate</v>
       </c>
@@ -37201,7 +37262,7 @@
       <c r="F95" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H95" s="1" t="str">
+      <c r="H95" s="8" t="str">
         <f>Enums!$A$46</f>
         <v>polyurethane</v>
       </c>
@@ -37263,7 +37324,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="8" t="str">
-        <f>Enums!$A$47</f>
+        <f>[1]Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37282,7 +37343,7 @@
       <c r="F99" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H99" s="32" t="str">
+      <c r="H99" s="1" t="str">
         <f>Enums!$A$42</f>
         <v>polyolefin</v>
       </c>
@@ -37344,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="8" t="str">
-        <f>Enums!$A$47</f>
+        <f>[1]Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37364,7 +37425,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="8" t="str">
-        <f>Enums!$A$47</f>
+        <f>[1]Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37384,7 +37445,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="8" t="str">
-        <f>Enums!$A$47</f>
+        <f>[1]Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37540,7 +37601,7 @@
       <c r="F112" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H112" s="32" t="str">
+      <c r="H112" s="1" t="str">
         <f>Enums!$A$42</f>
         <v>polyolefin</v>
       </c>
@@ -37615,6 +37676,18 @@
         <v>polyvinyl</v>
       </c>
       <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8734</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>8733</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37635,7 +37708,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37920,8 +37993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN393"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38726,7 +38799,7 @@
         <v>1375</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>8604</v>
+        <v>8603</v>
       </c>
       <c r="G91" s="64" t="s">
         <v>1377</v>
@@ -38735,25 +38808,25 @@
         <v>1414</v>
       </c>
       <c r="I91" s="64" t="s">
+        <v>8604</v>
+      </c>
+      <c r="J91" s="64" t="s">
         <v>8605</v>
-      </c>
-      <c r="J91" s="64" t="s">
-        <v>8606</v>
       </c>
       <c r="K91" s="64" t="s">
         <v>1374</v>
       </c>
       <c r="L91" s="64" t="s">
-        <v>8607</v>
+        <v>8606</v>
       </c>
       <c r="M91" s="64" t="s">
         <v>1373</v>
       </c>
       <c r="N91" s="64" t="s">
+        <v>8607</v>
+      </c>
+      <c r="O91" s="64" t="s">
         <v>8608</v>
-      </c>
-      <c r="O91" s="64" t="s">
-        <v>8609</v>
       </c>
       <c r="P91" s="64" t="s">
         <v>1372</v>
@@ -38768,67 +38841,67 @@
         <v>1369</v>
       </c>
       <c r="T91" s="64" t="s">
+        <v>8609</v>
+      </c>
+      <c r="U91" s="64" t="s">
         <v>8610</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="V91" s="64" t="s">
         <v>8611</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="W91" s="64" t="s">
         <v>8612</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="X91" s="64" t="s">
         <v>8613</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="Y91" s="64" t="s">
         <v>8614</v>
       </c>
-      <c r="Y91" s="64" t="s">
+      <c r="Z91" s="64" t="s">
         <v>8615</v>
       </c>
-      <c r="Z91" s="64" t="s">
+      <c r="AA91" s="64" t="s">
         <v>8616</v>
       </c>
-      <c r="AA91" s="64" t="s">
+      <c r="AB91" s="64" t="s">
         <v>8617</v>
       </c>
-      <c r="AB91" s="64" t="s">
+      <c r="AC91" s="64" t="s">
         <v>8618</v>
       </c>
-      <c r="AC91" s="64" t="s">
+      <c r="AD91" s="64" t="s">
         <v>8619</v>
       </c>
-      <c r="AD91" s="64" t="s">
+      <c r="AE91" s="64" t="s">
         <v>8620</v>
       </c>
-      <c r="AE91" s="64" t="s">
+      <c r="AF91" s="64" t="s">
         <v>8621</v>
       </c>
-      <c r="AF91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8622</v>
       </c>
-      <c r="AG91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8623</v>
       </c>
-      <c r="AH91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8624</v>
       </c>
-      <c r="AI91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8625</v>
       </c>
-      <c r="AJ91" s="64" t="s">
+      <c r="AK91" s="64" t="s">
         <v>8626</v>
       </c>
-      <c r="AK91" s="64" t="s">
+      <c r="AL91" s="64" t="s">
         <v>8627</v>
       </c>
-      <c r="AL91" s="64" t="s">
+      <c r="AM91" s="64" t="s">
         <v>8628</v>
       </c>
-      <c r="AM91" s="64" t="s">
+      <c r="AN91" s="64" t="s">
         <v>8629</v>
-      </c>
-      <c r="AN91" s="64" t="s">
-        <v>8630</v>
       </c>
     </row>
     <row r="92" spans="1:40" ht="39" x14ac:dyDescent="0.25">
@@ -38837,13 +38910,13 @@
         <v>1</v>
       </c>
       <c r="F92" s="66" t="s">
-        <v>8631</v>
+        <v>8630</v>
       </c>
       <c r="G92" s="67" t="s">
         <v>1265</v>
       </c>
       <c r="H92" s="67" t="s">
-        <v>8632</v>
+        <v>8631</v>
       </c>
       <c r="I92" s="66" t="str">
         <f>"Fiber ("&amp;F92&amp;")"</f>
@@ -38865,40 +38938,40 @@
         <v>4</v>
       </c>
       <c r="P92" s="67" t="s">
+        <v>8632</v>
+      </c>
+      <c r="Q92" s="67" t="s">
         <v>8633</v>
       </c>
-      <c r="Q92" s="67" t="s">
+      <c r="R92" s="67" t="s">
         <v>8634</v>
       </c>
-      <c r="R92" s="67" t="s">
+      <c r="S92" s="67" t="s">
         <v>8635</v>
       </c>
-      <c r="S92" s="67" t="s">
+      <c r="T92" s="67" t="s">
         <v>8636</v>
       </c>
-      <c r="T92" s="67" t="s">
+      <c r="U92" s="67" t="s">
         <v>8637</v>
       </c>
-      <c r="U92" s="67" t="s">
+      <c r="V92" s="67" t="s">
         <v>8638</v>
       </c>
-      <c r="V92" s="67" t="s">
+      <c r="W92" s="67" t="s">
         <v>8639</v>
       </c>
-      <c r="W92" s="67" t="s">
+      <c r="X92" s="67" t="s">
         <v>8640</v>
       </c>
-      <c r="X92" s="67" t="s">
+      <c r="Y92" s="67" t="s">
         <v>8641</v>
       </c>
-      <c r="Y92" s="67" t="s">
+      <c r="Z92" s="67" t="s">
         <v>8642</v>
       </c>
-      <c r="Z92" s="67" t="s">
+      <c r="AA92" s="67" t="s">
         <v>8643</v>
-      </c>
-      <c r="AA92" s="67" t="s">
-        <v>8644</v>
       </c>
       <c r="AB92"/>
       <c r="AC92"/>
@@ -38920,13 +38993,13 @@
         <v>2</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>8645</v>
+        <v>8644</v>
       </c>
       <c r="G93" s="67" t="s">
         <v>1339</v>
       </c>
       <c r="H93" s="67" t="s">
-        <v>8646</v>
+        <v>8645</v>
       </c>
       <c r="I93" s="66" t="str">
         <f t="shared" ref="I93:I102" si="1">"Fiber ("&amp;F93&amp;")"</f>
@@ -38948,34 +39021,34 @@
         <v>4</v>
       </c>
       <c r="P93" s="67" t="s">
+        <v>8646</v>
+      </c>
+      <c r="Q93" s="67" t="s">
         <v>8647</v>
       </c>
-      <c r="Q93" s="67" t="s">
+      <c r="R93" s="67" t="s">
         <v>8648</v>
       </c>
-      <c r="R93" s="67" t="s">
+      <c r="S93" s="67" t="s">
         <v>8649</v>
       </c>
-      <c r="S93" s="67" t="s">
+      <c r="T93" s="67" t="s">
         <v>8650</v>
       </c>
-      <c r="T93" s="67" t="s">
+      <c r="U93" s="67" t="s">
         <v>8651</v>
       </c>
-      <c r="U93" s="67" t="s">
+      <c r="V93" s="67" t="s">
         <v>8652</v>
       </c>
-      <c r="V93" s="67" t="s">
+      <c r="W93" s="67" t="s">
         <v>8653</v>
       </c>
-      <c r="W93" s="67" t="s">
+      <c r="X93" s="67" t="s">
         <v>8654</v>
       </c>
-      <c r="X93" s="67" t="s">
+      <c r="Y93" s="67" t="s">
         <v>8655</v>
-      </c>
-      <c r="Y93" s="67" t="s">
-        <v>8656</v>
       </c>
       <c r="Z93"/>
       <c r="AA93"/>
@@ -39005,7 +39078,7 @@
         <v>1181</v>
       </c>
       <c r="H94" s="67" t="s">
-        <v>8646</v>
+        <v>8645</v>
       </c>
       <c r="I94" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39027,34 +39100,34 @@
         <v>4</v>
       </c>
       <c r="P94" s="67" t="s">
+        <v>8656</v>
+      </c>
+      <c r="Q94" s="67" t="s">
         <v>8657</v>
       </c>
-      <c r="Q94" s="67" t="s">
+      <c r="R94" s="67" t="s">
         <v>8658</v>
       </c>
-      <c r="R94" s="67" t="s">
+      <c r="S94" s="67" t="s">
         <v>8659</v>
       </c>
-      <c r="S94" s="67" t="s">
+      <c r="T94" s="67" t="s">
         <v>8660</v>
       </c>
-      <c r="T94" s="67" t="s">
+      <c r="U94" s="67" t="s">
         <v>8661</v>
       </c>
-      <c r="U94" s="67" t="s">
+      <c r="V94" s="67" t="s">
         <v>8662</v>
       </c>
-      <c r="V94" s="67" t="s">
+      <c r="W94" s="67" t="s">
         <v>8663</v>
       </c>
-      <c r="W94" s="67" t="s">
+      <c r="X94" s="67" t="s">
         <v>8664</v>
       </c>
-      <c r="X94" s="67" t="s">
+      <c r="Y94" s="67" t="s">
         <v>8665</v>
-      </c>
-      <c r="Y94" s="67" t="s">
-        <v>8666</v>
       </c>
       <c r="Z94"/>
       <c r="AA94"/>
@@ -39078,13 +39151,13 @@
         <v>4</v>
       </c>
       <c r="F95" s="66" t="s">
-        <v>8667</v>
+        <v>8666</v>
       </c>
       <c r="G95" s="67" t="s">
         <v>1327</v>
       </c>
       <c r="H95" s="67" t="s">
-        <v>8646</v>
+        <v>8645</v>
       </c>
       <c r="I95" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39109,19 +39182,19 @@
         <v>8457</v>
       </c>
       <c r="Q95" s="67" t="s">
+        <v>8667</v>
+      </c>
+      <c r="R95" s="67" t="s">
         <v>8668</v>
       </c>
-      <c r="R95" s="67" t="s">
+      <c r="S95" s="67" t="s">
         <v>8669</v>
-      </c>
-      <c r="S95" s="67" t="s">
-        <v>8670</v>
       </c>
       <c r="T95" s="67" t="s">
         <v>8483</v>
       </c>
       <c r="U95" s="67" t="s">
-        <v>8671</v>
+        <v>8670</v>
       </c>
       <c r="V95"/>
       <c r="W95"/>
@@ -39155,7 +39228,7 @@
         <v>1209</v>
       </c>
       <c r="H96" s="67" t="s">
-        <v>8646</v>
+        <v>8645</v>
       </c>
       <c r="I96" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39177,61 +39250,61 @@
         <v>4</v>
       </c>
       <c r="P96" s="67" t="s">
-        <v>8660</v>
+        <v>8659</v>
       </c>
       <c r="Q96" s="67" t="s">
         <v>8457</v>
       </c>
       <c r="R96" s="67" t="s">
-        <v>8669</v>
+        <v>8668</v>
       </c>
       <c r="S96" s="67" t="s">
+        <v>8671</v>
+      </c>
+      <c r="T96" s="67" t="s">
         <v>8672</v>
       </c>
-      <c r="T96" s="67" t="s">
+      <c r="U96" s="67" t="s">
         <v>8673</v>
       </c>
-      <c r="U96" s="67" t="s">
+      <c r="V96" s="67" t="s">
         <v>8674</v>
       </c>
-      <c r="V96" s="67" t="s">
+      <c r="W96" s="67" t="s">
         <v>8675</v>
       </c>
-      <c r="W96" s="67" t="s">
+      <c r="X96" s="67" t="s">
         <v>8676</v>
       </c>
-      <c r="X96" s="67" t="s">
+      <c r="Y96" s="67" t="s">
         <v>8677</v>
       </c>
-      <c r="Y96" s="67" t="s">
+      <c r="Z96" s="67" t="s">
         <v>8678</v>
       </c>
-      <c r="Z96" s="67" t="s">
+      <c r="AA96" s="67" t="s">
         <v>8679</v>
       </c>
-      <c r="AA96" s="67" t="s">
+      <c r="AB96" s="67" t="s">
         <v>8680</v>
       </c>
-      <c r="AB96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
         <v>8681</v>
       </c>
-      <c r="AC96" s="67" t="s">
+      <c r="AD96" s="67" t="s">
         <v>8682</v>
       </c>
-      <c r="AD96" s="67" t="s">
+      <c r="AE96" s="67" t="s">
         <v>8683</v>
       </c>
-      <c r="AE96" s="67" t="s">
+      <c r="AF96" s="67" t="s">
         <v>8684</v>
       </c>
-      <c r="AF96" s="67" t="s">
+      <c r="AG96" s="67" t="s">
         <v>8685</v>
       </c>
-      <c r="AG96" s="67" t="s">
+      <c r="AH96" s="67" t="s">
         <v>8686</v>
-      </c>
-      <c r="AH96" s="67" t="s">
-        <v>8687</v>
       </c>
       <c r="AI96"/>
       <c r="AJ96"/>
@@ -39252,7 +39325,7 @@
         <v>1203</v>
       </c>
       <c r="H97" s="67" t="s">
-        <v>8646</v>
+        <v>8645</v>
       </c>
       <c r="I97" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39276,28 +39349,28 @@
         <v>4</v>
       </c>
       <c r="P97" s="67" t="s">
+        <v>8687</v>
+      </c>
+      <c r="Q97" s="67" t="s">
         <v>8688</v>
-      </c>
-      <c r="Q97" s="67" t="s">
-        <v>8689</v>
       </c>
       <c r="R97" s="67" t="s">
         <v>8469</v>
       </c>
       <c r="S97" s="67" t="s">
+        <v>8689</v>
+      </c>
+      <c r="T97" s="67" t="s">
         <v>8690</v>
       </c>
-      <c r="T97" s="67" t="s">
+      <c r="U97" s="67" t="s">
         <v>8691</v>
       </c>
-      <c r="U97" s="67" t="s">
+      <c r="V97" s="67" t="s">
         <v>8692</v>
       </c>
-      <c r="V97" s="67" t="s">
+      <c r="W97" s="67" t="s">
         <v>8693</v>
-      </c>
-      <c r="W97" s="67" t="s">
-        <v>8694</v>
       </c>
       <c r="X97"/>
       <c r="Y97"/>
@@ -39329,7 +39402,7 @@
         <v>220</v>
       </c>
       <c r="H98" s="67" t="s">
-        <v>8695</v>
+        <v>8694</v>
       </c>
       <c r="I98" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39353,50 +39426,50 @@
         <v>4</v>
       </c>
       <c r="P98" s="67" t="s">
+        <v>8695</v>
+      </c>
+      <c r="Q98" s="67" t="s">
         <v>8696</v>
       </c>
-      <c r="Q98" s="67" t="s">
+      <c r="R98" s="67" t="s">
         <v>8697</v>
       </c>
-      <c r="R98" s="67" t="s">
+      <c r="S98" s="67" t="s">
         <v>8698</v>
-      </c>
-      <c r="S98" s="67" t="s">
-        <v>8699</v>
       </c>
       <c r="T98" s="67"/>
       <c r="U98" s="67" t="s">
+        <v>8699</v>
+      </c>
+      <c r="V98" s="67" t="s">
         <v>8700</v>
       </c>
-      <c r="V98" s="67" t="s">
+      <c r="W98" s="67" t="s">
         <v>8701</v>
       </c>
-      <c r="W98" s="67" t="s">
+      <c r="X98" s="67" t="s">
         <v>8702</v>
       </c>
-      <c r="X98" s="67" t="s">
+      <c r="Y98" s="67" t="s">
         <v>8703</v>
       </c>
-      <c r="Y98" s="67" t="s">
+      <c r="Z98" s="67" t="s">
         <v>8704</v>
       </c>
-      <c r="Z98" s="67" t="s">
+      <c r="AA98" s="67" t="s">
         <v>8705</v>
       </c>
-      <c r="AA98" s="67" t="s">
+      <c r="AB98" s="67" t="s">
         <v>8706</v>
       </c>
-      <c r="AB98" s="67" t="s">
+      <c r="AC98" s="67" t="s">
         <v>8707</v>
       </c>
-      <c r="AC98" s="67" t="s">
+      <c r="AD98" s="67" t="s">
         <v>8708</v>
       </c>
-      <c r="AD98" s="67" t="s">
+      <c r="AE98" s="67" t="s">
         <v>8709</v>
-      </c>
-      <c r="AE98" s="67" t="s">
-        <v>8710</v>
       </c>
       <c r="AF98"/>
       <c r="AG98"/>
@@ -39420,7 +39493,7 @@
         <v>220</v>
       </c>
       <c r="H99" s="67" t="s">
-        <v>8711</v>
+        <v>8710</v>
       </c>
       <c r="I99" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39442,29 +39515,29 @@
         <v>4</v>
       </c>
       <c r="P99" s="67" t="s">
+        <v>8711</v>
+      </c>
+      <c r="Q99" s="67" t="s">
         <v>8712</v>
       </c>
-      <c r="Q99" s="67" t="s">
+      <c r="R99" s="67" t="s">
         <v>8713</v>
       </c>
-      <c r="R99" s="67" t="s">
+      <c r="S99" s="67" t="s">
         <v>8714</v>
       </c>
-      <c r="S99" s="67" t="s">
+      <c r="T99" s="67" t="s">
         <v>8715</v>
       </c>
-      <c r="T99" s="67" t="s">
+      <c r="U99" s="67" t="s">
         <v>8716</v>
       </c>
-      <c r="U99" s="67" t="s">
+      <c r="V99" s="67" t="s">
         <v>8717</v>
-      </c>
-      <c r="V99" s="67" t="s">
-        <v>8718</v>
       </c>
       <c r="W99" s="67"/>
       <c r="X99" s="67" t="s">
-        <v>8719</v>
+        <v>8718</v>
       </c>
       <c r="Y99"/>
       <c r="Z99"/>
@@ -39489,13 +39562,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="66" t="s">
-        <v>8720</v>
+        <v>8719</v>
       </c>
       <c r="G100" s="67" t="s">
         <v>7541</v>
       </c>
       <c r="H100" s="67" t="s">
-        <v>8721</v>
+        <v>8720</v>
       </c>
       <c r="I100" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39517,25 +39590,25 @@
         <v>4</v>
       </c>
       <c r="P100" s="67" t="s">
+        <v>8721</v>
+      </c>
+      <c r="Q100" s="67" t="s">
         <v>8722</v>
       </c>
-      <c r="Q100" s="67" t="s">
+      <c r="R100" s="67" t="s">
         <v>8723</v>
       </c>
-      <c r="R100" s="67" t="s">
+      <c r="S100" s="67" t="s">
         <v>8724</v>
       </c>
-      <c r="S100" s="67" t="s">
+      <c r="T100" s="67" t="s">
         <v>8725</v>
       </c>
-      <c r="T100" s="67" t="s">
+      <c r="U100" s="67" t="s">
         <v>8726</v>
       </c>
-      <c r="U100" s="67" t="s">
+      <c r="V100" s="67" t="s">
         <v>8727</v>
-      </c>
-      <c r="V100" s="67" t="s">
-        <v>8728</v>
       </c>
       <c r="W100"/>
       <c r="X100"/>
@@ -39562,13 +39635,13 @@
         <v>10</v>
       </c>
       <c r="F101" s="66" t="s">
-        <v>8729</v>
+        <v>8728</v>
       </c>
       <c r="G101" s="67" t="s">
         <v>7542</v>
       </c>
       <c r="H101" s="67" t="s">
-        <v>8721</v>
+        <v>8720</v>
       </c>
       <c r="I101" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39624,13 +39697,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="66" t="s">
+        <v>8729</v>
+      </c>
+      <c r="G102" s="67" t="s">
         <v>8730</v>
       </c>
-      <c r="G102" s="67" t="s">
-        <v>8731</v>
-      </c>
       <c r="H102" s="67" t="s">
-        <v>8730</v>
+        <v>8729</v>
       </c>
       <c r="I102" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39652,10 +39725,10 @@
         <v>4</v>
       </c>
       <c r="P102" s="67" t="s">
+        <v>8731</v>
+      </c>
+      <c r="Q102" s="67" t="s">
         <v>8732</v>
-      </c>
-      <c r="Q102" s="67" t="s">
-        <v>8733</v>
       </c>
       <c r="R102" s="67" t="s">
         <v>8376</v>
@@ -41060,7 +41133,7 @@
   </sheetPr>
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
@@ -41104,7 +41177,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8588</v>
+        <v>8587</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41140,7 +41213,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8589</v>
+        <v>8588</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -41611,61 +41684,61 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8590</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8591</v>
+        <v>8590</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8592</v>
+        <v>8591</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8593</v>
+        <v>8592</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8594</v>
+        <v>8593</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8595</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8597</v>
+        <v>8596</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
+        <v>8597</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>8598</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>8599</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
+        <v>8599</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>8600</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>8601</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
+        <v>8601</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>8602</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>8603</v>
       </c>
     </row>
   </sheetData>
@@ -41687,7 +41760,7 @@
   <dimension ref="A1:K6104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41749,9 +41822,6 @@
       <c r="A10" s="35" t="s">
         <v>7527</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>8578</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
@@ -41784,7 +41854,7 @@
         <v>7522</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>8587</v>
+        <v>8586</v>
       </c>
       <c r="I15" s="62" t="s">
         <v>7910</v>
@@ -41801,16 +41871,16 @@
         <v>7521</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>8586</v>
+        <v>8585</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>8585</v>
+        <v>8584</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>8584</v>
+        <v>8583</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>8583</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -41818,16 +41888,16 @@
         <v>7520</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>8582</v>
+        <v>8581</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>8581</v>
+        <v>8580</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>8580</v>
+        <v>8579</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>8579</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -90588,10 +90658,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -90662,6 +90732,15 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8735</v>
       </c>
     </row>
   </sheetData>
@@ -90683,7 +90762,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\Dropbox\Personal\Minecraft\Minecraft Raw Data Share\06.07.2014 - alpha launch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\polycraft\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="15270" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9113" uniqueCount="8736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9111" uniqueCount="8736">
   <si>
     <t>Uuo</t>
   </si>
@@ -35257,11 +35257,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36157,6 +36157,7 @@
       <c r="F41" s="8" t="b">
         <v>0</v>
       </c>
+      <c r="G41" s="32"/>
       <c r="H41" s="8" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
@@ -36168,16 +36169,15 @@
         <v>1.0.0</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="32"/>
+        <v>1</v>
+      </c>
       <c r="H42" s="8" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
@@ -36189,18 +36189,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="32" t="str">
+        <f>Enums!$A$36</f>
+        <v>polycarbonate</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -36209,18 +36209,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="32" t="str">
-        <f>Enums!$A$36</f>
-        <v>polycarbonate</v>
+      <c r="H44" s="8" t="str">
+        <f>Enums!$A$50</f>
+        <v>synthetic rubber</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -36229,11 +36229,12 @@
         <v>1.0.0</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1288</v>
-      </c>
+        <v>1287</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D45" s="32"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="b">
         <v>0</v>
@@ -36245,23 +36246,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D46" s="32"/>
+        <v>1285</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1284</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H46" s="8" t="str">
-        <f>Enums!$A$50</f>
-        <v>synthetic rubber</v>
+        <f>Enums!$A$49</f>
+        <v>silicone</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -36270,18 +36270,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H47" s="8" t="str">
-        <f>Enums!$A$49</f>
-        <v>silicone</v>
+        <f>Enums!$A$35</f>
+        <v>polyamide</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -36290,18 +36290,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1282</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D48" s="32"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H48" s="8" t="str">
-        <f>Enums!$A$35</f>
-        <v>polyamide</v>
+        <f>Enums!$A$40</f>
+        <v>polyimide</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -36310,19 +36311,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D49" s="32"/>
+        <v>1279</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1277</v>
+      </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="8" t="str">
-        <f>Enums!$A$40</f>
-        <v>polyimide</v>
+      <c r="H49" s="32" t="str">
+        <f>Enums!$A$32</f>
+        <v>polyacrylate</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -36331,18 +36331,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>1277</v>
       </c>
+      <c r="D50" s="32"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="32" t="str">
-        <f>Enums!$A$32</f>
-        <v>polyacrylate</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="8" t="str">
+        <f>Enums!$A$38</f>
+        <v>polyester</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -36351,62 +36352,61 @@
         <v>1.0.0</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D51" s="32"/>
+        <v>1276</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H51" s="32" t="str">
+        <f>Enums!$A$39</f>
+        <v>polyether</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H52" s="32" t="str">
-        <f>Enums!$A$39</f>
-        <v>polyether</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H52" s="8" t="str">
+        <f>Enums!$A$46</f>
+        <v>polyurethane</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="8" t="str">
-        <f>Enums!$A$46</f>
-        <v>polyurethane</v>
+        <f>Enums!$A$38</f>
+        <v>polyester</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -36415,18 +36415,22 @@
         <v>1.0.0</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1271</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D54" s="32"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="8" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
+      <c r="G54" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>Enums!$A$39</f>
+        <v>polyether</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -36435,22 +36439,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D55" s="32"/>
+        <v>1268</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1267</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H55" s="1" t="str">
-        <f>Enums!$A$39</f>
-        <v>polyether</v>
+      <c r="H55" s="8" t="str">
+        <f>Enums!$A$34</f>
+        <v>polyalkene sulfide</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -36459,55 +36459,55 @@
         <v>1.0.0</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="8" t="str">
-        <f>Enums!$A$34</f>
-        <v>polyalkene sulfide</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G56" s="32"/>
+      <c r="H56" s="1" t="str">
+        <f>Enums!$A$38</f>
+        <v>polyester</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="32"/>
       <c r="H57" s="1" t="str">
         <f>Enums!$A$38</f>
         <v>polyester</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1" t="str">
         <f>Enums!$A$38</f>
@@ -36520,18 +36520,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1261</v>
-      </c>
+        <v>1260</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
+        <v>0</v>
+      </c>
+      <c r="H59" s="32" t="str">
+        <f>Enums!$A$35</f>
+        <v>polyamide</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -36540,10 +36541,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -36561,31 +36562,31 @@
         <v>1.0.0</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D61" s="8"/>
+        <v>1256</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D61" s="32"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="32" t="str">
-        <f>Enums!$A$35</f>
-        <v>polyamide</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f>Enums!$A$38</f>
+        <v>polyester</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="8"/>
@@ -36597,25 +36598,24 @@
         <v>polyester</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D63" s="32"/>
+        <v>1252</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1251</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
+        <v>0</v>
+      </c>
+      <c r="H63" s="8" t="str">
+        <f>Enums!$A$35</f>
+        <v>polyamide</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -36624,18 +36624,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H64" s="8" t="str">
-        <f>Enums!$A$35</f>
-        <v>polyamide</v>
+      <c r="H64" s="1" t="str">
+        <f>Enums!$A$32</f>
+        <v>polyacrylate</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -36644,10 +36644,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="b">
@@ -36664,18 +36664,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H66" s="1" t="str">
-        <f>Enums!$A$32</f>
-        <v>polyacrylate</v>
+      <c r="H66" s="32" t="str">
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -36684,18 +36684,21 @@
         <v>1.0.0</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>1244</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+      <c r="E67" s="32"/>
       <c r="F67" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="32" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
+      <c r="H67" s="8" t="str">
+        <f>Enums!$A$31</f>
+        <v>natural rubber</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -36704,21 +36707,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D68" s="8">
+        <v>1242</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8" t="str">
-        <f>Enums!$A$31</f>
-        <v>natural rubber</v>
+      <c r="H68" s="32" t="str">
+        <f>Enums!$A$38</f>
+        <v>polyester</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -36727,10 +36727,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="b">
@@ -36747,18 +36747,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="32" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
+        <f>Enums!$A$32</f>
+        <v>polyacrylate</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -36767,10 +36767,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8" t="b">
@@ -36787,10 +36787,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="b">
@@ -36807,18 +36807,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="32" t="str">
-        <f>Enums!$A$32</f>
-        <v>polyacrylate</v>
+      <c r="H73" s="1" t="str">
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -36827,18 +36827,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1231</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D74" s="32"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -36847,19 +36848,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D75" s="32"/>
+        <v>1228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1227</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H75" s="1" t="str">
-        <f>Enums!$A$43</f>
-        <v>polyphenol</v>
+      <c r="H75" s="32" t="str">
+        <f>Enums!$A$32</f>
+        <v>polyacrylate</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -36868,60 +36868,60 @@
         <v>1.0.0</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="32" t="str">
-        <f>Enums!$A$32</f>
-        <v>polyacrylate</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H76" s="1" t="str">
+        <f>Enums!$A$39</f>
+        <v>polyether</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="1" t="str">
-        <f>Enums!$A$39</f>
-        <v>polyether</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H77" s="8" t="str">
+        <f>Enums!$A$46</f>
+        <v>polyurethane</v>
+      </c>
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H78" s="8" t="str">
-        <f>Enums!$A$46</f>
-        <v>polyurethane</v>
-      </c>
-      <c r="I78" s="32"/>
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
@@ -36929,10 +36929,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1211</v>
+        <v>1220</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8" t="b">
@@ -36949,18 +36949,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1220</v>
-      </c>
+        <v>1219</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H80" s="8" t="str">
-        <f>Enums!$A$43</f>
-        <v>polyphenol</v>
+        <f>Enums!$A$30</f>
+        <v>inorganic-organic polymer</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -36969,19 +36970,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D81" s="8"/>
+        <v>1217</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1216</v>
+      </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H81" s="8" t="str">
-        <f>Enums!$A$30</f>
-        <v>inorganic-organic polymer</v>
+      <c r="H81" s="1" t="str">
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -36990,18 +36990,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
+        <f>Enums!$A$43</f>
+        <v>polyphenol</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -37010,10 +37010,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="b">
@@ -37030,18 +37030,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>Enums!$A$43</f>
-        <v>polyphenol</v>
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -37050,18 +37050,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
+        <f>Enums!$A$39</f>
+        <v>polyether</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -37070,10 +37070,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8" t="b">
@@ -37090,18 +37090,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>Enums!$A$39</f>
-        <v>polyether</v>
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -37110,18 +37110,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H88" s="1" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
+      <c r="H88" s="32" t="str">
+        <f>Enums!$A$32</f>
+        <v>polyacrylate</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -37130,18 +37130,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1201</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H89" s="32" t="str">
-        <f>Enums!$A$32</f>
-        <v>polyacrylate</v>
+      <c r="H89" s="8" t="str">
+        <f>Enums!$A$28</f>
+        <v>fluoropolymer</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -37150,19 +37151,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D90" s="8"/>
+        <v>1198</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D90" s="32"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H90" s="8" t="str">
-        <f>Enums!$A$28</f>
-        <v>fluoropolymer</v>
+      <c r="H90" s="1" t="str">
+        <f>Enums!$A$39</f>
+        <v>polyether</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -37171,12 +37172,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D91" s="32"/>
+        <v>1196</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1195</v>
+      </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="b">
         <v>0</v>
@@ -37192,18 +37192,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H92" s="1" t="str">
-        <f>Enums!$A$39</f>
-        <v>polyether</v>
+      <c r="H92" s="8" t="str">
+        <f>Enums!$A$29</f>
+        <v>inorganic polymer</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -37212,18 +37212,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H93" s="8" t="str">
-        <f>Enums!$A$29</f>
-        <v>inorganic polymer</v>
+        <f>Enums!$A$38</f>
+        <v>polyester</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -37232,18 +37232,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1191</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="8" t="str">
-        <f>Enums!$A$38</f>
-        <v>polyester</v>
+        <f>Enums!$A$46</f>
+        <v>polyurethane</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -37252,19 +37253,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D95" s="8"/>
+        <v>1188</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D95" s="32"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="8" t="str">
-        <f>Enums!$A$46</f>
-        <v>polyurethane</v>
+        <f>Enums!$A$48</f>
+        <v>polyvinyl ester</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -37273,19 +37274,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D96" s="32"/>
+        <v>1186</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1185</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="8" t="str">
-        <f>Enums!$A$48</f>
-        <v>polyvinyl ester</v>
+        <f>Enums!$A$47</f>
+        <v>polyvinyl</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -37294,17 +37294,17 @@
         <v>1.0.0</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="8" t="str">
-        <f>Enums!$A$47</f>
+        <f>[1]Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37314,18 +37314,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H98" s="8" t="str">
-        <f>[1]Enums!$A$47</f>
-        <v>polyvinyl</v>
+      <c r="H98" s="1" t="str">
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -37334,18 +37334,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>1181</v>
-      </c>
+        <v>1180</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D99" s="32"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H99" s="1" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
+      <c r="H99" s="8" t="str">
+        <f>Enums!$A$48</f>
+        <v>polyvinyl ester</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -37354,19 +37355,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D100" s="32"/>
+        <v>1178</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1177</v>
+      </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H100" s="8" t="str">
-        <f>Enums!$A$48</f>
-        <v>polyvinyl ester</v>
+        <f>Enums!$A$28</f>
+        <v>fluoropolymer</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -37375,18 +37375,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H101" s="8" t="str">
-        <f>Enums!$A$28</f>
-        <v>fluoropolymer</v>
+        <f>[1]Enums!$A$47</f>
+        <v>polyvinyl</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -37395,10 +37395,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="b">
@@ -37415,10 +37415,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="b">
@@ -37435,30 +37435,30 @@
         <v>1.0.0</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H104" s="8" t="str">
-        <f>[1]Enums!$A$47</f>
-        <v>polyvinyl</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <f>Enums!$A$28</f>
+        <v>fluoropolymer</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="b">
@@ -37469,24 +37469,24 @@
         <v>fluoropolymer</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E106" s="8"/>
+        <v>1165</v>
+      </c>
+      <c r="E106" s="32"/>
       <c r="F106" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H106" s="8" t="str">
-        <f>Enums!$A$28</f>
-        <v>fluoropolymer</v>
+        <f>Enums!$A$50</f>
+        <v>synthetic rubber</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -37495,12 +37495,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E107" s="32"/>
+        <v>1163</v>
+      </c>
       <c r="F107" s="8" t="b">
         <v>0</v>
       </c>
@@ -37515,10 +37514,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F108" s="8" t="b">
         <v>0</v>
@@ -37534,10 +37533,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F109" s="8" t="b">
         <v>0</v>
@@ -37553,11 +37552,12 @@
         <v>1.0.0</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1159</v>
-      </c>
+        <v>1157</v>
+      </c>
+      <c r="E110" s="32"/>
       <c r="F110" s="8" t="b">
         <v>0</v>
       </c>
@@ -37566,71 +37566,71 @@
         <v>synthetic rubber</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E111" s="32"/>
+        <v>1155</v>
+      </c>
+      <c r="E111" s="8"/>
       <c r="F111" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H111" s="8" t="str">
-        <f>Enums!$A$50</f>
-        <v>synthetic rubber</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H111" s="1" t="str">
+        <f>Enums!$A$42</f>
+        <v>polyolefin</v>
+      </c>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E112" s="8"/>
+        <v>1153</v>
+      </c>
+      <c r="E112" s="32"/>
       <c r="F112" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H112" s="1" t="str">
+      <c r="H112" s="32" t="str">
+        <f>Enums!$A$33</f>
+        <v>polyaldehyde</v>
+      </c>
+      <c r="I112" s="8" t="str">
+        <f>Enums!$A$35</f>
+        <v>polyamide</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1" t="str">
         <f>Enums!$A$42</f>
         <v>polyolefin</v>
       </c>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" s="32" t="str">
-        <f>Enums!$A$33</f>
-        <v>polyaldehyde</v>
-      </c>
-      <c r="I113" s="8" t="str">
-        <f>Enums!$A$35</f>
-        <v>polyamide</v>
-      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
@@ -37638,54 +37638,34 @@
         <v>1.0.0</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E114" s="8"/>
+        <v>1149</v>
+      </c>
+      <c r="E114" s="32"/>
       <c r="F114" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H114" s="1" t="str">
-        <f>Enums!$A$42</f>
-        <v>polyolefin</v>
-      </c>
+      <c r="H114" s="8" t="str">
+        <f>Enums!$A$32</f>
+        <v>polyacrylate</v>
+      </c>
+      <c r="I114" s="8" t="str">
+        <f>Enums!$A$47</f>
+        <v>polyvinyl</v>
+      </c>
+      <c r="J114" s="8"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B115" s="33" t="s">
-        <v>1150</v>
+      <c r="B115" s="1" t="s">
+        <v>8734</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" s="8" t="str">
-        <f>Enums!$A$32</f>
-        <v>polyacrylate</v>
-      </c>
-      <c r="I115" s="8" t="str">
-        <f>Enums!$A$47</f>
-        <v>polyvinyl</v>
-      </c>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8734</v>
-      </c>
-      <c r="C116" s="1" t="s">
         <v>8733</v>
       </c>
     </row>
@@ -41759,7 +41739,7 @@
   </sheetPr>
   <dimension ref="A1:K6104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\polycraft\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\polycraft1.0.0-1.7.2-10.12.2.1121\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="16830" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9111" uniqueCount="8736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9099" uniqueCount="8724">
   <si>
     <t>Uuo</t>
   </si>
@@ -22827,42 +22827,6 @@
   </si>
   <si>
     <t>114</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>10Z</t>
-  </si>
-  <si>
-    <t>10Y</t>
-  </si>
-  <si>
-    <t>10X</t>
-  </si>
-  <si>
-    <t>10W</t>
-  </si>
-  <si>
-    <t>10V</t>
-  </si>
-  <si>
-    <t>10U</t>
-  </si>
-  <si>
-    <t>10T</t>
-  </si>
-  <si>
-    <t>10S</t>
   </si>
   <si>
     <t>10F</t>
@@ -27697,22 +27661,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8534</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8535</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8536</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8537</v>
+        <v>8525</v>
       </c>
     </row>
   </sheetData>
@@ -27733,7 +27697,7 @@
   <dimension ref="A1:J338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E327" sqref="E327"/>
@@ -29354,10 +29318,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8516</v>
+        <v>8504</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8514</v>
+        <v>8502</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -29369,7 +29333,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>8517</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -31137,10 +31101,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>8549</v>
+        <v>8537</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>8550</v>
+        <v>8538</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$3</f>
@@ -31825,10 +31789,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8551</v>
+        <v>8539</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>8552</v>
+        <v>8540</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31845,10 +31809,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8553</v>
+        <v>8541</v>
       </c>
       <c r="C182" t="s">
-        <v>8560</v>
+        <v>8548</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31856,7 +31820,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8567</v>
+        <v>8555</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -31867,10 +31831,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8554</v>
+        <v>8542</v>
       </c>
       <c r="C183" t="s">
-        <v>8561</v>
+        <v>8549</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31878,7 +31842,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8568</v>
+        <v>8556</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -31889,10 +31853,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8559</v>
+        <v>8547</v>
       </c>
       <c r="C184" t="s">
-        <v>8562</v>
+        <v>8550</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31900,7 +31864,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8569</v>
+        <v>8557</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -31911,10 +31875,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8558</v>
+        <v>8546</v>
       </c>
       <c r="C185" t="s">
-        <v>8563</v>
+        <v>8551</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31922,7 +31886,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8570</v>
+        <v>8558</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -31933,10 +31897,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8557</v>
+        <v>8545</v>
       </c>
       <c r="C186" t="s">
-        <v>8564</v>
+        <v>8552</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31944,7 +31908,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8571</v>
+        <v>8559</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -31955,10 +31919,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8556</v>
+        <v>8544</v>
       </c>
       <c r="C187" t="s">
-        <v>8565</v>
+        <v>8553</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31966,7 +31930,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8572</v>
+        <v>8560</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -31977,10 +31941,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8555</v>
+        <v>8543</v>
       </c>
       <c r="C188" t="s">
-        <v>8566</v>
+        <v>8554</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31988,7 +31952,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8573</v>
+        <v>8561</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -33324,7 +33288,7 @@
         <v>492</v>
       </c>
       <c r="C248" s="57" t="s">
-        <v>8512</v>
+        <v>8500</v>
       </c>
       <c r="D248" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -33332,11 +33296,11 @@
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12" t="s">
-        <v>8515</v>
+        <v>8503</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12" t="s">
-        <v>8513</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -34049,7 +34013,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8546</v>
+        <v>8534</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -34067,7 +34031,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8547</v>
+        <v>8535</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -34085,7 +34049,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8548</v>
+        <v>8536</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -34904,7 +34868,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>8595</v>
+        <v>8583</v>
       </c>
       <c r="C318" s="14"/>
       <c r="D318" s="12" t="str">
@@ -35207,7 +35171,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>8447</v>
+        <v>8435</v>
       </c>
       <c r="D335" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35220,7 +35184,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8448</v>
+        <v>8436</v>
       </c>
       <c r="D336" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35233,7 +35197,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8508</v>
+        <v>8496</v>
       </c>
       <c r="D337" s="12" t="s">
         <v>1431</v>
@@ -35259,7 +35223,7 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
@@ -35789,7 +35753,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8538</v>
+        <v>8526</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1326</v>
@@ -36045,7 +36009,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8540</v>
+        <v>8528</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1304</v>
@@ -37663,10 +37627,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8734</v>
+        <v>8722</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8733</v>
+        <v>8721</v>
       </c>
     </row>
   </sheetData>
@@ -37704,7 +37668,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8533</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -37713,7 +37677,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>8421</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -37722,7 +37686,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>8377</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -37731,7 +37695,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>8375</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -37740,7 +37704,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>8376</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -37749,7 +37713,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>8422</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -37758,7 +37722,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>8374</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -37767,7 +37731,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>8373</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -37776,7 +37740,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>8423</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -37785,7 +37749,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>8424</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -37794,7 +37758,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>8425</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -37803,7 +37767,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8511</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -37812,7 +37776,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8545</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -37833,10 +37797,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37855,25 +37819,25 @@
         <v>Version</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>8525</v>
+        <v>8513</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>8526</v>
+        <v>8514</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>8527</v>
+        <v>8515</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>8544</v>
+        <v>8532</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>8528</v>
+        <v>8516</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>8529</v>
+        <v>8517</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>8530</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -37958,6 +37922,40 @@
       <c r="G4">
         <v>5</v>
       </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B7" si="1">D5</f>
+        <v>Methane</v>
+      </c>
+      <c r="C5" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D5" t="str">
+        <f>Compounds!B193</f>
+        <v>Methane</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="2" xml:space="preserve"> E4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37993,15 +37991,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8420</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>8419</v>
+        <v>8407</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8418</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -38009,7 +38007,7 @@
         <v>263</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8417</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -38017,7 +38015,7 @@
         <v>264</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8416</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -38026,107 +38024,107 @@
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>8415</v>
+        <v>8403</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8414</v>
+        <v>8402</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>8413</v>
+        <v>8401</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>8412</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>8411</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>8410</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>8409</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>8408</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>8407</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>8406</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>8405</v>
+        <v>8393</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>8404</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>8403</v>
+        <v>8391</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>8402</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>8401</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>8400</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>8399</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>8398</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>8397</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>8396</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38137,141 +38135,141 @@
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>8395</v>
+        <v>8383</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>8394</v>
+        <v>8382</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>8393</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>8392</v>
+        <v>8380</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1390</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>8391</v>
+        <v>8379</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>8390</v>
+        <v>8378</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>8389</v>
+        <v>8377</v>
       </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>8388</v>
+        <v>8376</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1389</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>8387</v>
+        <v>8375</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>8386</v>
+        <v>8374</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>8385</v>
+        <v>8373</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>8384</v>
+        <v>8372</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>8383</v>
+        <v>8371</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>8382</v>
+        <v>8370</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>8381</v>
+        <v>8369</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>8380</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>8379</v>
+        <v>8367</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>8378</v>
+        <v>8366</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>8377</v>
+        <v>8365</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>8376</v>
+        <v>8364</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>8375</v>
+        <v>8363</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>8374</v>
+        <v>8362</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>8373</v>
+        <v>8361</v>
       </c>
       <c r="I30" s="47" t="s">
-        <v>8372</v>
+        <v>8360</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>8371</v>
+        <v>8359</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>8370</v>
+        <v>8358</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>8369</v>
+        <v>8357</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>8368</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>8367</v>
+        <v>8355</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1384</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>8366</v>
+        <v>8354</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>8365</v>
+        <v>8353</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>8364</v>
+        <v>8352</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>8363</v>
+        <v>8351</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>7542</v>
+        <v>7530</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>8362</v>
+        <v>8350</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>8361</v>
+        <v>8349</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>8360</v>
+        <v>8348</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>8359</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>8358</v>
+        <v>8346</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1383</v>
@@ -38290,7 +38288,7 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>8357</v>
+        <v>8345</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1382</v>
@@ -38301,7 +38299,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>8356</v>
+        <v>8344</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>1381</v>
@@ -38322,29 +38320,29 @@
         <v>1365</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>7541</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>8355</v>
+        <v>8343</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>1380</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>8354</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>8353</v>
+        <v>8341</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8352</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38355,7 +38353,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="30" t="s">
-        <v>8351</v>
+        <v>8339</v>
       </c>
       <c r="C39" s="6"/>
     </row>
@@ -38364,10 +38362,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>8350</v>
+        <v>8338</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>8348</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -38375,10 +38373,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>8349</v>
+        <v>8337</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8348</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -38390,7 +38388,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>8347</v>
+        <v>8335</v>
       </c>
       <c r="C43" s="7"/>
     </row>
@@ -38399,7 +38397,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>8346</v>
+        <v>8334</v>
       </c>
       <c r="C44" s="7"/>
     </row>
@@ -38408,7 +38406,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>8345</v>
+        <v>8333</v>
       </c>
       <c r="C45" s="7"/>
     </row>
@@ -38417,7 +38415,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>8344</v>
+        <v>8332</v>
       </c>
       <c r="C46" s="7"/>
     </row>
@@ -38426,7 +38424,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>8343</v>
+        <v>8331</v>
       </c>
       <c r="C47" s="7"/>
     </row>
@@ -38435,7 +38433,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>8342</v>
+        <v>8330</v>
       </c>
       <c r="C48" s="7"/>
     </row>
@@ -38448,7 +38446,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>8341</v>
+        <v>8329</v>
       </c>
       <c r="C50" s="7"/>
     </row>
@@ -38457,7 +38455,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>8340</v>
+        <v>8328</v>
       </c>
       <c r="C51" s="7"/>
     </row>
@@ -38466,7 +38464,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>8339</v>
+        <v>8327</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -38475,7 +38473,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>8338</v>
+        <v>8326</v>
       </c>
       <c r="C53" s="7"/>
     </row>
@@ -38484,7 +38482,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>8337</v>
+        <v>8325</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -38493,7 +38491,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>8336</v>
+        <v>8324</v>
       </c>
       <c r="C55" s="7"/>
     </row>
@@ -38502,7 +38500,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>8335</v>
+        <v>8323</v>
       </c>
       <c r="C56" s="7"/>
     </row>
@@ -38511,7 +38509,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>8334</v>
+        <v>8322</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -38520,7 +38518,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>8333</v>
+        <v>8321</v>
       </c>
       <c r="C58" s="7"/>
     </row>
@@ -38529,7 +38527,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>8332</v>
+        <v>8320</v>
       </c>
       <c r="C59" s="7"/>
     </row>
@@ -38538,7 +38536,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>8331</v>
+        <v>8319</v>
       </c>
       <c r="C60" s="7"/>
     </row>
@@ -38547,7 +38545,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>8330</v>
+        <v>8318</v>
       </c>
       <c r="C61" s="7"/>
     </row>
@@ -38556,7 +38554,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>8329</v>
+        <v>8317</v>
       </c>
       <c r="C62" s="7"/>
     </row>
@@ -38565,7 +38563,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>8328</v>
+        <v>8316</v>
       </c>
       <c r="C63" s="7"/>
     </row>
@@ -38574,7 +38572,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>8327</v>
+        <v>8315</v>
       </c>
       <c r="C64" s="7"/>
     </row>
@@ -38587,7 +38585,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>8326</v>
+        <v>8314</v>
       </c>
       <c r="C66" s="7"/>
     </row>
@@ -38596,7 +38594,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>8325</v>
+        <v>8313</v>
       </c>
       <c r="C67" s="7"/>
     </row>
@@ -38605,7 +38603,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>8324</v>
+        <v>8312</v>
       </c>
       <c r="C68" s="7"/>
     </row>
@@ -38614,7 +38612,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>8323</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38622,7 +38620,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>8322</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38630,7 +38628,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>8321</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38638,7 +38636,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>8320</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38646,7 +38644,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>8319</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38654,7 +38652,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>8318</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38662,7 +38660,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>8317</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38670,7 +38668,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>8316</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -38678,7 +38676,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>8315</v>
+        <v>8303</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -38687,7 +38685,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>8539</v>
+        <v>8527</v>
       </c>
       <c r="D78" s="8"/>
     </row>
@@ -38699,7 +38697,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>8314</v>
+        <v>8302</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -38708,7 +38706,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>8313</v>
+        <v>8301</v>
       </c>
       <c r="E81" s="8"/>
     </row>
@@ -38717,7 +38715,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>8312</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="83" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -38725,7 +38723,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>8311</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -38733,7 +38731,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>8542</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -38741,7 +38739,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>8543</v>
+        <v>8531</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -38750,7 +38748,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>8310</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -38758,7 +38756,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>8309</v>
+        <v>8297</v>
       </c>
       <c r="E87" s="8"/>
     </row>
@@ -38779,7 +38777,7 @@
         <v>1375</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>8603</v>
+        <v>8591</v>
       </c>
       <c r="G91" s="64" t="s">
         <v>1377</v>
@@ -38788,25 +38786,25 @@
         <v>1414</v>
       </c>
       <c r="I91" s="64" t="s">
-        <v>8604</v>
+        <v>8592</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>8605</v>
+        <v>8593</v>
       </c>
       <c r="K91" s="64" t="s">
         <v>1374</v>
       </c>
       <c r="L91" s="64" t="s">
-        <v>8606</v>
+        <v>8594</v>
       </c>
       <c r="M91" s="64" t="s">
         <v>1373</v>
       </c>
       <c r="N91" s="64" t="s">
-        <v>8607</v>
+        <v>8595</v>
       </c>
       <c r="O91" s="64" t="s">
-        <v>8608</v>
+        <v>8596</v>
       </c>
       <c r="P91" s="64" t="s">
         <v>1372</v>
@@ -38821,67 +38819,67 @@
         <v>1369</v>
       </c>
       <c r="T91" s="64" t="s">
+        <v>8597</v>
+      </c>
+      <c r="U91" s="64" t="s">
+        <v>8598</v>
+      </c>
+      <c r="V91" s="64" t="s">
+        <v>8599</v>
+      </c>
+      <c r="W91" s="64" t="s">
+        <v>8600</v>
+      </c>
+      <c r="X91" s="64" t="s">
+        <v>8601</v>
+      </c>
+      <c r="Y91" s="64" t="s">
+        <v>8602</v>
+      </c>
+      <c r="Z91" s="64" t="s">
+        <v>8603</v>
+      </c>
+      <c r="AA91" s="64" t="s">
+        <v>8604</v>
+      </c>
+      <c r="AB91" s="64" t="s">
+        <v>8605</v>
+      </c>
+      <c r="AC91" s="64" t="s">
+        <v>8606</v>
+      </c>
+      <c r="AD91" s="64" t="s">
+        <v>8607</v>
+      </c>
+      <c r="AE91" s="64" t="s">
+        <v>8608</v>
+      </c>
+      <c r="AF91" s="64" t="s">
         <v>8609</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8610</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8611</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8612</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8613</v>
       </c>
-      <c r="Y91" s="64" t="s">
+      <c r="AK91" s="64" t="s">
         <v>8614</v>
       </c>
-      <c r="Z91" s="64" t="s">
+      <c r="AL91" s="64" t="s">
         <v>8615</v>
       </c>
-      <c r="AA91" s="64" t="s">
+      <c r="AM91" s="64" t="s">
         <v>8616</v>
       </c>
-      <c r="AB91" s="64" t="s">
+      <c r="AN91" s="64" t="s">
         <v>8617</v>
-      </c>
-      <c r="AC91" s="64" t="s">
-        <v>8618</v>
-      </c>
-      <c r="AD91" s="64" t="s">
-        <v>8619</v>
-      </c>
-      <c r="AE91" s="64" t="s">
-        <v>8620</v>
-      </c>
-      <c r="AF91" s="64" t="s">
-        <v>8621</v>
-      </c>
-      <c r="AG91" s="64" t="s">
-        <v>8622</v>
-      </c>
-      <c r="AH91" s="64" t="s">
-        <v>8623</v>
-      </c>
-      <c r="AI91" s="64" t="s">
-        <v>8624</v>
-      </c>
-      <c r="AJ91" s="64" t="s">
-        <v>8625</v>
-      </c>
-      <c r="AK91" s="64" t="s">
-        <v>8626</v>
-      </c>
-      <c r="AL91" s="64" t="s">
-        <v>8627</v>
-      </c>
-      <c r="AM91" s="64" t="s">
-        <v>8628</v>
-      </c>
-      <c r="AN91" s="64" t="s">
-        <v>8629</v>
       </c>
     </row>
     <row r="92" spans="1:40" ht="39" x14ac:dyDescent="0.25">
@@ -38890,13 +38888,13 @@
         <v>1</v>
       </c>
       <c r="F92" s="66" t="s">
-        <v>8630</v>
+        <v>8618</v>
       </c>
       <c r="G92" s="67" t="s">
         <v>1265</v>
       </c>
       <c r="H92" s="67" t="s">
-        <v>8631</v>
+        <v>8619</v>
       </c>
       <c r="I92" s="66" t="str">
         <f>"Fiber ("&amp;F92&amp;")"</f>
@@ -38918,40 +38916,40 @@
         <v>4</v>
       </c>
       <c r="P92" s="67" t="s">
-        <v>8632</v>
+        <v>8620</v>
       </c>
       <c r="Q92" s="67" t="s">
-        <v>8633</v>
+        <v>8621</v>
       </c>
       <c r="R92" s="67" t="s">
-        <v>8634</v>
+        <v>8622</v>
       </c>
       <c r="S92" s="67" t="s">
-        <v>8635</v>
+        <v>8623</v>
       </c>
       <c r="T92" s="67" t="s">
-        <v>8636</v>
+        <v>8624</v>
       </c>
       <c r="U92" s="67" t="s">
-        <v>8637</v>
+        <v>8625</v>
       </c>
       <c r="V92" s="67" t="s">
-        <v>8638</v>
+        <v>8626</v>
       </c>
       <c r="W92" s="67" t="s">
-        <v>8639</v>
+        <v>8627</v>
       </c>
       <c r="X92" s="67" t="s">
-        <v>8640</v>
+        <v>8628</v>
       </c>
       <c r="Y92" s="67" t="s">
-        <v>8641</v>
+        <v>8629</v>
       </c>
       <c r="Z92" s="67" t="s">
-        <v>8642</v>
+        <v>8630</v>
       </c>
       <c r="AA92" s="67" t="s">
-        <v>8643</v>
+        <v>8631</v>
       </c>
       <c r="AB92"/>
       <c r="AC92"/>
@@ -38973,13 +38971,13 @@
         <v>2</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>8644</v>
+        <v>8632</v>
       </c>
       <c r="G93" s="67" t="s">
         <v>1339</v>
       </c>
       <c r="H93" s="67" t="s">
-        <v>8645</v>
+        <v>8633</v>
       </c>
       <c r="I93" s="66" t="str">
         <f t="shared" ref="I93:I102" si="1">"Fiber ("&amp;F93&amp;")"</f>
@@ -39001,34 +38999,34 @@
         <v>4</v>
       </c>
       <c r="P93" s="67" t="s">
-        <v>8646</v>
+        <v>8634</v>
       </c>
       <c r="Q93" s="67" t="s">
-        <v>8647</v>
+        <v>8635</v>
       </c>
       <c r="R93" s="67" t="s">
-        <v>8648</v>
+        <v>8636</v>
       </c>
       <c r="S93" s="67" t="s">
-        <v>8649</v>
+        <v>8637</v>
       </c>
       <c r="T93" s="67" t="s">
-        <v>8650</v>
+        <v>8638</v>
       </c>
       <c r="U93" s="67" t="s">
-        <v>8651</v>
+        <v>8639</v>
       </c>
       <c r="V93" s="67" t="s">
-        <v>8652</v>
+        <v>8640</v>
       </c>
       <c r="W93" s="67" t="s">
-        <v>8653</v>
+        <v>8641</v>
       </c>
       <c r="X93" s="67" t="s">
-        <v>8654</v>
+        <v>8642</v>
       </c>
       <c r="Y93" s="67" t="s">
-        <v>8655</v>
+        <v>8643</v>
       </c>
       <c r="Z93"/>
       <c r="AA93"/>
@@ -39058,7 +39056,7 @@
         <v>1181</v>
       </c>
       <c r="H94" s="67" t="s">
-        <v>8645</v>
+        <v>8633</v>
       </c>
       <c r="I94" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39080,34 +39078,34 @@
         <v>4</v>
       </c>
       <c r="P94" s="67" t="s">
-        <v>8656</v>
+        <v>8644</v>
       </c>
       <c r="Q94" s="67" t="s">
-        <v>8657</v>
+        <v>8645</v>
       </c>
       <c r="R94" s="67" t="s">
-        <v>8658</v>
+        <v>8646</v>
       </c>
       <c r="S94" s="67" t="s">
-        <v>8659</v>
+        <v>8647</v>
       </c>
       <c r="T94" s="67" t="s">
-        <v>8660</v>
+        <v>8648</v>
       </c>
       <c r="U94" s="67" t="s">
-        <v>8661</v>
+        <v>8649</v>
       </c>
       <c r="V94" s="67" t="s">
-        <v>8662</v>
+        <v>8650</v>
       </c>
       <c r="W94" s="67" t="s">
-        <v>8663</v>
+        <v>8651</v>
       </c>
       <c r="X94" s="67" t="s">
-        <v>8664</v>
+        <v>8652</v>
       </c>
       <c r="Y94" s="67" t="s">
-        <v>8665</v>
+        <v>8653</v>
       </c>
       <c r="Z94"/>
       <c r="AA94"/>
@@ -39131,13 +39129,13 @@
         <v>4</v>
       </c>
       <c r="F95" s="66" t="s">
-        <v>8666</v>
+        <v>8654</v>
       </c>
       <c r="G95" s="67" t="s">
         <v>1327</v>
       </c>
       <c r="H95" s="67" t="s">
-        <v>8645</v>
+        <v>8633</v>
       </c>
       <c r="I95" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39159,22 +39157,22 @@
         <v>4</v>
       </c>
       <c r="P95" s="67" t="s">
-        <v>8457</v>
+        <v>8445</v>
       </c>
       <c r="Q95" s="67" t="s">
-        <v>8667</v>
+        <v>8655</v>
       </c>
       <c r="R95" s="67" t="s">
-        <v>8668</v>
+        <v>8656</v>
       </c>
       <c r="S95" s="67" t="s">
-        <v>8669</v>
+        <v>8657</v>
       </c>
       <c r="T95" s="67" t="s">
-        <v>8483</v>
+        <v>8471</v>
       </c>
       <c r="U95" s="67" t="s">
-        <v>8670</v>
+        <v>8658</v>
       </c>
       <c r="V95"/>
       <c r="W95"/>
@@ -39208,7 +39206,7 @@
         <v>1209</v>
       </c>
       <c r="H96" s="67" t="s">
-        <v>8645</v>
+        <v>8633</v>
       </c>
       <c r="I96" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39230,61 +39228,61 @@
         <v>4</v>
       </c>
       <c r="P96" s="67" t="s">
+        <v>8647</v>
+      </c>
+      <c r="Q96" s="67" t="s">
+        <v>8445</v>
+      </c>
+      <c r="R96" s="67" t="s">
+        <v>8656</v>
+      </c>
+      <c r="S96" s="67" t="s">
         <v>8659</v>
       </c>
-      <c r="Q96" s="67" t="s">
-        <v>8457</v>
-      </c>
-      <c r="R96" s="67" t="s">
+      <c r="T96" s="67" t="s">
+        <v>8660</v>
+      </c>
+      <c r="U96" s="67" t="s">
+        <v>8661</v>
+      </c>
+      <c r="V96" s="67" t="s">
+        <v>8662</v>
+      </c>
+      <c r="W96" s="67" t="s">
+        <v>8663</v>
+      </c>
+      <c r="X96" s="67" t="s">
+        <v>8664</v>
+      </c>
+      <c r="Y96" s="67" t="s">
+        <v>8665</v>
+      </c>
+      <c r="Z96" s="67" t="s">
+        <v>8666</v>
+      </c>
+      <c r="AA96" s="67" t="s">
+        <v>8667</v>
+      </c>
+      <c r="AB96" s="67" t="s">
         <v>8668</v>
       </c>
-      <c r="S96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
+        <v>8669</v>
+      </c>
+      <c r="AD96" s="67" t="s">
+        <v>8670</v>
+      </c>
+      <c r="AE96" s="67" t="s">
         <v>8671</v>
       </c>
-      <c r="T96" s="67" t="s">
+      <c r="AF96" s="67" t="s">
         <v>8672</v>
       </c>
-      <c r="U96" s="67" t="s">
+      <c r="AG96" s="67" t="s">
         <v>8673</v>
       </c>
-      <c r="V96" s="67" t="s">
+      <c r="AH96" s="67" t="s">
         <v>8674</v>
-      </c>
-      <c r="W96" s="67" t="s">
-        <v>8675</v>
-      </c>
-      <c r="X96" s="67" t="s">
-        <v>8676</v>
-      </c>
-      <c r="Y96" s="67" t="s">
-        <v>8677</v>
-      </c>
-      <c r="Z96" s="67" t="s">
-        <v>8678</v>
-      </c>
-      <c r="AA96" s="67" t="s">
-        <v>8679</v>
-      </c>
-      <c r="AB96" s="67" t="s">
-        <v>8680</v>
-      </c>
-      <c r="AC96" s="67" t="s">
-        <v>8681</v>
-      </c>
-      <c r="AD96" s="67" t="s">
-        <v>8682</v>
-      </c>
-      <c r="AE96" s="67" t="s">
-        <v>8683</v>
-      </c>
-      <c r="AF96" s="67" t="s">
-        <v>8684</v>
-      </c>
-      <c r="AG96" s="67" t="s">
-        <v>8685</v>
-      </c>
-      <c r="AH96" s="67" t="s">
-        <v>8686</v>
       </c>
       <c r="AI96"/>
       <c r="AJ96"/>
@@ -39305,7 +39303,7 @@
         <v>1203</v>
       </c>
       <c r="H97" s="67" t="s">
-        <v>8645</v>
+        <v>8633</v>
       </c>
       <c r="I97" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39329,28 +39327,28 @@
         <v>4</v>
       </c>
       <c r="P97" s="67" t="s">
-        <v>8687</v>
+        <v>8675</v>
       </c>
       <c r="Q97" s="67" t="s">
-        <v>8688</v>
+        <v>8676</v>
       </c>
       <c r="R97" s="67" t="s">
-        <v>8469</v>
+        <v>8457</v>
       </c>
       <c r="S97" s="67" t="s">
-        <v>8689</v>
+        <v>8677</v>
       </c>
       <c r="T97" s="67" t="s">
-        <v>8690</v>
+        <v>8678</v>
       </c>
       <c r="U97" s="67" t="s">
-        <v>8691</v>
+        <v>8679</v>
       </c>
       <c r="V97" s="67" t="s">
-        <v>8692</v>
+        <v>8680</v>
       </c>
       <c r="W97" s="67" t="s">
-        <v>8693</v>
+        <v>8681</v>
       </c>
       <c r="X97"/>
       <c r="Y97"/>
@@ -39382,7 +39380,7 @@
         <v>220</v>
       </c>
       <c r="H98" s="67" t="s">
-        <v>8694</v>
+        <v>8682</v>
       </c>
       <c r="I98" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39406,50 +39404,50 @@
         <v>4</v>
       </c>
       <c r="P98" s="67" t="s">
-        <v>8695</v>
+        <v>8683</v>
       </c>
       <c r="Q98" s="67" t="s">
-        <v>8696</v>
+        <v>8684</v>
       </c>
       <c r="R98" s="67" t="s">
-        <v>8697</v>
+        <v>8685</v>
       </c>
       <c r="S98" s="67" t="s">
-        <v>8698</v>
+        <v>8686</v>
       </c>
       <c r="T98" s="67"/>
       <c r="U98" s="67" t="s">
-        <v>8699</v>
+        <v>8687</v>
       </c>
       <c r="V98" s="67" t="s">
-        <v>8700</v>
+        <v>8688</v>
       </c>
       <c r="W98" s="67" t="s">
-        <v>8701</v>
+        <v>8689</v>
       </c>
       <c r="X98" s="67" t="s">
-        <v>8702</v>
+        <v>8690</v>
       </c>
       <c r="Y98" s="67" t="s">
-        <v>8703</v>
+        <v>8691</v>
       </c>
       <c r="Z98" s="67" t="s">
-        <v>8704</v>
+        <v>8692</v>
       </c>
       <c r="AA98" s="67" t="s">
-        <v>8705</v>
+        <v>8693</v>
       </c>
       <c r="AB98" s="67" t="s">
-        <v>8706</v>
+        <v>8694</v>
       </c>
       <c r="AC98" s="67" t="s">
-        <v>8707</v>
+        <v>8695</v>
       </c>
       <c r="AD98" s="67" t="s">
-        <v>8708</v>
+        <v>8696</v>
       </c>
       <c r="AE98" s="67" t="s">
-        <v>8709</v>
+        <v>8697</v>
       </c>
       <c r="AF98"/>
       <c r="AG98"/>
@@ -39473,7 +39471,7 @@
         <v>220</v>
       </c>
       <c r="H99" s="67" t="s">
-        <v>8710</v>
+        <v>8698</v>
       </c>
       <c r="I99" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39495,29 +39493,29 @@
         <v>4</v>
       </c>
       <c r="P99" s="67" t="s">
-        <v>8711</v>
+        <v>8699</v>
       </c>
       <c r="Q99" s="67" t="s">
-        <v>8712</v>
+        <v>8700</v>
       </c>
       <c r="R99" s="67" t="s">
-        <v>8713</v>
+        <v>8701</v>
       </c>
       <c r="S99" s="67" t="s">
-        <v>8714</v>
+        <v>8702</v>
       </c>
       <c r="T99" s="67" t="s">
-        <v>8715</v>
+        <v>8703</v>
       </c>
       <c r="U99" s="67" t="s">
-        <v>8716</v>
+        <v>8704</v>
       </c>
       <c r="V99" s="67" t="s">
-        <v>8717</v>
+        <v>8705</v>
       </c>
       <c r="W99" s="67"/>
       <c r="X99" s="67" t="s">
-        <v>8718</v>
+        <v>8706</v>
       </c>
       <c r="Y99"/>
       <c r="Z99"/>
@@ -39542,13 +39540,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="66" t="s">
-        <v>8719</v>
+        <v>8707</v>
       </c>
       <c r="G100" s="67" t="s">
-        <v>7541</v>
+        <v>7529</v>
       </c>
       <c r="H100" s="67" t="s">
-        <v>8720</v>
+        <v>8708</v>
       </c>
       <c r="I100" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39570,25 +39568,25 @@
         <v>4</v>
       </c>
       <c r="P100" s="67" t="s">
-        <v>8721</v>
+        <v>8709</v>
       </c>
       <c r="Q100" s="67" t="s">
-        <v>8722</v>
+        <v>8710</v>
       </c>
       <c r="R100" s="67" t="s">
-        <v>8723</v>
+        <v>8711</v>
       </c>
       <c r="S100" s="67" t="s">
-        <v>8724</v>
+        <v>8712</v>
       </c>
       <c r="T100" s="67" t="s">
-        <v>8725</v>
+        <v>8713</v>
       </c>
       <c r="U100" s="67" t="s">
-        <v>8726</v>
+        <v>8714</v>
       </c>
       <c r="V100" s="67" t="s">
-        <v>8727</v>
+        <v>8715</v>
       </c>
       <c r="W100"/>
       <c r="X100"/>
@@ -39615,13 +39613,13 @@
         <v>10</v>
       </c>
       <c r="F101" s="66" t="s">
-        <v>8728</v>
+        <v>8716</v>
       </c>
       <c r="G101" s="67" t="s">
-        <v>7542</v>
+        <v>7530</v>
       </c>
       <c r="H101" s="67" t="s">
-        <v>8720</v>
+        <v>8708</v>
       </c>
       <c r="I101" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39671,19 +39669,19 @@
     <row r="102" spans="2:40" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B102" s="12"/>
       <c r="D102" s="6" t="s">
-        <v>8506</v>
+        <v>8494</v>
       </c>
       <c r="E102" s="67">
         <v>0</v>
       </c>
       <c r="F102" s="66" t="s">
-        <v>8729</v>
+        <v>8717</v>
       </c>
       <c r="G102" s="67" t="s">
-        <v>8730</v>
+        <v>8718</v>
       </c>
       <c r="H102" s="67" t="s">
-        <v>8729</v>
+        <v>8717</v>
       </c>
       <c r="I102" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39705,16 +39703,16 @@
         <v>4</v>
       </c>
       <c r="P102" s="67" t="s">
-        <v>8731</v>
+        <v>8719</v>
       </c>
       <c r="Q102" s="67" t="s">
-        <v>8732</v>
+        <v>8720</v>
       </c>
       <c r="R102" s="67" t="s">
-        <v>8376</v>
+        <v>8364</v>
       </c>
       <c r="S102" s="67" t="s">
-        <v>8374</v>
+        <v>8362</v>
       </c>
       <c r="T102"/>
       <c r="U102"/>
@@ -39741,10 +39739,10 @@
     <row r="103" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
       <c r="D103" s="53" t="s">
-        <v>8510</v>
+        <v>8498</v>
       </c>
       <c r="E103" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="b">
@@ -39754,10 +39752,10 @@
     <row r="104" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
       <c r="D104" s="53" t="s">
-        <v>8509</v>
+        <v>8497</v>
       </c>
       <c r="E104" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="b">
@@ -39767,10 +39765,10 @@
     <row r="105" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
       <c r="D105" s="56" t="s">
-        <v>8508</v>
+        <v>8496</v>
       </c>
       <c r="E105" s="54" t="s">
-        <v>8507</v>
+        <v>8495</v>
       </c>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="b">
@@ -39783,10 +39781,10 @@
     <row r="107" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
       <c r="D107" s="53" t="s">
-        <v>8505</v>
+        <v>8493</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F107" s="53"/>
       <c r="G107" s="54" t="b">
@@ -39796,10 +39794,10 @@
     <row r="108" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="12"/>
       <c r="D108" s="53" t="s">
-        <v>8504</v>
+        <v>8492</v>
       </c>
       <c r="E108" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F108" s="53"/>
       <c r="G108" s="54" t="b">
@@ -39809,10 +39807,10 @@
     <row r="109" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>
       <c r="D109" s="53" t="s">
-        <v>8503</v>
+        <v>8491</v>
       </c>
       <c r="E109" s="53" t="s">
-        <v>8466</v>
+        <v>8454</v>
       </c>
       <c r="F109" s="53"/>
       <c r="G109" s="54" t="b">
@@ -39822,10 +39820,10 @@
     <row r="110" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
       <c r="D110" s="53" t="s">
-        <v>8502</v>
+        <v>8490</v>
       </c>
       <c r="E110" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F110" s="53"/>
       <c r="G110" s="54" t="b">
@@ -39835,10 +39833,10 @@
     <row r="111" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
       <c r="D111" s="53" t="s">
-        <v>8501</v>
+        <v>8489</v>
       </c>
       <c r="E111" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F111" s="53"/>
       <c r="G111" s="54" t="b">
@@ -39848,10 +39846,10 @@
     <row r="112" spans="2:40" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="12"/>
       <c r="D112" s="53" t="s">
-        <v>8500</v>
+        <v>8488</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F112" s="53"/>
       <c r="G112" s="54" t="b">
@@ -39861,7 +39859,7 @@
     <row r="113" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B113" s="12"/>
       <c r="D113" s="54" t="s">
-        <v>8499</v>
+        <v>8487</v>
       </c>
       <c r="E113" s="54"/>
       <c r="F113" s="53"/>
@@ -39872,10 +39870,10 @@
     <row r="114" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="12"/>
       <c r="D114" s="53" t="s">
-        <v>8498</v>
+        <v>8486</v>
       </c>
       <c r="E114" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F114" s="53"/>
       <c r="G114" s="54" t="b">
@@ -39892,10 +39890,10 @@
     <row r="116" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="12"/>
       <c r="D116" s="53" t="s">
-        <v>8497</v>
+        <v>8485</v>
       </c>
       <c r="E116" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F116" s="53"/>
       <c r="G116" s="54" t="b">
@@ -39905,10 +39903,10 @@
     <row r="117" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
       <c r="D117" s="53" t="s">
-        <v>8496</v>
+        <v>8484</v>
       </c>
       <c r="E117" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F117" s="53"/>
       <c r="G117" s="54" t="b">
@@ -39918,10 +39916,10 @@
     <row r="118" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
       <c r="D118" s="53" t="s">
-        <v>8495</v>
+        <v>8483</v>
       </c>
       <c r="E118" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F118" s="53"/>
       <c r="G118" s="54" t="b">
@@ -39931,10 +39929,10 @@
     <row r="119" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
       <c r="D119" s="53" t="s">
-        <v>8494</v>
+        <v>8482</v>
       </c>
       <c r="E119" s="53" t="s">
-        <v>8459</v>
+        <v>8447</v>
       </c>
       <c r="F119" s="53"/>
       <c r="G119" s="54" t="b">
@@ -39944,10 +39942,10 @@
     <row r="120" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
       <c r="D120" s="53" t="s">
-        <v>8493</v>
+        <v>8481</v>
       </c>
       <c r="E120" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F120" s="53"/>
       <c r="G120" s="54" t="b">
@@ -39957,13 +39955,13 @@
     <row r="121" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B121" s="12"/>
       <c r="D121" s="53" t="s">
-        <v>8492</v>
+        <v>8480</v>
       </c>
       <c r="E121" s="54" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F121" s="53" t="s">
-        <v>8491</v>
+        <v>8479</v>
       </c>
       <c r="G121" s="54" t="b">
         <v>0</v>
@@ -39972,10 +39970,10 @@
     <row r="122" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="12"/>
       <c r="D122" s="53" t="s">
-        <v>8490</v>
+        <v>8478</v>
       </c>
       <c r="E122" s="53" t="s">
-        <v>8459</v>
+        <v>8447</v>
       </c>
       <c r="F122" s="53"/>
       <c r="G122" s="54" t="b">
@@ -39985,10 +39983,10 @@
     <row r="123" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
       <c r="D123" s="53" t="s">
-        <v>8489</v>
+        <v>8477</v>
       </c>
       <c r="E123" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F123" s="53"/>
       <c r="G123" s="54" t="b">
@@ -39998,10 +39996,10 @@
     <row r="124" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
       <c r="D124" s="53" t="s">
-        <v>8488</v>
+        <v>8476</v>
       </c>
       <c r="E124" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F124" s="53"/>
       <c r="G124" s="54" t="b">
@@ -40011,10 +40009,10 @@
     <row r="125" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B125" s="12"/>
       <c r="D125" s="53" t="s">
-        <v>8487</v>
+        <v>8475</v>
       </c>
       <c r="E125" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F125" s="53"/>
       <c r="G125" s="54" t="b">
@@ -40024,10 +40022,10 @@
     <row r="126" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B126" s="12"/>
       <c r="D126" s="53" t="s">
-        <v>8486</v>
+        <v>8474</v>
       </c>
       <c r="E126" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F126" s="53"/>
       <c r="G126" s="54" t="b">
@@ -40044,11 +40042,11 @@
     <row r="128" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="12"/>
       <c r="D128" s="54" t="s">
-        <v>8485</v>
+        <v>8473</v>
       </c>
       <c r="E128" s="55"/>
       <c r="F128" s="53" t="s">
-        <v>8484</v>
+        <v>8472</v>
       </c>
       <c r="G128" s="54" t="b">
         <v>0</v>
@@ -40057,10 +40055,10 @@
     <row r="129" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B129" s="12"/>
       <c r="D129" s="53" t="s">
-        <v>8483</v>
+        <v>8471</v>
       </c>
       <c r="E129" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F129" s="53"/>
       <c r="G129" s="54" t="b">
@@ -40070,10 +40068,10 @@
     <row r="130" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B130" s="12"/>
       <c r="D130" s="54" t="s">
-        <v>8482</v>
+        <v>8470</v>
       </c>
       <c r="E130" s="54" t="s">
-        <v>8481</v>
+        <v>8469</v>
       </c>
       <c r="F130" s="53"/>
       <c r="G130" s="54" t="b">
@@ -40083,10 +40081,10 @@
     <row r="131" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B131" s="12"/>
       <c r="D131" s="53" t="s">
-        <v>8480</v>
+        <v>8468</v>
       </c>
       <c r="E131" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F131" s="53"/>
       <c r="G131" s="54" t="b">
@@ -40096,10 +40094,10 @@
     <row r="132" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B132" s="12"/>
       <c r="D132" s="54" t="s">
-        <v>8479</v>
+        <v>8467</v>
       </c>
       <c r="E132" s="54" t="s">
-        <v>8478</v>
+        <v>8466</v>
       </c>
       <c r="F132" s="53"/>
       <c r="G132" s="54" t="b">
@@ -40109,10 +40107,10 @@
     <row r="133" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B133" s="12"/>
       <c r="D133" s="54" t="s">
-        <v>8477</v>
+        <v>8465</v>
       </c>
       <c r="E133" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F133" s="53"/>
       <c r="G133" s="54" t="b">
@@ -40122,10 +40120,10 @@
     <row r="134" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B134" s="12"/>
       <c r="D134" s="53" t="s">
-        <v>8476</v>
+        <v>8464</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F134" s="53"/>
       <c r="G134" s="54" t="b">
@@ -40142,10 +40140,10 @@
     <row r="136" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B136" s="12"/>
       <c r="D136" s="53" t="s">
-        <v>8475</v>
+        <v>8463</v>
       </c>
       <c r="E136" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F136" s="53"/>
       <c r="G136" s="54" t="b">
@@ -40155,10 +40153,10 @@
     <row r="137" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B137" s="12"/>
       <c r="D137" s="53" t="s">
-        <v>8474</v>
+        <v>8462</v>
       </c>
       <c r="E137" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F137" s="53"/>
       <c r="G137" s="54" t="b">
@@ -40168,13 +40166,13 @@
     <row r="138" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B138" s="12"/>
       <c r="D138" s="53" t="s">
-        <v>8473</v>
+        <v>8461</v>
       </c>
       <c r="E138" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F138" s="53" t="s">
-        <v>8472</v>
+        <v>8460</v>
       </c>
       <c r="G138" s="54" t="b">
         <v>0</v>
@@ -40183,10 +40181,10 @@
     <row r="139" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B139" s="12"/>
       <c r="D139" s="53" t="s">
-        <v>8471</v>
+        <v>8459</v>
       </c>
       <c r="E139" s="54" t="s">
-        <v>8466</v>
+        <v>8454</v>
       </c>
       <c r="F139" s="53"/>
       <c r="G139" s="54" t="b">
@@ -40196,10 +40194,10 @@
     <row r="140" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B140" s="12"/>
       <c r="D140" s="53" t="s">
-        <v>8470</v>
+        <v>8458</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F140" s="53"/>
       <c r="G140" s="54" t="b">
@@ -40209,10 +40207,10 @@
     <row r="141" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B141" s="12"/>
       <c r="D141" s="53" t="s">
-        <v>8469</v>
+        <v>8457</v>
       </c>
       <c r="E141" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F141" s="53"/>
       <c r="G141" s="54" t="b">
@@ -40229,10 +40227,10 @@
     <row r="143" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B143" s="12"/>
       <c r="D143" s="53" t="s">
-        <v>8468</v>
+        <v>8456</v>
       </c>
       <c r="E143" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F143" s="53"/>
       <c r="G143" s="54" t="b">
@@ -40242,10 +40240,10 @@
     <row r="144" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B144" s="12"/>
       <c r="D144" s="53" t="s">
-        <v>8467</v>
+        <v>8455</v>
       </c>
       <c r="E144" s="54" t="s">
-        <v>8466</v>
+        <v>8454</v>
       </c>
       <c r="F144" s="53"/>
       <c r="G144" s="54" t="b">
@@ -40255,11 +40253,11 @@
     <row r="145" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B145" s="12"/>
       <c r="D145" s="53" t="s">
-        <v>8465</v>
+        <v>8453</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="53" t="s">
-        <v>8464</v>
+        <v>8452</v>
       </c>
       <c r="G145" s="54" t="b">
         <v>0</v>
@@ -40268,7 +40266,7 @@
     <row r="146" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="12"/>
       <c r="D146" s="54" t="s">
-        <v>8463</v>
+        <v>8451</v>
       </c>
       <c r="E146" s="54"/>
       <c r="F146" s="53"/>
@@ -40279,7 +40277,7 @@
     <row r="147" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B147" s="12"/>
       <c r="D147" s="54" t="s">
-        <v>8462</v>
+        <v>8450</v>
       </c>
       <c r="E147" s="54"/>
       <c r="F147" s="53"/>
@@ -40290,10 +40288,10 @@
     <row r="148" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B148" s="12"/>
       <c r="D148" s="53" t="s">
-        <v>8461</v>
+        <v>8449</v>
       </c>
       <c r="E148" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F148" s="53"/>
       <c r="G148" s="54" t="b">
@@ -40303,10 +40301,10 @@
     <row r="149" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B149" s="12"/>
       <c r="D149" s="53" t="s">
-        <v>8460</v>
+        <v>8448</v>
       </c>
       <c r="E149" s="53" t="s">
-        <v>8459</v>
+        <v>8447</v>
       </c>
       <c r="F149" s="53"/>
       <c r="G149" s="54" t="b">
@@ -40316,10 +40314,10 @@
     <row r="150" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B150" s="12"/>
       <c r="D150" s="53" t="s">
-        <v>8458</v>
+        <v>8446</v>
       </c>
       <c r="E150" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F150" s="53"/>
       <c r="G150" s="54" t="b">
@@ -40329,10 +40327,10 @@
     <row r="151" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B151" s="12"/>
       <c r="D151" s="53" t="s">
-        <v>8457</v>
+        <v>8445</v>
       </c>
       <c r="E151" s="53" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F151" s="53"/>
       <c r="G151" s="54" t="b">
@@ -40342,10 +40340,10 @@
     <row r="152" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B152" s="12"/>
       <c r="D152" s="53" t="s">
-        <v>8456</v>
+        <v>8444</v>
       </c>
       <c r="E152" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F152" s="53"/>
       <c r="G152" s="54" t="b">
@@ -40355,10 +40353,10 @@
     <row r="153" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B153" s="12"/>
       <c r="D153" s="53" t="s">
-        <v>8455</v>
+        <v>8443</v>
       </c>
       <c r="E153" s="54" t="s">
-        <v>8454</v>
+        <v>8442</v>
       </c>
       <c r="F153" s="53"/>
       <c r="G153" s="54" t="b">
@@ -40368,10 +40366,10 @@
     <row r="154" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B154" s="12"/>
       <c r="D154" s="53" t="s">
-        <v>8453</v>
+        <v>8441</v>
       </c>
       <c r="E154" s="54" t="s">
-        <v>8452</v>
+        <v>8440</v>
       </c>
       <c r="F154" s="53"/>
       <c r="G154" s="54" t="b">
@@ -41146,7 +41144,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>8520</v>
+        <v>8508</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1429</v>
@@ -41157,7 +41155,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8587</v>
+        <v>8575</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41193,7 +41191,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8588</v>
+        <v>8576</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -41229,7 +41227,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>8541</v>
+        <v>8529</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>$A$2</f>
@@ -41253,7 +41251,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>8426</v>
+        <v>8414</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>$A$4</f>
@@ -41301,7 +41299,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>8521</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -41331,17 +41329,17 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>8450</v>
+        <v>8438</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>8451</v>
+        <v>8439</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>8449</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -41535,99 +41533,99 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>8522</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>8298</v>
+        <v>8286</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8437</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>8436</v>
+        <v>8424</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>8438</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>8444</v>
+        <v>8432</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8439</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>8445</v>
+        <v>8433</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8440</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>8446</v>
+        <v>8434</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8441</v>
+        <v>8429</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>8227</v>
+        <v>8215</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8442</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>8049</v>
+        <v>8037</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>8443</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>8523</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>8518</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>8519</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>8524</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>8427</v>
+        <v>8415</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8428</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>8429</v>
+        <v>8417</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8430</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -41635,90 +41633,90 @@
         <v>185</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8431</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>8432</v>
+        <v>8420</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8433</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>8290</v>
+        <v>8278</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8434</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>8435</v>
+        <v>8423</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8434</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8589</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8590</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8591</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8592</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8593</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8594</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8596</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
-        <v>8597</v>
+        <v>8585</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8598</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
-        <v>8599</v>
+        <v>8587</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8600</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>8601</v>
+        <v>8589</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8602</v>
+        <v>8590</v>
       </c>
     </row>
   </sheetData>
@@ -41740,7 +41738,7 @@
   <dimension ref="A1:K6104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41751,99 +41749,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>7534</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>7533</v>
-      </c>
       <c r="J4" s="35" t="s">
-        <v>8577</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>7532</v>
-      </c>
       <c r="J5" s="35" t="s">
-        <v>8576</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>7531</v>
-      </c>
       <c r="J6" s="35" t="s">
-        <v>8575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>7529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>7528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>7527</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>7526</v>
-      </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>7525</v>
-      </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>7524</v>
-      </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>7523</v>
-      </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>7522</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>8586</v>
+        <v>8574</v>
       </c>
       <c r="I15" s="62" t="s">
-        <v>7910</v>
+        <v>7898</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>7907</v>
+        <v>7895</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>7904</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -41851,16 +41801,16 @@
         <v>7521</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>8585</v>
+        <v>8573</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>8584</v>
+        <v>8572</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>8583</v>
+        <v>8571</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>8582</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -41868,16 +41818,16 @@
         <v>7520</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>8581</v>
+        <v>8569</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>8580</v>
+        <v>8568</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>8579</v>
+        <v>8567</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>8578</v>
+        <v>8566</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -72357,12 +72307,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>8531</v>
+        <v>8519</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>8308</v>
+        <v>8296</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -72397,10 +72347,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8307</v>
+        <v>8295</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>8306</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72431,10 +72381,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>8305</v>
+        <v>8293</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>8304</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72465,10 +72415,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>8303</v>
+        <v>8291</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>8302</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72499,10 +72449,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>8301</v>
+        <v>8289</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>8300</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72533,10 +72483,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>8299</v>
+        <v>8287</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>8298</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72567,10 +72517,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>8297</v>
+        <v>8285</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>8296</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72601,10 +72551,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>8295</v>
+        <v>8283</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>8294</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72635,10 +72585,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>8293</v>
+        <v>8281</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>8292</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72669,10 +72619,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>8291</v>
+        <v>8279</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>8290</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72703,10 +72653,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>8289</v>
+        <v>8277</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>8288</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72734,13 +72684,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7540</v>
+        <v>7528</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>8287</v>
+        <v>8275</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>8286</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72768,13 +72718,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7539</v>
+        <v>7527</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>8285</v>
+        <v>8273</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>8284</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72802,13 +72752,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7538</v>
+        <v>7526</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>8283</v>
+        <v>8271</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>8282</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72836,13 +72786,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7537</v>
+        <v>7525</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>8281</v>
+        <v>8269</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>8280</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72870,13 +72820,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7536</v>
+        <v>7524</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>8279</v>
+        <v>8267</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>8278</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72904,13 +72854,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7535</v>
+        <v>7523</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>8277</v>
+        <v>8265</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>8276</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72941,10 +72891,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>8275</v>
+        <v>8263</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>8274</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -72975,10 +72925,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>8273</v>
+        <v>8261</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>8272</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73009,10 +72959,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>8271</v>
+        <v>8259</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>8270</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73043,10 +72993,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>8269</v>
+        <v>8257</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>8268</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73077,10 +73027,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>8267</v>
+        <v>8255</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>8266</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73111,10 +73061,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>8265</v>
+        <v>8253</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>8264</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73145,10 +73095,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>8263</v>
+        <v>8251</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>8262</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73179,10 +73129,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>8261</v>
+        <v>8249</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>8260</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73213,10 +73163,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>8259</v>
+        <v>8247</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>8258</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73247,10 +73197,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>8257</v>
+        <v>8245</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>8256</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73281,10 +73231,10 @@
         <v>7490</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>8255</v>
+        <v>8243</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>8254</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73315,10 +73265,10 @@
         <v>7489</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>8253</v>
+        <v>8241</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>8252</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73349,10 +73299,10 @@
         <v>7488</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>8251</v>
+        <v>8239</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>8250</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73383,10 +73333,10 @@
         <v>7487</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>8249</v>
+        <v>8237</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>8248</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73417,10 +73367,10 @@
         <v>7486</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>8247</v>
+        <v>8235</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>8246</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73451,10 +73401,10 @@
         <v>7485</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>8245</v>
+        <v>8233</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>8244</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73485,10 +73435,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>8243</v>
+        <v>8231</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>8242</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73519,10 +73469,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>8241</v>
+        <v>8229</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>8240</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73553,10 +73503,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>8239</v>
+        <v>8227</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>8238</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73587,10 +73537,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>8237</v>
+        <v>8225</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>8236</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73621,10 +73571,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>8235</v>
+        <v>8223</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>8234</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73655,10 +73605,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>8233</v>
+        <v>8221</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>8232</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73689,10 +73639,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>8231</v>
+        <v>8219</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>8230</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73723,10 +73673,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>8229</v>
+        <v>8217</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>8228</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -73757,10 +73707,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7833</v>
+        <v>7821</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>8227</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -73791,10 +73741,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>8226</v>
+        <v>8214</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>8225</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73825,10 +73775,10 @@
         <v>7428</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>8224</v>
+        <v>8212</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>8223</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73859,10 +73809,10 @@
         <v>7427</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>8222</v>
+        <v>8210</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>8221</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73893,10 +73843,10 @@
         <v>7426</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>8220</v>
+        <v>8208</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>8219</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73927,10 +73877,10 @@
         <v>7425</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>8218</v>
+        <v>8206</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>8217</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73961,10 +73911,10 @@
         <v>7424</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>8216</v>
+        <v>8204</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>8215</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -73995,10 +73945,10 @@
         <v>7423</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>8214</v>
+        <v>8202</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>8213</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74029,10 +73979,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>8212</v>
+        <v>8200</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>8211</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74063,10 +74013,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>8210</v>
+        <v>8198</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>8209</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74097,10 +74047,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>8208</v>
+        <v>8196</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>8207</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74131,10 +74081,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>8206</v>
+        <v>8194</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>8205</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74165,10 +74115,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>8204</v>
+        <v>8192</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>8203</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74199,10 +74149,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>8202</v>
+        <v>8190</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>8201</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74233,10 +74183,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>8200</v>
+        <v>8188</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>8199</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74267,10 +74217,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>8198</v>
+        <v>8186</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>8197</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74301,10 +74251,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>8196</v>
+        <v>8184</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>8195</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74335,10 +74285,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>8194</v>
+        <v>8182</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>8193</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74369,10 +74319,10 @@
         <v>7366</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>8192</v>
+        <v>8180</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>8191</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74403,10 +74353,10 @@
         <v>7365</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>8190</v>
+        <v>8178</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>8189</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74437,10 +74387,10 @@
         <v>7364</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>8188</v>
+        <v>8176</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>8187</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74471,10 +74421,10 @@
         <v>7363</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>8186</v>
+        <v>8174</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>8185</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74505,10 +74455,10 @@
         <v>7362</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>8184</v>
+        <v>8172</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>8183</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74539,10 +74489,10 @@
         <v>7361</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>8182</v>
+        <v>8170</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>8181</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74573,10 +74523,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>8180</v>
+        <v>8168</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>8179</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74607,10 +74557,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>8178</v>
+        <v>8166</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>8177</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74641,10 +74591,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>8176</v>
+        <v>8164</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>8175</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74675,10 +74625,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>8174</v>
+        <v>8162</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>8173</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74709,10 +74659,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7819</v>
+        <v>7807</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>8172</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74743,10 +74693,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>8171</v>
+        <v>8159</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>8170</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74777,10 +74727,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>8169</v>
+        <v>8157</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>8168</v>
+        <v>8156</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74811,10 +74761,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>8167</v>
+        <v>8155</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>8166</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74845,10 +74795,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>8165</v>
+        <v>8153</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>8164</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74879,10 +74829,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>8163</v>
+        <v>8151</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>8162</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74913,10 +74863,10 @@
         <v>7304</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7805</v>
+        <v>7793</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>8161</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74947,10 +74897,10 @@
         <v>7303</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>8160</v>
+        <v>8148</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>8159</v>
+        <v>8147</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74981,10 +74931,10 @@
         <v>7302</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>8158</v>
+        <v>8146</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>8157</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75015,10 +74965,10 @@
         <v>7301</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>8156</v>
+        <v>8144</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>8155</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75049,10 +74999,10 @@
         <v>7300</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>8154</v>
+        <v>8142</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>8153</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75083,10 +75033,10 @@
         <v>7299</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>8152</v>
+        <v>8140</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>8151</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75117,10 +75067,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>8150</v>
+        <v>8138</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>8149</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75151,10 +75101,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>8148</v>
+        <v>8136</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7782</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75185,10 +75135,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7781</v>
+        <v>7769</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>8147</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75219,10 +75169,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>8146</v>
+        <v>8134</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>8145</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75253,10 +75203,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>8144</v>
+        <v>8132</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>8143</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75287,10 +75237,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>8142</v>
+        <v>8130</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>8141</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75321,10 +75271,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>8140</v>
+        <v>8128</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>8139</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75355,10 +75305,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>8138</v>
+        <v>8126</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>8137</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75389,10 +75339,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>8136</v>
+        <v>8124</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>8135</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75423,10 +75373,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>8134</v>
+        <v>8122</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>8133</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75457,10 +75407,10 @@
         <v>7242</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>8132</v>
+        <v>8120</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>8131</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75491,10 +75441,10 @@
         <v>7241</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>8130</v>
+        <v>8118</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>8129</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75525,10 +75475,10 @@
         <v>7240</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>8128</v>
+        <v>8116</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>8127</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -75559,10 +75509,10 @@
         <v>7239</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>8126</v>
+        <v>8114</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>8125</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75593,10 +75543,10 @@
         <v>7238</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>8124</v>
+        <v>8112</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>8123</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -75627,10 +75577,10 @@
         <v>7237</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>8122</v>
+        <v>8110</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>8121</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75661,10 +75611,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>8120</v>
+        <v>8108</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>8119</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75695,7 +75645,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>8118</v>
+        <v>8106</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -75729,10 +75679,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7763</v>
+        <v>7751</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>8117</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75763,10 +75713,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7909</v>
+        <v>7897</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>8116</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75797,10 +75747,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>8115</v>
+        <v>8103</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>8114</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75831,10 +75781,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>8113</v>
+        <v>8101</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>8112</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75865,10 +75815,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>8111</v>
+        <v>8099</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>8110</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -75899,10 +75849,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>8109</v>
+        <v>8097</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>8108</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75933,10 +75883,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>8107</v>
+        <v>8095</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7740</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75967,10 +75917,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>8106</v>
+        <v>8094</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>8105</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76001,10 +75951,10 @@
         <v>7180</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>8104</v>
+        <v>8092</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>8103</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76035,10 +75985,10 @@
         <v>7179</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>8102</v>
+        <v>8090</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>8101</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76069,10 +76019,10 @@
         <v>7178</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>8100</v>
+        <v>8088</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>8099</v>
+        <v>8087</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76103,10 +76053,10 @@
         <v>7177</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>8098</v>
+        <v>8086</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>8097</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76137,10 +76087,10 @@
         <v>7176</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>8096</v>
+        <v>8084</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>8095</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76171,10 +76121,10 @@
         <v>7175</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>8094</v>
+        <v>8082</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>8093</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76205,10 +76155,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>8092</v>
+        <v>8080</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>8091</v>
+        <v>8079</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76239,10 +76189,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>8090</v>
+        <v>8078</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>8089</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76273,10 +76223,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>8088</v>
+        <v>8076</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>8087</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76307,10 +76257,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>8086</v>
+        <v>8074</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>8085</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76341,10 +76291,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7717</v>
+        <v>7705</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>8084</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -76375,10 +76325,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>8083</v>
+        <v>8071</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>8082</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76409,10 +76359,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>8081</v>
+        <v>8069</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>8080</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76443,10 +76393,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>8079</v>
+        <v>8067</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>8078</v>
+        <v>8066</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -76477,10 +76427,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>8077</v>
+        <v>8065</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>8076</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76511,10 +76461,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>8075</v>
+        <v>8063</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>8074</v>
+        <v>8062</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76545,10 +76495,10 @@
         <v>7118</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>8073</v>
+        <v>8061</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>8072</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76579,10 +76529,10 @@
         <v>7117</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7713</v>
+        <v>7701</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>8071</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76613,10 +76563,10 @@
         <v>7116</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7711</v>
+        <v>7699</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>8070</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76647,10 +76597,10 @@
         <v>7115</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>8069</v>
+        <v>8057</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>8068</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76681,10 +76631,10 @@
         <v>7114</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>8067</v>
+        <v>8055</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>8066</v>
+        <v>8054</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76715,10 +76665,10 @@
         <v>7113</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>8065</v>
+        <v>8053</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>8064</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -76749,10 +76699,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>8063</v>
+        <v>8051</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>8062</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76783,10 +76733,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>8061</v>
+        <v>8049</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>8060</v>
+        <v>8048</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76817,10 +76767,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>8059</v>
+        <v>8047</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>8058</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76851,10 +76801,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>8057</v>
+        <v>8045</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>8056</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76885,10 +76835,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>8055</v>
+        <v>8043</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>8054</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76919,10 +76869,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>8053</v>
+        <v>8041</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>8052</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76953,10 +76903,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7667</v>
+        <v>7655</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>8051</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76987,10 +76937,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>8050</v>
+        <v>8038</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>8049</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77021,10 +76971,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>8048</v>
+        <v>8036</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>8047</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77055,10 +77005,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>8046</v>
+        <v>8034</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>8045</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77089,10 +77039,10 @@
         <v>7056</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>8044</v>
+        <v>8032</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>8043</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77123,10 +77073,10 @@
         <v>7055</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>8042</v>
+        <v>8030</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>8041</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77157,10 +77107,10 @@
         <v>7054</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>8040</v>
+        <v>8028</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>8039</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77191,10 +77141,10 @@
         <v>7053</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7659</v>
+        <v>7647</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>8038</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77225,10 +77175,10 @@
         <v>7052</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>8037</v>
+        <v>8025</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>8036</v>
+        <v>8024</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77259,10 +77209,10 @@
         <v>7051</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>8035</v>
+        <v>8023</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>8034</v>
+        <v>8022</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77293,10 +77243,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>8033</v>
+        <v>8021</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>8032</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77327,10 +77277,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>8031</v>
+        <v>8019</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>8030</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77361,10 +77311,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>8029</v>
+        <v>8017</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>8028</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77395,10 +77345,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>8027</v>
+        <v>8015</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>8026</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77429,10 +77379,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>8025</v>
+        <v>8013</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>8024</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77463,10 +77413,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>8023</v>
+        <v>8011</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7722</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77497,10 +77447,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>8022</v>
+        <v>8010</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>8021</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77531,10 +77481,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>8020</v>
+        <v>8008</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>8019</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77565,10 +77515,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>8018</v>
+        <v>8006</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>8017</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77600,7 +77550,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77632,7 +77582,7 @@
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77664,7 +77614,7 @@
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77696,7 +77646,7 @@
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77728,7 +77678,7 @@
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77760,7 +77710,7 @@
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77792,7 +77742,7 @@
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77824,7 +77774,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77855,10 +77805,10 @@
         <v>5355</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>8016</v>
+        <v>8004</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>8015</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77889,10 +77839,10 @@
         <v>5354</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>8014</v>
+        <v>8002</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>8013</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77923,10 +77873,10 @@
         <v>5353</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>8012</v>
+        <v>8000</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>8011</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77957,7 +77907,7 @@
         <v>5352</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>8010</v>
+        <v>7998</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -77991,10 +77941,10 @@
         <v>5351</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>8009</v>
+        <v>7997</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>8008</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78025,10 +77975,10 @@
         <v>5350</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>8007</v>
+        <v>7995</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>8006</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78060,7 +78010,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78092,7 +78042,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78124,7 +78074,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78156,7 +78106,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78188,7 +78138,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78220,7 +78170,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78252,7 +78202,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78284,7 +78234,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78316,7 +78266,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78344,13 +78294,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>8005</v>
+        <v>7993</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>8004</v>
+        <v>7992</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>8003</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78378,13 +78328,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>8002</v>
+        <v>7990</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>8001</v>
+        <v>7989</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>8000</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78412,13 +78362,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7999</v>
+        <v>7987</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7998</v>
+        <v>7986</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7997</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78446,13 +78396,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7996</v>
+        <v>7984</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7995</v>
+        <v>7983</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7994</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78480,13 +78430,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7993</v>
+        <v>7981</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7992</v>
+        <v>7980</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7991</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78514,13 +78464,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7990</v>
+        <v>7978</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7989</v>
+        <v>7977</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7988</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78548,13 +78498,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7987</v>
+        <v>7975</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7986</v>
+        <v>7974</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7985</v>
+        <v>7973</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78582,13 +78532,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7984</v>
+        <v>7972</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7983</v>
+        <v>7971</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7982</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78616,13 +78566,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7981</v>
+        <v>7969</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7980</v>
+        <v>7968</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7979</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78650,13 +78600,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7978</v>
+        <v>7966</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7977</v>
+        <v>7965</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7976</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78684,13 +78634,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7975</v>
+        <v>7963</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7974</v>
+        <v>7962</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7973</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78718,13 +78668,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7972</v>
+        <v>7960</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7971</v>
+        <v>7959</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7970</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78749,11 +78699,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7969</v>
+        <v>7957</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78778,11 +78728,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7968</v>
+        <v>7956</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78807,11 +78757,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7967</v>
+        <v>7955</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78836,11 +78786,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7966</v>
+        <v>7954</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
   </sheetData>
@@ -78876,7 +78826,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8532</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -78907,10 +78857,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7965</v>
+        <v>7953</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7964</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -78941,10 +78891,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7963</v>
+        <v>7951</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7962</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -78975,10 +78925,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7961</v>
+        <v>7949</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7960</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79009,10 +78959,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7959</v>
+        <v>7947</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7958</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79043,10 +78993,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7957</v>
+        <v>7945</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7956</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79077,10 +79027,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7955</v>
+        <v>7943</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7954</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79111,10 +79061,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7953</v>
+        <v>7941</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7952</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79145,10 +79095,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7951</v>
+        <v>7939</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7950</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79179,10 +79129,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7949</v>
+        <v>7937</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7948</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79213,10 +79163,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7947</v>
+        <v>7935</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7946</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79244,13 +79194,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7945</v>
+        <v>7933</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7944</v>
+        <v>7932</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7943</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79281,10 +79231,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7942</v>
+        <v>7930</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7941</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79315,10 +79265,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7940</v>
+        <v>7928</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7939</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79346,13 +79296,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7938</v>
+        <v>7926</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7937</v>
+        <v>7925</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7936</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79380,13 +79330,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7935</v>
+        <v>7923</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7934</v>
+        <v>7922</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7933</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79417,10 +79367,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7932</v>
+        <v>7920</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7931</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79451,10 +79401,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7930</v>
+        <v>7918</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7929</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79485,10 +79435,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7928</v>
+        <v>7916</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7927</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79519,10 +79469,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7926</v>
+        <v>7914</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7925</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79553,10 +79503,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7924</v>
+        <v>7912</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7923</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79587,10 +79537,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7922</v>
+        <v>7910</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7921</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79621,10 +79571,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7920</v>
+        <v>7908</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7919</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79655,10 +79605,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7918</v>
+        <v>7906</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7917</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79689,10 +79639,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7916</v>
+        <v>7904</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7915</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79723,10 +79673,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7914</v>
+        <v>7902</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7913</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79757,10 +79707,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7912</v>
+        <v>7900</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7911</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79788,13 +79738,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7910</v>
+        <v>7898</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7909</v>
+        <v>7897</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7908</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79822,13 +79772,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7907</v>
+        <v>7895</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7906</v>
+        <v>7894</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7905</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79856,13 +79806,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7904</v>
+        <v>7892</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7903</v>
+        <v>7891</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7902</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79890,13 +79840,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7597</v>
+        <v>7585</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7901</v>
+        <v>7889</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7900</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79924,13 +79874,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7596</v>
+        <v>7584</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7899</v>
+        <v>7887</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7898</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79958,13 +79908,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7595</v>
+        <v>7583</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7897</v>
+        <v>7885</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7896</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79995,10 +79945,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7895</v>
+        <v>7883</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7894</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80029,10 +79979,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7893</v>
+        <v>7881</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7892</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80063,10 +80013,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7891</v>
+        <v>7879</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7890</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80097,10 +80047,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7889</v>
+        <v>7877</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7888</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80131,10 +80081,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7887</v>
+        <v>7875</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7886</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80165,10 +80115,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7885</v>
+        <v>7873</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7884</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80199,10 +80149,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7883</v>
+        <v>7871</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7882</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80233,10 +80183,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7881</v>
+        <v>7869</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7880</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80267,10 +80217,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7879</v>
+        <v>7867</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7878</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80301,10 +80251,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7877</v>
+        <v>7865</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7876</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80332,13 +80282,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7875</v>
+        <v>7863</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7874</v>
+        <v>7862</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7873</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80366,13 +80316,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7872</v>
+        <v>7860</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7871</v>
+        <v>7859</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7870</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80400,13 +80350,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7869</v>
+        <v>7857</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7868</v>
+        <v>7856</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7867</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80434,13 +80384,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7866</v>
+        <v>7854</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7865</v>
+        <v>7853</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7864</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80468,13 +80418,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7863</v>
+        <v>7851</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7862</v>
+        <v>7850</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7861</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80502,13 +80452,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7860</v>
+        <v>7848</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7859</v>
+        <v>7847</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7858</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -80539,10 +80489,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7857</v>
+        <v>7845</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7856</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80573,10 +80523,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7855</v>
+        <v>7843</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7854</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80607,10 +80557,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7853</v>
+        <v>7841</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7852</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80641,10 +80591,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7851</v>
+        <v>7839</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7850</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80675,10 +80625,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7849</v>
+        <v>7837</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7848</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80709,10 +80659,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7847</v>
+        <v>7835</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7846</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80743,10 +80693,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7845</v>
+        <v>7833</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7844</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80777,10 +80727,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7843</v>
+        <v>7831</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7842</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80811,10 +80761,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7841</v>
+        <v>7829</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7840</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80845,10 +80795,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7839</v>
+        <v>7827</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7838</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80876,13 +80826,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7837</v>
+        <v>7825</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7836</v>
+        <v>7824</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7835</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80910,13 +80860,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7834</v>
+        <v>7822</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7833</v>
+        <v>7821</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7832</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80944,13 +80894,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7831</v>
+        <v>7819</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7830</v>
+        <v>7818</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7829</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -80978,13 +80928,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7828</v>
+        <v>7816</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7827</v>
+        <v>7815</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7826</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81012,13 +80962,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7825</v>
+        <v>7813</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7824</v>
+        <v>7812</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7823</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81046,13 +80996,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7822</v>
+        <v>7810</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7821</v>
+        <v>7809</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7820</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81083,10 +81033,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7819</v>
+        <v>7807</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7818</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81117,10 +81067,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7817</v>
+        <v>7805</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7816</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81151,10 +81101,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7815</v>
+        <v>7803</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7814</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81185,10 +81135,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7813</v>
+        <v>7801</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7812</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81219,10 +81169,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7811</v>
+        <v>7799</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7810</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81253,10 +81203,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7809</v>
+        <v>7797</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7808</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -81287,10 +81237,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7807</v>
+        <v>7795</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7806</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81321,10 +81271,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7805</v>
+        <v>7793</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7804</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -81355,10 +81305,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7803</v>
+        <v>7791</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7802</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81389,10 +81339,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7801</v>
+        <v>7789</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7800</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81420,13 +81370,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7594</v>
+        <v>7582</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7799</v>
+        <v>7787</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7798</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -81454,13 +81404,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7593</v>
+        <v>7581</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7797</v>
+        <v>7785</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7796</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81488,13 +81438,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7592</v>
+        <v>7580</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7795</v>
+        <v>7783</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7794</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81522,13 +81472,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7591</v>
+        <v>7579</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7793</v>
+        <v>7781</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7792</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81556,13 +81506,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7590</v>
+        <v>7578</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7791</v>
+        <v>7779</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7790</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81590,13 +81540,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7589</v>
+        <v>7577</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7789</v>
+        <v>7777</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7788</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81627,10 +81577,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7787</v>
+        <v>7775</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7786</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81661,10 +81611,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7785</v>
+        <v>7773</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7784</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81695,10 +81645,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7783</v>
+        <v>7771</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7782</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81729,10 +81679,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7781</v>
+        <v>7769</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7780</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81763,10 +81713,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7779</v>
+        <v>7767</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7778</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81797,10 +81747,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7777</v>
+        <v>7765</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7776</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81831,10 +81781,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7775</v>
+        <v>7763</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7774</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81865,10 +81815,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7773</v>
+        <v>7761</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7772</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81899,10 +81849,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7771</v>
+        <v>7759</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7770</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81933,10 +81883,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7769</v>
+        <v>7757</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7768</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81964,13 +81914,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7588</v>
+        <v>7576</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7767</v>
+        <v>7755</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7766</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81998,13 +81948,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7587</v>
+        <v>7575</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7765</v>
+        <v>7753</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7764</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82032,13 +81982,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7586</v>
+        <v>7574</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7763</v>
+        <v>7751</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7762</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82066,13 +82016,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7585</v>
+        <v>7573</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7761</v>
+        <v>7749</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7760</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82100,13 +82050,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7584</v>
+        <v>7572</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7759</v>
+        <v>7747</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7758</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82134,13 +82084,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7583</v>
+        <v>7571</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7757</v>
+        <v>7745</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7756</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82171,10 +82121,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7755</v>
+        <v>7743</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7754</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82205,10 +82155,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7753</v>
+        <v>7741</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7752</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82239,10 +82189,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7751</v>
+        <v>7739</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7750</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82273,10 +82223,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7749</v>
+        <v>7737</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7748</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82307,10 +82257,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7747</v>
+        <v>7735</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7746</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82341,10 +82291,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7745</v>
+        <v>7733</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7744</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82375,10 +82325,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7743</v>
+        <v>7731</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7742</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82409,10 +82359,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7741</v>
+        <v>7729</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7740</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82443,10 +82393,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7739</v>
+        <v>7727</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7738</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82477,10 +82427,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7737</v>
+        <v>7725</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7736</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82508,13 +82458,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7582</v>
+        <v>7570</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7735</v>
+        <v>7723</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7734</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82542,13 +82492,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7581</v>
+        <v>7569</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7733</v>
+        <v>7721</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7732</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82576,13 +82526,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7580</v>
+        <v>7568</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7731</v>
+        <v>7719</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7730</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82610,13 +82560,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7579</v>
+        <v>7567</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7729</v>
+        <v>7717</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7728</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82644,13 +82594,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7578</v>
+        <v>7566</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7727</v>
+        <v>7715</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7726</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82678,13 +82628,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7577</v>
+        <v>7565</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7725</v>
+        <v>7713</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7724</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82715,10 +82665,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7723</v>
+        <v>7711</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7722</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82749,10 +82699,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7721</v>
+        <v>7709</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7720</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82783,10 +82733,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7719</v>
+        <v>7707</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7718</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82817,10 +82767,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7717</v>
+        <v>7705</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7716</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82851,10 +82801,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7715</v>
+        <v>7703</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7714</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82885,10 +82835,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7713</v>
+        <v>7701</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7712</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82919,10 +82869,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7711</v>
+        <v>7699</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7710</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82953,10 +82903,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7709</v>
+        <v>7697</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7708</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82987,10 +82937,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7707</v>
+        <v>7695</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7706</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83021,10 +82971,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7705</v>
+        <v>7693</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7704</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83052,13 +83002,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7576</v>
+        <v>7564</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7703</v>
+        <v>7691</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7702</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83086,13 +83036,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7575</v>
+        <v>7563</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7701</v>
+        <v>7689</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7700</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83120,13 +83070,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7574</v>
+        <v>7562</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7699</v>
+        <v>7687</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7698</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -83154,13 +83104,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7573</v>
+        <v>7561</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7697</v>
+        <v>7685</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7696</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83188,13 +83138,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7572</v>
+        <v>7560</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7695</v>
+        <v>7683</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7694</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83222,13 +83172,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7571</v>
+        <v>7559</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7693</v>
+        <v>7681</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7692</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83259,10 +83209,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7691</v>
+        <v>7679</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7690</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83293,10 +83243,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7689</v>
+        <v>7677</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7688</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83327,10 +83277,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7687</v>
+        <v>7675</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7686</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83361,10 +83311,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7685</v>
+        <v>7673</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7684</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83395,10 +83345,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7683</v>
+        <v>7671</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7682</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83429,10 +83379,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7681</v>
+        <v>7669</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7680</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83463,10 +83413,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7679</v>
+        <v>7667</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7678</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83497,10 +83447,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7677</v>
+        <v>7665</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7676</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83531,10 +83481,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7675</v>
+        <v>7663</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7674</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83565,10 +83515,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7673</v>
+        <v>7661</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7672</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83596,13 +83546,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7570</v>
+        <v>7558</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7671</v>
+        <v>7659</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7670</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83630,13 +83580,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7569</v>
+        <v>7557</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7669</v>
+        <v>7657</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7668</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83664,13 +83614,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7568</v>
+        <v>7556</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7667</v>
+        <v>7655</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7666</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83698,13 +83648,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7567</v>
+        <v>7555</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7665</v>
+        <v>7653</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7664</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83732,13 +83682,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7566</v>
+        <v>7554</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7663</v>
+        <v>7651</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7662</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83766,13 +83716,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7565</v>
+        <v>7553</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7661</v>
+        <v>7649</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7660</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83803,10 +83753,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7659</v>
+        <v>7647</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7658</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83837,10 +83787,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7657</v>
+        <v>7645</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7656</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83871,10 +83821,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7655</v>
+        <v>7643</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7654</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -83905,10 +83855,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7653</v>
+        <v>7641</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7652</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -83939,10 +83889,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7651</v>
+        <v>7639</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7650</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -83973,10 +83923,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7649</v>
+        <v>7637</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7648</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -84007,10 +83957,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7647</v>
+        <v>7635</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7646</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84041,10 +83991,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7645</v>
+        <v>7633</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7644</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84075,10 +84025,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7643</v>
+        <v>7631</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7642</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84109,10 +84059,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7641</v>
+        <v>7629</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7640</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84140,13 +84090,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7564</v>
+        <v>7552</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7639</v>
+        <v>7627</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7638</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84174,13 +84124,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7563</v>
+        <v>7551</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7637</v>
+        <v>7625</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7636</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84208,13 +84158,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7562</v>
+        <v>7550</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7635</v>
+        <v>7623</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7634</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84242,13 +84192,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7561</v>
+        <v>7549</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7633</v>
+        <v>7621</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7632</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84276,13 +84226,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7560</v>
+        <v>7548</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7631</v>
+        <v>7619</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7630</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -84310,13 +84260,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7559</v>
+        <v>7547</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7629</v>
+        <v>7617</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7628</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -84344,13 +84294,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7558</v>
+        <v>7546</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7627</v>
+        <v>7615</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7626</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84378,13 +84328,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7557</v>
+        <v>7545</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7625</v>
+        <v>7613</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7624</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84412,13 +84362,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7556</v>
+        <v>7544</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7623</v>
+        <v>7611</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7622</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84446,13 +84396,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7555</v>
+        <v>7543</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7621</v>
+        <v>7609</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7620</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84480,13 +84430,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7554</v>
+        <v>7542</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7619</v>
+        <v>7607</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7618</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84514,13 +84464,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7553</v>
+        <v>7541</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7617</v>
+        <v>7605</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7616</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84548,13 +84498,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7552</v>
+        <v>7540</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7615</v>
+        <v>7603</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7614</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84582,13 +84532,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7551</v>
+        <v>7539</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7613</v>
+        <v>7601</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7612</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84616,11 +84566,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7550</v>
+        <v>7538</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84648,11 +84598,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7549</v>
+        <v>7537</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7611</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84680,13 +84630,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7548</v>
+        <v>7536</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7610</v>
+        <v>7598</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7609</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84714,13 +84664,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7547</v>
+        <v>7535</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7608</v>
+        <v>7596</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7607</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84748,13 +84698,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7546</v>
+        <v>7534</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7606</v>
+        <v>7594</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7605</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84782,13 +84732,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7545</v>
+        <v>7533</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7604</v>
+        <v>7592</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7603</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84816,13 +84766,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7544</v>
+        <v>7532</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7602</v>
+        <v>7590</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7601</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84850,13 +84800,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7543</v>
+        <v>7531</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7600</v>
+        <v>7588</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7599</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -84925,7 +84875,7 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D18" sqref="A1:N119"/>
@@ -84959,7 +84909,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8574</v>
+        <v>8562</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -90641,7 +90591,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -90720,7 +90670,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8735</v>
+        <v>8723</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9099" uniqueCount="8724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9097" uniqueCount="8722">
   <si>
     <t>Uuo</t>
   </si>
@@ -26447,12 +26447,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>5j</t>
   </si>
   <si>
     <t>59</t>
@@ -27697,10 +27691,10 @@
   <dimension ref="A1:J338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E327" sqref="E327"/>
+      <selection pane="bottomRight" activeCell="C169" sqref="A1:H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31026,10 +31020,6 @@
       <c r="H147" s="18"/>
     </row>
     <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
       <c r="B148" s="8" t="s">
         <v>742</v>
       </c>
@@ -31164,10 +31154,6 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
       <c r="B154" s="1" t="s">
         <v>726</v>
       </c>
@@ -32486,10 +32472,6 @@
       <c r="H212" s="18"/>
     </row>
     <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
       <c r="B213" s="8" t="s">
         <v>595</v>
       </c>
@@ -32551,7 +32533,7 @@
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
     </row>
-    <row r="216" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
@@ -32618,10 +32600,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
+      <c r="A219" s="1"/>
       <c r="B219" s="19" t="s">
         <v>577</v>
       </c>
@@ -34868,7 +34847,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>8583</v>
+        <v>8581</v>
       </c>
       <c r="C318" s="14"/>
       <c r="D318" s="12" t="str">
@@ -35224,8 +35203,8 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="A1:N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37627,10 +37606,17 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8722</v>
+        <v>8720</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8721</v>
+        <v>8719</v>
+      </c>
+      <c r="F115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="8" t="str">
+        <f>Enums!$A$35</f>
+        <v>polyamide</v>
       </c>
     </row>
   </sheetData>
@@ -37797,7 +37783,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
@@ -37805,9 +37791,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
@@ -37864,7 +37850,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -37892,7 +37878,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -37920,7 +37906,7 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -37929,7 +37915,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B7" si="1">D5</f>
+        <f t="shared" ref="B5:B18" si="1">D5</f>
         <v>Methane</v>
       </c>
       <c r="C5" t="str">
@@ -37941,21 +37927,379 @@
         <v>Methane</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E7" si="2" xml:space="preserve"> E4 + 1</f>
+        <f t="shared" ref="E5:E18" si="2" xml:space="preserve"> E4 + 1</f>
         <v>3</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Diesel</v>
+      </c>
+      <c r="C6" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D6" t="str">
+        <f>Compounds!B116</f>
+        <v>Diesel</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerosene</v>
+      </c>
+      <c r="C7" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D7" t="str">
+        <f>Compounds!B163</f>
+        <v>Kerosene</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>Liquified Natural Gas</v>
+      </c>
+      <c r="C8" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D8" t="str">
+        <f>Compounds!B171</f>
+        <v>Liquified Natural Gas</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="G8">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>Naphtha</v>
+      </c>
+      <c r="C9" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D9" t="str">
+        <f>Compounds!B208</f>
+        <v>Naphtha</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>Naphthalene</v>
+      </c>
+      <c r="C10" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D10" t="str">
+        <f>Compounds!B209</f>
+        <v>Naphthalene</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>Propane</v>
+      </c>
+      <c r="C11" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D11" t="str">
+        <f>Compounds!B246</f>
+        <v>Propane</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethane</v>
+      </c>
+      <c r="C12" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D12" t="str">
+        <f>Compounds!B125</f>
+        <v>Ethane</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>Sweet Butane Fuel</v>
+      </c>
+      <c r="C13" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D13" t="str">
+        <f>Compounds!B279</f>
+        <v>Sweet Butane Fuel</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>Sweet Propane Fuel</v>
+      </c>
+      <c r="C14" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D14" t="str">
+        <f>Compounds!B280</f>
+        <v>Sweet Propane Fuel</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>Sweet Light Naphtha</v>
+      </c>
+      <c r="C15" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D15" t="str">
+        <f>Compounds!B281</f>
+        <v>Sweet Light Naphtha</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>Town Gas</v>
+      </c>
+      <c r="C16" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D16" t="str">
+        <f>Compounds!B292</f>
+        <v>Town Gas</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>Light Naphtha</v>
+      </c>
+      <c r="C17" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D17" t="str">
+        <f>Compounds!B167</f>
+        <v>Light Naphtha</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>Light Naphthenes</v>
+      </c>
+      <c r="C18" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D18" t="str">
+        <f>Compounds!B168</f>
+        <v>Light Naphthenes</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38777,7 +39121,7 @@
         <v>1375</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>8591</v>
+        <v>8589</v>
       </c>
       <c r="G91" s="64" t="s">
         <v>1377</v>
@@ -38786,25 +39130,25 @@
         <v>1414</v>
       </c>
       <c r="I91" s="64" t="s">
-        <v>8592</v>
+        <v>8590</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>8593</v>
+        <v>8591</v>
       </c>
       <c r="K91" s="64" t="s">
         <v>1374</v>
       </c>
       <c r="L91" s="64" t="s">
-        <v>8594</v>
+        <v>8592</v>
       </c>
       <c r="M91" s="64" t="s">
         <v>1373</v>
       </c>
       <c r="N91" s="64" t="s">
-        <v>8595</v>
+        <v>8593</v>
       </c>
       <c r="O91" s="64" t="s">
-        <v>8596</v>
+        <v>8594</v>
       </c>
       <c r="P91" s="64" t="s">
         <v>1372</v>
@@ -38819,67 +39163,67 @@
         <v>1369</v>
       </c>
       <c r="T91" s="64" t="s">
+        <v>8595</v>
+      </c>
+      <c r="U91" s="64" t="s">
+        <v>8596</v>
+      </c>
+      <c r="V91" s="64" t="s">
         <v>8597</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="W91" s="64" t="s">
         <v>8598</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="X91" s="64" t="s">
         <v>8599</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="Y91" s="64" t="s">
         <v>8600</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="Z91" s="64" t="s">
         <v>8601</v>
       </c>
-      <c r="Y91" s="64" t="s">
+      <c r="AA91" s="64" t="s">
         <v>8602</v>
       </c>
-      <c r="Z91" s="64" t="s">
+      <c r="AB91" s="64" t="s">
         <v>8603</v>
       </c>
-      <c r="AA91" s="64" t="s">
+      <c r="AC91" s="64" t="s">
         <v>8604</v>
       </c>
-      <c r="AB91" s="64" t="s">
+      <c r="AD91" s="64" t="s">
         <v>8605</v>
       </c>
-      <c r="AC91" s="64" t="s">
+      <c r="AE91" s="64" t="s">
         <v>8606</v>
       </c>
-      <c r="AD91" s="64" t="s">
+      <c r="AF91" s="64" t="s">
         <v>8607</v>
       </c>
-      <c r="AE91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8608</v>
       </c>
-      <c r="AF91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8609</v>
       </c>
-      <c r="AG91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8610</v>
       </c>
-      <c r="AH91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8611</v>
       </c>
-      <c r="AI91" s="64" t="s">
+      <c r="AK91" s="64" t="s">
         <v>8612</v>
       </c>
-      <c r="AJ91" s="64" t="s">
+      <c r="AL91" s="64" t="s">
         <v>8613</v>
       </c>
-      <c r="AK91" s="64" t="s">
+      <c r="AM91" s="64" t="s">
         <v>8614</v>
       </c>
-      <c r="AL91" s="64" t="s">
+      <c r="AN91" s="64" t="s">
         <v>8615</v>
-      </c>
-      <c r="AM91" s="64" t="s">
-        <v>8616</v>
-      </c>
-      <c r="AN91" s="64" t="s">
-        <v>8617</v>
       </c>
     </row>
     <row r="92" spans="1:40" ht="39" x14ac:dyDescent="0.25">
@@ -38888,13 +39232,13 @@
         <v>1</v>
       </c>
       <c r="F92" s="66" t="s">
-        <v>8618</v>
+        <v>8616</v>
       </c>
       <c r="G92" s="67" t="s">
         <v>1265</v>
       </c>
       <c r="H92" s="67" t="s">
-        <v>8619</v>
+        <v>8617</v>
       </c>
       <c r="I92" s="66" t="str">
         <f>"Fiber ("&amp;F92&amp;")"</f>
@@ -38916,40 +39260,40 @@
         <v>4</v>
       </c>
       <c r="P92" s="67" t="s">
+        <v>8618</v>
+      </c>
+      <c r="Q92" s="67" t="s">
+        <v>8619</v>
+      </c>
+      <c r="R92" s="67" t="s">
         <v>8620</v>
       </c>
-      <c r="Q92" s="67" t="s">
+      <c r="S92" s="67" t="s">
         <v>8621</v>
       </c>
-      <c r="R92" s="67" t="s">
+      <c r="T92" s="67" t="s">
         <v>8622</v>
       </c>
-      <c r="S92" s="67" t="s">
+      <c r="U92" s="67" t="s">
         <v>8623</v>
       </c>
-      <c r="T92" s="67" t="s">
+      <c r="V92" s="67" t="s">
         <v>8624</v>
       </c>
-      <c r="U92" s="67" t="s">
+      <c r="W92" s="67" t="s">
         <v>8625</v>
       </c>
-      <c r="V92" s="67" t="s">
+      <c r="X92" s="67" t="s">
         <v>8626</v>
       </c>
-      <c r="W92" s="67" t="s">
+      <c r="Y92" s="67" t="s">
         <v>8627</v>
       </c>
-      <c r="X92" s="67" t="s">
+      <c r="Z92" s="67" t="s">
         <v>8628</v>
       </c>
-      <c r="Y92" s="67" t="s">
+      <c r="AA92" s="67" t="s">
         <v>8629</v>
-      </c>
-      <c r="Z92" s="67" t="s">
-        <v>8630</v>
-      </c>
-      <c r="AA92" s="67" t="s">
-        <v>8631</v>
       </c>
       <c r="AB92"/>
       <c r="AC92"/>
@@ -38971,13 +39315,13 @@
         <v>2</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>8632</v>
+        <v>8630</v>
       </c>
       <c r="G93" s="67" t="s">
         <v>1339</v>
       </c>
       <c r="H93" s="67" t="s">
-        <v>8633</v>
+        <v>8631</v>
       </c>
       <c r="I93" s="66" t="str">
         <f t="shared" ref="I93:I102" si="1">"Fiber ("&amp;F93&amp;")"</f>
@@ -38999,34 +39343,34 @@
         <v>4</v>
       </c>
       <c r="P93" s="67" t="s">
+        <v>8632</v>
+      </c>
+      <c r="Q93" s="67" t="s">
+        <v>8633</v>
+      </c>
+      <c r="R93" s="67" t="s">
         <v>8634</v>
       </c>
-      <c r="Q93" s="67" t="s">
+      <c r="S93" s="67" t="s">
         <v>8635</v>
       </c>
-      <c r="R93" s="67" t="s">
+      <c r="T93" s="67" t="s">
         <v>8636</v>
       </c>
-      <c r="S93" s="67" t="s">
+      <c r="U93" s="67" t="s">
         <v>8637</v>
       </c>
-      <c r="T93" s="67" t="s">
+      <c r="V93" s="67" t="s">
         <v>8638</v>
       </c>
-      <c r="U93" s="67" t="s">
+      <c r="W93" s="67" t="s">
         <v>8639</v>
       </c>
-      <c r="V93" s="67" t="s">
+      <c r="X93" s="67" t="s">
         <v>8640</v>
       </c>
-      <c r="W93" s="67" t="s">
+      <c r="Y93" s="67" t="s">
         <v>8641</v>
-      </c>
-      <c r="X93" s="67" t="s">
-        <v>8642</v>
-      </c>
-      <c r="Y93" s="67" t="s">
-        <v>8643</v>
       </c>
       <c r="Z93"/>
       <c r="AA93"/>
@@ -39056,7 +39400,7 @@
         <v>1181</v>
       </c>
       <c r="H94" s="67" t="s">
-        <v>8633</v>
+        <v>8631</v>
       </c>
       <c r="I94" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39078,34 +39422,34 @@
         <v>4</v>
       </c>
       <c r="P94" s="67" t="s">
+        <v>8642</v>
+      </c>
+      <c r="Q94" s="67" t="s">
+        <v>8643</v>
+      </c>
+      <c r="R94" s="67" t="s">
         <v>8644</v>
       </c>
-      <c r="Q94" s="67" t="s">
+      <c r="S94" s="67" t="s">
         <v>8645</v>
       </c>
-      <c r="R94" s="67" t="s">
+      <c r="T94" s="67" t="s">
         <v>8646</v>
       </c>
-      <c r="S94" s="67" t="s">
+      <c r="U94" s="67" t="s">
         <v>8647</v>
       </c>
-      <c r="T94" s="67" t="s">
+      <c r="V94" s="67" t="s">
         <v>8648</v>
       </c>
-      <c r="U94" s="67" t="s">
+      <c r="W94" s="67" t="s">
         <v>8649</v>
       </c>
-      <c r="V94" s="67" t="s">
+      <c r="X94" s="67" t="s">
         <v>8650</v>
       </c>
-      <c r="W94" s="67" t="s">
+      <c r="Y94" s="67" t="s">
         <v>8651</v>
-      </c>
-      <c r="X94" s="67" t="s">
-        <v>8652</v>
-      </c>
-      <c r="Y94" s="67" t="s">
-        <v>8653</v>
       </c>
       <c r="Z94"/>
       <c r="AA94"/>
@@ -39129,13 +39473,13 @@
         <v>4</v>
       </c>
       <c r="F95" s="66" t="s">
-        <v>8654</v>
+        <v>8652</v>
       </c>
       <c r="G95" s="67" t="s">
         <v>1327</v>
       </c>
       <c r="H95" s="67" t="s">
-        <v>8633</v>
+        <v>8631</v>
       </c>
       <c r="I95" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39160,19 +39504,19 @@
         <v>8445</v>
       </c>
       <c r="Q95" s="67" t="s">
+        <v>8653</v>
+      </c>
+      <c r="R95" s="67" t="s">
+        <v>8654</v>
+      </c>
+      <c r="S95" s="67" t="s">
         <v>8655</v>
-      </c>
-      <c r="R95" s="67" t="s">
-        <v>8656</v>
-      </c>
-      <c r="S95" s="67" t="s">
-        <v>8657</v>
       </c>
       <c r="T95" s="67" t="s">
         <v>8471</v>
       </c>
       <c r="U95" s="67" t="s">
-        <v>8658</v>
+        <v>8656</v>
       </c>
       <c r="V95"/>
       <c r="W95"/>
@@ -39206,7 +39550,7 @@
         <v>1209</v>
       </c>
       <c r="H96" s="67" t="s">
-        <v>8633</v>
+        <v>8631</v>
       </c>
       <c r="I96" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39228,61 +39572,61 @@
         <v>4</v>
       </c>
       <c r="P96" s="67" t="s">
-        <v>8647</v>
+        <v>8645</v>
       </c>
       <c r="Q96" s="67" t="s">
         <v>8445</v>
       </c>
       <c r="R96" s="67" t="s">
-        <v>8656</v>
+        <v>8654</v>
       </c>
       <c r="S96" s="67" t="s">
+        <v>8657</v>
+      </c>
+      <c r="T96" s="67" t="s">
+        <v>8658</v>
+      </c>
+      <c r="U96" s="67" t="s">
         <v>8659</v>
       </c>
-      <c r="T96" s="67" t="s">
+      <c r="V96" s="67" t="s">
         <v>8660</v>
       </c>
-      <c r="U96" s="67" t="s">
+      <c r="W96" s="67" t="s">
         <v>8661</v>
       </c>
-      <c r="V96" s="67" t="s">
+      <c r="X96" s="67" t="s">
         <v>8662</v>
       </c>
-      <c r="W96" s="67" t="s">
+      <c r="Y96" s="67" t="s">
         <v>8663</v>
       </c>
-      <c r="X96" s="67" t="s">
+      <c r="Z96" s="67" t="s">
         <v>8664</v>
       </c>
-      <c r="Y96" s="67" t="s">
+      <c r="AA96" s="67" t="s">
         <v>8665</v>
       </c>
-      <c r="Z96" s="67" t="s">
+      <c r="AB96" s="67" t="s">
         <v>8666</v>
       </c>
-      <c r="AA96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
         <v>8667</v>
       </c>
-      <c r="AB96" s="67" t="s">
+      <c r="AD96" s="67" t="s">
         <v>8668</v>
       </c>
-      <c r="AC96" s="67" t="s">
+      <c r="AE96" s="67" t="s">
         <v>8669</v>
       </c>
-      <c r="AD96" s="67" t="s">
+      <c r="AF96" s="67" t="s">
         <v>8670</v>
       </c>
-      <c r="AE96" s="67" t="s">
+      <c r="AG96" s="67" t="s">
         <v>8671</v>
       </c>
-      <c r="AF96" s="67" t="s">
+      <c r="AH96" s="67" t="s">
         <v>8672</v>
-      </c>
-      <c r="AG96" s="67" t="s">
-        <v>8673</v>
-      </c>
-      <c r="AH96" s="67" t="s">
-        <v>8674</v>
       </c>
       <c r="AI96"/>
       <c r="AJ96"/>
@@ -39303,7 +39647,7 @@
         <v>1203</v>
       </c>
       <c r="H97" s="67" t="s">
-        <v>8633</v>
+        <v>8631</v>
       </c>
       <c r="I97" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39327,28 +39671,28 @@
         <v>4</v>
       </c>
       <c r="P97" s="67" t="s">
-        <v>8675</v>
+        <v>8673</v>
       </c>
       <c r="Q97" s="67" t="s">
-        <v>8676</v>
+        <v>8674</v>
       </c>
       <c r="R97" s="67" t="s">
         <v>8457</v>
       </c>
       <c r="S97" s="67" t="s">
+        <v>8675</v>
+      </c>
+      <c r="T97" s="67" t="s">
+        <v>8676</v>
+      </c>
+      <c r="U97" s="67" t="s">
         <v>8677</v>
       </c>
-      <c r="T97" s="67" t="s">
+      <c r="V97" s="67" t="s">
         <v>8678</v>
       </c>
-      <c r="U97" s="67" t="s">
+      <c r="W97" s="67" t="s">
         <v>8679</v>
-      </c>
-      <c r="V97" s="67" t="s">
-        <v>8680</v>
-      </c>
-      <c r="W97" s="67" t="s">
-        <v>8681</v>
       </c>
       <c r="X97"/>
       <c r="Y97"/>
@@ -39380,7 +39724,7 @@
         <v>220</v>
       </c>
       <c r="H98" s="67" t="s">
-        <v>8682</v>
+        <v>8680</v>
       </c>
       <c r="I98" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39404,50 +39748,50 @@
         <v>4</v>
       </c>
       <c r="P98" s="67" t="s">
+        <v>8681</v>
+      </c>
+      <c r="Q98" s="67" t="s">
+        <v>8682</v>
+      </c>
+      <c r="R98" s="67" t="s">
         <v>8683</v>
       </c>
-      <c r="Q98" s="67" t="s">
+      <c r="S98" s="67" t="s">
         <v>8684</v>
-      </c>
-      <c r="R98" s="67" t="s">
-        <v>8685</v>
-      </c>
-      <c r="S98" s="67" t="s">
-        <v>8686</v>
       </c>
       <c r="T98" s="67"/>
       <c r="U98" s="67" t="s">
+        <v>8685</v>
+      </c>
+      <c r="V98" s="67" t="s">
+        <v>8686</v>
+      </c>
+      <c r="W98" s="67" t="s">
         <v>8687</v>
       </c>
-      <c r="V98" s="67" t="s">
+      <c r="X98" s="67" t="s">
         <v>8688</v>
       </c>
-      <c r="W98" s="67" t="s">
+      <c r="Y98" s="67" t="s">
         <v>8689</v>
       </c>
-      <c r="X98" s="67" t="s">
+      <c r="Z98" s="67" t="s">
         <v>8690</v>
       </c>
-      <c r="Y98" s="67" t="s">
+      <c r="AA98" s="67" t="s">
         <v>8691</v>
       </c>
-      <c r="Z98" s="67" t="s">
+      <c r="AB98" s="67" t="s">
         <v>8692</v>
       </c>
-      <c r="AA98" s="67" t="s">
+      <c r="AC98" s="67" t="s">
         <v>8693</v>
       </c>
-      <c r="AB98" s="67" t="s">
+      <c r="AD98" s="67" t="s">
         <v>8694</v>
       </c>
-      <c r="AC98" s="67" t="s">
+      <c r="AE98" s="67" t="s">
         <v>8695</v>
-      </c>
-      <c r="AD98" s="67" t="s">
-        <v>8696</v>
-      </c>
-      <c r="AE98" s="67" t="s">
-        <v>8697</v>
       </c>
       <c r="AF98"/>
       <c r="AG98"/>
@@ -39471,7 +39815,7 @@
         <v>220</v>
       </c>
       <c r="H99" s="67" t="s">
-        <v>8698</v>
+        <v>8696</v>
       </c>
       <c r="I99" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39493,29 +39837,29 @@
         <v>4</v>
       </c>
       <c r="P99" s="67" t="s">
+        <v>8697</v>
+      </c>
+      <c r="Q99" s="67" t="s">
+        <v>8698</v>
+      </c>
+      <c r="R99" s="67" t="s">
         <v>8699</v>
       </c>
-      <c r="Q99" s="67" t="s">
+      <c r="S99" s="67" t="s">
         <v>8700</v>
       </c>
-      <c r="R99" s="67" t="s">
+      <c r="T99" s="67" t="s">
         <v>8701</v>
       </c>
-      <c r="S99" s="67" t="s">
+      <c r="U99" s="67" t="s">
         <v>8702</v>
       </c>
-      <c r="T99" s="67" t="s">
+      <c r="V99" s="67" t="s">
         <v>8703</v>
-      </c>
-      <c r="U99" s="67" t="s">
-        <v>8704</v>
-      </c>
-      <c r="V99" s="67" t="s">
-        <v>8705</v>
       </c>
       <c r="W99" s="67"/>
       <c r="X99" s="67" t="s">
-        <v>8706</v>
+        <v>8704</v>
       </c>
       <c r="Y99"/>
       <c r="Z99"/>
@@ -39540,13 +39884,13 @@
         <v>0</v>
       </c>
       <c r="F100" s="66" t="s">
-        <v>8707</v>
+        <v>8705</v>
       </c>
       <c r="G100" s="67" t="s">
         <v>7529</v>
       </c>
       <c r="H100" s="67" t="s">
-        <v>8708</v>
+        <v>8706</v>
       </c>
       <c r="I100" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39568,25 +39912,25 @@
         <v>4</v>
       </c>
       <c r="P100" s="67" t="s">
+        <v>8707</v>
+      </c>
+      <c r="Q100" s="67" t="s">
+        <v>8708</v>
+      </c>
+      <c r="R100" s="67" t="s">
         <v>8709</v>
       </c>
-      <c r="Q100" s="67" t="s">
+      <c r="S100" s="67" t="s">
         <v>8710</v>
       </c>
-      <c r="R100" s="67" t="s">
+      <c r="T100" s="67" t="s">
         <v>8711</v>
       </c>
-      <c r="S100" s="67" t="s">
+      <c r="U100" s="67" t="s">
         <v>8712</v>
       </c>
-      <c r="T100" s="67" t="s">
+      <c r="V100" s="67" t="s">
         <v>8713</v>
-      </c>
-      <c r="U100" s="67" t="s">
-        <v>8714</v>
-      </c>
-      <c r="V100" s="67" t="s">
-        <v>8715</v>
       </c>
       <c r="W100"/>
       <c r="X100"/>
@@ -39613,13 +39957,13 @@
         <v>10</v>
       </c>
       <c r="F101" s="66" t="s">
-        <v>8716</v>
+        <v>8714</v>
       </c>
       <c r="G101" s="67" t="s">
         <v>7530</v>
       </c>
       <c r="H101" s="67" t="s">
-        <v>8708</v>
+        <v>8706</v>
       </c>
       <c r="I101" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39675,13 +40019,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="66" t="s">
-        <v>8717</v>
+        <v>8715</v>
       </c>
       <c r="G102" s="67" t="s">
-        <v>8718</v>
+        <v>8716</v>
       </c>
       <c r="H102" s="67" t="s">
-        <v>8717</v>
+        <v>8715</v>
       </c>
       <c r="I102" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39703,10 +40047,10 @@
         <v>4</v>
       </c>
       <c r="P102" s="67" t="s">
-        <v>8719</v>
+        <v>8717</v>
       </c>
       <c r="Q102" s="67" t="s">
-        <v>8720</v>
+        <v>8718</v>
       </c>
       <c r="R102" s="67" t="s">
         <v>8364</v>
@@ -41155,7 +41499,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8575</v>
+        <v>8573</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41191,7 +41535,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8576</v>
+        <v>8574</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -41662,61 +42006,61 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8577</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8578</v>
+        <v>8576</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8579</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8580</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8581</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8582</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8584</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
-        <v>8585</v>
+        <v>8583</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8586</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
-        <v>8587</v>
+        <v>8585</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8588</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>8589</v>
+        <v>8587</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8590</v>
+        <v>8588</v>
       </c>
     </row>
   </sheetData>
@@ -41738,7 +42082,7 @@
   <dimension ref="A1:K6104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41754,16 +42098,6 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J4" s="35" t="s">
-        <v>8565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J5" s="35" t="s">
-        <v>8564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J6" s="35" t="s">
         <v>8563</v>
       </c>
     </row>
@@ -41784,7 +42118,7 @@
         <v>7522</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>8574</v>
+        <v>8572</v>
       </c>
       <c r="I15" s="62" t="s">
         <v>7898</v>
@@ -41801,16 +42135,16 @@
         <v>7521</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>8573</v>
+        <v>8571</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>8572</v>
+        <v>8570</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>8571</v>
+        <v>8569</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>8570</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -41818,16 +42152,16 @@
         <v>7520</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>8569</v>
+        <v>8567</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>8568</v>
+        <v>8566</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>8567</v>
+        <v>8565</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>8566</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -84875,10 +85209,10 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="A1:N119"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="A1:N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -90670,7 +91004,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8723</v>
+        <v>8721</v>
       </c>
     </row>
   </sheetData>
@@ -90692,7 +91026,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E3" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="18390" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -37786,7 +37786,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="19950" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9097" uniqueCount="8722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9100" uniqueCount="8724">
   <si>
     <t>Uuo</t>
   </si>
@@ -26924,6 +26924,12 @@
   </si>
   <si>
     <t>OilField</t>
+  </si>
+  <si>
+    <t>Cr2O3-Al2O3</t>
+  </si>
+  <si>
+    <t>Chromia Alumina</t>
   </si>
 </sst>
 </file>
@@ -27690,11 +27696,11 @@
   </sheetPr>
   <dimension ref="A1:J338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C169" sqref="A1:H337"/>
+      <selection pane="bottomRight" activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35170,7 +35176,7 @@
         <v>Liquid</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
@@ -35182,8 +35188,24 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="D338" s="12"/>
+    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>8723</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>8722</v>
+      </c>
+      <c r="D338" s="12" t="str">
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37785,8 +37807,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37903,10 +37925,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -37931,10 +37953,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>540</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -37959,10 +37981,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>720</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -37987,10 +38009,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>720</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -38015,10 +38037,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>720</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -38043,10 +38065,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -38071,10 +38093,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -38099,10 +38121,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>540</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -38127,10 +38149,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>540</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -38155,10 +38177,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>1200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -38183,10 +38205,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>1200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -38211,10 +38233,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>900</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -38239,10 +38261,10 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -38267,10 +38289,10 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -38295,10 +38317,10 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -41455,7 +41477,7 @@
   </sheetPr>
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
@@ -42082,7 +42104,7 @@
   <dimension ref="A1:K6104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19950" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="23070" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="Polymer Objects" sheetId="9" r:id="rId12"/>
     <sheet name="Fuel" sheetId="16" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Items (MC)'!$B$2:$I$193</definedName>
   </definedNames>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9100" uniqueCount="8724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9092" uniqueCount="8721">
   <si>
     <t>Uuo</t>
   </si>
@@ -25965,9 +25962,6 @@
     <t>Bale Of Alfalfa</t>
   </si>
   <si>
-    <t>Temp Items</t>
-  </si>
-  <si>
     <t>transportation</t>
   </si>
   <si>
@@ -26449,36 +26443,18 @@
     <t>State</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>1Y</t>
   </si>
   <si>
     <t>4i</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1Z</t>
-  </si>
-  <si>
     <t>4m</t>
   </si>
   <si>
     <t>4l</t>
   </si>
   <si>
-    <t>4k</t>
-  </si>
-  <si>
-    <t>4j</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Bag</t>
   </si>
   <si>
@@ -26930,6 +26906,18 @@
   </si>
   <si>
     <t>Chromia Alumina</t>
+  </si>
+  <si>
+    <t>Acrylonitrile</t>
+  </si>
+  <si>
+    <t>C3H3N</t>
+  </si>
+  <si>
+    <t>Acetonitrile</t>
+  </si>
+  <si>
+    <t>CH3CN</t>
   </si>
 </sst>
 </file>
@@ -27313,54 +27301,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TODO"/>
-      <sheetName val="Notes"/>
-      <sheetName val="Enums"/>
-      <sheetName val="Game IDs"/>
-      <sheetName val="Items (MC)"/>
-      <sheetName val="Blocks (MC)"/>
-      <sheetName val="Elements"/>
-      <sheetName val="Minerals"/>
-      <sheetName val="Alloys"/>
-      <sheetName val="Compounds"/>
-      <sheetName val="Polymers"/>
-      <sheetName val="Polymer Objects"/>
-      <sheetName val="Fuel"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>polyvinyl</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>1.0.0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -27661,22 +27601,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8522</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8523</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8524</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8525</v>
+        <v>8524</v>
       </c>
     </row>
   </sheetData>
@@ -27694,13 +27634,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J338"/>
+  <dimension ref="A1:J339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B341" sqref="B341"/>
+      <selection pane="bottomRight" activeCell="B228" sqref="A1:H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29318,10 +29258,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8504</v>
+        <v>8503</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8502</v>
+        <v>8501</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -29333,7 +29273,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>8505</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -31097,10 +31037,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
+        <v>8536</v>
+      </c>
+      <c r="C151" s="18" t="s">
         <v>8537</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>8538</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$3</f>
@@ -31781,10 +31721,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>8538</v>
+      </c>
+      <c r="C181" s="12" t="s">
         <v>8539</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>8540</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31801,10 +31741,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8541</v>
+        <v>8540</v>
       </c>
       <c r="C182" t="s">
-        <v>8548</v>
+        <v>8547</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31812,7 +31752,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8555</v>
+        <v>8554</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -31823,10 +31763,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8542</v>
+        <v>8541</v>
       </c>
       <c r="C183" t="s">
-        <v>8549</v>
+        <v>8548</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31834,7 +31774,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8556</v>
+        <v>8555</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -31845,10 +31785,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8547</v>
+        <v>8546</v>
       </c>
       <c r="C184" t="s">
-        <v>8550</v>
+        <v>8549</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31856,7 +31796,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8557</v>
+        <v>8556</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -31867,10 +31807,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8546</v>
+        <v>8545</v>
       </c>
       <c r="C185" t="s">
-        <v>8551</v>
+        <v>8550</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31878,7 +31818,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8558</v>
+        <v>8557</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -31889,10 +31829,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8545</v>
+        <v>8544</v>
       </c>
       <c r="C186" t="s">
-        <v>8552</v>
+        <v>8551</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31900,7 +31840,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8559</v>
+        <v>8558</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -31911,10 +31851,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8544</v>
+        <v>8543</v>
       </c>
       <c r="C187" t="s">
-        <v>8553</v>
+        <v>8552</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31922,7 +31862,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8560</v>
+        <v>8559</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -31933,10 +31873,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8543</v>
+        <v>8542</v>
       </c>
       <c r="C188" t="s">
-        <v>8554</v>
+        <v>8553</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31944,7 +31884,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8561</v>
+        <v>8560</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -32878,8 +32818,8 @@
         <v>546</v>
       </c>
       <c r="D231" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="12" t="s">
@@ -32902,8 +32842,8 @@
         <v>542</v>
       </c>
       <c r="D232" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="12" t="s">
@@ -32926,8 +32866,8 @@
         <v>538</v>
       </c>
       <c r="D233" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E233" s="12"/>
       <c r="F233" s="12" t="s">
@@ -32950,8 +32890,8 @@
         <v>536</v>
       </c>
       <c r="D234" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E234" s="12"/>
       <c r="F234" s="12" t="s">
@@ -32974,8 +32914,8 @@
         <v>532</v>
       </c>
       <c r="D235" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E235" s="12"/>
       <c r="F235" s="12" t="s">
@@ -32998,8 +32938,8 @@
         <v>528</v>
       </c>
       <c r="D236" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E236" s="12"/>
       <c r="F236" s="12" t="s">
@@ -33022,8 +32962,8 @@
         <v>525</v>
       </c>
       <c r="D237" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E237" s="12"/>
       <c r="F237" s="12" t="s">
@@ -33046,8 +32986,8 @@
         <v>295</v>
       </c>
       <c r="D238" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E238" s="12"/>
       <c r="F238" s="12" t="s">
@@ -33070,8 +33010,8 @@
         <v>520</v>
       </c>
       <c r="D239" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E239" s="12"/>
       <c r="F239" s="12" t="s">
@@ -33094,8 +33034,8 @@
         <v>516</v>
       </c>
       <c r="D240" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E240" s="12"/>
       <c r="F240" s="12" t="s">
@@ -33118,8 +33058,8 @@
         <v>512</v>
       </c>
       <c r="D241" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E241" s="12"/>
       <c r="F241" s="12" t="s">
@@ -33142,8 +33082,8 @@
         <v>509</v>
       </c>
       <c r="D242" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="12" t="s">
@@ -33166,8 +33106,8 @@
         <v>505</v>
       </c>
       <c r="D243" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="12" t="s">
@@ -33190,8 +33130,8 @@
         <v>501</v>
       </c>
       <c r="D244" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E244" s="13"/>
       <c r="F244" s="12"/>
@@ -33210,8 +33150,8 @@
         <v>499</v>
       </c>
       <c r="D245" s="12" t="str">
-        <f>Enums!$A$3</f>
-        <v>Liquid</v>
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
       </c>
       <c r="E245" s="12"/>
       <c r="F245" s="12" t="s">
@@ -33273,7 +33213,7 @@
         <v>492</v>
       </c>
       <c r="C248" s="57" t="s">
-        <v>8500</v>
+        <v>8499</v>
       </c>
       <c r="D248" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -33281,11 +33221,11 @@
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12" t="s">
-        <v>8503</v>
+        <v>8502</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12" t="s">
-        <v>8501</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -33998,7 +33938,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8534</v>
+        <v>8533</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -34016,7 +33956,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8535</v>
+        <v>8534</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -34034,7 +33974,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8536</v>
+        <v>8535</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -34739,11 +34679,11 @@
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C313" s="14" t="s">
-        <v>295</v>
+      <c r="B313" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="D313" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34761,22 +34701,23 @@
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B314" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>293</v>
+      <c r="B314" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="D314" s="12" t="str">
         <f>Enums!$A$2</f>
         <v>Solid</v>
       </c>
-      <c r="E314" s="12"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H314" s="12"/>
+      <c r="H314" s="12" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="315" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="str">
@@ -34784,10 +34725,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D315" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34807,10 +34748,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D316" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34830,50 +34771,49 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C317" s="14" t="s">
-        <v>287</v>
-      </c>
+        <v>8574</v>
+      </c>
+      <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
         <f>Enums!$A$2</f>
         <v>Solid</v>
       </c>
       <c r="F317" s="12"/>
-      <c r="G317" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="H317" s="12" t="s">
-        <v>286</v>
-      </c>
+      <c r="G317" s="12"/>
+      <c r="H317" s="12"/>
     </row>
     <row r="318" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B318" s="8" t="s">
-        <v>8581</v>
-      </c>
-      <c r="C318" s="14"/>
+      <c r="B318" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>284</v>
+      </c>
       <c r="D318" s="12" t="str">
         <f>Enums!$A$2</f>
         <v>Solid</v>
       </c>
-      <c r="F318" s="12"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
+      <c r="G318" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H318" s="12" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="319" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="str">
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>285</v>
+      <c r="B319" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D319" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34891,11 +34831,11 @@
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B320" s="8" t="s">
-        <v>283</v>
+      <c r="B320" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D320" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34914,10 +34854,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D321" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34936,10 +34876,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C322" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="D322" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34958,10 +34898,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C323" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="C323" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="D323" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34970,9 +34910,6 @@
       <c r="G323" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H323" s="12" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="324" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="str">
@@ -34980,10 +34917,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C324" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="D324" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -34999,15 +34936,16 @@
         <v>1.0.0</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C325" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="D325" s="12" t="str">
         <f>Enums!$A$2</f>
         <v>Solid</v>
       </c>
+      <c r="E325" s="12"/>
       <c r="G325" s="12" t="s">
         <v>266</v>
       </c>
@@ -35017,11 +34955,11 @@
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>270</v>
+      <c r="B326" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D326" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -35037,19 +34975,13 @@
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B327" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C327" s="13" t="s">
-        <v>267</v>
+      <c r="B327" s="53" t="str">
+        <f>Enums!$B$66</f>
+        <v>Fruit Brandy</v>
       </c>
       <c r="D327" s="12" t="str">
-        <f>Enums!$A$2</f>
-        <v>Solid</v>
-      </c>
-      <c r="E327" s="12"/>
-      <c r="G327" s="12" t="s">
-        <v>266</v>
+        <f>Enums!$A$3</f>
+        <v>Liquid</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -35058,8 +34990,8 @@
         <v>1.0.0</v>
       </c>
       <c r="B328" s="53" t="str">
-        <f>Enums!$B$66</f>
-        <v>Fruit Brandy</v>
+        <f>Enums!$B$67</f>
+        <v>Vodka</v>
       </c>
       <c r="D328" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35072,8 +35004,8 @@
         <v>1.0.0</v>
       </c>
       <c r="B329" s="53" t="str">
-        <f>Enums!$B$67</f>
-        <v>Vodka</v>
+        <f>Enums!$B$68</f>
+        <v>Gin</v>
       </c>
       <c r="D329" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35086,8 +35018,8 @@
         <v>1.0.0</v>
       </c>
       <c r="B330" s="53" t="str">
-        <f>Enums!$B$68</f>
-        <v>Gin</v>
+        <f>Enums!$B$69</f>
+        <v>Tequila</v>
       </c>
       <c r="D330" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35100,8 +35032,8 @@
         <v>1.0.0</v>
       </c>
       <c r="B331" s="53" t="str">
-        <f>Enums!$B$69</f>
-        <v>Tequila</v>
+        <f>Enums!$B$70</f>
+        <v>Rum</v>
       </c>
       <c r="D331" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35114,8 +35046,8 @@
         <v>1.0.0</v>
       </c>
       <c r="B332" s="53" t="str">
-        <f>Enums!$B$70</f>
-        <v>Rum</v>
+        <f>Enums!$B$71</f>
+        <v>Whiskey</v>
       </c>
       <c r="D332" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35128,8 +35060,8 @@
         <v>1.0.0</v>
       </c>
       <c r="B333" s="53" t="str">
-        <f>Enums!$B$71</f>
-        <v>Whiskey</v>
+        <f>Enums!$B$72</f>
+        <v>Carrot Wine</v>
       </c>
       <c r="D333" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35141,9 +35073,8 @@
         <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
-      <c r="B334" s="53" t="str">
-        <f>Enums!$B$72</f>
-        <v>Carrot Wine</v>
+      <c r="B334" s="1" t="s">
+        <v>8435</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35156,7 +35087,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>8435</v>
+        <v>8436</v>
       </c>
       <c r="D335" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35169,42 +35100,61 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8436</v>
-      </c>
-      <c r="D336" s="12" t="str">
+        <v>8495</v>
+      </c>
+      <c r="D336" s="12" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>8716</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>8715</v>
+      </c>
+      <c r="D337" s="12" t="str">
+        <f>Enums!$A$2</f>
+        <v>Solid</v>
+      </c>
+      <c r="G337" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>8717</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>8718</v>
+      </c>
+      <c r="D338" s="12" t="str">
         <f>Enums!$A$3</f>
         <v>Liquid</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>8496</v>
-      </c>
-      <c r="D337" s="12" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="str">
-        <f>Enums!$A$94</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>8723</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>8722</v>
-      </c>
-      <c r="D338" s="12" t="str">
-        <f>Enums!$A$2</f>
-        <v>Solid</v>
-      </c>
-      <c r="G338" s="12" t="s">
-        <v>266</v>
+    <row r="339" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>8719</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>8720</v>
+      </c>
+      <c r="D339" s="12" t="str">
+        <f>Enums!$A$3</f>
+        <v>Liquid</v>
       </c>
     </row>
   </sheetData>
@@ -35226,7 +35176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="A1:N115"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="A1:N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35291,7 +35241,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -35316,7 +35266,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -35337,7 +35287,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -35359,7 +35309,7 @@
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -35379,7 +35329,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -35399,7 +35349,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -35419,7 +35369,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -35439,7 +35389,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -35458,7 +35408,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B10" s="33" t="s">
@@ -35479,7 +35429,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -35499,7 +35449,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -35519,7 +35469,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -35541,7 +35491,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -35561,7 +35511,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -35581,7 +35531,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B16" s="33" t="s">
@@ -35605,7 +35555,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -35625,7 +35575,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -35646,7 +35596,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
@@ -35666,7 +35616,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -35685,7 +35635,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B21" s="33" t="s">
@@ -35705,7 +35655,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -35729,7 +35679,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -35750,11 +35700,11 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8526</v>
+        <v>8525</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1326</v>
@@ -35771,7 +35721,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -35795,7 +35745,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -35816,7 +35766,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B27" s="33" t="s">
@@ -35836,7 +35786,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B28" s="33" t="s">
@@ -35857,7 +35807,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
@@ -35878,7 +35828,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B30" s="33" t="s">
@@ -35898,7 +35848,7 @@
     </row>
     <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B31" s="33" t="s">
@@ -35923,7 +35873,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -35944,7 +35894,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B33" s="33" t="s">
@@ -35965,7 +35915,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B34" s="33" t="s">
@@ -35986,7 +35936,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B35" s="33" t="s">
@@ -36006,11 +35956,11 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8528</v>
+        <v>8527</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1304</v>
@@ -36027,7 +35977,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B37" s="33" t="s">
@@ -36048,7 +35998,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
@@ -36069,7 +36019,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
@@ -36089,7 +36039,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B40" s="33" t="s">
@@ -36109,7 +36059,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B41" s="33" t="s">
@@ -36130,7 +36080,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B42" s="33" t="s">
@@ -36150,7 +36100,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B43" s="33" t="s">
@@ -36170,7 +36120,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B44" s="33" t="s">
@@ -36190,7 +36140,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f>[1]Enums!$A$94</f>
+        <f>Enums!$A$94</f>
         <v>1.0.0</v>
       </c>
       <c r="B45" s="33" t="s">
@@ -37269,7 +37219,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="8" t="str">
-        <f>[1]Enums!$A$47</f>
+        <f>Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37350,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="8" t="str">
-        <f>[1]Enums!$A$47</f>
+        <f>Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37370,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="8" t="str">
-        <f>[1]Enums!$A$47</f>
+        <f>Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37390,7 +37340,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="8" t="str">
-        <f>[1]Enums!$A$47</f>
+        <f>Enums!$A$47</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -37628,10 +37578,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8720</v>
+        <v>8713</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8719</v>
+        <v>8712</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
@@ -37676,7 +37626,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8521</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -37775,7 +37725,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8499</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -37784,7 +37734,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8533</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -37827,25 +37777,25 @@
         <v>Version</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>8512</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>8513</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>8514</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="E1" s="58" t="s">
+        <v>8531</v>
+      </c>
+      <c r="F1" s="60" t="s">
         <v>8515</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>8532</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="61" t="s">
         <v>8516</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="H1" s="61" t="s">
         <v>8517</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>8518</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -38335,10 +38285,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN393"/>
+  <dimension ref="A1:AJ393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A85" sqref="A85"/>
+      <selection pane="topRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="U102" sqref="U102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39051,7 +39005,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>8527</v>
+        <v>8526</v>
       </c>
       <c r="D78" s="8"/>
     </row>
@@ -39067,7 +39021,7 @@
       </c>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -39076,7 +39030,7 @@
       </c>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -39084,7 +39038,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -39092,24 +39046,24 @@
         <v>8299</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>5</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>8530</v>
-      </c>
-    </row>
-    <row r="85" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>5</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>8531</v>
+        <v>8530</v>
       </c>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -39117,7 +39071,7 @@
         <v>8298</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -39126,197 +39080,199 @@
       </c>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B88" s="12"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B89" s="12"/>
     </row>
-    <row r="90" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B90" s="12"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
+    <row r="91" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="64" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>8582</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>1414</v>
+      </c>
       <c r="E91" s="64" t="s">
-        <v>1375</v>
+        <v>8583</v>
       </c>
       <c r="F91" s="64" t="s">
+        <v>8584</v>
+      </c>
+      <c r="G91" s="64" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H91" s="64" t="s">
+        <v>8585</v>
+      </c>
+      <c r="I91" s="64" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J91" s="64" t="s">
+        <v>8586</v>
+      </c>
+      <c r="K91" s="64" t="s">
+        <v>8587</v>
+      </c>
+      <c r="L91" s="64" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M91" s="64" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N91" s="64" t="s">
+        <v>1370</v>
+      </c>
+      <c r="O91" s="64" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P91" s="64" t="s">
+        <v>8588</v>
+      </c>
+      <c r="Q91" s="64" t="s">
         <v>8589</v>
       </c>
-      <c r="G91" s="64" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H91" s="64" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I91" s="64" t="s">
+      <c r="R91" s="64" t="s">
         <v>8590</v>
       </c>
-      <c r="J91" s="64" t="s">
+      <c r="S91" s="64" t="s">
         <v>8591</v>
       </c>
-      <c r="K91" s="64" t="s">
-        <v>1374</v>
-      </c>
-      <c r="L91" s="64" t="s">
+      <c r="T91" s="64" t="s">
         <v>8592</v>
       </c>
-      <c r="M91" s="64" t="s">
-        <v>1373</v>
-      </c>
-      <c r="N91" s="64" t="s">
+      <c r="U91" s="64" t="s">
         <v>8593</v>
       </c>
-      <c r="O91" s="64" t="s">
+      <c r="V91" s="64" t="s">
         <v>8594</v>
       </c>
-      <c r="P91" s="64" t="s">
-        <v>1372</v>
-      </c>
-      <c r="Q91" s="64" t="s">
-        <v>1371</v>
-      </c>
-      <c r="R91" s="64" t="s">
-        <v>1370</v>
-      </c>
-      <c r="S91" s="64" t="s">
-        <v>1369</v>
-      </c>
-      <c r="T91" s="64" t="s">
+      <c r="W91" s="64" t="s">
         <v>8595</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="X91" s="64" t="s">
         <v>8596</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="Y91" s="64" t="s">
         <v>8597</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="Z91" s="64" t="s">
         <v>8598</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="AA91" s="64" t="s">
         <v>8599</v>
       </c>
-      <c r="Y91" s="64" t="s">
+      <c r="AB91" s="64" t="s">
         <v>8600</v>
       </c>
-      <c r="Z91" s="64" t="s">
+      <c r="AC91" s="64" t="s">
         <v>8601</v>
       </c>
-      <c r="AA91" s="64" t="s">
+      <c r="AD91" s="64" t="s">
         <v>8602</v>
       </c>
-      <c r="AB91" s="64" t="s">
+      <c r="AE91" s="64" t="s">
         <v>8603</v>
       </c>
-      <c r="AC91" s="64" t="s">
+      <c r="AF91" s="64" t="s">
         <v>8604</v>
       </c>
-      <c r="AD91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8605</v>
       </c>
-      <c r="AE91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8606</v>
       </c>
-      <c r="AF91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8607</v>
       </c>
-      <c r="AG91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8608</v>
       </c>
-      <c r="AH91" s="64" t="s">
+    </row>
+    <row r="92" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="65">
+        <v>1</v>
+      </c>
+      <c r="B92" s="66" t="s">
         <v>8609</v>
       </c>
-      <c r="AI91" s="64" t="s">
+      <c r="C92" s="67" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D92" s="67" t="s">
         <v>8610</v>
       </c>
-      <c r="AJ91" s="64" t="s">
+      <c r="E92" s="66" t="str">
+        <f>"Fiber ("&amp;B92&amp;")"</f>
+        <v>Fiber (PolyEthylene Terephthalate )</v>
+      </c>
+      <c r="F92" s="66" t="str">
+        <f t="shared" ref="F92:F102" si="0">"Pellets ("&amp;B92&amp;")"</f>
+        <v>Pellets (PolyEthylene Terephthalate )</v>
+      </c>
+      <c r="G92" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92" s="67" t="s">
         <v>8611</v>
       </c>
-      <c r="AK91" s="64" t="s">
+      <c r="M92" s="67" t="s">
         <v>8612</v>
       </c>
-      <c r="AL91" s="64" t="s">
+      <c r="N92" s="67" t="s">
         <v>8613</v>
       </c>
-      <c r="AM91" s="64" t="s">
+      <c r="O92" s="67" t="s">
         <v>8614</v>
       </c>
-      <c r="AN91" s="64" t="s">
+      <c r="P92" s="67" t="s">
         <v>8615</v>
       </c>
-    </row>
-    <row r="92" spans="1:40" ht="39" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
-      <c r="E92" s="65">
-        <v>1</v>
-      </c>
-      <c r="F92" s="66" t="s">
+      <c r="Q92" s="67" t="s">
         <v>8616</v>
       </c>
-      <c r="G92" s="67" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H92" s="67" t="s">
+      <c r="R92" s="67" t="s">
         <v>8617</v>
       </c>
-      <c r="I92" s="66" t="str">
-        <f>"Fiber ("&amp;F92&amp;")"</f>
-        <v>Fiber (PolyEthylene Terephthalate )</v>
-      </c>
-      <c r="J92" s="66" t="str">
-        <f t="shared" ref="J92:J102" si="0">"Pellets ("&amp;F92&amp;")"</f>
-        <v>Pellets (PolyEthylene Terephthalate )</v>
-      </c>
-      <c r="K92" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92" t="b">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>4</v>
-      </c>
-      <c r="P92" s="67" t="s">
+      <c r="S92" s="67" t="s">
         <v>8618</v>
       </c>
-      <c r="Q92" s="67" t="s">
+      <c r="T92" s="67" t="s">
         <v>8619</v>
       </c>
-      <c r="R92" s="67" t="s">
+      <c r="U92" s="67" t="s">
         <v>8620</v>
       </c>
-      <c r="S92" s="67" t="s">
+      <c r="V92" s="67" t="s">
         <v>8621</v>
       </c>
-      <c r="T92" s="67" t="s">
+      <c r="W92" s="67" t="s">
         <v>8622</v>
       </c>
-      <c r="U92" s="67" t="s">
-        <v>8623</v>
-      </c>
-      <c r="V92" s="67" t="s">
-        <v>8624</v>
-      </c>
-      <c r="W92" s="67" t="s">
-        <v>8625</v>
-      </c>
-      <c r="X92" s="67" t="s">
-        <v>8626</v>
-      </c>
-      <c r="Y92" s="67" t="s">
-        <v>8627</v>
-      </c>
-      <c r="Z92" s="67" t="s">
-        <v>8628</v>
-      </c>
-      <c r="AA92" s="67" t="s">
-        <v>8629</v>
-      </c>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
       <c r="AB92"/>
       <c r="AC92"/>
       <c r="AD92"/>
@@ -39326,74 +39282,73 @@
       <c r="AH92"/>
       <c r="AI92"/>
       <c r="AJ92"/>
-      <c r="AK92"/>
-      <c r="AL92"/>
-      <c r="AM92"/>
-      <c r="AN92"/>
-    </row>
-    <row r="93" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B93" s="12"/>
-      <c r="E93" s="67">
+    </row>
+    <row r="93" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="F93" s="66" t="s">
-        <v>8630</v>
-      </c>
-      <c r="G93" s="67" t="s">
+      <c r="B93" s="66" t="s">
+        <v>8623</v>
+      </c>
+      <c r="C93" s="67" t="s">
         <v>1339</v>
       </c>
-      <c r="H93" s="67" t="s">
-        <v>8631</v>
-      </c>
-      <c r="I93" s="66" t="str">
-        <f t="shared" ref="I93:I102" si="1">"Fiber ("&amp;F93&amp;")"</f>
+      <c r="D93" s="67" t="s">
+        <v>8624</v>
+      </c>
+      <c r="E93" s="66" t="str">
+        <f t="shared" ref="E93:E102" si="1">"Fiber ("&amp;B93&amp;")"</f>
         <v>Fiber (High-Density PolyEthylene)</v>
       </c>
-      <c r="J93" s="66" t="str">
+      <c r="F93" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (High-Density PolyEthylene)</v>
       </c>
-      <c r="K93" s="67" t="b">
+      <c r="G93" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93" t="b">
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93" t="b">
         <v>1</v>
       </c>
-      <c r="O93">
+      <c r="K93">
         <v>4</v>
       </c>
+      <c r="L93" s="67" t="s">
+        <v>8625</v>
+      </c>
+      <c r="M93" s="67" t="s">
+        <v>8626</v>
+      </c>
+      <c r="N93" s="67" t="s">
+        <v>8627</v>
+      </c>
+      <c r="O93" s="67" t="s">
+        <v>8628</v>
+      </c>
       <c r="P93" s="67" t="s">
+        <v>8629</v>
+      </c>
+      <c r="Q93" s="67" t="s">
+        <v>8630</v>
+      </c>
+      <c r="R93" s="67" t="s">
+        <v>8631</v>
+      </c>
+      <c r="S93" s="67" t="s">
         <v>8632</v>
       </c>
-      <c r="Q93" s="67" t="s">
+      <c r="T93" s="67" t="s">
         <v>8633</v>
       </c>
-      <c r="R93" s="67" t="s">
+      <c r="U93" s="67" t="s">
         <v>8634</v>
       </c>
-      <c r="S93" s="67" t="s">
-        <v>8635</v>
-      </c>
-      <c r="T93" s="67" t="s">
-        <v>8636</v>
-      </c>
-      <c r="U93" s="67" t="s">
-        <v>8637</v>
-      </c>
-      <c r="V93" s="67" t="s">
-        <v>8638</v>
-      </c>
-      <c r="W93" s="67" t="s">
-        <v>8639</v>
-      </c>
-      <c r="X93" s="67" t="s">
-        <v>8640</v>
-      </c>
-      <c r="Y93" s="67" t="s">
-        <v>8641</v>
-      </c>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
       <c r="Z93"/>
       <c r="AA93"/>
       <c r="AB93"/>
@@ -39405,74 +39360,73 @@
       <c r="AH93"/>
       <c r="AI93"/>
       <c r="AJ93"/>
-      <c r="AK93"/>
-      <c r="AL93"/>
-      <c r="AM93"/>
-      <c r="AN93"/>
-    </row>
-    <row r="94" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B94" s="12"/>
-      <c r="E94" s="67">
+    </row>
+    <row r="94" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="67">
         <v>3</v>
       </c>
-      <c r="F94" s="66" t="s">
+      <c r="B94" s="66" t="s">
         <v>1182</v>
       </c>
-      <c r="G94" s="67" t="s">
+      <c r="C94" s="67" t="s">
         <v>1181</v>
       </c>
-      <c r="H94" s="67" t="s">
-        <v>8631</v>
-      </c>
-      <c r="I94" s="66" t="str">
+      <c r="D94" s="67" t="s">
+        <v>8624</v>
+      </c>
+      <c r="E94" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (PolyVinyl Chloride)</v>
       </c>
-      <c r="J94" s="66" t="str">
+      <c r="F94" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (PolyVinyl Chloride)</v>
       </c>
-      <c r="K94" s="67" t="b">
+      <c r="G94" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94" t="b">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="b">
         <v>1</v>
       </c>
-      <c r="O94">
+      <c r="K94">
         <v>4</v>
       </c>
+      <c r="L94" s="67" t="s">
+        <v>8635</v>
+      </c>
+      <c r="M94" s="67" t="s">
+        <v>8636</v>
+      </c>
+      <c r="N94" s="67" t="s">
+        <v>8637</v>
+      </c>
+      <c r="O94" s="67" t="s">
+        <v>8638</v>
+      </c>
       <c r="P94" s="67" t="s">
+        <v>8639</v>
+      </c>
+      <c r="Q94" s="67" t="s">
+        <v>8640</v>
+      </c>
+      <c r="R94" s="67" t="s">
+        <v>8641</v>
+      </c>
+      <c r="S94" s="67" t="s">
         <v>8642</v>
       </c>
-      <c r="Q94" s="67" t="s">
+      <c r="T94" s="67" t="s">
         <v>8643</v>
       </c>
-      <c r="R94" s="67" t="s">
+      <c r="U94" s="67" t="s">
         <v>8644</v>
       </c>
-      <c r="S94" s="67" t="s">
-        <v>8645</v>
-      </c>
-      <c r="T94" s="67" t="s">
-        <v>8646</v>
-      </c>
-      <c r="U94" s="67" t="s">
-        <v>8647</v>
-      </c>
-      <c r="V94" s="67" t="s">
-        <v>8648</v>
-      </c>
-      <c r="W94" s="67" t="s">
-        <v>8649</v>
-      </c>
-      <c r="X94" s="67" t="s">
-        <v>8650</v>
-      </c>
-      <c r="Y94" s="67" t="s">
-        <v>8651</v>
-      </c>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
       <c r="Z94"/>
       <c r="AA94"/>
       <c r="AB94"/>
@@ -39484,62 +39438,61 @@
       <c r="AH94"/>
       <c r="AI94"/>
       <c r="AJ94"/>
-      <c r="AK94"/>
-      <c r="AL94"/>
-      <c r="AM94"/>
-      <c r="AN94"/>
-    </row>
-    <row r="95" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B95" s="12"/>
-      <c r="E95" s="67">
+    </row>
+    <row r="95" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="67">
         <v>4</v>
       </c>
-      <c r="F95" s="66" t="s">
-        <v>8652</v>
-      </c>
-      <c r="G95" s="67" t="s">
+      <c r="B95" s="66" t="s">
+        <v>8645</v>
+      </c>
+      <c r="C95" s="67" t="s">
         <v>1327</v>
       </c>
-      <c r="H95" s="67" t="s">
-        <v>8631</v>
-      </c>
-      <c r="I95" s="66" t="str">
+      <c r="D95" s="67" t="s">
+        <v>8624</v>
+      </c>
+      <c r="E95" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (Low-Density PolyEthylene)</v>
       </c>
-      <c r="J95" s="66" t="str">
+      <c r="F95" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (Low-Density PolyEthylene)</v>
       </c>
-      <c r="K95" s="67" t="b">
+      <c r="G95" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95" t="b">
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95" t="b">
         <v>1</v>
       </c>
-      <c r="O95">
+      <c r="K95">
         <v>4</v>
       </c>
+      <c r="L95" s="67" t="s">
+        <v>8445</v>
+      </c>
+      <c r="M95" s="67" t="s">
+        <v>8646</v>
+      </c>
+      <c r="N95" s="67" t="s">
+        <v>8647</v>
+      </c>
+      <c r="O95" s="67" t="s">
+        <v>8648</v>
+      </c>
       <c r="P95" s="67" t="s">
-        <v>8445</v>
+        <v>8471</v>
       </c>
       <c r="Q95" s="67" t="s">
-        <v>8653</v>
-      </c>
-      <c r="R95" s="67" t="s">
-        <v>8654</v>
-      </c>
-      <c r="S95" s="67" t="s">
-        <v>8655</v>
-      </c>
-      <c r="T95" s="67" t="s">
-        <v>8471</v>
-      </c>
-      <c r="U95" s="67" t="s">
-        <v>8656</v>
-      </c>
+        <v>8649</v>
+      </c>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
       <c r="V95"/>
       <c r="W95"/>
       <c r="X95"/>
@@ -39555,167 +39508,165 @@
       <c r="AH95"/>
       <c r="AI95"/>
       <c r="AJ95"/>
-      <c r="AK95"/>
-      <c r="AL95"/>
-      <c r="AM95"/>
-      <c r="AN95"/>
-    </row>
-    <row r="96" spans="1:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="E96" s="67">
+    </row>
+    <row r="96" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="67">
         <v>5</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="B96" s="66" t="s">
         <v>1210</v>
       </c>
-      <c r="G96" s="67" t="s">
+      <c r="C96" s="67" t="s">
         <v>1209</v>
       </c>
-      <c r="H96" s="67" t="s">
-        <v>8631</v>
-      </c>
-      <c r="I96" s="66" t="str">
+      <c r="D96" s="67" t="s">
+        <v>8624</v>
+      </c>
+      <c r="E96" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (PolyPropylene)</v>
       </c>
-      <c r="J96" s="66" t="str">
+      <c r="F96" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (PolyPropylene)</v>
       </c>
-      <c r="K96" s="67" t="b">
+      <c r="G96" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96" t="b">
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96" t="b">
         <v>1</v>
       </c>
-      <c r="O96">
+      <c r="K96">
         <v>4</v>
       </c>
+      <c r="L96" s="67" t="s">
+        <v>8638</v>
+      </c>
+      <c r="M96" s="67" t="s">
+        <v>8445</v>
+      </c>
+      <c r="N96" s="67" t="s">
+        <v>8647</v>
+      </c>
+      <c r="O96" s="67" t="s">
+        <v>8650</v>
+      </c>
       <c r="P96" s="67" t="s">
-        <v>8645</v>
+        <v>8651</v>
       </c>
       <c r="Q96" s="67" t="s">
-        <v>8445</v>
+        <v>8652</v>
       </c>
       <c r="R96" s="67" t="s">
+        <v>8653</v>
+      </c>
+      <c r="S96" s="67" t="s">
         <v>8654</v>
       </c>
-      <c r="S96" s="67" t="s">
+      <c r="T96" s="67" t="s">
+        <v>8655</v>
+      </c>
+      <c r="U96" s="67" t="s">
+        <v>8656</v>
+      </c>
+      <c r="V96" s="67" t="s">
         <v>8657</v>
       </c>
-      <c r="T96" s="67" t="s">
+      <c r="W96" s="67" t="s">
         <v>8658</v>
       </c>
-      <c r="U96" s="67" t="s">
+      <c r="X96" s="67" t="s">
         <v>8659</v>
       </c>
-      <c r="V96" s="67" t="s">
+      <c r="Y96" s="67" t="s">
         <v>8660</v>
       </c>
-      <c r="W96" s="67" t="s">
+      <c r="Z96" s="67" t="s">
         <v>8661</v>
       </c>
-      <c r="X96" s="67" t="s">
+      <c r="AA96" s="67" t="s">
         <v>8662</v>
       </c>
-      <c r="Y96" s="67" t="s">
+      <c r="AB96" s="67" t="s">
         <v>8663</v>
       </c>
-      <c r="Z96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
         <v>8664</v>
       </c>
-      <c r="AA96" s="67" t="s">
+      <c r="AD96" s="67" t="s">
         <v>8665</v>
       </c>
-      <c r="AB96" s="67" t="s">
-        <v>8666</v>
-      </c>
-      <c r="AC96" s="67" t="s">
-        <v>8667</v>
-      </c>
-      <c r="AD96" s="67" t="s">
-        <v>8668</v>
-      </c>
-      <c r="AE96" s="67" t="s">
-        <v>8669</v>
-      </c>
-      <c r="AF96" s="67" t="s">
-        <v>8670</v>
-      </c>
-      <c r="AG96" s="67" t="s">
-        <v>8671</v>
-      </c>
-      <c r="AH96" s="67" t="s">
-        <v>8672</v>
-      </c>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96"/>
       <c r="AI96"/>
       <c r="AJ96"/>
-      <c r="AK96"/>
-      <c r="AL96"/>
-      <c r="AM96"/>
-      <c r="AN96"/>
-    </row>
-    <row r="97" spans="2:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="B97" s="12"/>
-      <c r="E97" s="67">
+    </row>
+    <row r="97" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="67">
         <v>6</v>
       </c>
-      <c r="F97" s="66" t="s">
+      <c r="B97" s="66" t="s">
         <v>1204</v>
       </c>
-      <c r="G97" s="67" t="s">
+      <c r="C97" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="H97" s="67" t="s">
-        <v>8631</v>
-      </c>
-      <c r="I97" s="66" t="str">
+      <c r="D97" s="67" t="s">
+        <v>8624</v>
+      </c>
+      <c r="E97" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (PolyStyrene)</v>
       </c>
-      <c r="J97" s="66" t="str">
+      <c r="F97" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (PolyStyrene)</v>
       </c>
-      <c r="K97" s="67" t="b">
+      <c r="G97" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L97" s="67" t="b">
+      <c r="H97" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="M97"/>
-      <c r="N97" t="b">
+      <c r="I97"/>
+      <c r="J97" t="b">
         <v>1</v>
       </c>
-      <c r="O97">
+      <c r="K97">
         <v>4</v>
       </c>
+      <c r="L97" s="67" t="s">
+        <v>8666</v>
+      </c>
+      <c r="M97" s="67" t="s">
+        <v>8667</v>
+      </c>
+      <c r="N97" s="67" t="s">
+        <v>8457</v>
+      </c>
+      <c r="O97" s="67" t="s">
+        <v>8668</v>
+      </c>
       <c r="P97" s="67" t="s">
-        <v>8673</v>
+        <v>8669</v>
       </c>
       <c r="Q97" s="67" t="s">
-        <v>8674</v>
+        <v>8670</v>
       </c>
       <c r="R97" s="67" t="s">
-        <v>8457</v>
+        <v>8671</v>
       </c>
       <c r="S97" s="67" t="s">
-        <v>8675</v>
-      </c>
-      <c r="T97" s="67" t="s">
-        <v>8676</v>
-      </c>
-      <c r="U97" s="67" t="s">
-        <v>8677</v>
-      </c>
-      <c r="V97" s="67" t="s">
-        <v>8678</v>
-      </c>
-      <c r="W97" s="67" t="s">
-        <v>8679</v>
-      </c>
+        <v>8672</v>
+      </c>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
       <c r="X97"/>
       <c r="Y97"/>
       <c r="Z97"/>
@@ -39729,160 +39680,158 @@
       <c r="AH97"/>
       <c r="AI97"/>
       <c r="AJ97"/>
-      <c r="AK97"/>
-      <c r="AL97"/>
-      <c r="AM97"/>
-      <c r="AN97"/>
-    </row>
-    <row r="98" spans="2:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B98" s="12"/>
-      <c r="E98" s="67">
+    </row>
+    <row r="98" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="67">
         <v>7</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="B98" s="66" t="s">
         <v>1291</v>
       </c>
-      <c r="G98" s="67" t="s">
+      <c r="C98" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="H98" s="67" t="s">
-        <v>8680</v>
-      </c>
-      <c r="I98" s="66" t="str">
+      <c r="D98" s="67" t="s">
+        <v>8673</v>
+      </c>
+      <c r="E98" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (PolyCarbonate)</v>
       </c>
-      <c r="J98" s="66" t="str">
+      <c r="F98" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (PolyCarbonate)</v>
       </c>
-      <c r="K98" s="67" t="b">
+      <c r="G98" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L98" s="67" t="b">
+      <c r="H98" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="M98"/>
-      <c r="N98" t="b">
+      <c r="I98"/>
+      <c r="J98" t="b">
         <v>1</v>
       </c>
-      <c r="O98">
+      <c r="K98">
         <v>4</v>
       </c>
-      <c r="P98" s="67" t="s">
+      <c r="L98" s="67" t="s">
+        <v>8674</v>
+      </c>
+      <c r="M98" s="67" t="s">
+        <v>8675</v>
+      </c>
+      <c r="N98" s="67" t="s">
+        <v>8676</v>
+      </c>
+      <c r="O98" s="67" t="s">
+        <v>8677</v>
+      </c>
+      <c r="P98" s="67"/>
+      <c r="Q98" s="67" t="s">
+        <v>8678</v>
+      </c>
+      <c r="R98" s="67" t="s">
+        <v>8679</v>
+      </c>
+      <c r="S98" s="67" t="s">
+        <v>8680</v>
+      </c>
+      <c r="T98" s="67" t="s">
         <v>8681</v>
       </c>
-      <c r="Q98" s="67" t="s">
+      <c r="U98" s="67" t="s">
         <v>8682</v>
       </c>
-      <c r="R98" s="67" t="s">
+      <c r="V98" s="67" t="s">
         <v>8683</v>
       </c>
-      <c r="S98" s="67" t="s">
+      <c r="W98" s="67" t="s">
         <v>8684</v>
       </c>
-      <c r="T98" s="67"/>
-      <c r="U98" s="67" t="s">
+      <c r="X98" s="67" t="s">
         <v>8685</v>
       </c>
-      <c r="V98" s="67" t="s">
+      <c r="Y98" s="67" t="s">
         <v>8686</v>
       </c>
-      <c r="W98" s="67" t="s">
+      <c r="Z98" s="67" t="s">
         <v>8687</v>
       </c>
-      <c r="X98" s="67" t="s">
+      <c r="AA98" s="67" t="s">
         <v>8688</v>
       </c>
-      <c r="Y98" s="67" t="s">
-        <v>8689</v>
-      </c>
-      <c r="Z98" s="67" t="s">
-        <v>8690</v>
-      </c>
-      <c r="AA98" s="67" t="s">
-        <v>8691</v>
-      </c>
-      <c r="AB98" s="67" t="s">
-        <v>8692</v>
-      </c>
-      <c r="AC98" s="67" t="s">
-        <v>8693</v>
-      </c>
-      <c r="AD98" s="67" t="s">
-        <v>8694</v>
-      </c>
-      <c r="AE98" s="67" t="s">
-        <v>8695</v>
-      </c>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
       <c r="AF98"/>
       <c r="AG98"/>
       <c r="AH98"/>
       <c r="AI98"/>
       <c r="AJ98"/>
-      <c r="AK98"/>
-      <c r="AL98"/>
-      <c r="AM98"/>
-      <c r="AN98"/>
-    </row>
-    <row r="99" spans="2:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B99" s="12"/>
-      <c r="E99" s="67">
+    </row>
+    <row r="99" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="67">
         <v>7</v>
       </c>
-      <c r="F99" s="66" t="s">
+      <c r="B99" s="66" t="s">
         <v>1365</v>
       </c>
-      <c r="G99" s="67" t="s">
+      <c r="C99" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="H99" s="67" t="s">
-        <v>8696</v>
-      </c>
-      <c r="I99" s="66" t="str">
+      <c r="D99" s="67" t="s">
+        <v>8689</v>
+      </c>
+      <c r="E99" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (ABS)</v>
       </c>
-      <c r="J99" s="66" t="str">
+      <c r="F99" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (ABS)</v>
       </c>
-      <c r="K99" s="67" t="b">
+      <c r="G99" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99" t="b">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99" t="b">
         <v>1</v>
       </c>
-      <c r="O99">
+      <c r="K99">
         <v>4</v>
       </c>
+      <c r="L99" s="67" t="s">
+        <v>8690</v>
+      </c>
+      <c r="M99" s="67" t="s">
+        <v>8691</v>
+      </c>
+      <c r="N99" s="67" t="s">
+        <v>8692</v>
+      </c>
+      <c r="O99" s="67" t="s">
+        <v>8693</v>
+      </c>
       <c r="P99" s="67" t="s">
+        <v>8694</v>
+      </c>
+      <c r="Q99" s="67" t="s">
+        <v>8695</v>
+      </c>
+      <c r="R99" s="67" t="s">
+        <v>8696</v>
+      </c>
+      <c r="S99" s="67"/>
+      <c r="T99" s="67" t="s">
         <v>8697</v>
       </c>
-      <c r="Q99" s="67" t="s">
-        <v>8698</v>
-      </c>
-      <c r="R99" s="67" t="s">
-        <v>8699</v>
-      </c>
-      <c r="S99" s="67" t="s">
-        <v>8700</v>
-      </c>
-      <c r="T99" s="67" t="s">
-        <v>8701</v>
-      </c>
-      <c r="U99" s="67" t="s">
-        <v>8702</v>
-      </c>
-      <c r="V99" s="67" t="s">
-        <v>8703</v>
-      </c>
-      <c r="W99" s="67"/>
-      <c r="X99" s="67" t="s">
-        <v>8704</v>
-      </c>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
       <c r="Y99"/>
       <c r="Z99"/>
       <c r="AA99"/>
@@ -39895,65 +39844,64 @@
       <c r="AH99"/>
       <c r="AI99"/>
       <c r="AJ99"/>
-      <c r="AK99"/>
-      <c r="AL99"/>
-      <c r="AM99"/>
-      <c r="AN99"/>
-    </row>
-    <row r="100" spans="2:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B100" s="12"/>
-      <c r="E100" s="67">
+    </row>
+    <row r="100" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="67">
         <v>0</v>
       </c>
-      <c r="F100" s="66" t="s">
-        <v>8705</v>
-      </c>
-      <c r="G100" s="67" t="s">
+      <c r="B100" s="66" t="s">
+        <v>8698</v>
+      </c>
+      <c r="C100" s="67" t="s">
         <v>7529</v>
       </c>
-      <c r="H100" s="67" t="s">
-        <v>8706</v>
-      </c>
-      <c r="I100" s="66" t="str">
+      <c r="D100" s="67" t="s">
+        <v>8699</v>
+      </c>
+      <c r="E100" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (Specialty Polymers)</v>
       </c>
-      <c r="J100" s="66" t="str">
+      <c r="F100" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (Specialty Polymers)</v>
       </c>
-      <c r="K100" s="67" t="b">
+      <c r="G100" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100" t="b">
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100" t="b">
         <v>1</v>
       </c>
-      <c r="O100">
+      <c r="K100">
         <v>4</v>
       </c>
+      <c r="L100" s="67" t="s">
+        <v>8700</v>
+      </c>
+      <c r="M100" s="67" t="s">
+        <v>8701</v>
+      </c>
+      <c r="N100" s="67" t="s">
+        <v>8702</v>
+      </c>
+      <c r="O100" s="67" t="s">
+        <v>8703</v>
+      </c>
       <c r="P100" s="67" t="s">
-        <v>8707</v>
+        <v>8704</v>
       </c>
       <c r="Q100" s="67" t="s">
-        <v>8708</v>
+        <v>8705</v>
       </c>
       <c r="R100" s="67" t="s">
-        <v>8709</v>
-      </c>
-      <c r="S100" s="67" t="s">
-        <v>8710</v>
-      </c>
-      <c r="T100" s="67" t="s">
-        <v>8711</v>
-      </c>
-      <c r="U100" s="67" t="s">
-        <v>8712</v>
-      </c>
-      <c r="V100" s="67" t="s">
-        <v>8713</v>
-      </c>
+        <v>8706</v>
+      </c>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
       <c r="W100"/>
       <c r="X100"/>
       <c r="Y100"/>
@@ -39968,45 +39916,44 @@
       <c r="AH100"/>
       <c r="AI100"/>
       <c r="AJ100"/>
-      <c r="AK100"/>
-      <c r="AL100"/>
-      <c r="AM100"/>
-      <c r="AN100"/>
-    </row>
-    <row r="101" spans="2:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B101" s="12"/>
-      <c r="E101" s="67">
+    </row>
+    <row r="101" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="67">
         <v>10</v>
       </c>
-      <c r="F101" s="66" t="s">
-        <v>8714</v>
-      </c>
-      <c r="G101" s="67" t="s">
+      <c r="B101" s="66" t="s">
+        <v>8707</v>
+      </c>
+      <c r="C101" s="67" t="s">
         <v>7530</v>
       </c>
-      <c r="H101" s="67" t="s">
-        <v>8706</v>
-      </c>
-      <c r="I101" s="66" t="str">
+      <c r="D101" s="67" t="s">
+        <v>8699</v>
+      </c>
+      <c r="E101" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (Natural Polymers)</v>
       </c>
-      <c r="J101" s="66" t="str">
+      <c r="F101" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (Natural Polymers)</v>
       </c>
-      <c r="K101" s="67" t="b">
+      <c r="G101" s="67" t="b">
         <v>1</v>
       </c>
-      <c r="L101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101" s="67"/>
       <c r="M101"/>
-      <c r="N101" t="b">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101" s="67"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101"/>
@@ -40027,59 +39974,55 @@
       <c r="AH101"/>
       <c r="AI101"/>
       <c r="AJ101"/>
-      <c r="AK101"/>
-      <c r="AL101"/>
-      <c r="AM101"/>
-      <c r="AN101"/>
-    </row>
-    <row r="102" spans="2:40" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B102" s="12"/>
-      <c r="D102" s="6" t="s">
-        <v>8494</v>
-      </c>
-      <c r="E102" s="67">
+    </row>
+    <row r="102" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="67">
         <v>0</v>
       </c>
-      <c r="F102" s="66" t="s">
-        <v>8715</v>
-      </c>
-      <c r="G102" s="67" t="s">
-        <v>8716</v>
-      </c>
-      <c r="H102" s="67" t="s">
-        <v>8715</v>
-      </c>
-      <c r="I102" s="66" t="str">
+      <c r="B102" s="66" t="s">
+        <v>8708</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>8709</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>8708</v>
+      </c>
+      <c r="E102" s="66" t="str">
         <f t="shared" si="1"/>
         <v>Fiber (Rubber)</v>
       </c>
-      <c r="J102" s="66" t="str">
+      <c r="F102" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Pellets (Rubber)</v>
       </c>
-      <c r="K102" s="67" t="b">
+      <c r="G102" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102" t="b">
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102" t="b">
         <v>1</v>
       </c>
-      <c r="O102">
+      <c r="K102">
         <v>4</v>
       </c>
-      <c r="P102" s="67" t="s">
-        <v>8717</v>
-      </c>
-      <c r="Q102" s="67" t="s">
-        <v>8718</v>
-      </c>
-      <c r="R102" s="67" t="s">
+      <c r="L102" s="67" t="s">
+        <v>8710</v>
+      </c>
+      <c r="M102" s="67" t="s">
+        <v>8711</v>
+      </c>
+      <c r="N102" s="67" t="s">
         <v>8364</v>
       </c>
-      <c r="S102" s="67" t="s">
+      <c r="O102" s="67" t="s">
         <v>8362</v>
       </c>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
       <c r="T102"/>
       <c r="U102"/>
       <c r="V102"/>
@@ -40097,15 +40040,11 @@
       <c r="AH102"/>
       <c r="AI102"/>
       <c r="AJ102"/>
-      <c r="AK102"/>
-      <c r="AL102"/>
-      <c r="AM102"/>
-      <c r="AN102"/>
-    </row>
-    <row r="103" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
       <c r="D103" s="53" t="s">
-        <v>8498</v>
+        <v>8497</v>
       </c>
       <c r="E103" s="54" t="s">
         <v>8440</v>
@@ -40115,10 +40054,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
       <c r="D104" s="53" t="s">
-        <v>8497</v>
+        <v>8496</v>
       </c>
       <c r="E104" s="53" t="s">
         <v>8442</v>
@@ -40128,23 +40067,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
       <c r="D105" s="56" t="s">
-        <v>8496</v>
+        <v>8495</v>
       </c>
       <c r="E105" s="54" t="s">
-        <v>8495</v>
+        <v>8494</v>
       </c>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B106" s="12"/>
     </row>
-    <row r="107" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
       <c r="D107" s="53" t="s">
         <v>8493</v>
@@ -40157,7 +40096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="12"/>
       <c r="D108" s="53" t="s">
         <v>8492</v>
@@ -40170,7 +40109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>
       <c r="D109" s="53" t="s">
         <v>8491</v>
@@ -40183,7 +40122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
       <c r="D110" s="53" t="s">
         <v>8490</v>
@@ -40196,7 +40135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
       <c r="D111" s="53" t="s">
         <v>8489</v>
@@ -40209,7 +40148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="12"/>
       <c r="D112" s="53" t="s">
         <v>8488</v>
@@ -41510,7 +41449,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>8508</v>
+        <v>8507</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1429</v>
@@ -41521,7 +41460,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8573</v>
+        <v>8566</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41557,7 +41496,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8574</v>
+        <v>8567</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -41593,7 +41532,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>8529</v>
+        <v>8528</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>$A$2</f>
@@ -41665,7 +41604,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>8509</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -41899,7 +41838,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>8510</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -41960,22 +41899,22 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>8511</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>8506</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>8507</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>8512</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -42028,61 +41967,61 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8575</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8576</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8577</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8578</v>
+        <v>8571</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8579</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8580</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8582</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
-        <v>8583</v>
+        <v>8576</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8584</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
-        <v>8585</v>
+        <v>8578</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8586</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>8587</v>
+        <v>8580</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8588</v>
+        <v>8581</v>
       </c>
     </row>
   </sheetData>
@@ -42103,8 +42042,8 @@
   </sheetPr>
   <dimension ref="A1:K6104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42119,9 +42058,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J4" s="35" t="s">
-        <v>8563</v>
-      </c>
+      <c r="J4" s="35"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H11" s="35"/>
@@ -42135,55 +42072,31 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>7522</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>8572</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>7898</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>7895</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>7892</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>7521</v>
       </c>
-      <c r="H16" s="35" t="s">
-        <v>8571</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>8570</v>
-      </c>
       <c r="J16" s="35" t="s">
-        <v>8569</v>
+        <v>8565</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>8568</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>7520</v>
       </c>
-      <c r="H17" s="62" t="s">
-        <v>8567</v>
-      </c>
-      <c r="I17" s="62" t="s">
-        <v>8566</v>
-      </c>
       <c r="J17" s="35" t="s">
-        <v>8565</v>
+        <v>8563</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>8564</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -72663,7 +72576,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>8519</v>
+        <v>8518</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -79182,7 +79095,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8520</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -85231,7 +85144,7 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G26" sqref="A1:N119"/>
@@ -85265,7 +85178,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8562</v>
+        <v>8561</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -90944,10 +90857,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B5" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -91026,7 +90939,16 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8721</v>
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="63" t="str">
+        <f>Enums!$A$94</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24630" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="26190" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -27636,7 +27636,7 @@
   </sheetPr>
   <dimension ref="A1:J339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -72561,7 +72561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -85144,10 +85144,10 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="A1:N119"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26190" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="27750" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9092" uniqueCount="8721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9135" uniqueCount="8756">
   <si>
     <t>Uuo</t>
   </si>
@@ -26040,18 +26040,6 @@
     <t>Polymer Object</t>
   </si>
   <si>
-    <t>Craft 6 slabs when you craft them from plastic blocks</t>
-  </si>
-  <si>
-    <t>Hold shift should allow you to stop jumping on blocks and not conserve momentum</t>
-  </si>
-  <si>
-    <t>Make it so 1 vial of pellets  = 1 block or it takes 4 vials during smelting</t>
-  </si>
-  <si>
-    <t>when a pogo stick is fully damaged, make it disappear</t>
-  </si>
-  <si>
     <t>Medium Density PolyEthylene</t>
   </si>
   <si>
@@ -26918,6 +26906,123 @@
   </si>
   <si>
     <t>Glycerol</t>
+  </si>
+  <si>
+    <t>Deionized Water</t>
+  </si>
+  <si>
+    <t>Tungsten Carbide</t>
+  </si>
+  <si>
+    <t>Industrial Oven</t>
+  </si>
+  <si>
+    <t>Metal Nuggets</t>
+  </si>
+  <si>
+    <t>Pipes and Piping</t>
+  </si>
+  <si>
+    <t>Pumps and Pumping</t>
+  </si>
+  <si>
+    <t>Metal Extruder</t>
+  </si>
+  <si>
+    <t>New Alloys and Uses</t>
+  </si>
+  <si>
+    <t>Feedwater heater</t>
+  </si>
+  <si>
+    <t>Rectifier</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Internal Combustion Engine</t>
+  </si>
+  <si>
+    <t>Concept of a Cleanroom</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Vacuum Pump</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Sputtering Tool</t>
+  </si>
+  <si>
+    <t>Mask Writer</t>
+  </si>
+  <si>
+    <t>Spin Coater</t>
+  </si>
+  <si>
+    <t>Atomic Force Microscope</t>
+  </si>
+  <si>
+    <t>Scanning Electron Microscope</t>
+  </si>
+  <si>
+    <t>Transmission Electron Microscope</t>
+  </si>
+  <si>
+    <t>Focused Ion Beam</t>
+  </si>
+  <si>
+    <t>Contact Printer</t>
+  </si>
+  <si>
+    <t>Acid Hood</t>
+  </si>
+  <si>
+    <t>Base Hood</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Pickup Items bug (NTTB Tag)</t>
+  </si>
+  <si>
+    <t>Code to export TSV files</t>
+  </si>
+  <si>
+    <t>Adding in Kevlar</t>
+  </si>
+  <si>
+    <t>Plastic Block durability and heated knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki Maker GameID -&gt; Page </t>
+  </si>
+  <si>
+    <t>Plastic Chests to AutoUpCycle Bitumen and Ore and Ingots into Compressed Blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machining Mill Sucks Wrong </t>
+  </si>
+  <si>
+    <t>Pellets to 128 and bust in IM and extruder</t>
+  </si>
+  <si>
+    <t>Wiki help about yellow side of Inventories</t>
+  </si>
+  <si>
+    <t>Lag delays on Flamethrower and Jetpack on big servers</t>
+  </si>
+  <si>
+    <t>Flip Derrick upside down</t>
   </si>
 </sst>
 </file>
@@ -27147,7 +27252,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -27282,6 +27387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -27588,39 +27694,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8523</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>8733</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>8744</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8755</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -27637,10 +28081,10 @@
   <dimension ref="A1:J339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B149" sqref="B149"/>
+      <selection pane="bottomRight" activeCell="B273" sqref="A1:H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30883,7 +31327,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8720</v>
+        <v>8716</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>751</v>
@@ -31037,10 +31481,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>8535</v>
+        <v>8531</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>8536</v>
+        <v>8532</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$3</f>
@@ -31721,10 +32165,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8537</v>
+        <v>8533</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>8538</v>
+        <v>8534</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31741,10 +32185,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8539</v>
+        <v>8535</v>
       </c>
       <c r="C182" t="s">
-        <v>8546</v>
+        <v>8542</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31752,7 +32196,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8553</v>
+        <v>8549</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -31763,10 +32207,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8540</v>
+        <v>8536</v>
       </c>
       <c r="C183" t="s">
-        <v>8547</v>
+        <v>8543</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31774,7 +32218,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8554</v>
+        <v>8550</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -31785,10 +32229,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8545</v>
+        <v>8541</v>
       </c>
       <c r="C184" t="s">
-        <v>8548</v>
+        <v>8544</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31796,7 +32240,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8555</v>
+        <v>8551</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -31807,10 +32251,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8544</v>
+        <v>8540</v>
       </c>
       <c r="C185" t="s">
-        <v>8549</v>
+        <v>8545</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31818,7 +32262,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8556</v>
+        <v>8552</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -31829,10 +32273,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8543</v>
+        <v>8539</v>
       </c>
       <c r="C186" t="s">
-        <v>8550</v>
+        <v>8546</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31840,7 +32284,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8557</v>
+        <v>8553</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -31851,10 +32295,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8542</v>
+        <v>8538</v>
       </c>
       <c r="C187" t="s">
-        <v>8551</v>
+        <v>8547</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31862,7 +32306,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8558</v>
+        <v>8554</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -31873,10 +32317,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8541</v>
+        <v>8537</v>
       </c>
       <c r="C188" t="s">
-        <v>8552</v>
+        <v>8548</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -31884,7 +32328,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8559</v>
+        <v>8555</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -33938,7 +34382,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8532</v>
+        <v>8528</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -33956,7 +34400,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8533</v>
+        <v>8529</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -33974,7 +34418,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8534</v>
+        <v>8530</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -34430,7 +34874,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>328</v>
+        <v>8717</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>327</v>
@@ -34771,7 +35215,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>8573</v>
+        <v>8569</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
@@ -35112,10 +35556,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8715</v>
+        <v>8711</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>8714</v>
+        <v>8710</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -35131,10 +35575,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8716</v>
+        <v>8712</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8717</v>
+        <v>8713</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35147,10 +35591,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8718</v>
+        <v>8714</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8719</v>
+        <v>8715</v>
       </c>
       <c r="D339" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35176,7 +35620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="A1:N115"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35704,7 +36148,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8524</v>
+        <v>8520</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1325</v>
@@ -35960,7 +36404,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8526</v>
+        <v>8522</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1303</v>
@@ -37578,10 +38022,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8712</v>
+        <v>8708</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8711</v>
+        <v>8707</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
@@ -37734,7 +38178,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8531</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -37758,7 +38202,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37786,7 +38230,7 @@
         <v>8513</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>8530</v>
+        <v>8526</v>
       </c>
       <c r="F1" s="60" t="s">
         <v>8514</v>
@@ -37819,10 +38263,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -37875,10 +38319,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -37906,7 +38350,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -37931,10 +38375,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -37959,10 +38403,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -37987,10 +38431,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -38018,7 +38462,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -38046,7 +38490,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -38071,10 +38515,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -38099,10 +38543,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -38127,10 +38571,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -38155,10 +38599,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -38183,10 +38627,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -38211,10 +38655,10 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -38242,7 +38686,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -38270,7 +38714,7 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -38287,12 +38731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ393"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A85" sqref="A85"/>
-      <selection pane="topRight" activeCell="D85" sqref="D85"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
-      <selection pane="bottomRight" activeCell="U102" sqref="U102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39005,7 +39445,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>8525</v>
+        <v>8521</v>
       </c>
       <c r="D78" s="8"/>
     </row>
@@ -39051,7 +39491,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>8528</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="85" spans="1:36" ht="15" x14ac:dyDescent="0.25">
@@ -39059,7 +39499,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>8529</v>
+        <v>8525</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -39096,7 +39536,7 @@
         <v>1374</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>8581</v>
+        <v>8577</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>1376</v>
@@ -39105,25 +39545,25 @@
         <v>1413</v>
       </c>
       <c r="E91" s="64" t="s">
-        <v>8582</v>
+        <v>8578</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>8583</v>
+        <v>8579</v>
       </c>
       <c r="G91" s="64" t="s">
         <v>1373</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>8584</v>
+        <v>8580</v>
       </c>
       <c r="I91" s="64" t="s">
         <v>1372</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>8585</v>
+        <v>8581</v>
       </c>
       <c r="K91" s="64" t="s">
-        <v>8586</v>
+        <v>8582</v>
       </c>
       <c r="L91" s="64" t="s">
         <v>1371</v>
@@ -39138,67 +39578,67 @@
         <v>1368</v>
       </c>
       <c r="P91" s="64" t="s">
+        <v>8583</v>
+      </c>
+      <c r="Q91" s="64" t="s">
+        <v>8584</v>
+      </c>
+      <c r="R91" s="64" t="s">
+        <v>8585</v>
+      </c>
+      <c r="S91" s="64" t="s">
+        <v>8586</v>
+      </c>
+      <c r="T91" s="64" t="s">
         <v>8587</v>
       </c>
-      <c r="Q91" s="64" t="s">
+      <c r="U91" s="64" t="s">
         <v>8588</v>
       </c>
-      <c r="R91" s="64" t="s">
+      <c r="V91" s="64" t="s">
         <v>8589</v>
       </c>
-      <c r="S91" s="64" t="s">
+      <c r="W91" s="64" t="s">
         <v>8590</v>
       </c>
-      <c r="T91" s="64" t="s">
+      <c r="X91" s="64" t="s">
         <v>8591</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="Y91" s="64" t="s">
         <v>8592</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="Z91" s="64" t="s">
         <v>8593</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="AA91" s="64" t="s">
         <v>8594</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="AB91" s="64" t="s">
         <v>8595</v>
       </c>
-      <c r="Y91" s="64" t="s">
+      <c r="AC91" s="64" t="s">
         <v>8596</v>
       </c>
-      <c r="Z91" s="64" t="s">
+      <c r="AD91" s="64" t="s">
         <v>8597</v>
       </c>
-      <c r="AA91" s="64" t="s">
+      <c r="AE91" s="64" t="s">
         <v>8598</v>
       </c>
-      <c r="AB91" s="64" t="s">
+      <c r="AF91" s="64" t="s">
         <v>8599</v>
       </c>
-      <c r="AC91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8600</v>
       </c>
-      <c r="AD91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8601</v>
       </c>
-      <c r="AE91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8602</v>
       </c>
-      <c r="AF91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8603</v>
-      </c>
-      <c r="AG91" s="64" t="s">
-        <v>8604</v>
-      </c>
-      <c r="AH91" s="64" t="s">
-        <v>8605</v>
-      </c>
-      <c r="AI91" s="64" t="s">
-        <v>8606</v>
-      </c>
-      <c r="AJ91" s="64" t="s">
-        <v>8607</v>
       </c>
     </row>
     <row r="92" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
@@ -39206,13 +39646,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>8608</v>
+        <v>8604</v>
       </c>
       <c r="C92" s="67" t="s">
         <v>1264</v>
       </c>
       <c r="D92" s="67" t="s">
-        <v>8609</v>
+        <v>8605</v>
       </c>
       <c r="E92" s="66" t="str">
         <f>"Fiber ("&amp;B92&amp;")"</f>
@@ -39234,40 +39674,40 @@
         <v>4</v>
       </c>
       <c r="L92" s="67" t="s">
+        <v>8606</v>
+      </c>
+      <c r="M92" s="67" t="s">
+        <v>8607</v>
+      </c>
+      <c r="N92" s="67" t="s">
+        <v>8608</v>
+      </c>
+      <c r="O92" s="67" t="s">
+        <v>8609</v>
+      </c>
+      <c r="P92" s="67" t="s">
         <v>8610</v>
       </c>
-      <c r="M92" s="67" t="s">
+      <c r="Q92" s="67" t="s">
         <v>8611</v>
       </c>
-      <c r="N92" s="67" t="s">
+      <c r="R92" s="67" t="s">
         <v>8612</v>
       </c>
-      <c r="O92" s="67" t="s">
+      <c r="S92" s="67" t="s">
         <v>8613</v>
       </c>
-      <c r="P92" s="67" t="s">
+      <c r="T92" s="67" t="s">
         <v>8614</v>
       </c>
-      <c r="Q92" s="67" t="s">
+      <c r="U92" s="67" t="s">
         <v>8615</v>
       </c>
-      <c r="R92" s="67" t="s">
+      <c r="V92" s="67" t="s">
         <v>8616</v>
       </c>
-      <c r="S92" s="67" t="s">
+      <c r="W92" s="67" t="s">
         <v>8617</v>
-      </c>
-      <c r="T92" s="67" t="s">
-        <v>8618</v>
-      </c>
-      <c r="U92" s="67" t="s">
-        <v>8619</v>
-      </c>
-      <c r="V92" s="67" t="s">
-        <v>8620</v>
-      </c>
-      <c r="W92" s="67" t="s">
-        <v>8621</v>
       </c>
       <c r="X92"/>
       <c r="Y92"/>
@@ -39288,13 +39728,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>8622</v>
+        <v>8618</v>
       </c>
       <c r="C93" s="67" t="s">
         <v>1338</v>
       </c>
       <c r="D93" s="67" t="s">
-        <v>8623</v>
+        <v>8619</v>
       </c>
       <c r="E93" s="66" t="str">
         <f t="shared" ref="E93:E102" si="1">"Fiber ("&amp;B93&amp;")"</f>
@@ -39316,34 +39756,34 @@
         <v>4</v>
       </c>
       <c r="L93" s="67" t="s">
+        <v>8620</v>
+      </c>
+      <c r="M93" s="67" t="s">
+        <v>8621</v>
+      </c>
+      <c r="N93" s="67" t="s">
+        <v>8622</v>
+      </c>
+      <c r="O93" s="67" t="s">
+        <v>8623</v>
+      </c>
+      <c r="P93" s="67" t="s">
         <v>8624</v>
       </c>
-      <c r="M93" s="67" t="s">
+      <c r="Q93" s="67" t="s">
         <v>8625</v>
       </c>
-      <c r="N93" s="67" t="s">
+      <c r="R93" s="67" t="s">
         <v>8626</v>
       </c>
-      <c r="O93" s="67" t="s">
+      <c r="S93" s="67" t="s">
         <v>8627</v>
       </c>
-      <c r="P93" s="67" t="s">
+      <c r="T93" s="67" t="s">
         <v>8628</v>
       </c>
-      <c r="Q93" s="67" t="s">
+      <c r="U93" s="67" t="s">
         <v>8629</v>
-      </c>
-      <c r="R93" s="67" t="s">
-        <v>8630</v>
-      </c>
-      <c r="S93" s="67" t="s">
-        <v>8631</v>
-      </c>
-      <c r="T93" s="67" t="s">
-        <v>8632</v>
-      </c>
-      <c r="U93" s="67" t="s">
-        <v>8633</v>
       </c>
       <c r="V93"/>
       <c r="W93"/>
@@ -39372,7 +39812,7 @@
         <v>1180</v>
       </c>
       <c r="D94" s="67" t="s">
-        <v>8623</v>
+        <v>8619</v>
       </c>
       <c r="E94" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39394,34 +39834,34 @@
         <v>4</v>
       </c>
       <c r="L94" s="67" t="s">
+        <v>8630</v>
+      </c>
+      <c r="M94" s="67" t="s">
+        <v>8631</v>
+      </c>
+      <c r="N94" s="67" t="s">
+        <v>8632</v>
+      </c>
+      <c r="O94" s="67" t="s">
+        <v>8633</v>
+      </c>
+      <c r="P94" s="67" t="s">
         <v>8634</v>
       </c>
-      <c r="M94" s="67" t="s">
+      <c r="Q94" s="67" t="s">
         <v>8635</v>
       </c>
-      <c r="N94" s="67" t="s">
+      <c r="R94" s="67" t="s">
         <v>8636</v>
       </c>
-      <c r="O94" s="67" t="s">
+      <c r="S94" s="67" t="s">
         <v>8637</v>
       </c>
-      <c r="P94" s="67" t="s">
+      <c r="T94" s="67" t="s">
         <v>8638</v>
       </c>
-      <c r="Q94" s="67" t="s">
+      <c r="U94" s="67" t="s">
         <v>8639</v>
-      </c>
-      <c r="R94" s="67" t="s">
-        <v>8640</v>
-      </c>
-      <c r="S94" s="67" t="s">
-        <v>8641</v>
-      </c>
-      <c r="T94" s="67" t="s">
-        <v>8642</v>
-      </c>
-      <c r="U94" s="67" t="s">
-        <v>8643</v>
       </c>
       <c r="V94"/>
       <c r="W94"/>
@@ -39444,13 +39884,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>8644</v>
+        <v>8640</v>
       </c>
       <c r="C95" s="67" t="s">
         <v>1326</v>
       </c>
       <c r="D95" s="67" t="s">
-        <v>8623</v>
+        <v>8619</v>
       </c>
       <c r="E95" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39475,19 +39915,19 @@
         <v>8444</v>
       </c>
       <c r="M95" s="67" t="s">
-        <v>8645</v>
+        <v>8641</v>
       </c>
       <c r="N95" s="67" t="s">
-        <v>8646</v>
+        <v>8642</v>
       </c>
       <c r="O95" s="67" t="s">
-        <v>8647</v>
+        <v>8643</v>
       </c>
       <c r="P95" s="67" t="s">
         <v>8470</v>
       </c>
       <c r="Q95" s="67" t="s">
-        <v>8648</v>
+        <v>8644</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -39520,7 +39960,7 @@
         <v>1208</v>
       </c>
       <c r="D96" s="67" t="s">
-        <v>8623</v>
+        <v>8619</v>
       </c>
       <c r="E96" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39542,61 +39982,61 @@
         <v>4</v>
       </c>
       <c r="L96" s="67" t="s">
-        <v>8637</v>
+        <v>8633</v>
       </c>
       <c r="M96" s="67" t="s">
         <v>8444</v>
       </c>
       <c r="N96" s="67" t="s">
+        <v>8642</v>
+      </c>
+      <c r="O96" s="67" t="s">
+        <v>8645</v>
+      </c>
+      <c r="P96" s="67" t="s">
         <v>8646</v>
       </c>
-      <c r="O96" s="67" t="s">
+      <c r="Q96" s="67" t="s">
+        <v>8647</v>
+      </c>
+      <c r="R96" s="67" t="s">
+        <v>8648</v>
+      </c>
+      <c r="S96" s="67" t="s">
         <v>8649</v>
       </c>
-      <c r="P96" s="67" t="s">
+      <c r="T96" s="67" t="s">
         <v>8650</v>
       </c>
-      <c r="Q96" s="67" t="s">
+      <c r="U96" s="67" t="s">
         <v>8651</v>
       </c>
-      <c r="R96" s="67" t="s">
+      <c r="V96" s="67" t="s">
         <v>8652</v>
       </c>
-      <c r="S96" s="67" t="s">
+      <c r="W96" s="67" t="s">
         <v>8653</v>
       </c>
-      <c r="T96" s="67" t="s">
+      <c r="X96" s="67" t="s">
         <v>8654</v>
       </c>
-      <c r="U96" s="67" t="s">
+      <c r="Y96" s="67" t="s">
         <v>8655</v>
       </c>
-      <c r="V96" s="67" t="s">
+      <c r="Z96" s="67" t="s">
         <v>8656</v>
       </c>
-      <c r="W96" s="67" t="s">
+      <c r="AA96" s="67" t="s">
         <v>8657</v>
       </c>
-      <c r="X96" s="67" t="s">
+      <c r="AB96" s="67" t="s">
         <v>8658</v>
       </c>
-      <c r="Y96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
         <v>8659</v>
       </c>
-      <c r="Z96" s="67" t="s">
+      <c r="AD96" s="67" t="s">
         <v>8660</v>
-      </c>
-      <c r="AA96" s="67" t="s">
-        <v>8661</v>
-      </c>
-      <c r="AB96" s="67" t="s">
-        <v>8662</v>
-      </c>
-      <c r="AC96" s="67" t="s">
-        <v>8663</v>
-      </c>
-      <c r="AD96" s="67" t="s">
-        <v>8664</v>
       </c>
       <c r="AE96"/>
       <c r="AF96"/>
@@ -39616,7 +40056,7 @@
         <v>1202</v>
       </c>
       <c r="D97" s="67" t="s">
-        <v>8623</v>
+        <v>8619</v>
       </c>
       <c r="E97" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39640,28 +40080,28 @@
         <v>4</v>
       </c>
       <c r="L97" s="67" t="s">
-        <v>8665</v>
+        <v>8661</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>8666</v>
+        <v>8662</v>
       </c>
       <c r="N97" s="67" t="s">
         <v>8456</v>
       </c>
       <c r="O97" s="67" t="s">
+        <v>8663</v>
+      </c>
+      <c r="P97" s="67" t="s">
+        <v>8664</v>
+      </c>
+      <c r="Q97" s="67" t="s">
+        <v>8665</v>
+      </c>
+      <c r="R97" s="67" t="s">
+        <v>8666</v>
+      </c>
+      <c r="S97" s="67" t="s">
         <v>8667</v>
-      </c>
-      <c r="P97" s="67" t="s">
-        <v>8668</v>
-      </c>
-      <c r="Q97" s="67" t="s">
-        <v>8669</v>
-      </c>
-      <c r="R97" s="67" t="s">
-        <v>8670</v>
-      </c>
-      <c r="S97" s="67" t="s">
-        <v>8671</v>
       </c>
       <c r="T97"/>
       <c r="U97"/>
@@ -39692,7 +40132,7 @@
         <v>220</v>
       </c>
       <c r="D98" s="67" t="s">
-        <v>8672</v>
+        <v>8668</v>
       </c>
       <c r="E98" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39716,50 +40156,50 @@
         <v>4</v>
       </c>
       <c r="L98" s="67" t="s">
-        <v>8673</v>
+        <v>8669</v>
       </c>
       <c r="M98" s="67" t="s">
-        <v>8674</v>
+        <v>8670</v>
       </c>
       <c r="N98" s="67" t="s">
-        <v>8675</v>
+        <v>8671</v>
       </c>
       <c r="O98" s="67" t="s">
-        <v>8676</v>
+        <v>8672</v>
       </c>
       <c r="P98" s="67"/>
       <c r="Q98" s="67" t="s">
+        <v>8673</v>
+      </c>
+      <c r="R98" s="67" t="s">
+        <v>8674</v>
+      </c>
+      <c r="S98" s="67" t="s">
+        <v>8675</v>
+      </c>
+      <c r="T98" s="67" t="s">
+        <v>8676</v>
+      </c>
+      <c r="U98" s="67" t="s">
         <v>8677</v>
       </c>
-      <c r="R98" s="67" t="s">
+      <c r="V98" s="67" t="s">
         <v>8678</v>
       </c>
-      <c r="S98" s="67" t="s">
+      <c r="W98" s="67" t="s">
         <v>8679</v>
       </c>
-      <c r="T98" s="67" t="s">
+      <c r="X98" s="67" t="s">
         <v>8680</v>
       </c>
-      <c r="U98" s="67" t="s">
+      <c r="Y98" s="67" t="s">
         <v>8681</v>
       </c>
-      <c r="V98" s="67" t="s">
+      <c r="Z98" s="67" t="s">
         <v>8682</v>
       </c>
-      <c r="W98" s="67" t="s">
+      <c r="AA98" s="67" t="s">
         <v>8683</v>
-      </c>
-      <c r="X98" s="67" t="s">
-        <v>8684</v>
-      </c>
-      <c r="Y98" s="67" t="s">
-        <v>8685</v>
-      </c>
-      <c r="Z98" s="67" t="s">
-        <v>8686</v>
-      </c>
-      <c r="AA98" s="67" t="s">
-        <v>8687</v>
       </c>
       <c r="AB98"/>
       <c r="AC98"/>
@@ -39782,7 +40222,7 @@
         <v>220</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>8688</v>
+        <v>8684</v>
       </c>
       <c r="E99" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39804,29 +40244,29 @@
         <v>4</v>
       </c>
       <c r="L99" s="67" t="s">
+        <v>8685</v>
+      </c>
+      <c r="M99" s="67" t="s">
+        <v>8686</v>
+      </c>
+      <c r="N99" s="67" t="s">
+        <v>8687</v>
+      </c>
+      <c r="O99" s="67" t="s">
+        <v>8688</v>
+      </c>
+      <c r="P99" s="67" t="s">
         <v>8689</v>
       </c>
-      <c r="M99" s="67" t="s">
+      <c r="Q99" s="67" t="s">
         <v>8690</v>
       </c>
-      <c r="N99" s="67" t="s">
+      <c r="R99" s="67" t="s">
         <v>8691</v>
-      </c>
-      <c r="O99" s="67" t="s">
-        <v>8692</v>
-      </c>
-      <c r="P99" s="67" t="s">
-        <v>8693</v>
-      </c>
-      <c r="Q99" s="67" t="s">
-        <v>8694</v>
-      </c>
-      <c r="R99" s="67" t="s">
-        <v>8695</v>
       </c>
       <c r="S99" s="67"/>
       <c r="T99" s="67" t="s">
-        <v>8696</v>
+        <v>8692</v>
       </c>
       <c r="U99"/>
       <c r="V99"/>
@@ -39850,13 +40290,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>8697</v>
+        <v>8693</v>
       </c>
       <c r="C100" s="67" t="s">
         <v>7528</v>
       </c>
       <c r="D100" s="67" t="s">
-        <v>8698</v>
+        <v>8694</v>
       </c>
       <c r="E100" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39878,25 +40318,25 @@
         <v>4</v>
       </c>
       <c r="L100" s="67" t="s">
+        <v>8695</v>
+      </c>
+      <c r="M100" s="67" t="s">
+        <v>8696</v>
+      </c>
+      <c r="N100" s="67" t="s">
+        <v>8697</v>
+      </c>
+      <c r="O100" s="67" t="s">
+        <v>8698</v>
+      </c>
+      <c r="P100" s="67" t="s">
         <v>8699</v>
       </c>
-      <c r="M100" s="67" t="s">
+      <c r="Q100" s="67" t="s">
         <v>8700</v>
       </c>
-      <c r="N100" s="67" t="s">
+      <c r="R100" s="67" t="s">
         <v>8701</v>
-      </c>
-      <c r="O100" s="67" t="s">
-        <v>8702</v>
-      </c>
-      <c r="P100" s="67" t="s">
-        <v>8703</v>
-      </c>
-      <c r="Q100" s="67" t="s">
-        <v>8704</v>
-      </c>
-      <c r="R100" s="67" t="s">
-        <v>8705</v>
       </c>
       <c r="S100"/>
       <c r="T100"/>
@@ -39922,13 +40362,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>8706</v>
+        <v>8702</v>
       </c>
       <c r="C101" s="67" t="s">
         <v>7529</v>
       </c>
       <c r="D101" s="67" t="s">
-        <v>8698</v>
+        <v>8694</v>
       </c>
       <c r="E101" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39980,13 +40420,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>8707</v>
+        <v>8703</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>8708</v>
+        <v>8704</v>
       </c>
       <c r="D102" s="67" t="s">
-        <v>8707</v>
+        <v>8703</v>
       </c>
       <c r="E102" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40008,10 +40448,10 @@
         <v>4</v>
       </c>
       <c r="L102" s="67" t="s">
-        <v>8709</v>
+        <v>8705</v>
       </c>
       <c r="M102" s="67" t="s">
-        <v>8710</v>
+        <v>8706</v>
       </c>
       <c r="N102" s="67" t="s">
         <v>8363</v>
@@ -41460,7 +41900,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8565</v>
+        <v>8561</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41496,7 +41936,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8566</v>
+        <v>8562</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -41532,7 +41972,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>8527</v>
+        <v>8523</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>$A$2</f>
@@ -41967,61 +42407,61 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8567</v>
+        <v>8563</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8568</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8569</v>
+        <v>8565</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8570</v>
+        <v>8566</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8571</v>
+        <v>8567</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8572</v>
+        <v>8568</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8574</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
-        <v>8575</v>
+        <v>8571</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8576</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
-        <v>8577</v>
+        <v>8573</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8578</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>8579</v>
+        <v>8575</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8580</v>
+        <v>8576</v>
       </c>
     </row>
   </sheetData>
@@ -42082,10 +42522,10 @@
         <v>7520</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>8564</v>
+        <v>8560</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>8563</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -42093,10 +42533,10 @@
         <v>7519</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>8562</v>
+        <v>8558</v>
       </c>
       <c r="K17" s="62" t="s">
-        <v>8561</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -72561,7 +73001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -85144,10 +85584,10 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -85178,7 +85618,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8560</v>
+        <v>8556</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -90939,7 +91379,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8713</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -90967,10 +91407,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:G5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -91087,6 +91527,14 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8575</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8718</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="decimal" sqref="C2:E3">

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27750" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729"/>
+    <workbookView xWindow="27750" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9135" uniqueCount="8756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9127" uniqueCount="8748">
   <si>
     <t>Uuo</t>
   </si>
@@ -22796,33 +22796,6 @@
     <t>11d</t>
   </si>
   <si>
-    <t>11c</t>
-  </si>
-  <si>
-    <t>11b</t>
-  </si>
-  <si>
-    <t>11a</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>10F</t>
   </si>
   <si>
@@ -26473,21 +26446,12 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>1.0.1</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
     <t>1.1.0</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Polymer Blocks</t>
   </si>
   <si>
@@ -27023,6 +26987,18 @@
   </si>
   <si>
     <t>Flip Derrick upside down</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Heated Knife Handle</t>
   </si>
 </sst>
 </file>
@@ -27252,7 +27228,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -27388,6 +27364,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -27696,7 +27673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -27708,13 +27685,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>8733</v>
+        <v>8721</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>8744</v>
+        <v>8732</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>8732</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -27722,7 +27699,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8718</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -27733,7 +27710,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8719</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -27741,7 +27718,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8724</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -27749,7 +27726,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8720</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -27760,7 +27737,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8721</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -27768,7 +27745,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8722</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -27776,7 +27753,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8467</v>
+        <v>8458</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -27784,7 +27761,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8480</v>
+        <v>8471</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -27792,7 +27769,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8723</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -27800,7 +27777,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>8485</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -27808,7 +27785,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8443</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -27816,7 +27793,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8445</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -27824,7 +27801,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8725</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -27832,7 +27809,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>8496</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -27840,7 +27817,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>8726</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -27848,7 +27825,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>8727</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -27856,7 +27833,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>8456</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -27864,7 +27841,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>8728</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -27872,7 +27849,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8729</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -27880,7 +27857,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>8730</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -27888,7 +27865,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>8731</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -27896,7 +27873,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8734</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -27904,7 +27881,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>8735</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -27912,7 +27889,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>8736</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -27920,7 +27897,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>8737</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -27928,7 +27905,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>8738</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -27936,7 +27913,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>8739</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -27944,7 +27921,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>8740</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -27952,7 +27929,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>8741</v>
+        <v>8729</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -27960,7 +27937,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>8742</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -27968,7 +27945,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8743</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -27976,7 +27953,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8745</v>
+        <v>8733</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -27987,7 +27964,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>8746</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -27998,7 +27975,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8747</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -28006,7 +27983,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>8748</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -28014,7 +27991,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>8749</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -28022,7 +27999,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8750</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -28030,7 +28007,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8751</v>
+        <v>8739</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -28038,12 +28015,12 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>8752</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>8753</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -28051,7 +28028,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>8754</v>
+        <v>8742</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -28059,7 +28036,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8755</v>
+        <v>8743</v>
       </c>
     </row>
   </sheetData>
@@ -29702,10 +29679,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8502</v>
+        <v>8493</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8500</v>
+        <v>8491</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -29717,7 +29694,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>8503</v>
+        <v>8494</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -31327,7 +31304,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8716</v>
+        <v>8704</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>751</v>
@@ -31481,10 +31458,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>8531</v>
+        <v>8522</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>8532</v>
+        <v>8523</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$3</f>
@@ -32165,10 +32142,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8533</v>
+        <v>8524</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>8534</v>
+        <v>8525</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32185,10 +32162,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8535</v>
+        <v>8526</v>
       </c>
       <c r="C182" t="s">
-        <v>8542</v>
+        <v>8533</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32196,7 +32173,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8549</v>
+        <v>8540</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -32207,10 +32184,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8536</v>
+        <v>8527</v>
       </c>
       <c r="C183" t="s">
-        <v>8543</v>
+        <v>8534</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32218,7 +32195,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8550</v>
+        <v>8541</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -32229,10 +32206,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8541</v>
+        <v>8532</v>
       </c>
       <c r="C184" t="s">
-        <v>8544</v>
+        <v>8535</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32240,7 +32217,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8551</v>
+        <v>8542</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -32251,10 +32228,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8540</v>
+        <v>8531</v>
       </c>
       <c r="C185" t="s">
-        <v>8545</v>
+        <v>8536</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32262,7 +32239,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8552</v>
+        <v>8543</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -32273,10 +32250,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8539</v>
+        <v>8530</v>
       </c>
       <c r="C186" t="s">
-        <v>8546</v>
+        <v>8537</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32284,7 +32261,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8553</v>
+        <v>8544</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -32295,10 +32272,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>8529</v>
+      </c>
+      <c r="C187" t="s">
         <v>8538</v>
-      </c>
-      <c r="C187" t="s">
-        <v>8547</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32306,7 +32283,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8554</v>
+        <v>8545</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -32317,10 +32294,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8537</v>
+        <v>8528</v>
       </c>
       <c r="C188" t="s">
-        <v>8548</v>
+        <v>8539</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32328,7 +32305,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8555</v>
+        <v>8546</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -33657,7 +33634,7 @@
         <v>492</v>
       </c>
       <c r="C248" s="57" t="s">
-        <v>8498</v>
+        <v>8489</v>
       </c>
       <c r="D248" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -33665,11 +33642,11 @@
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12" t="s">
-        <v>8501</v>
+        <v>8492</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12" t="s">
-        <v>8499</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -34382,7 +34359,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8528</v>
+        <v>8519</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -34400,7 +34377,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8529</v>
+        <v>8520</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -34418,7 +34395,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8530</v>
+        <v>8521</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -34874,7 +34851,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>8717</v>
+        <v>8705</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>327</v>
@@ -35215,7 +35192,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>8569</v>
+        <v>8560</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
@@ -35518,7 +35495,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>8434</v>
+        <v>8425</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35531,7 +35508,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>8435</v>
+        <v>8426</v>
       </c>
       <c r="D335" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35544,7 +35521,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8494</v>
+        <v>8485</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>1430</v>
@@ -35556,10 +35533,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8711</v>
+        <v>8699</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>8710</v>
+        <v>8698</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -35575,10 +35552,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8712</v>
+        <v>8700</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8713</v>
+        <v>8701</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35591,10 +35568,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8714</v>
+        <v>8702</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8715</v>
+        <v>8703</v>
       </c>
       <c r="D339" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -36148,7 +36125,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8520</v>
+        <v>8511</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1325</v>
@@ -36404,7 +36381,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8522</v>
+        <v>8513</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1303</v>
@@ -38022,10 +37999,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8708</v>
+        <v>8696</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8707</v>
+        <v>8695</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
@@ -38054,7 +38031,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38070,7 +38047,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8519</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -38079,7 +38056,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>8408</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -38088,7 +38065,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>8364</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -38097,7 +38074,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>8362</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -38106,7 +38083,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>8363</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -38115,7 +38092,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>8409</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -38124,7 +38101,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>8361</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -38133,7 +38110,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>8360</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -38142,7 +38119,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>8410</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -38151,7 +38128,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>8411</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -38160,7 +38137,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>8412</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -38169,7 +38146,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8497</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -38178,11 +38155,17 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8527</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="str">
+        <f>Enums!$A$97</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8747</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38221,25 +38204,25 @@
         <v>Version</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>8511</v>
+        <v>8502</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>8512</v>
+        <v>8503</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>8513</v>
+        <v>8504</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>8526</v>
+        <v>8517</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>8514</v>
+        <v>8505</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>8515</v>
+        <v>8506</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>8516</v>
+        <v>8507</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -38751,15 +38734,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8407</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>8406</v>
+        <v>8397</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8405</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -38767,7 +38750,7 @@
         <v>263</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8404</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -38775,7 +38758,7 @@
         <v>264</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8403</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -38784,107 +38767,107 @@
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>8402</v>
+        <v>8393</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8401</v>
+        <v>8392</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>8400</v>
+        <v>8391</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>8399</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>8398</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>8397</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>8396</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>8395</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>8394</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>8393</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>8392</v>
+        <v>8383</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>8391</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>8390</v>
+        <v>8381</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>8389</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>8388</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>8387</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>8386</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>8385</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>8384</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>8383</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -38895,141 +38878,141 @@
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
-        <v>8382</v>
+        <v>8373</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>8381</v>
+        <v>8372</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>8380</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>8379</v>
+        <v>8370</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1389</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>8378</v>
+        <v>8369</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>8377</v>
+        <v>8368</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>8376</v>
+        <v>8367</v>
       </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>8375</v>
+        <v>8366</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1388</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>8374</v>
+        <v>8365</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>8373</v>
+        <v>8364</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>8372</v>
+        <v>8363</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>8371</v>
+        <v>8362</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>8370</v>
+        <v>8361</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>8369</v>
+        <v>8360</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>8368</v>
+        <v>8359</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>8367</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>8366</v>
+        <v>8357</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>8365</v>
+        <v>8356</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>8364</v>
+        <v>8355</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>8363</v>
+        <v>8354</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>8362</v>
+        <v>8353</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>8361</v>
+        <v>8352</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>8360</v>
+        <v>8351</v>
       </c>
       <c r="I30" s="47" t="s">
-        <v>8359</v>
+        <v>8350</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>8358</v>
+        <v>8349</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>8357</v>
+        <v>8348</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>8356</v>
+        <v>8347</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>8355</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>8354</v>
+        <v>8345</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1383</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>8353</v>
+        <v>8344</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>8352</v>
+        <v>8343</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>8351</v>
+        <v>8342</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>8350</v>
+        <v>8341</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>7529</v>
+        <v>7520</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>8349</v>
+        <v>8340</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>8348</v>
+        <v>8339</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>8347</v>
+        <v>8338</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>8346</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>8345</v>
+        <v>8336</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1382</v>
@@ -39048,7 +39031,7 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>8344</v>
+        <v>8335</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1381</v>
@@ -39059,7 +39042,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>8343</v>
+        <v>8334</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>1380</v>
@@ -39080,29 +39063,29 @@
         <v>1364</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>7528</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>8342</v>
+        <v>8333</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>8341</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>8340</v>
+        <v>8331</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1378</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8339</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -39113,7 +39096,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="30" t="s">
-        <v>8338</v>
+        <v>8329</v>
       </c>
       <c r="C39" s="6"/>
     </row>
@@ -39122,10 +39105,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>8337</v>
+        <v>8328</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>8335</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -39133,10 +39116,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>8336</v>
+        <v>8327</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8335</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -39148,7 +39131,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>8334</v>
+        <v>8325</v>
       </c>
       <c r="C43" s="7"/>
     </row>
@@ -39157,7 +39140,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>8333</v>
+        <v>8324</v>
       </c>
       <c r="C44" s="7"/>
     </row>
@@ -39166,7 +39149,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>8332</v>
+        <v>8323</v>
       </c>
       <c r="C45" s="7"/>
     </row>
@@ -39175,7 +39158,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>8331</v>
+        <v>8322</v>
       </c>
       <c r="C46" s="7"/>
     </row>
@@ -39184,7 +39167,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>8330</v>
+        <v>8321</v>
       </c>
       <c r="C47" s="7"/>
     </row>
@@ -39193,7 +39176,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>8329</v>
+        <v>8320</v>
       </c>
       <c r="C48" s="7"/>
     </row>
@@ -39206,7 +39189,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>8328</v>
+        <v>8319</v>
       </c>
       <c r="C50" s="7"/>
     </row>
@@ -39215,7 +39198,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>8327</v>
+        <v>8318</v>
       </c>
       <c r="C51" s="7"/>
     </row>
@@ -39224,7 +39207,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>8326</v>
+        <v>8317</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -39233,7 +39216,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>8325</v>
+        <v>8316</v>
       </c>
       <c r="C53" s="7"/>
     </row>
@@ -39242,7 +39225,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>8324</v>
+        <v>8315</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -39251,7 +39234,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>8323</v>
+        <v>8314</v>
       </c>
       <c r="C55" s="7"/>
     </row>
@@ -39260,7 +39243,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>8322</v>
+        <v>8313</v>
       </c>
       <c r="C56" s="7"/>
     </row>
@@ -39269,7 +39252,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>8321</v>
+        <v>8312</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -39278,7 +39261,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>8320</v>
+        <v>8311</v>
       </c>
       <c r="C58" s="7"/>
     </row>
@@ -39287,7 +39270,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>8319</v>
+        <v>8310</v>
       </c>
       <c r="C59" s="7"/>
     </row>
@@ -39296,7 +39279,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>8318</v>
+        <v>8309</v>
       </c>
       <c r="C60" s="7"/>
     </row>
@@ -39305,7 +39288,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>8317</v>
+        <v>8308</v>
       </c>
       <c r="C61" s="7"/>
     </row>
@@ -39314,7 +39297,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>8316</v>
+        <v>8307</v>
       </c>
       <c r="C62" s="7"/>
     </row>
@@ -39323,7 +39306,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>8315</v>
+        <v>8306</v>
       </c>
       <c r="C63" s="7"/>
     </row>
@@ -39332,7 +39315,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>8314</v>
+        <v>8305</v>
       </c>
       <c r="C64" s="7"/>
     </row>
@@ -39345,7 +39328,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>8313</v>
+        <v>8304</v>
       </c>
       <c r="C66" s="7"/>
     </row>
@@ -39354,7 +39337,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>8312</v>
+        <v>8303</v>
       </c>
       <c r="C67" s="7"/>
     </row>
@@ -39363,7 +39346,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>8311</v>
+        <v>8302</v>
       </c>
       <c r="C68" s="7"/>
     </row>
@@ -39372,7 +39355,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>8310</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39380,7 +39363,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>8309</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39388,7 +39371,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>8308</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39396,7 +39379,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>8307</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39404,7 +39387,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>8306</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39412,7 +39395,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>8305</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39420,7 +39403,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>8304</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39428,7 +39411,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>8303</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -39436,7 +39419,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>8302</v>
+        <v>8293</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -39445,7 +39428,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>8521</v>
+        <v>8512</v>
       </c>
       <c r="D78" s="8"/>
     </row>
@@ -39457,7 +39440,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>8301</v>
+        <v>8292</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -39466,7 +39449,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>8300</v>
+        <v>8291</v>
       </c>
       <c r="E81" s="8"/>
     </row>
@@ -39475,7 +39458,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>8299</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="83" spans="1:36" ht="15" x14ac:dyDescent="0.25">
@@ -39483,7 +39466,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>8298</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="84" spans="1:36" ht="15" x14ac:dyDescent="0.25">
@@ -39491,7 +39474,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>8524</v>
+        <v>8515</v>
       </c>
     </row>
     <row r="85" spans="1:36" ht="15" x14ac:dyDescent="0.25">
@@ -39499,7 +39482,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>8525</v>
+        <v>8516</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -39508,7 +39491,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>8297</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="87" spans="1:36" ht="15" x14ac:dyDescent="0.25">
@@ -39516,7 +39499,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>8296</v>
+        <v>8287</v>
       </c>
       <c r="E87" s="8"/>
     </row>
@@ -39536,7 +39519,7 @@
         <v>1374</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>8577</v>
+        <v>8565</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>1376</v>
@@ -39545,25 +39528,25 @@
         <v>1413</v>
       </c>
       <c r="E91" s="64" t="s">
-        <v>8578</v>
+        <v>8566</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>8579</v>
+        <v>8567</v>
       </c>
       <c r="G91" s="64" t="s">
         <v>1373</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>8580</v>
+        <v>8568</v>
       </c>
       <c r="I91" s="64" t="s">
         <v>1372</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>8581</v>
+        <v>8569</v>
       </c>
       <c r="K91" s="64" t="s">
-        <v>8582</v>
+        <v>8570</v>
       </c>
       <c r="L91" s="64" t="s">
         <v>1371</v>
@@ -39578,67 +39561,67 @@
         <v>1368</v>
       </c>
       <c r="P91" s="64" t="s">
+        <v>8571</v>
+      </c>
+      <c r="Q91" s="64" t="s">
+        <v>8572</v>
+      </c>
+      <c r="R91" s="64" t="s">
+        <v>8573</v>
+      </c>
+      <c r="S91" s="64" t="s">
+        <v>8574</v>
+      </c>
+      <c r="T91" s="64" t="s">
+        <v>8575</v>
+      </c>
+      <c r="U91" s="64" t="s">
+        <v>8576</v>
+      </c>
+      <c r="V91" s="64" t="s">
+        <v>8577</v>
+      </c>
+      <c r="W91" s="64" t="s">
+        <v>8578</v>
+      </c>
+      <c r="X91" s="64" t="s">
+        <v>8579</v>
+      </c>
+      <c r="Y91" s="64" t="s">
+        <v>8580</v>
+      </c>
+      <c r="Z91" s="64" t="s">
+        <v>8581</v>
+      </c>
+      <c r="AA91" s="64" t="s">
+        <v>8582</v>
+      </c>
+      <c r="AB91" s="64" t="s">
         <v>8583</v>
       </c>
-      <c r="Q91" s="64" t="s">
+      <c r="AC91" s="64" t="s">
         <v>8584</v>
       </c>
-      <c r="R91" s="64" t="s">
+      <c r="AD91" s="64" t="s">
         <v>8585</v>
       </c>
-      <c r="S91" s="64" t="s">
+      <c r="AE91" s="64" t="s">
         <v>8586</v>
       </c>
-      <c r="T91" s="64" t="s">
+      <c r="AF91" s="64" t="s">
         <v>8587</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8588</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8589</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8590</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8591</v>
-      </c>
-      <c r="Y91" s="64" t="s">
-        <v>8592</v>
-      </c>
-      <c r="Z91" s="64" t="s">
-        <v>8593</v>
-      </c>
-      <c r="AA91" s="64" t="s">
-        <v>8594</v>
-      </c>
-      <c r="AB91" s="64" t="s">
-        <v>8595</v>
-      </c>
-      <c r="AC91" s="64" t="s">
-        <v>8596</v>
-      </c>
-      <c r="AD91" s="64" t="s">
-        <v>8597</v>
-      </c>
-      <c r="AE91" s="64" t="s">
-        <v>8598</v>
-      </c>
-      <c r="AF91" s="64" t="s">
-        <v>8599</v>
-      </c>
-      <c r="AG91" s="64" t="s">
-        <v>8600</v>
-      </c>
-      <c r="AH91" s="64" t="s">
-        <v>8601</v>
-      </c>
-      <c r="AI91" s="64" t="s">
-        <v>8602</v>
-      </c>
-      <c r="AJ91" s="64" t="s">
-        <v>8603</v>
       </c>
     </row>
     <row r="92" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
@@ -39646,13 +39629,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>8604</v>
+        <v>8592</v>
       </c>
       <c r="C92" s="67" t="s">
         <v>1264</v>
       </c>
       <c r="D92" s="67" t="s">
-        <v>8605</v>
+        <v>8593</v>
       </c>
       <c r="E92" s="66" t="str">
         <f>"Fiber ("&amp;B92&amp;")"</f>
@@ -39674,40 +39657,40 @@
         <v>4</v>
       </c>
       <c r="L92" s="67" t="s">
-        <v>8606</v>
+        <v>8594</v>
       </c>
       <c r="M92" s="67" t="s">
-        <v>8607</v>
+        <v>8595</v>
       </c>
       <c r="N92" s="67" t="s">
-        <v>8608</v>
+        <v>8596</v>
       </c>
       <c r="O92" s="67" t="s">
-        <v>8609</v>
+        <v>8597</v>
       </c>
       <c r="P92" s="67" t="s">
-        <v>8610</v>
+        <v>8598</v>
       </c>
       <c r="Q92" s="67" t="s">
-        <v>8611</v>
+        <v>8599</v>
       </c>
       <c r="R92" s="67" t="s">
-        <v>8612</v>
+        <v>8600</v>
       </c>
       <c r="S92" s="67" t="s">
-        <v>8613</v>
+        <v>8601</v>
       </c>
       <c r="T92" s="67" t="s">
-        <v>8614</v>
+        <v>8602</v>
       </c>
       <c r="U92" s="67" t="s">
-        <v>8615</v>
+        <v>8603</v>
       </c>
       <c r="V92" s="67" t="s">
-        <v>8616</v>
+        <v>8604</v>
       </c>
       <c r="W92" s="67" t="s">
-        <v>8617</v>
+        <v>8605</v>
       </c>
       <c r="X92"/>
       <c r="Y92"/>
@@ -39728,13 +39711,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>8618</v>
+        <v>8606</v>
       </c>
       <c r="C93" s="67" t="s">
         <v>1338</v>
       </c>
       <c r="D93" s="67" t="s">
-        <v>8619</v>
+        <v>8607</v>
       </c>
       <c r="E93" s="66" t="str">
         <f t="shared" ref="E93:E102" si="1">"Fiber ("&amp;B93&amp;")"</f>
@@ -39756,34 +39739,34 @@
         <v>4</v>
       </c>
       <c r="L93" s="67" t="s">
-        <v>8620</v>
+        <v>8608</v>
       </c>
       <c r="M93" s="67" t="s">
-        <v>8621</v>
+        <v>8609</v>
       </c>
       <c r="N93" s="67" t="s">
-        <v>8622</v>
+        <v>8610</v>
       </c>
       <c r="O93" s="67" t="s">
-        <v>8623</v>
+        <v>8611</v>
       </c>
       <c r="P93" s="67" t="s">
-        <v>8624</v>
+        <v>8612</v>
       </c>
       <c r="Q93" s="67" t="s">
-        <v>8625</v>
+        <v>8613</v>
       </c>
       <c r="R93" s="67" t="s">
-        <v>8626</v>
+        <v>8614</v>
       </c>
       <c r="S93" s="67" t="s">
-        <v>8627</v>
+        <v>8615</v>
       </c>
       <c r="T93" s="67" t="s">
-        <v>8628</v>
+        <v>8616</v>
       </c>
       <c r="U93" s="67" t="s">
-        <v>8629</v>
+        <v>8617</v>
       </c>
       <c r="V93"/>
       <c r="W93"/>
@@ -39812,7 +39795,7 @@
         <v>1180</v>
       </c>
       <c r="D94" s="67" t="s">
-        <v>8619</v>
+        <v>8607</v>
       </c>
       <c r="E94" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39834,34 +39817,34 @@
         <v>4</v>
       </c>
       <c r="L94" s="67" t="s">
-        <v>8630</v>
+        <v>8618</v>
       </c>
       <c r="M94" s="67" t="s">
-        <v>8631</v>
+        <v>8619</v>
       </c>
       <c r="N94" s="67" t="s">
-        <v>8632</v>
+        <v>8620</v>
       </c>
       <c r="O94" s="67" t="s">
-        <v>8633</v>
+        <v>8621</v>
       </c>
       <c r="P94" s="67" t="s">
-        <v>8634</v>
+        <v>8622</v>
       </c>
       <c r="Q94" s="67" t="s">
-        <v>8635</v>
+        <v>8623</v>
       </c>
       <c r="R94" s="67" t="s">
-        <v>8636</v>
+        <v>8624</v>
       </c>
       <c r="S94" s="67" t="s">
-        <v>8637</v>
+        <v>8625</v>
       </c>
       <c r="T94" s="67" t="s">
-        <v>8638</v>
+        <v>8626</v>
       </c>
       <c r="U94" s="67" t="s">
-        <v>8639</v>
+        <v>8627</v>
       </c>
       <c r="V94"/>
       <c r="W94"/>
@@ -39884,13 +39867,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>8640</v>
+        <v>8628</v>
       </c>
       <c r="C95" s="67" t="s">
         <v>1326</v>
       </c>
       <c r="D95" s="67" t="s">
-        <v>8619</v>
+        <v>8607</v>
       </c>
       <c r="E95" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39912,22 +39895,22 @@
         <v>4</v>
       </c>
       <c r="L95" s="67" t="s">
-        <v>8444</v>
+        <v>8435</v>
       </c>
       <c r="M95" s="67" t="s">
-        <v>8641</v>
+        <v>8629</v>
       </c>
       <c r="N95" s="67" t="s">
-        <v>8642</v>
+        <v>8630</v>
       </c>
       <c r="O95" s="67" t="s">
-        <v>8643</v>
+        <v>8631</v>
       </c>
       <c r="P95" s="67" t="s">
-        <v>8470</v>
+        <v>8461</v>
       </c>
       <c r="Q95" s="67" t="s">
-        <v>8644</v>
+        <v>8632</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -39960,7 +39943,7 @@
         <v>1208</v>
       </c>
       <c r="D96" s="67" t="s">
-        <v>8619</v>
+        <v>8607</v>
       </c>
       <c r="E96" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39982,61 +39965,61 @@
         <v>4</v>
       </c>
       <c r="L96" s="67" t="s">
+        <v>8621</v>
+      </c>
+      <c r="M96" s="67" t="s">
+        <v>8435</v>
+      </c>
+      <c r="N96" s="67" t="s">
+        <v>8630</v>
+      </c>
+      <c r="O96" s="67" t="s">
         <v>8633</v>
       </c>
-      <c r="M96" s="67" t="s">
-        <v>8444</v>
-      </c>
-      <c r="N96" s="67" t="s">
+      <c r="P96" s="67" t="s">
+        <v>8634</v>
+      </c>
+      <c r="Q96" s="67" t="s">
+        <v>8635</v>
+      </c>
+      <c r="R96" s="67" t="s">
+        <v>8636</v>
+      </c>
+      <c r="S96" s="67" t="s">
+        <v>8637</v>
+      </c>
+      <c r="T96" s="67" t="s">
+        <v>8638</v>
+      </c>
+      <c r="U96" s="67" t="s">
+        <v>8639</v>
+      </c>
+      <c r="V96" s="67" t="s">
+        <v>8640</v>
+      </c>
+      <c r="W96" s="67" t="s">
+        <v>8641</v>
+      </c>
+      <c r="X96" s="67" t="s">
         <v>8642</v>
       </c>
-      <c r="O96" s="67" t="s">
+      <c r="Y96" s="67" t="s">
+        <v>8643</v>
+      </c>
+      <c r="Z96" s="67" t="s">
+        <v>8644</v>
+      </c>
+      <c r="AA96" s="67" t="s">
         <v>8645</v>
       </c>
-      <c r="P96" s="67" t="s">
+      <c r="AB96" s="67" t="s">
         <v>8646</v>
       </c>
-      <c r="Q96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
         <v>8647</v>
       </c>
-      <c r="R96" s="67" t="s">
+      <c r="AD96" s="67" t="s">
         <v>8648</v>
-      </c>
-      <c r="S96" s="67" t="s">
-        <v>8649</v>
-      </c>
-      <c r="T96" s="67" t="s">
-        <v>8650</v>
-      </c>
-      <c r="U96" s="67" t="s">
-        <v>8651</v>
-      </c>
-      <c r="V96" s="67" t="s">
-        <v>8652</v>
-      </c>
-      <c r="W96" s="67" t="s">
-        <v>8653</v>
-      </c>
-      <c r="X96" s="67" t="s">
-        <v>8654</v>
-      </c>
-      <c r="Y96" s="67" t="s">
-        <v>8655</v>
-      </c>
-      <c r="Z96" s="67" t="s">
-        <v>8656</v>
-      </c>
-      <c r="AA96" s="67" t="s">
-        <v>8657</v>
-      </c>
-      <c r="AB96" s="67" t="s">
-        <v>8658</v>
-      </c>
-      <c r="AC96" s="67" t="s">
-        <v>8659</v>
-      </c>
-      <c r="AD96" s="67" t="s">
-        <v>8660</v>
       </c>
       <c r="AE96"/>
       <c r="AF96"/>
@@ -40056,7 +40039,7 @@
         <v>1202</v>
       </c>
       <c r="D97" s="67" t="s">
-        <v>8619</v>
+        <v>8607</v>
       </c>
       <c r="E97" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40080,28 +40063,28 @@
         <v>4</v>
       </c>
       <c r="L97" s="67" t="s">
-        <v>8661</v>
+        <v>8649</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>8662</v>
+        <v>8650</v>
       </c>
       <c r="N97" s="67" t="s">
-        <v>8456</v>
+        <v>8447</v>
       </c>
       <c r="O97" s="67" t="s">
-        <v>8663</v>
+        <v>8651</v>
       </c>
       <c r="P97" s="67" t="s">
-        <v>8664</v>
+        <v>8652</v>
       </c>
       <c r="Q97" s="67" t="s">
-        <v>8665</v>
+        <v>8653</v>
       </c>
       <c r="R97" s="67" t="s">
-        <v>8666</v>
+        <v>8654</v>
       </c>
       <c r="S97" s="67" t="s">
-        <v>8667</v>
+        <v>8655</v>
       </c>
       <c r="T97"/>
       <c r="U97"/>
@@ -40132,7 +40115,7 @@
         <v>220</v>
       </c>
       <c r="D98" s="67" t="s">
-        <v>8668</v>
+        <v>8656</v>
       </c>
       <c r="E98" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40156,50 +40139,50 @@
         <v>4</v>
       </c>
       <c r="L98" s="67" t="s">
-        <v>8669</v>
+        <v>8657</v>
       </c>
       <c r="M98" s="67" t="s">
-        <v>8670</v>
+        <v>8658</v>
       </c>
       <c r="N98" s="67" t="s">
-        <v>8671</v>
+        <v>8659</v>
       </c>
       <c r="O98" s="67" t="s">
-        <v>8672</v>
+        <v>8660</v>
       </c>
       <c r="P98" s="67"/>
       <c r="Q98" s="67" t="s">
-        <v>8673</v>
+        <v>8661</v>
       </c>
       <c r="R98" s="67" t="s">
-        <v>8674</v>
+        <v>8662</v>
       </c>
       <c r="S98" s="67" t="s">
-        <v>8675</v>
+        <v>8663</v>
       </c>
       <c r="T98" s="67" t="s">
-        <v>8676</v>
+        <v>8664</v>
       </c>
       <c r="U98" s="67" t="s">
-        <v>8677</v>
+        <v>8665</v>
       </c>
       <c r="V98" s="67" t="s">
-        <v>8678</v>
+        <v>8666</v>
       </c>
       <c r="W98" s="67" t="s">
-        <v>8679</v>
+        <v>8667</v>
       </c>
       <c r="X98" s="67" t="s">
-        <v>8680</v>
+        <v>8668</v>
       </c>
       <c r="Y98" s="67" t="s">
-        <v>8681</v>
+        <v>8669</v>
       </c>
       <c r="Z98" s="67" t="s">
-        <v>8682</v>
+        <v>8670</v>
       </c>
       <c r="AA98" s="67" t="s">
-        <v>8683</v>
+        <v>8671</v>
       </c>
       <c r="AB98"/>
       <c r="AC98"/>
@@ -40222,7 +40205,7 @@
         <v>220</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>8684</v>
+        <v>8672</v>
       </c>
       <c r="E99" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40244,29 +40227,29 @@
         <v>4</v>
       </c>
       <c r="L99" s="67" t="s">
-        <v>8685</v>
+        <v>8673</v>
       </c>
       <c r="M99" s="67" t="s">
-        <v>8686</v>
+        <v>8674</v>
       </c>
       <c r="N99" s="67" t="s">
-        <v>8687</v>
+        <v>8675</v>
       </c>
       <c r="O99" s="67" t="s">
-        <v>8688</v>
+        <v>8676</v>
       </c>
       <c r="P99" s="67" t="s">
-        <v>8689</v>
+        <v>8677</v>
       </c>
       <c r="Q99" s="67" t="s">
-        <v>8690</v>
+        <v>8678</v>
       </c>
       <c r="R99" s="67" t="s">
-        <v>8691</v>
+        <v>8679</v>
       </c>
       <c r="S99" s="67"/>
       <c r="T99" s="67" t="s">
-        <v>8692</v>
+        <v>8680</v>
       </c>
       <c r="U99"/>
       <c r="V99"/>
@@ -40290,13 +40273,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>8693</v>
+        <v>8681</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>7528</v>
+        <v>7519</v>
       </c>
       <c r="D100" s="67" t="s">
-        <v>8694</v>
+        <v>8682</v>
       </c>
       <c r="E100" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40318,25 +40301,25 @@
         <v>4</v>
       </c>
       <c r="L100" s="67" t="s">
-        <v>8695</v>
+        <v>8683</v>
       </c>
       <c r="M100" s="67" t="s">
-        <v>8696</v>
+        <v>8684</v>
       </c>
       <c r="N100" s="67" t="s">
-        <v>8697</v>
+        <v>8685</v>
       </c>
       <c r="O100" s="67" t="s">
-        <v>8698</v>
+        <v>8686</v>
       </c>
       <c r="P100" s="67" t="s">
-        <v>8699</v>
+        <v>8687</v>
       </c>
       <c r="Q100" s="67" t="s">
-        <v>8700</v>
+        <v>8688</v>
       </c>
       <c r="R100" s="67" t="s">
-        <v>8701</v>
+        <v>8689</v>
       </c>
       <c r="S100"/>
       <c r="T100"/>
@@ -40362,13 +40345,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>8702</v>
+        <v>8690</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>7529</v>
+        <v>7520</v>
       </c>
       <c r="D101" s="67" t="s">
-        <v>8694</v>
+        <v>8682</v>
       </c>
       <c r="E101" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40420,13 +40403,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>8703</v>
+        <v>8691</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>8704</v>
+        <v>8692</v>
       </c>
       <c r="D102" s="67" t="s">
-        <v>8703</v>
+        <v>8691</v>
       </c>
       <c r="E102" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40448,16 +40431,16 @@
         <v>4</v>
       </c>
       <c r="L102" s="67" t="s">
-        <v>8705</v>
+        <v>8693</v>
       </c>
       <c r="M102" s="67" t="s">
-        <v>8706</v>
+        <v>8694</v>
       </c>
       <c r="N102" s="67" t="s">
-        <v>8363</v>
+        <v>8354</v>
       </c>
       <c r="O102" s="67" t="s">
-        <v>8361</v>
+        <v>8352</v>
       </c>
       <c r="P102"/>
       <c r="Q102"/>
@@ -40484,10 +40467,10 @@
     <row r="103" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B103" s="12"/>
       <c r="D103" s="53" t="s">
-        <v>8496</v>
+        <v>8487</v>
       </c>
       <c r="E103" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="b">
@@ -40497,10 +40480,10 @@
     <row r="104" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B104" s="12"/>
       <c r="D104" s="53" t="s">
-        <v>8495</v>
+        <v>8486</v>
       </c>
       <c r="E104" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="b">
@@ -40510,10 +40493,10 @@
     <row r="105" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B105" s="12"/>
       <c r="D105" s="56" t="s">
-        <v>8494</v>
+        <v>8485</v>
       </c>
       <c r="E105" s="54" t="s">
-        <v>8493</v>
+        <v>8484</v>
       </c>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="b">
@@ -40526,10 +40509,10 @@
     <row r="107" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B107" s="12"/>
       <c r="D107" s="53" t="s">
-        <v>8492</v>
+        <v>8483</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F107" s="53"/>
       <c r="G107" s="54" t="b">
@@ -40539,10 +40522,10 @@
     <row r="108" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="12"/>
       <c r="D108" s="53" t="s">
-        <v>8491</v>
+        <v>8482</v>
       </c>
       <c r="E108" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F108" s="53"/>
       <c r="G108" s="54" t="b">
@@ -40552,10 +40535,10 @@
     <row r="109" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B109" s="12"/>
       <c r="D109" s="53" t="s">
-        <v>8490</v>
+        <v>8481</v>
       </c>
       <c r="E109" s="53" t="s">
-        <v>8453</v>
+        <v>8444</v>
       </c>
       <c r="F109" s="53"/>
       <c r="G109" s="54" t="b">
@@ -40565,10 +40548,10 @@
     <row r="110" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B110" s="12"/>
       <c r="D110" s="53" t="s">
-        <v>8489</v>
+        <v>8480</v>
       </c>
       <c r="E110" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F110" s="53"/>
       <c r="G110" s="54" t="b">
@@ -40578,10 +40561,10 @@
     <row r="111" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B111" s="12"/>
       <c r="D111" s="53" t="s">
-        <v>8488</v>
+        <v>8479</v>
       </c>
       <c r="E111" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F111" s="53"/>
       <c r="G111" s="54" t="b">
@@ -40591,10 +40574,10 @@
     <row r="112" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B112" s="12"/>
       <c r="D112" s="53" t="s">
-        <v>8487</v>
+        <v>8478</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F112" s="53"/>
       <c r="G112" s="54" t="b">
@@ -40604,7 +40587,7 @@
     <row r="113" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B113" s="12"/>
       <c r="D113" s="54" t="s">
-        <v>8486</v>
+        <v>8477</v>
       </c>
       <c r="E113" s="54"/>
       <c r="F113" s="53"/>
@@ -40615,10 +40598,10 @@
     <row r="114" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B114" s="12"/>
       <c r="D114" s="53" t="s">
-        <v>8485</v>
+        <v>8476</v>
       </c>
       <c r="E114" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F114" s="53"/>
       <c r="G114" s="54" t="b">
@@ -40635,10 +40618,10 @@
     <row r="116" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B116" s="12"/>
       <c r="D116" s="53" t="s">
-        <v>8484</v>
+        <v>8475</v>
       </c>
       <c r="E116" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F116" s="53"/>
       <c r="G116" s="54" t="b">
@@ -40648,10 +40631,10 @@
     <row r="117" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B117" s="12"/>
       <c r="D117" s="53" t="s">
-        <v>8483</v>
+        <v>8474</v>
       </c>
       <c r="E117" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F117" s="53"/>
       <c r="G117" s="54" t="b">
@@ -40661,10 +40644,10 @@
     <row r="118" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
       <c r="D118" s="53" t="s">
-        <v>8482</v>
+        <v>8473</v>
       </c>
       <c r="E118" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F118" s="53"/>
       <c r="G118" s="54" t="b">
@@ -40674,10 +40657,10 @@
     <row r="119" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B119" s="12"/>
       <c r="D119" s="53" t="s">
-        <v>8481</v>
+        <v>8472</v>
       </c>
       <c r="E119" s="53" t="s">
-        <v>8446</v>
+        <v>8437</v>
       </c>
       <c r="F119" s="53"/>
       <c r="G119" s="54" t="b">
@@ -40687,10 +40670,10 @@
     <row r="120" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B120" s="12"/>
       <c r="D120" s="53" t="s">
-        <v>8480</v>
+        <v>8471</v>
       </c>
       <c r="E120" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F120" s="53"/>
       <c r="G120" s="54" t="b">
@@ -40700,13 +40683,13 @@
     <row r="121" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B121" s="12"/>
       <c r="D121" s="53" t="s">
-        <v>8479</v>
+        <v>8470</v>
       </c>
       <c r="E121" s="54" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F121" s="53" t="s">
-        <v>8478</v>
+        <v>8469</v>
       </c>
       <c r="G121" s="54" t="b">
         <v>0</v>
@@ -40715,10 +40698,10 @@
     <row r="122" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="12"/>
       <c r="D122" s="53" t="s">
-        <v>8477</v>
+        <v>8468</v>
       </c>
       <c r="E122" s="53" t="s">
-        <v>8446</v>
+        <v>8437</v>
       </c>
       <c r="F122" s="53"/>
       <c r="G122" s="54" t="b">
@@ -40728,10 +40711,10 @@
     <row r="123" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="12"/>
       <c r="D123" s="53" t="s">
-        <v>8476</v>
+        <v>8467</v>
       </c>
       <c r="E123" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F123" s="53"/>
       <c r="G123" s="54" t="b">
@@ -40741,10 +40724,10 @@
     <row r="124" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B124" s="12"/>
       <c r="D124" s="53" t="s">
-        <v>8475</v>
+        <v>8466</v>
       </c>
       <c r="E124" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F124" s="53"/>
       <c r="G124" s="54" t="b">
@@ -40754,10 +40737,10 @@
     <row r="125" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B125" s="12"/>
       <c r="D125" s="53" t="s">
-        <v>8474</v>
+        <v>8465</v>
       </c>
       <c r="E125" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F125" s="53"/>
       <c r="G125" s="54" t="b">
@@ -40767,10 +40750,10 @@
     <row r="126" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B126" s="12"/>
       <c r="D126" s="53" t="s">
-        <v>8473</v>
+        <v>8464</v>
       </c>
       <c r="E126" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F126" s="53"/>
       <c r="G126" s="54" t="b">
@@ -40787,11 +40770,11 @@
     <row r="128" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B128" s="12"/>
       <c r="D128" s="54" t="s">
-        <v>8472</v>
+        <v>8463</v>
       </c>
       <c r="E128" s="55"/>
       <c r="F128" s="53" t="s">
-        <v>8471</v>
+        <v>8462</v>
       </c>
       <c r="G128" s="54" t="b">
         <v>0</v>
@@ -40800,10 +40783,10 @@
     <row r="129" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B129" s="12"/>
       <c r="D129" s="53" t="s">
-        <v>8470</v>
+        <v>8461</v>
       </c>
       <c r="E129" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F129" s="53"/>
       <c r="G129" s="54" t="b">
@@ -40813,10 +40796,10 @@
     <row r="130" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B130" s="12"/>
       <c r="D130" s="54" t="s">
-        <v>8469</v>
+        <v>8460</v>
       </c>
       <c r="E130" s="54" t="s">
-        <v>8468</v>
+        <v>8459</v>
       </c>
       <c r="F130" s="53"/>
       <c r="G130" s="54" t="b">
@@ -40826,10 +40809,10 @@
     <row r="131" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B131" s="12"/>
       <c r="D131" s="53" t="s">
-        <v>8467</v>
+        <v>8458</v>
       </c>
       <c r="E131" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F131" s="53"/>
       <c r="G131" s="54" t="b">
@@ -40839,10 +40822,10 @@
     <row r="132" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B132" s="12"/>
       <c r="D132" s="54" t="s">
-        <v>8466</v>
+        <v>8457</v>
       </c>
       <c r="E132" s="54" t="s">
-        <v>8465</v>
+        <v>8456</v>
       </c>
       <c r="F132" s="53"/>
       <c r="G132" s="54" t="b">
@@ -40852,10 +40835,10 @@
     <row r="133" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B133" s="12"/>
       <c r="D133" s="54" t="s">
-        <v>8464</v>
+        <v>8455</v>
       </c>
       <c r="E133" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F133" s="53"/>
       <c r="G133" s="54" t="b">
@@ -40865,10 +40848,10 @@
     <row r="134" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B134" s="12"/>
       <c r="D134" s="53" t="s">
-        <v>8463</v>
+        <v>8454</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F134" s="53"/>
       <c r="G134" s="54" t="b">
@@ -40885,10 +40868,10 @@
     <row r="136" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B136" s="12"/>
       <c r="D136" s="53" t="s">
-        <v>8462</v>
+        <v>8453</v>
       </c>
       <c r="E136" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F136" s="53"/>
       <c r="G136" s="54" t="b">
@@ -40898,10 +40881,10 @@
     <row r="137" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B137" s="12"/>
       <c r="D137" s="53" t="s">
-        <v>8461</v>
+        <v>8452</v>
       </c>
       <c r="E137" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F137" s="53"/>
       <c r="G137" s="54" t="b">
@@ -40911,13 +40894,13 @@
     <row r="138" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B138" s="12"/>
       <c r="D138" s="53" t="s">
-        <v>8460</v>
+        <v>8451</v>
       </c>
       <c r="E138" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F138" s="53" t="s">
-        <v>8459</v>
+        <v>8450</v>
       </c>
       <c r="G138" s="54" t="b">
         <v>0</v>
@@ -40926,10 +40909,10 @@
     <row r="139" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B139" s="12"/>
       <c r="D139" s="53" t="s">
-        <v>8458</v>
+        <v>8449</v>
       </c>
       <c r="E139" s="54" t="s">
-        <v>8453</v>
+        <v>8444</v>
       </c>
       <c r="F139" s="53"/>
       <c r="G139" s="54" t="b">
@@ -40939,10 +40922,10 @@
     <row r="140" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B140" s="12"/>
       <c r="D140" s="53" t="s">
-        <v>8457</v>
+        <v>8448</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F140" s="53"/>
       <c r="G140" s="54" t="b">
@@ -40952,10 +40935,10 @@
     <row r="141" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B141" s="12"/>
       <c r="D141" s="53" t="s">
-        <v>8456</v>
+        <v>8447</v>
       </c>
       <c r="E141" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F141" s="53"/>
       <c r="G141" s="54" t="b">
@@ -40972,10 +40955,10 @@
     <row r="143" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B143" s="12"/>
       <c r="D143" s="53" t="s">
-        <v>8455</v>
+        <v>8446</v>
       </c>
       <c r="E143" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F143" s="53"/>
       <c r="G143" s="54" t="b">
@@ -40985,10 +40968,10 @@
     <row r="144" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B144" s="12"/>
       <c r="D144" s="53" t="s">
-        <v>8454</v>
+        <v>8445</v>
       </c>
       <c r="E144" s="54" t="s">
-        <v>8453</v>
+        <v>8444</v>
       </c>
       <c r="F144" s="53"/>
       <c r="G144" s="54" t="b">
@@ -40998,11 +40981,11 @@
     <row r="145" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B145" s="12"/>
       <c r="D145" s="53" t="s">
-        <v>8452</v>
+        <v>8443</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="53" t="s">
-        <v>8451</v>
+        <v>8442</v>
       </c>
       <c r="G145" s="54" t="b">
         <v>0</v>
@@ -41011,7 +40994,7 @@
     <row r="146" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B146" s="12"/>
       <c r="D146" s="54" t="s">
-        <v>8450</v>
+        <v>8441</v>
       </c>
       <c r="E146" s="54"/>
       <c r="F146" s="53"/>
@@ -41022,7 +41005,7 @@
     <row r="147" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B147" s="12"/>
       <c r="D147" s="54" t="s">
-        <v>8449</v>
+        <v>8440</v>
       </c>
       <c r="E147" s="54"/>
       <c r="F147" s="53"/>
@@ -41033,10 +41016,10 @@
     <row r="148" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B148" s="12"/>
       <c r="D148" s="53" t="s">
-        <v>8448</v>
+        <v>8439</v>
       </c>
       <c r="E148" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F148" s="53"/>
       <c r="G148" s="54" t="b">
@@ -41046,10 +41029,10 @@
     <row r="149" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B149" s="12"/>
       <c r="D149" s="53" t="s">
-        <v>8447</v>
+        <v>8438</v>
       </c>
       <c r="E149" s="53" t="s">
-        <v>8446</v>
+        <v>8437</v>
       </c>
       <c r="F149" s="53"/>
       <c r="G149" s="54" t="b">
@@ -41059,10 +41042,10 @@
     <row r="150" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B150" s="12"/>
       <c r="D150" s="53" t="s">
-        <v>8445</v>
+        <v>8436</v>
       </c>
       <c r="E150" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F150" s="53"/>
       <c r="G150" s="54" t="b">
@@ -41072,10 +41055,10 @@
     <row r="151" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B151" s="12"/>
       <c r="D151" s="53" t="s">
-        <v>8444</v>
+        <v>8435</v>
       </c>
       <c r="E151" s="53" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F151" s="53"/>
       <c r="G151" s="54" t="b">
@@ -41085,10 +41068,10 @@
     <row r="152" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B152" s="12"/>
       <c r="D152" s="53" t="s">
-        <v>8443</v>
+        <v>8434</v>
       </c>
       <c r="E152" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F152" s="53"/>
       <c r="G152" s="54" t="b">
@@ -41098,10 +41081,10 @@
     <row r="153" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B153" s="12"/>
       <c r="D153" s="53" t="s">
-        <v>8442</v>
+        <v>8433</v>
       </c>
       <c r="E153" s="54" t="s">
-        <v>8441</v>
+        <v>8432</v>
       </c>
       <c r="F153" s="53"/>
       <c r="G153" s="54" t="b">
@@ -41111,10 +41094,10 @@
     <row r="154" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B154" s="12"/>
       <c r="D154" s="53" t="s">
-        <v>8440</v>
+        <v>8431</v>
       </c>
       <c r="E154" s="54" t="s">
-        <v>8439</v>
+        <v>8430</v>
       </c>
       <c r="F154" s="53"/>
       <c r="G154" s="54" t="b">
@@ -41854,10 +41837,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41889,7 +41872,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>8506</v>
+        <v>8497</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1428</v>
@@ -41900,7 +41883,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8561</v>
+        <v>8552</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41936,7 +41919,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8562</v>
+        <v>8553</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -41972,7 +41955,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>8523</v>
+        <v>8514</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>$A$2</f>
@@ -41996,7 +41979,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>8413</v>
+        <v>8404</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>$A$4</f>
@@ -42044,7 +42027,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>8507</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -42074,17 +42057,17 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>8437</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>8438</v>
+        <v>8429</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>8436</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -42278,99 +42261,99 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>8508</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>8285</v>
+        <v>8276</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8424</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>8423</v>
+        <v>8414</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>8425</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>8431</v>
+        <v>8422</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8426</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>8432</v>
+        <v>8423</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8427</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>8433</v>
+        <v>8424</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8428</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>8214</v>
+        <v>8205</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8429</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>8036</v>
+        <v>8027</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>8430</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>8509</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>8504</v>
+        <v>8495</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>8505</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>8510</v>
+        <v>8501</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>8414</v>
+        <v>8405</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8415</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>8416</v>
+        <v>8407</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8417</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -42378,90 +42361,106 @@
         <v>185</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8418</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>8419</v>
+        <v>8410</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8420</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>8277</v>
+        <v>8268</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8421</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>8422</v>
+        <v>8413</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8421</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8563</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8564</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8565</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8566</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8567</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8568</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8570</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
-        <v>8571</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>8572</v>
+        <v>8562</v>
+      </c>
+      <c r="B94" s="69">
+        <v>41804</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
-        <v>8573</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>8574</v>
+        <v>8563</v>
+      </c>
+      <c r="B95" s="69">
+        <v>41805</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>8575</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>8576</v>
+        <v>8745</v>
+      </c>
+      <c r="B96" s="69">
+        <v>41806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="63" t="s">
+        <v>8744</v>
+      </c>
+      <c r="B97" s="69">
+        <v>41813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="63" t="s">
+        <v>8564</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8746</v>
       </c>
     </row>
   </sheetData>
@@ -42480,10 +42479,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K6104"/>
+  <dimension ref="A1:J6104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42492,136 +42491,105 @@
     <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>8550</v>
+      </c>
       <c r="J4" s="35"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>8548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>7520</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>8560</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>8559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>7519</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>8558</v>
-      </c>
-      <c r="K17" s="62" t="s">
-        <v>8557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>7517</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>7516</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>7515</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>7514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>7513</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>7512</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>7511</v>
       </c>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>7510</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>7509</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>7508</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>7507</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>7506</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>7505</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>7504</v>
       </c>
@@ -73016,12 +72984,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>8517</v>
+        <v>8508</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>8295</v>
+        <v>8286</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -73056,10 +73024,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8294</v>
+        <v>8285</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>8293</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73090,10 +73058,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>8292</v>
+        <v>8283</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>8291</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73124,10 +73092,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>8290</v>
+        <v>8281</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>8289</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73158,10 +73126,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>8288</v>
+        <v>8279</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>8287</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73192,10 +73160,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>8286</v>
+        <v>8277</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>8285</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73226,10 +73194,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>8284</v>
+        <v>8275</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>8283</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73260,10 +73228,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>8282</v>
+        <v>8273</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>8281</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73294,10 +73262,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>8280</v>
+        <v>8271</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>8279</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73328,10 +73296,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>8278</v>
+        <v>8269</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>8277</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73362,10 +73330,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>8276</v>
+        <v>8267</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>8275</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73393,13 +73361,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7527</v>
+        <v>7518</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>8274</v>
+        <v>8265</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>8273</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73427,13 +73395,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7526</v>
+        <v>7517</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>8272</v>
+        <v>8263</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>8271</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73461,13 +73429,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7525</v>
+        <v>7516</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>8270</v>
+        <v>8261</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>8269</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73495,13 +73463,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7524</v>
+        <v>7515</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>8268</v>
+        <v>8259</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>8267</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73529,13 +73497,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7523</v>
+        <v>7514</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>8266</v>
+        <v>8257</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>8265</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73563,13 +73531,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7522</v>
+        <v>7513</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>8264</v>
+        <v>8255</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>8263</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73600,10 +73568,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>8262</v>
+        <v>8253</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>8261</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73634,10 +73602,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>8260</v>
+        <v>8251</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>8259</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73668,10 +73636,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>8258</v>
+        <v>8249</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>8257</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73702,10 +73670,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>8256</v>
+        <v>8247</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>8255</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73736,10 +73704,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>8254</v>
+        <v>8245</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>8253</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73770,10 +73738,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>8252</v>
+        <v>8243</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>8251</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73804,10 +73772,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>8250</v>
+        <v>8241</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>8249</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73838,10 +73806,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>8248</v>
+        <v>8239</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>8247</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73872,10 +73840,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>8246</v>
+        <v>8237</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>8245</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73906,10 +73874,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>8244</v>
+        <v>8235</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>8243</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73940,10 +73908,10 @@
         <v>7489</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>8242</v>
+        <v>8233</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>8241</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -73974,10 +73942,10 @@
         <v>7488</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>8240</v>
+        <v>8231</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>8239</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74008,10 +73976,10 @@
         <v>7487</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>8238</v>
+        <v>8229</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>8237</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74042,10 +74010,10 @@
         <v>7486</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>8236</v>
+        <v>8227</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>8235</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74076,10 +74044,10 @@
         <v>7485</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>8234</v>
+        <v>8225</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>8233</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74110,10 +74078,10 @@
         <v>7484</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>8232</v>
+        <v>8223</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>8231</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74144,10 +74112,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>8230</v>
+        <v>8221</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>8229</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74178,10 +74146,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>8228</v>
+        <v>8219</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>8227</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74212,10 +74180,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>8226</v>
+        <v>8217</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>8225</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74246,10 +74214,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>8224</v>
+        <v>8215</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>8223</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74280,10 +74248,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>8222</v>
+        <v>8213</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>8221</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74314,10 +74282,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>8220</v>
+        <v>8211</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>8219</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -74348,10 +74316,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>8218</v>
+        <v>8209</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>8217</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74382,10 +74350,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>8216</v>
+        <v>8207</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>8215</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74416,10 +74384,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7820</v>
+        <v>7811</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>8214</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -74450,10 +74418,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>8213</v>
+        <v>8204</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>8212</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74484,10 +74452,10 @@
         <v>7427</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>8211</v>
+        <v>8202</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>8210</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74518,10 +74486,10 @@
         <v>7426</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>8209</v>
+        <v>8200</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>8208</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74552,10 +74520,10 @@
         <v>7425</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>8207</v>
+        <v>8198</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>8206</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74586,10 +74554,10 @@
         <v>7424</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>8205</v>
+        <v>8196</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>8204</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74620,10 +74588,10 @@
         <v>7423</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>8203</v>
+        <v>8194</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>8202</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74654,10 +74622,10 @@
         <v>7422</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>8200</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74688,10 +74656,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>8199</v>
+        <v>8190</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>8198</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74722,10 +74690,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>8197</v>
+        <v>8188</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>8196</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74756,10 +74724,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>8195</v>
+        <v>8186</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>8194</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74790,10 +74758,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>8193</v>
+        <v>8184</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>8192</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74824,10 +74792,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>8191</v>
+        <v>8182</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>8190</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -74858,10 +74826,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>8189</v>
+        <v>8180</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>8188</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74892,10 +74860,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>8187</v>
+        <v>8178</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>8186</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74926,10 +74894,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>8185</v>
+        <v>8176</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>8184</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74960,10 +74928,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>8183</v>
+        <v>8174</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>8182</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -74994,10 +74962,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>8181</v>
+        <v>8172</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>8180</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75028,10 +74996,10 @@
         <v>7365</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>8179</v>
+        <v>8170</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>8178</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75062,10 +75030,10 @@
         <v>7364</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>8177</v>
+        <v>8168</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>8176</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75096,10 +75064,10 @@
         <v>7363</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>8175</v>
+        <v>8166</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>8174</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75130,10 +75098,10 @@
         <v>7362</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>8173</v>
+        <v>8164</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>8172</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75164,10 +75132,10 @@
         <v>7361</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>8171</v>
+        <v>8162</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>8170</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75198,10 +75166,10 @@
         <v>7360</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>8169</v>
+        <v>8160</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>8168</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75232,10 +75200,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>8167</v>
+        <v>8158</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>8166</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75266,10 +75234,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>8165</v>
+        <v>8156</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>8164</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75300,10 +75268,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>8163</v>
+        <v>8154</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>8162</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75334,10 +75302,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>8161</v>
+        <v>8152</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>8160</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75368,10 +75336,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7806</v>
+        <v>7797</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>8159</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75402,10 +75370,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>8158</v>
+        <v>8149</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>8157</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75436,10 +75404,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>8156</v>
+        <v>8147</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>8155</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75470,10 +75438,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>8154</v>
+        <v>8145</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>8153</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75504,10 +75472,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>8152</v>
+        <v>8143</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>8151</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75538,10 +75506,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>8150</v>
+        <v>8141</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>8149</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75572,10 +75540,10 @@
         <v>7303</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7792</v>
+        <v>7783</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>8148</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75606,10 +75574,10 @@
         <v>7302</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>8147</v>
+        <v>8138</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>8146</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75640,10 +75608,10 @@
         <v>7301</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>8145</v>
+        <v>8136</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>8144</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75674,10 +75642,10 @@
         <v>7300</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>8143</v>
+        <v>8134</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>8142</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75708,10 +75676,10 @@
         <v>7299</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>8141</v>
+        <v>8132</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>8140</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75742,10 +75710,10 @@
         <v>7298</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>8139</v>
+        <v>8130</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>8138</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75776,10 +75744,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>8137</v>
+        <v>8128</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>8136</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75810,10 +75778,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>8135</v>
+        <v>8126</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7769</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75844,10 +75812,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7768</v>
+        <v>7759</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>8134</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75878,10 +75846,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>8133</v>
+        <v>8124</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>8132</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -75912,10 +75880,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>8131</v>
+        <v>8122</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>8130</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -75946,10 +75914,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>8129</v>
+        <v>8120</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>8128</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -75980,10 +75948,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>8127</v>
+        <v>8118</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>8126</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -76014,10 +75982,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>8125</v>
+        <v>8116</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>8124</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76048,10 +76016,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>8123</v>
+        <v>8114</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>8122</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76082,10 +76050,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>8121</v>
+        <v>8112</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>8120</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76116,10 +76084,10 @@
         <v>7241</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>8119</v>
+        <v>8110</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>8118</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76150,10 +76118,10 @@
         <v>7240</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>8117</v>
+        <v>8108</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>8116</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76184,10 +76152,10 @@
         <v>7239</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>8115</v>
+        <v>8106</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>8114</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -76218,10 +76186,10 @@
         <v>7238</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>8113</v>
+        <v>8104</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>8112</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76252,10 +76220,10 @@
         <v>7237</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>8111</v>
+        <v>8102</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>8110</v>
+        <v>8101</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -76286,10 +76254,10 @@
         <v>7236</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>8109</v>
+        <v>8100</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>8108</v>
+        <v>8099</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76320,10 +76288,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>8107</v>
+        <v>8098</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>8106</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76354,7 +76322,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>8105</v>
+        <v>8096</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -76388,10 +76356,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7750</v>
+        <v>7741</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>8104</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76422,10 +76390,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7896</v>
+        <v>7887</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>8103</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -76456,10 +76424,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>8102</v>
+        <v>8093</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>8101</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76490,10 +76458,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>8100</v>
+        <v>8091</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>8099</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76524,10 +76492,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>8098</v>
+        <v>8089</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>8097</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -76558,10 +76526,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>8096</v>
+        <v>8087</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>8095</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76592,10 +76560,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>8094</v>
+        <v>8085</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7727</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76626,10 +76594,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>8093</v>
+        <v>8084</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>8092</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76660,10 +76628,10 @@
         <v>7179</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>8091</v>
+        <v>8082</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>8090</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76694,10 +76662,10 @@
         <v>7178</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>8089</v>
+        <v>8080</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>8088</v>
+        <v>8079</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76728,10 +76696,10 @@
         <v>7177</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>8087</v>
+        <v>8078</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>8086</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -76762,10 +76730,10 @@
         <v>7176</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>8085</v>
+        <v>8076</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>8084</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76796,10 +76764,10 @@
         <v>7175</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>8083</v>
+        <v>8074</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>8082</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76830,10 +76798,10 @@
         <v>7174</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>8081</v>
+        <v>8072</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>8080</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76864,10 +76832,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>8079</v>
+        <v>8070</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>8078</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76898,10 +76866,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>8077</v>
+        <v>8068</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>8076</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76932,10 +76900,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>8075</v>
+        <v>8066</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>8074</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -76966,10 +76934,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>8073</v>
+        <v>8064</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>8072</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77000,10 +76968,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7704</v>
+        <v>7695</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>8071</v>
+        <v>8062</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77034,10 +77002,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>8070</v>
+        <v>8061</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>8069</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77068,10 +77036,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>8068</v>
+        <v>8059</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>8067</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77102,10 +77070,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>8066</v>
+        <v>8057</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>8065</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77136,10 +77104,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>8064</v>
+        <v>8055</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>8063</v>
+        <v>8054</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77170,10 +77138,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>8062</v>
+        <v>8053</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>8061</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77204,10 +77172,10 @@
         <v>7117</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>8060</v>
+        <v>8051</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>8059</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77238,10 +77206,10 @@
         <v>7116</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7700</v>
+        <v>7691</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>8058</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77272,10 +77240,10 @@
         <v>7115</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7698</v>
+        <v>7689</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>8057</v>
+        <v>8048</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77306,10 +77274,10 @@
         <v>7114</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>8056</v>
+        <v>8047</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>8055</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77340,10 +77308,10 @@
         <v>7113</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>8054</v>
+        <v>8045</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>8053</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77374,10 +77342,10 @@
         <v>7112</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>8052</v>
+        <v>8043</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>8051</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77408,10 +77376,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>8050</v>
+        <v>8041</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>8049</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77442,10 +77410,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>8048</v>
+        <v>8039</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>8047</v>
+        <v>8038</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77476,10 +77444,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>8046</v>
+        <v>8037</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>8045</v>
+        <v>8036</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77510,10 +77478,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>8044</v>
+        <v>8035</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>8043</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77544,10 +77512,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>8042</v>
+        <v>8033</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>8041</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77578,10 +77546,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>8040</v>
+        <v>8031</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>8039</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77612,10 +77580,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7654</v>
+        <v>7645</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>8038</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77646,10 +77614,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>8037</v>
+        <v>8028</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>8036</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77680,10 +77648,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>8035</v>
+        <v>8026</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>8034</v>
+        <v>8025</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77714,10 +77682,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>8033</v>
+        <v>8024</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>8032</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -77748,10 +77716,10 @@
         <v>7055</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>8031</v>
+        <v>8022</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>8030</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77782,10 +77750,10 @@
         <v>7054</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>8029</v>
+        <v>8020</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>8028</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77816,10 +77784,10 @@
         <v>7053</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>8027</v>
+        <v>8018</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>8026</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -77850,10 +77818,10 @@
         <v>7052</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7646</v>
+        <v>7637</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>8025</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77884,10 +77852,10 @@
         <v>7051</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>8024</v>
+        <v>8015</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>8023</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77918,10 +77886,10 @@
         <v>7050</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>8022</v>
+        <v>8013</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>8021</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -77952,10 +77920,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>8020</v>
+        <v>8011</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>8019</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -77986,10 +77954,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>8018</v>
+        <v>8009</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>8017</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78020,10 +77988,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>8016</v>
+        <v>8007</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>8015</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78054,10 +78022,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>8014</v>
+        <v>8005</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>8013</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78088,10 +78056,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>8012</v>
+        <v>8003</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>8011</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78122,10 +78090,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>8010</v>
+        <v>8001</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7709</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -78156,10 +78124,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>8009</v>
+        <v>8000</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>8008</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78190,10 +78158,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>8007</v>
+        <v>7998</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>8006</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78224,10 +78192,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>8005</v>
+        <v>7996</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>8004</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78259,7 +78227,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78291,7 +78259,7 @@
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78323,7 +78291,7 @@
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78355,7 +78323,7 @@
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78387,7 +78355,7 @@
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78419,7 +78387,7 @@
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78451,7 +78419,7 @@
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78483,7 +78451,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -78514,10 +78482,10 @@
         <v>5354</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>8003</v>
+        <v>7994</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>8002</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78548,10 +78516,10 @@
         <v>5353</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>8001</v>
+        <v>7992</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>8000</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78582,10 +78550,10 @@
         <v>5352</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7999</v>
+        <v>7990</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7998</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -78616,7 +78584,7 @@
         <v>5351</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7997</v>
+        <v>7988</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -78650,10 +78618,10 @@
         <v>5350</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7996</v>
+        <v>7987</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7995</v>
+        <v>7986</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -78684,10 +78652,10 @@
         <v>5349</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7994</v>
+        <v>7985</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7993</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78719,7 +78687,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78751,7 +78719,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78783,7 +78751,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78815,7 +78783,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78847,7 +78815,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78879,7 +78847,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78911,7 +78879,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78943,7 +78911,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -78975,7 +78943,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79003,13 +78971,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7992</v>
+        <v>7983</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7991</v>
+        <v>7982</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7990</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79037,13 +79005,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7989</v>
+        <v>7980</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7988</v>
+        <v>7979</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7987</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79071,13 +79039,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7986</v>
+        <v>7977</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7985</v>
+        <v>7976</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7984</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79105,13 +79073,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7983</v>
+        <v>7974</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7982</v>
+        <v>7973</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7981</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79139,13 +79107,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7980</v>
+        <v>7971</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7979</v>
+        <v>7970</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7978</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79173,13 +79141,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7977</v>
+        <v>7968</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7976</v>
+        <v>7967</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7975</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79207,13 +79175,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7974</v>
+        <v>7965</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7973</v>
+        <v>7964</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7972</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79241,13 +79209,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7971</v>
+        <v>7962</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7970</v>
+        <v>7961</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7969</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79275,13 +79243,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7968</v>
+        <v>7959</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7967</v>
+        <v>7958</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7966</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79309,13 +79277,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7965</v>
+        <v>7956</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7964</v>
+        <v>7955</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7963</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79343,13 +79311,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7962</v>
+        <v>7953</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7961</v>
+        <v>7952</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7960</v>
+        <v>7951</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -79377,13 +79345,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7959</v>
+        <v>7950</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7958</v>
+        <v>7949</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7957</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -79408,11 +79376,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7956</v>
+        <v>7947</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -79437,11 +79405,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7955</v>
+        <v>7946</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -79466,11 +79434,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7954</v>
+        <v>7945</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -79495,11 +79463,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7953</v>
+        <v>7944</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
   </sheetData>
@@ -79535,7 +79503,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8518</v>
+        <v>8509</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79566,10 +79534,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7952</v>
+        <v>7943</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7951</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79600,10 +79568,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7950</v>
+        <v>7941</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7949</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79634,10 +79602,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7948</v>
+        <v>7939</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7947</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79668,10 +79636,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7946</v>
+        <v>7937</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7945</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79702,10 +79670,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7944</v>
+        <v>7935</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7943</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79736,10 +79704,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7942</v>
+        <v>7933</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7941</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79770,10 +79738,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7940</v>
+        <v>7931</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7939</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79804,10 +79772,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7938</v>
+        <v>7929</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7937</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79838,10 +79806,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7936</v>
+        <v>7927</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7935</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79872,10 +79840,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7934</v>
+        <v>7925</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7933</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79903,13 +79871,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7932</v>
+        <v>7923</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7931</v>
+        <v>7922</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7930</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79940,10 +79908,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7929</v>
+        <v>7920</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7928</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79974,10 +79942,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7927</v>
+        <v>7918</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7926</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80005,13 +79973,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7925</v>
+        <v>7916</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7924</v>
+        <v>7915</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7923</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80039,13 +80007,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7922</v>
+        <v>7913</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7921</v>
+        <v>7912</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7920</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80076,10 +80044,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7919</v>
+        <v>7910</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7918</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80110,10 +80078,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7917</v>
+        <v>7908</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7916</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80144,10 +80112,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7915</v>
+        <v>7906</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7914</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80178,10 +80146,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7913</v>
+        <v>7904</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7912</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80212,10 +80180,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7911</v>
+        <v>7902</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7910</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80246,10 +80214,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7909</v>
+        <v>7900</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7908</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80280,10 +80248,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7907</v>
+        <v>7898</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7906</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80314,10 +80282,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7905</v>
+        <v>7896</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7904</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80348,10 +80316,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7903</v>
+        <v>7894</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7902</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80382,10 +80350,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7901</v>
+        <v>7892</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7900</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80416,10 +80384,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7899</v>
+        <v>7890</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7898</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80447,13 +80415,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7897</v>
+        <v>7888</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7896</v>
+        <v>7887</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7895</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80481,13 +80449,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7894</v>
+        <v>7885</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7893</v>
+        <v>7884</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7892</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80515,13 +80483,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7891</v>
+        <v>7882</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7890</v>
+        <v>7881</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7889</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80549,13 +80517,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7584</v>
+        <v>7575</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7888</v>
+        <v>7879</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7887</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80583,13 +80551,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7583</v>
+        <v>7574</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7886</v>
+        <v>7877</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7885</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80617,13 +80585,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7582</v>
+        <v>7573</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7884</v>
+        <v>7875</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7883</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80654,10 +80622,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7882</v>
+        <v>7873</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7881</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80688,10 +80656,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7880</v>
+        <v>7871</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7879</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80722,10 +80690,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7878</v>
+        <v>7869</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7877</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80756,10 +80724,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7876</v>
+        <v>7867</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7875</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80790,10 +80758,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7874</v>
+        <v>7865</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7873</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80824,10 +80792,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7872</v>
+        <v>7863</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7871</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80858,10 +80826,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7870</v>
+        <v>7861</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7869</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -80892,10 +80860,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7868</v>
+        <v>7859</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7867</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80926,10 +80894,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7866</v>
+        <v>7857</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7865</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80960,10 +80928,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7864</v>
+        <v>7855</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7863</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -80991,13 +80959,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7862</v>
+        <v>7853</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7861</v>
+        <v>7852</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7860</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81025,13 +80993,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7859</v>
+        <v>7850</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7858</v>
+        <v>7849</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7857</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81059,13 +81027,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7856</v>
+        <v>7847</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7855</v>
+        <v>7846</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7854</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81093,13 +81061,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7853</v>
+        <v>7844</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7852</v>
+        <v>7843</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7851</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81127,13 +81095,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7850</v>
+        <v>7841</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7849</v>
+        <v>7840</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7848</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81161,13 +81129,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7847</v>
+        <v>7838</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7846</v>
+        <v>7837</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7845</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -81198,10 +81166,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7844</v>
+        <v>7835</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7843</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81232,10 +81200,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7842</v>
+        <v>7833</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7841</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81266,10 +81234,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7840</v>
+        <v>7831</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7839</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81300,10 +81268,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7838</v>
+        <v>7829</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7837</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81334,10 +81302,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7836</v>
+        <v>7827</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7835</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81368,10 +81336,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7834</v>
+        <v>7825</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7833</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81402,10 +81370,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7832</v>
+        <v>7823</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7831</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81436,10 +81404,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7830</v>
+        <v>7821</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7829</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81470,10 +81438,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7828</v>
+        <v>7819</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7827</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81504,10 +81472,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7826</v>
+        <v>7817</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7825</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -81535,13 +81503,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7824</v>
+        <v>7815</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7823</v>
+        <v>7814</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7822</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81569,13 +81537,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7821</v>
+        <v>7812</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7820</v>
+        <v>7811</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7819</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81603,13 +81571,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7818</v>
+        <v>7809</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7817</v>
+        <v>7808</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7816</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81637,13 +81605,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7815</v>
+        <v>7806</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7814</v>
+        <v>7805</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7813</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81671,13 +81639,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7812</v>
+        <v>7803</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7811</v>
+        <v>7802</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7810</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81705,13 +81673,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7809</v>
+        <v>7800</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7808</v>
+        <v>7799</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7807</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81742,10 +81710,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7806</v>
+        <v>7797</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7805</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81776,10 +81744,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7804</v>
+        <v>7795</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7803</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81810,10 +81778,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7802</v>
+        <v>7793</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7801</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81844,10 +81812,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7800</v>
+        <v>7791</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7799</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81878,10 +81846,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7798</v>
+        <v>7789</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7797</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81912,10 +81880,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7796</v>
+        <v>7787</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7795</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -81946,10 +81914,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7794</v>
+        <v>7785</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7793</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -81980,10 +81948,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7792</v>
+        <v>7783</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7791</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82014,10 +81982,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7790</v>
+        <v>7781</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7789</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82048,10 +82016,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7788</v>
+        <v>7779</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7787</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82079,13 +82047,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7581</v>
+        <v>7572</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7786</v>
+        <v>7777</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7785</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82113,13 +82081,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7580</v>
+        <v>7571</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7784</v>
+        <v>7775</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7783</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82147,13 +82115,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7579</v>
+        <v>7570</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7782</v>
+        <v>7773</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7781</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82181,13 +82149,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7578</v>
+        <v>7569</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7780</v>
+        <v>7771</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7779</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82215,13 +82183,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7577</v>
+        <v>7568</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7778</v>
+        <v>7769</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7777</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82249,13 +82217,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7576</v>
+        <v>7567</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7776</v>
+        <v>7767</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7775</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82286,10 +82254,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7774</v>
+        <v>7765</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7773</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82320,10 +82288,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7772</v>
+        <v>7763</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7771</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82354,10 +82322,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7770</v>
+        <v>7761</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7769</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82388,10 +82356,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7768</v>
+        <v>7759</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7767</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82422,10 +82390,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7766</v>
+        <v>7757</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7765</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82456,10 +82424,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7764</v>
+        <v>7755</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7763</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82490,10 +82458,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7762</v>
+        <v>7753</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7761</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82524,10 +82492,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7760</v>
+        <v>7751</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7759</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82558,10 +82526,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7758</v>
+        <v>7749</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7757</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82592,10 +82560,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7756</v>
+        <v>7747</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7755</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82623,13 +82591,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7575</v>
+        <v>7566</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7754</v>
+        <v>7745</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7753</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82657,13 +82625,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7574</v>
+        <v>7565</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7752</v>
+        <v>7743</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7751</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82691,13 +82659,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7573</v>
+        <v>7564</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7750</v>
+        <v>7741</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7749</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82725,13 +82693,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7572</v>
+        <v>7563</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7748</v>
+        <v>7739</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7747</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82759,13 +82727,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7571</v>
+        <v>7562</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7746</v>
+        <v>7737</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7745</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -82793,13 +82761,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7570</v>
+        <v>7561</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7744</v>
+        <v>7735</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7743</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82830,10 +82798,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7742</v>
+        <v>7733</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7741</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82864,10 +82832,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7740</v>
+        <v>7731</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7739</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -82898,10 +82866,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7738</v>
+        <v>7729</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7737</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82932,10 +82900,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7736</v>
+        <v>7727</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7735</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -82966,10 +82934,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7734</v>
+        <v>7725</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7733</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83000,10 +82968,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7732</v>
+        <v>7723</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7731</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83034,10 +83002,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7730</v>
+        <v>7721</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7729</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83068,10 +83036,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7728</v>
+        <v>7719</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7727</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83102,10 +83070,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7726</v>
+        <v>7717</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7725</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83136,10 +83104,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7724</v>
+        <v>7715</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7723</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83167,13 +83135,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7569</v>
+        <v>7560</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7722</v>
+        <v>7713</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7721</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83201,13 +83169,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7568</v>
+        <v>7559</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7720</v>
+        <v>7711</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7719</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83235,13 +83203,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7567</v>
+        <v>7558</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7718</v>
+        <v>7709</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7717</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83269,13 +83237,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7566</v>
+        <v>7557</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7716</v>
+        <v>7707</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7715</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83303,13 +83271,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7565</v>
+        <v>7556</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7714</v>
+        <v>7705</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7713</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83337,13 +83305,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7564</v>
+        <v>7555</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7712</v>
+        <v>7703</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7711</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83374,10 +83342,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7710</v>
+        <v>7701</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7709</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83408,10 +83376,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7708</v>
+        <v>7699</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7707</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83442,10 +83410,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7706</v>
+        <v>7697</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7705</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83476,10 +83444,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7704</v>
+        <v>7695</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7703</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83510,10 +83478,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7702</v>
+        <v>7693</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7701</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83544,10 +83512,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7700</v>
+        <v>7691</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7699</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83578,10 +83546,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7698</v>
+        <v>7689</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7697</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83612,10 +83580,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7696</v>
+        <v>7687</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7695</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83646,10 +83614,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7694</v>
+        <v>7685</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7693</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83680,10 +83648,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7692</v>
+        <v>7683</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7691</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83711,13 +83679,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7563</v>
+        <v>7554</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7690</v>
+        <v>7681</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7689</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83745,13 +83713,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7562</v>
+        <v>7553</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7688</v>
+        <v>7679</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7687</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83779,13 +83747,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7561</v>
+        <v>7552</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7686</v>
+        <v>7677</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7685</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -83813,13 +83781,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7560</v>
+        <v>7551</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7684</v>
+        <v>7675</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7683</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83847,13 +83815,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7559</v>
+        <v>7550</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7682</v>
+        <v>7673</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7681</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83881,13 +83849,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7558</v>
+        <v>7549</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7680</v>
+        <v>7671</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7679</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83918,10 +83886,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7678</v>
+        <v>7669</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7677</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -83952,10 +83920,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7676</v>
+        <v>7667</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7675</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -83986,10 +83954,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7674</v>
+        <v>7665</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7673</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84020,10 +83988,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7672</v>
+        <v>7663</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7671</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84054,10 +84022,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7670</v>
+        <v>7661</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7669</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84088,10 +84056,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7668</v>
+        <v>7659</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7667</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84122,10 +84090,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7666</v>
+        <v>7657</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7665</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84156,10 +84124,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7664</v>
+        <v>7655</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7663</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84190,10 +84158,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7662</v>
+        <v>7653</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7661</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84224,10 +84192,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7660</v>
+        <v>7651</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7659</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84255,13 +84223,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7557</v>
+        <v>7548</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7658</v>
+        <v>7649</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7657</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84289,13 +84257,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7556</v>
+        <v>7547</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7656</v>
+        <v>7647</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7655</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84323,13 +84291,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7555</v>
+        <v>7546</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7654</v>
+        <v>7645</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7653</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84357,13 +84325,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7554</v>
+        <v>7545</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7652</v>
+        <v>7643</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7651</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84391,13 +84359,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7553</v>
+        <v>7544</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7650</v>
+        <v>7641</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7649</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84425,13 +84393,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7552</v>
+        <v>7543</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7648</v>
+        <v>7639</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7647</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84462,10 +84430,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7646</v>
+        <v>7637</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7645</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84496,10 +84464,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7644</v>
+        <v>7635</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7643</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84530,10 +84498,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7642</v>
+        <v>7633</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7641</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -84564,10 +84532,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7640</v>
+        <v>7631</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7639</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -84598,10 +84566,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7638</v>
+        <v>7629</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7637</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -84632,10 +84600,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7636</v>
+        <v>7627</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7635</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -84666,10 +84634,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7634</v>
+        <v>7625</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7633</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84700,10 +84668,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7632</v>
+        <v>7623</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7631</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84734,10 +84702,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7630</v>
+        <v>7621</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7629</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -84768,10 +84736,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7628</v>
+        <v>7619</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7627</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84799,13 +84767,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7551</v>
+        <v>7542</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7626</v>
+        <v>7617</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7625</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84833,13 +84801,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7550</v>
+        <v>7541</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7624</v>
+        <v>7615</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7623</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84867,13 +84835,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7549</v>
+        <v>7540</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7622</v>
+        <v>7613</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7621</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84901,13 +84869,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7548</v>
+        <v>7539</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7620</v>
+        <v>7611</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7619</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -84935,13 +84903,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7547</v>
+        <v>7538</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7618</v>
+        <v>7609</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7617</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -84969,13 +84937,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7546</v>
+        <v>7537</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7616</v>
+        <v>7607</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7615</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -85003,13 +84971,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7545</v>
+        <v>7536</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7614</v>
+        <v>7605</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7613</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85037,13 +85005,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7544</v>
+        <v>7535</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7612</v>
+        <v>7603</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7611</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85071,13 +85039,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7543</v>
+        <v>7534</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7610</v>
+        <v>7601</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7609</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85105,13 +85073,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7542</v>
+        <v>7533</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7608</v>
+        <v>7599</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7607</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85139,13 +85107,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7541</v>
+        <v>7532</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7606</v>
+        <v>7597</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7605</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -85173,13 +85141,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7540</v>
+        <v>7531</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7604</v>
+        <v>7595</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7603</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -85207,13 +85175,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7539</v>
+        <v>7530</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7602</v>
+        <v>7593</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7601</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -85241,13 +85209,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7538</v>
+        <v>7529</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7600</v>
+        <v>7591</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7599</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85275,11 +85243,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7537</v>
+        <v>7528</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85307,11 +85275,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7536</v>
+        <v>7527</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85339,13 +85307,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7535</v>
+        <v>7526</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7597</v>
+        <v>7588</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7596</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85373,13 +85341,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7534</v>
+        <v>7525</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7595</v>
+        <v>7586</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7594</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -85407,13 +85375,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7533</v>
+        <v>7524</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7593</v>
+        <v>7584</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7592</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -85441,13 +85409,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7532</v>
+        <v>7523</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7591</v>
+        <v>7582</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7590</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -85475,13 +85443,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7531</v>
+        <v>7522</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7589</v>
+        <v>7580</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7588</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -85509,13 +85477,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7530</v>
+        <v>7521</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7587</v>
+        <v>7578</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7586</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -85618,7 +85586,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8556</v>
+        <v>8547</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -91379,7 +91347,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8709</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -91529,10 +91497,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8575</v>
+        <v>8564</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8718</v>
+        <v>8706</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\polycraft1.0.0-1.7.2-10.12.2.1121\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\polycraft-1.7.10\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27750" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" activeTab="3"/>
+    <workbookView xWindow="29310" yWindow="0" windowWidth="19560" windowHeight="9120" tabRatio="729" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9127" uniqueCount="8748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9129" uniqueCount="8749">
   <si>
     <t>Uuo</t>
   </si>
@@ -26407,12 +26407,6 @@
     <t>4i</t>
   </si>
   <si>
-    <t>4m</t>
-  </si>
-  <si>
-    <t>4l</t>
-  </si>
-  <si>
     <t>Bag</t>
   </si>
   <si>
@@ -26999,6 +26993,15 @@
   </si>
   <si>
     <t>Heated Knife Handle</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>Sweet Kerosene</t>
+  </si>
+  <si>
+    <t>Sweet Diesel</t>
   </si>
 </sst>
 </file>
@@ -27685,13 +27688,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>8721</v>
+        <v>8719</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>8732</v>
+        <v>8730</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>8720</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -27699,7 +27702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8706</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -27710,7 +27713,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8707</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -27718,7 +27721,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8712</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -27726,7 +27729,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8708</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -27737,7 +27740,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8709</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -27745,7 +27748,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8710</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -27769,7 +27772,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8711</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -27801,7 +27804,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8713</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -27817,7 +27820,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>8714</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -27825,7 +27828,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>8715</v>
+        <v>8713</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -27841,7 +27844,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>8716</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -27849,7 +27852,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8717</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -27857,7 +27860,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>8718</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -27865,7 +27868,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>8719</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -27873,7 +27876,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8722</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -27881,7 +27884,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>8723</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -27889,7 +27892,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>8724</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -27897,7 +27900,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>8725</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -27905,7 +27908,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>8726</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -27913,7 +27916,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>8727</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -27921,7 +27924,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>8728</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -27929,7 +27932,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>8729</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -27937,7 +27940,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>8730</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -27945,7 +27948,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8731</v>
+        <v>8729</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -27953,7 +27956,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8733</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -27964,7 +27967,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>8734</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -27975,7 +27978,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8735</v>
+        <v>8733</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -27983,7 +27986,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>8736</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -27991,7 +27994,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>8737</v>
+        <v>8735</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -27999,7 +28002,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8738</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -28007,7 +28010,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8739</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -28015,12 +28018,12 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>8740</v>
+        <v>8738</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>8741</v>
+        <v>8739</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -28028,7 +28031,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>8742</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -28036,7 +28039,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8743</v>
+        <v>8741</v>
       </c>
     </row>
   </sheetData>
@@ -28055,13 +28058,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B273" sqref="A1:H339"/>
+      <selection pane="bottomRight" activeCell="B271" sqref="A1:H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31304,7 +31307,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8704</v>
+        <v>8702</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>751</v>
@@ -34399,8 +34402,8 @@
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
-        <f>Enums!$A$4</f>
-        <v>Gas</v>
+        <f>Enums!$A$3</f>
+        <v>Liquid</v>
       </c>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
@@ -34851,7 +34854,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>8705</v>
+        <v>8703</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>327</v>
@@ -35192,7 +35195,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>8560</v>
+        <v>8558</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
@@ -35533,10 +35536,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8699</v>
+        <v>8697</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>8698</v>
+        <v>8696</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -35552,10 +35555,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8700</v>
+        <v>8698</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8701</v>
+        <v>8699</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35568,12 +35571,41 @@
         <v>1.0.0</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8702</v>
+        <v>8700</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8703</v>
+        <v>8701</v>
       </c>
       <c r="D339" s="12" t="str">
+        <f>Enums!$A$3</f>
+        <v>Liquid</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>8747</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D340" s="12" t="str">
+        <f>Enums!$A$3</f>
+        <v>Liquid</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>8748</v>
+      </c>
+      <c r="D341" s="12" t="str">
         <f>Enums!$A$3</f>
         <v>Liquid</v>
       </c>
@@ -37999,10 +38031,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8696</v>
+        <v>8694</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8695</v>
+        <v>8693</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
@@ -38164,7 +38196,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8747</v>
+        <v>8745</v>
       </c>
     </row>
   </sheetData>
@@ -38182,10 +38214,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="A1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38274,7 +38306,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>240</v>
@@ -38302,7 +38334,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>180</v>
@@ -38314,7 +38346,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B18" si="1">D5</f>
+        <f t="shared" ref="B5:B51" si="1">D5</f>
         <v>Methane</v>
       </c>
       <c r="C5" t="str">
@@ -38326,11 +38358,11 @@
         <v>Methane</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E18" si="2" xml:space="preserve"> E4 + 1</f>
+        <f t="shared" ref="E5:E51" si="2" xml:space="preserve"> E4 + 1</f>
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>240</v>
@@ -38386,7 +38418,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>360</v>
@@ -38414,7 +38446,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>240</v>
@@ -38442,7 +38474,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>120</v>
@@ -38498,7 +38530,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>240</v>
@@ -38526,7 +38558,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>240</v>
@@ -38554,7 +38586,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>360</v>
@@ -38698,6 +38730,930 @@
       </c>
       <c r="G18">
         <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>Butane Isomers</v>
+      </c>
+      <c r="C19" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D19" t="str">
+        <f>Compounds!B68</f>
+        <v>Butane Isomers</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>Sweet Kerosene</v>
+      </c>
+      <c r="C20" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D20" t="str">
+        <f>Compounds!B340</f>
+        <v>Sweet Kerosene</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>Sweet Diesel</v>
+      </c>
+      <c r="C21" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D21" t="str">
+        <f>Compounds!B341</f>
+        <v>Sweet Diesel</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>Benzene-Toluene-Xylene</v>
+      </c>
+      <c r="C22" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D22" t="str">
+        <f>Compounds!B60</f>
+        <v>Benzene-Toluene-Xylene</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethanol</v>
+      </c>
+      <c r="C23" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D23" t="str">
+        <f>Compounds!B126</f>
+        <v>Ethanol</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>Butanol</v>
+      </c>
+      <c r="C24" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D24" t="str">
+        <f>Compounds!B69</f>
+        <v>Butanol</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>Heavy Naphtha</v>
+      </c>
+      <c r="C25" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D25" t="str">
+        <f>Compounds!B147</f>
+        <v>Heavy Naphtha</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrogen Gas</v>
+      </c>
+      <c r="C26" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D26" t="str">
+        <f>Compounds!B154</f>
+        <v>Hydrogen Gas</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>IsoButane</v>
+      </c>
+      <c r="C27" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D27" t="str">
+        <f>Compounds!B160</f>
+        <v>IsoButane</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>IsoPentane</v>
+      </c>
+      <c r="C28" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D28" t="str">
+        <f>Compounds!B161</f>
+        <v>IsoPentane</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>Light Olefins</v>
+      </c>
+      <c r="C29" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D29" t="str">
+        <f>Compounds!B169</f>
+        <v>Light Olefins</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>Light Parrafins</v>
+      </c>
+      <c r="C30" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D30" t="str">
+        <f>Compounds!B170</f>
+        <v>Light Parrafins</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>Methanol</v>
+      </c>
+      <c r="C31" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D31" t="str">
+        <f>Compounds!B194</f>
+        <v>Methanol</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>Meta-Xylene</v>
+      </c>
+      <c r="C32" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D32" t="str">
+        <f>Compounds!B190</f>
+        <v>Meta-Xylene</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>N-Butane</v>
+      </c>
+      <c r="C33" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D33" t="str">
+        <f>Compounds!B204</f>
+        <v>N-Butane</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>N-Hexane</v>
+      </c>
+      <c r="C34" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D34" t="str">
+        <f>Compounds!B206</f>
+        <v>N-Hexane</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>N-Pentane</v>
+      </c>
+      <c r="C35" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D35" t="str">
+        <f>Compounds!B207</f>
+        <v>N-Pentane</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>NeoPentane</v>
+      </c>
+      <c r="C36" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D36" t="str">
+        <f>Compounds!B212</f>
+        <v>NeoPentane</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>Olefins</v>
+      </c>
+      <c r="C37" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D37" t="str">
+        <f>Compounds!B215</f>
+        <v>Olefins</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>Ortho-Xylene</v>
+      </c>
+      <c r="C38" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D38" t="str">
+        <f>Compounds!B217</f>
+        <v>Ortho-Xylene</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>Para-Xylene</v>
+      </c>
+      <c r="C39" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D39" t="str">
+        <f>Compounds!B221</f>
+        <v>Para-Xylene</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>Paraffin</v>
+      </c>
+      <c r="C40" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D40" t="str">
+        <f>Compounds!B222</f>
+        <v>Paraffin</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>Pentane Isomers</v>
+      </c>
+      <c r="C41" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D41" t="str">
+        <f>Compounds!B223</f>
+        <v>Pentane Isomers</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>Propanol</v>
+      </c>
+      <c r="C42" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D42" t="str">
+        <f>Compounds!B247</f>
+        <v>Propanol</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>Xylene</v>
+      </c>
+      <c r="C43" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D43" t="str">
+        <f>Compounds!B303</f>
+        <v>Xylene</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>Toluene</v>
+      </c>
+      <c r="C44" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D44" t="str">
+        <f>Compounds!B290</f>
+        <v>Toluene</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>Benzene</v>
+      </c>
+      <c r="C45" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D45" t="str">
+        <f>Compounds!B59</f>
+        <v>Benzene</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>Fruit Brandy</v>
+      </c>
+      <c r="C46" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D46" t="str">
+        <f>Compounds!B327</f>
+        <v>Fruit Brandy</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>Vodka</v>
+      </c>
+      <c r="C47" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D47" t="str">
+        <f>Compounds!B328</f>
+        <v>Vodka</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>Gin</v>
+      </c>
+      <c r="C48" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D48" t="str">
+        <f>Compounds!B329</f>
+        <v>Gin</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>Tequila</v>
+      </c>
+      <c r="C49" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D49" t="str">
+        <f>Compounds!B330</f>
+        <v>Tequila</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>Rum</v>
+      </c>
+      <c r="C50" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D50" t="str">
+        <f>Compounds!B331</f>
+        <v>Rum</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>Enums!$A$98</f>
+        <v>1.0.4</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>Whiskey</v>
+      </c>
+      <c r="C51" t="str">
+        <f xml:space="preserve"> Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="D51" t="str">
+        <f>Compounds!B332</f>
+        <v>Whiskey</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -39519,7 +40475,7 @@
         <v>1374</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>8565</v>
+        <v>8563</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>1376</v>
@@ -39528,25 +40484,25 @@
         <v>1413</v>
       </c>
       <c r="E91" s="64" t="s">
-        <v>8566</v>
+        <v>8564</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>8567</v>
+        <v>8565</v>
       </c>
       <c r="G91" s="64" t="s">
         <v>1373</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>8568</v>
+        <v>8566</v>
       </c>
       <c r="I91" s="64" t="s">
         <v>1372</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>8569</v>
+        <v>8567</v>
       </c>
       <c r="K91" s="64" t="s">
-        <v>8570</v>
+        <v>8568</v>
       </c>
       <c r="L91" s="64" t="s">
         <v>1371</v>
@@ -39561,67 +40517,67 @@
         <v>1368</v>
       </c>
       <c r="P91" s="64" t="s">
+        <v>8569</v>
+      </c>
+      <c r="Q91" s="64" t="s">
+        <v>8570</v>
+      </c>
+      <c r="R91" s="64" t="s">
         <v>8571</v>
       </c>
-      <c r="Q91" s="64" t="s">
+      <c r="S91" s="64" t="s">
         <v>8572</v>
       </c>
-      <c r="R91" s="64" t="s">
+      <c r="T91" s="64" t="s">
         <v>8573</v>
       </c>
-      <c r="S91" s="64" t="s">
+      <c r="U91" s="64" t="s">
         <v>8574</v>
       </c>
-      <c r="T91" s="64" t="s">
+      <c r="V91" s="64" t="s">
         <v>8575</v>
       </c>
-      <c r="U91" s="64" t="s">
+      <c r="W91" s="64" t="s">
         <v>8576</v>
       </c>
-      <c r="V91" s="64" t="s">
+      <c r="X91" s="64" t="s">
         <v>8577</v>
       </c>
-      <c r="W91" s="64" t="s">
+      <c r="Y91" s="64" t="s">
         <v>8578</v>
       </c>
-      <c r="X91" s="64" t="s">
+      <c r="Z91" s="64" t="s">
         <v>8579</v>
       </c>
-      <c r="Y91" s="64" t="s">
+      <c r="AA91" s="64" t="s">
         <v>8580</v>
       </c>
-      <c r="Z91" s="64" t="s">
+      <c r="AB91" s="64" t="s">
         <v>8581</v>
       </c>
-      <c r="AA91" s="64" t="s">
+      <c r="AC91" s="64" t="s">
         <v>8582</v>
       </c>
-      <c r="AB91" s="64" t="s">
+      <c r="AD91" s="64" t="s">
         <v>8583</v>
       </c>
-      <c r="AC91" s="64" t="s">
+      <c r="AE91" s="64" t="s">
         <v>8584</v>
       </c>
-      <c r="AD91" s="64" t="s">
+      <c r="AF91" s="64" t="s">
         <v>8585</v>
       </c>
-      <c r="AE91" s="64" t="s">
+      <c r="AG91" s="64" t="s">
         <v>8586</v>
       </c>
-      <c r="AF91" s="64" t="s">
+      <c r="AH91" s="64" t="s">
         <v>8587</v>
       </c>
-      <c r="AG91" s="64" t="s">
+      <c r="AI91" s="64" t="s">
         <v>8588</v>
       </c>
-      <c r="AH91" s="64" t="s">
+      <c r="AJ91" s="64" t="s">
         <v>8589</v>
-      </c>
-      <c r="AI91" s="64" t="s">
-        <v>8590</v>
-      </c>
-      <c r="AJ91" s="64" t="s">
-        <v>8591</v>
       </c>
     </row>
     <row r="92" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
@@ -39629,13 +40585,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>8592</v>
+        <v>8590</v>
       </c>
       <c r="C92" s="67" t="s">
         <v>1264</v>
       </c>
       <c r="D92" s="67" t="s">
-        <v>8593</v>
+        <v>8591</v>
       </c>
       <c r="E92" s="66" t="str">
         <f>"Fiber ("&amp;B92&amp;")"</f>
@@ -39657,40 +40613,40 @@
         <v>4</v>
       </c>
       <c r="L92" s="67" t="s">
+        <v>8592</v>
+      </c>
+      <c r="M92" s="67" t="s">
+        <v>8593</v>
+      </c>
+      <c r="N92" s="67" t="s">
         <v>8594</v>
       </c>
-      <c r="M92" s="67" t="s">
+      <c r="O92" s="67" t="s">
         <v>8595</v>
       </c>
-      <c r="N92" s="67" t="s">
+      <c r="P92" s="67" t="s">
         <v>8596</v>
       </c>
-      <c r="O92" s="67" t="s">
+      <c r="Q92" s="67" t="s">
         <v>8597</v>
       </c>
-      <c r="P92" s="67" t="s">
+      <c r="R92" s="67" t="s">
         <v>8598</v>
       </c>
-      <c r="Q92" s="67" t="s">
+      <c r="S92" s="67" t="s">
         <v>8599</v>
       </c>
-      <c r="R92" s="67" t="s">
+      <c r="T92" s="67" t="s">
         <v>8600</v>
       </c>
-      <c r="S92" s="67" t="s">
+      <c r="U92" s="67" t="s">
         <v>8601</v>
       </c>
-      <c r="T92" s="67" t="s">
+      <c r="V92" s="67" t="s">
         <v>8602</v>
       </c>
-      <c r="U92" s="67" t="s">
+      <c r="W92" s="67" t="s">
         <v>8603</v>
-      </c>
-      <c r="V92" s="67" t="s">
-        <v>8604</v>
-      </c>
-      <c r="W92" s="67" t="s">
-        <v>8605</v>
       </c>
       <c r="X92"/>
       <c r="Y92"/>
@@ -39711,13 +40667,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>8606</v>
+        <v>8604</v>
       </c>
       <c r="C93" s="67" t="s">
         <v>1338</v>
       </c>
       <c r="D93" s="67" t="s">
-        <v>8607</v>
+        <v>8605</v>
       </c>
       <c r="E93" s="66" t="str">
         <f t="shared" ref="E93:E102" si="1">"Fiber ("&amp;B93&amp;")"</f>
@@ -39739,34 +40695,34 @@
         <v>4</v>
       </c>
       <c r="L93" s="67" t="s">
+        <v>8606</v>
+      </c>
+      <c r="M93" s="67" t="s">
+        <v>8607</v>
+      </c>
+      <c r="N93" s="67" t="s">
         <v>8608</v>
       </c>
-      <c r="M93" s="67" t="s">
+      <c r="O93" s="67" t="s">
         <v>8609</v>
       </c>
-      <c r="N93" s="67" t="s">
+      <c r="P93" s="67" t="s">
         <v>8610</v>
       </c>
-      <c r="O93" s="67" t="s">
+      <c r="Q93" s="67" t="s">
         <v>8611</v>
       </c>
-      <c r="P93" s="67" t="s">
+      <c r="R93" s="67" t="s">
         <v>8612</v>
       </c>
-      <c r="Q93" s="67" t="s">
+      <c r="S93" s="67" t="s">
         <v>8613</v>
       </c>
-      <c r="R93" s="67" t="s">
+      <c r="T93" s="67" t="s">
         <v>8614</v>
       </c>
-      <c r="S93" s="67" t="s">
+      <c r="U93" s="67" t="s">
         <v>8615</v>
-      </c>
-      <c r="T93" s="67" t="s">
-        <v>8616</v>
-      </c>
-      <c r="U93" s="67" t="s">
-        <v>8617</v>
       </c>
       <c r="V93"/>
       <c r="W93"/>
@@ -39795,7 +40751,7 @@
         <v>1180</v>
       </c>
       <c r="D94" s="67" t="s">
-        <v>8607</v>
+        <v>8605</v>
       </c>
       <c r="E94" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39817,34 +40773,34 @@
         <v>4</v>
       </c>
       <c r="L94" s="67" t="s">
+        <v>8616</v>
+      </c>
+      <c r="M94" s="67" t="s">
+        <v>8617</v>
+      </c>
+      <c r="N94" s="67" t="s">
         <v>8618</v>
       </c>
-      <c r="M94" s="67" t="s">
+      <c r="O94" s="67" t="s">
         <v>8619</v>
       </c>
-      <c r="N94" s="67" t="s">
+      <c r="P94" s="67" t="s">
         <v>8620</v>
       </c>
-      <c r="O94" s="67" t="s">
+      <c r="Q94" s="67" t="s">
         <v>8621</v>
       </c>
-      <c r="P94" s="67" t="s">
+      <c r="R94" s="67" t="s">
         <v>8622</v>
       </c>
-      <c r="Q94" s="67" t="s">
+      <c r="S94" s="67" t="s">
         <v>8623</v>
       </c>
-      <c r="R94" s="67" t="s">
+      <c r="T94" s="67" t="s">
         <v>8624</v>
       </c>
-      <c r="S94" s="67" t="s">
+      <c r="U94" s="67" t="s">
         <v>8625</v>
-      </c>
-      <c r="T94" s="67" t="s">
-        <v>8626</v>
-      </c>
-      <c r="U94" s="67" t="s">
-        <v>8627</v>
       </c>
       <c r="V94"/>
       <c r="W94"/>
@@ -39867,13 +40823,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>8628</v>
+        <v>8626</v>
       </c>
       <c r="C95" s="67" t="s">
         <v>1326</v>
       </c>
       <c r="D95" s="67" t="s">
-        <v>8607</v>
+        <v>8605</v>
       </c>
       <c r="E95" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39898,19 +40854,19 @@
         <v>8435</v>
       </c>
       <c r="M95" s="67" t="s">
+        <v>8627</v>
+      </c>
+      <c r="N95" s="67" t="s">
+        <v>8628</v>
+      </c>
+      <c r="O95" s="67" t="s">
         <v>8629</v>
-      </c>
-      <c r="N95" s="67" t="s">
-        <v>8630</v>
-      </c>
-      <c r="O95" s="67" t="s">
-        <v>8631</v>
       </c>
       <c r="P95" s="67" t="s">
         <v>8461</v>
       </c>
       <c r="Q95" s="67" t="s">
-        <v>8632</v>
+        <v>8630</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -39943,7 +40899,7 @@
         <v>1208</v>
       </c>
       <c r="D96" s="67" t="s">
-        <v>8607</v>
+        <v>8605</v>
       </c>
       <c r="E96" s="66" t="str">
         <f t="shared" si="1"/>
@@ -39965,61 +40921,61 @@
         <v>4</v>
       </c>
       <c r="L96" s="67" t="s">
-        <v>8621</v>
+        <v>8619</v>
       </c>
       <c r="M96" s="67" t="s">
         <v>8435</v>
       </c>
       <c r="N96" s="67" t="s">
-        <v>8630</v>
+        <v>8628</v>
       </c>
       <c r="O96" s="67" t="s">
+        <v>8631</v>
+      </c>
+      <c r="P96" s="67" t="s">
+        <v>8632</v>
+      </c>
+      <c r="Q96" s="67" t="s">
         <v>8633</v>
       </c>
-      <c r="P96" s="67" t="s">
+      <c r="R96" s="67" t="s">
         <v>8634</v>
       </c>
-      <c r="Q96" s="67" t="s">
+      <c r="S96" s="67" t="s">
         <v>8635</v>
       </c>
-      <c r="R96" s="67" t="s">
+      <c r="T96" s="67" t="s">
         <v>8636</v>
       </c>
-      <c r="S96" s="67" t="s">
+      <c r="U96" s="67" t="s">
         <v>8637</v>
       </c>
-      <c r="T96" s="67" t="s">
+      <c r="V96" s="67" t="s">
         <v>8638</v>
       </c>
-      <c r="U96" s="67" t="s">
+      <c r="W96" s="67" t="s">
         <v>8639</v>
       </c>
-      <c r="V96" s="67" t="s">
+      <c r="X96" s="67" t="s">
         <v>8640</v>
       </c>
-      <c r="W96" s="67" t="s">
+      <c r="Y96" s="67" t="s">
         <v>8641</v>
       </c>
-      <c r="X96" s="67" t="s">
+      <c r="Z96" s="67" t="s">
         <v>8642</v>
       </c>
-      <c r="Y96" s="67" t="s">
+      <c r="AA96" s="67" t="s">
         <v>8643</v>
       </c>
-      <c r="Z96" s="67" t="s">
+      <c r="AB96" s="67" t="s">
         <v>8644</v>
       </c>
-      <c r="AA96" s="67" t="s">
+      <c r="AC96" s="67" t="s">
         <v>8645</v>
       </c>
-      <c r="AB96" s="67" t="s">
+      <c r="AD96" s="67" t="s">
         <v>8646</v>
-      </c>
-      <c r="AC96" s="67" t="s">
-        <v>8647</v>
-      </c>
-      <c r="AD96" s="67" t="s">
-        <v>8648</v>
       </c>
       <c r="AE96"/>
       <c r="AF96"/>
@@ -40039,7 +40995,7 @@
         <v>1202</v>
       </c>
       <c r="D97" s="67" t="s">
-        <v>8607</v>
+        <v>8605</v>
       </c>
       <c r="E97" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40063,28 +41019,28 @@
         <v>4</v>
       </c>
       <c r="L97" s="67" t="s">
-        <v>8649</v>
+        <v>8647</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>8650</v>
+        <v>8648</v>
       </c>
       <c r="N97" s="67" t="s">
         <v>8447</v>
       </c>
       <c r="O97" s="67" t="s">
+        <v>8649</v>
+      </c>
+      <c r="P97" s="67" t="s">
+        <v>8650</v>
+      </c>
+      <c r="Q97" s="67" t="s">
         <v>8651</v>
       </c>
-      <c r="P97" s="67" t="s">
+      <c r="R97" s="67" t="s">
         <v>8652</v>
       </c>
-      <c r="Q97" s="67" t="s">
+      <c r="S97" s="67" t="s">
         <v>8653</v>
-      </c>
-      <c r="R97" s="67" t="s">
-        <v>8654</v>
-      </c>
-      <c r="S97" s="67" t="s">
-        <v>8655</v>
       </c>
       <c r="T97"/>
       <c r="U97"/>
@@ -40115,7 +41071,7 @@
         <v>220</v>
       </c>
       <c r="D98" s="67" t="s">
-        <v>8656</v>
+        <v>8654</v>
       </c>
       <c r="E98" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40139,50 +41095,50 @@
         <v>4</v>
       </c>
       <c r="L98" s="67" t="s">
+        <v>8655</v>
+      </c>
+      <c r="M98" s="67" t="s">
+        <v>8656</v>
+      </c>
+      <c r="N98" s="67" t="s">
         <v>8657</v>
       </c>
-      <c r="M98" s="67" t="s">
+      <c r="O98" s="67" t="s">
         <v>8658</v>
-      </c>
-      <c r="N98" s="67" t="s">
-        <v>8659</v>
-      </c>
-      <c r="O98" s="67" t="s">
-        <v>8660</v>
       </c>
       <c r="P98" s="67"/>
       <c r="Q98" s="67" t="s">
+        <v>8659</v>
+      </c>
+      <c r="R98" s="67" t="s">
+        <v>8660</v>
+      </c>
+      <c r="S98" s="67" t="s">
         <v>8661</v>
       </c>
-      <c r="R98" s="67" t="s">
+      <c r="T98" s="67" t="s">
         <v>8662</v>
       </c>
-      <c r="S98" s="67" t="s">
+      <c r="U98" s="67" t="s">
         <v>8663</v>
       </c>
-      <c r="T98" s="67" t="s">
+      <c r="V98" s="67" t="s">
         <v>8664</v>
       </c>
-      <c r="U98" s="67" t="s">
+      <c r="W98" s="67" t="s">
         <v>8665</v>
       </c>
-      <c r="V98" s="67" t="s">
+      <c r="X98" s="67" t="s">
         <v>8666</v>
       </c>
-      <c r="W98" s="67" t="s">
+      <c r="Y98" s="67" t="s">
         <v>8667</v>
       </c>
-      <c r="X98" s="67" t="s">
+      <c r="Z98" s="67" t="s">
         <v>8668</v>
       </c>
-      <c r="Y98" s="67" t="s">
+      <c r="AA98" s="67" t="s">
         <v>8669</v>
-      </c>
-      <c r="Z98" s="67" t="s">
-        <v>8670</v>
-      </c>
-      <c r="AA98" s="67" t="s">
-        <v>8671</v>
       </c>
       <c r="AB98"/>
       <c r="AC98"/>
@@ -40205,7 +41161,7 @@
         <v>220</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>8672</v>
+        <v>8670</v>
       </c>
       <c r="E99" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40227,29 +41183,29 @@
         <v>4</v>
       </c>
       <c r="L99" s="67" t="s">
+        <v>8671</v>
+      </c>
+      <c r="M99" s="67" t="s">
+        <v>8672</v>
+      </c>
+      <c r="N99" s="67" t="s">
         <v>8673</v>
       </c>
-      <c r="M99" s="67" t="s">
+      <c r="O99" s="67" t="s">
         <v>8674</v>
       </c>
-      <c r="N99" s="67" t="s">
+      <c r="P99" s="67" t="s">
         <v>8675</v>
       </c>
-      <c r="O99" s="67" t="s">
+      <c r="Q99" s="67" t="s">
         <v>8676</v>
       </c>
-      <c r="P99" s="67" t="s">
+      <c r="R99" s="67" t="s">
         <v>8677</v>
-      </c>
-      <c r="Q99" s="67" t="s">
-        <v>8678</v>
-      </c>
-      <c r="R99" s="67" t="s">
-        <v>8679</v>
       </c>
       <c r="S99" s="67"/>
       <c r="T99" s="67" t="s">
-        <v>8680</v>
+        <v>8678</v>
       </c>
       <c r="U99"/>
       <c r="V99"/>
@@ -40273,13 +41229,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>8681</v>
+        <v>8679</v>
       </c>
       <c r="C100" s="67" t="s">
         <v>7519</v>
       </c>
       <c r="D100" s="67" t="s">
-        <v>8682</v>
+        <v>8680</v>
       </c>
       <c r="E100" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40301,25 +41257,25 @@
         <v>4</v>
       </c>
       <c r="L100" s="67" t="s">
+        <v>8681</v>
+      </c>
+      <c r="M100" s="67" t="s">
+        <v>8682</v>
+      </c>
+      <c r="N100" s="67" t="s">
         <v>8683</v>
       </c>
-      <c r="M100" s="67" t="s">
+      <c r="O100" s="67" t="s">
         <v>8684</v>
       </c>
-      <c r="N100" s="67" t="s">
+      <c r="P100" s="67" t="s">
         <v>8685</v>
       </c>
-      <c r="O100" s="67" t="s">
+      <c r="Q100" s="67" t="s">
         <v>8686</v>
       </c>
-      <c r="P100" s="67" t="s">
+      <c r="R100" s="67" t="s">
         <v>8687</v>
-      </c>
-      <c r="Q100" s="67" t="s">
-        <v>8688</v>
-      </c>
-      <c r="R100" s="67" t="s">
-        <v>8689</v>
       </c>
       <c r="S100"/>
       <c r="T100"/>
@@ -40345,13 +41301,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>8690</v>
+        <v>8688</v>
       </c>
       <c r="C101" s="67" t="s">
         <v>7520</v>
       </c>
       <c r="D101" s="67" t="s">
-        <v>8682</v>
+        <v>8680</v>
       </c>
       <c r="E101" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40403,13 +41359,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>8691</v>
+        <v>8689</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>8692</v>
+        <v>8690</v>
       </c>
       <c r="D102" s="67" t="s">
-        <v>8691</v>
+        <v>8689</v>
       </c>
       <c r="E102" s="66" t="str">
         <f t="shared" si="1"/>
@@ -40431,10 +41387,10 @@
         <v>4</v>
       </c>
       <c r="L102" s="67" t="s">
-        <v>8693</v>
+        <v>8691</v>
       </c>
       <c r="M102" s="67" t="s">
-        <v>8694</v>
+        <v>8692</v>
       </c>
       <c r="N102" s="67" t="s">
         <v>8354</v>
@@ -41837,10 +42793,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41883,7 +42839,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8552</v>
+        <v>8550</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -41919,7 +42875,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>8553</v>
+        <v>8551</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -42390,42 +43346,42 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>8554</v>
+        <v>8552</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8555</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8556</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>8557</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>8558</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>8559</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>8561</v>
+        <v>8559</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
-        <v>8562</v>
+        <v>8560</v>
       </c>
       <c r="B94" s="69">
         <v>41804</v>
@@ -42433,7 +43389,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="63" t="s">
-        <v>8563</v>
+        <v>8561</v>
       </c>
       <c r="B95" s="69">
         <v>41805</v>
@@ -42441,7 +43397,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
-        <v>8745</v>
+        <v>8743</v>
       </c>
       <c r="B96" s="69">
         <v>41806</v>
@@ -42449,7 +43405,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="63" t="s">
-        <v>8744</v>
+        <v>8742</v>
       </c>
       <c r="B97" s="69">
         <v>41813</v>
@@ -42457,10 +43413,18 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="63" t="s">
-        <v>8564</v>
-      </c>
-      <c r="B98" s="1" t="s">
         <v>8746</v>
+      </c>
+      <c r="B98" s="69">
+        <v>41868</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="63" t="s">
+        <v>8562</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>8744</v>
       </c>
     </row>
   </sheetData>
@@ -42481,8 +43445,8 @@
   </sheetPr>
   <dimension ref="A1:J6104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42496,15 +43460,7 @@
         <v>7576</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>8551</v>
-      </c>
-    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>8550</v>
-      </c>
       <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -91268,7 +92224,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -91347,7 +92303,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8697</v>
+        <v>8695</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -91378,7 +92334,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -91497,10 +92453,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8564</v>
+        <v>8562</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8706</v>
+        <v>8704</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="0" windowWidth="19120" windowHeight="19400" tabRatio="729" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="57220" yWindow="560" windowWidth="19120" windowHeight="19400" tabRatio="729" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="17" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9127" uniqueCount="8747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9123" uniqueCount="8743">
   <si>
     <t>Uuo</t>
   </si>
@@ -22777,18 +22777,6 @@
   </si>
   <si>
     <t>11h</t>
-  </si>
-  <si>
-    <t>11g</t>
-  </si>
-  <si>
-    <t>11f</t>
-  </si>
-  <si>
-    <t>11e</t>
-  </si>
-  <si>
-    <t>11d</t>
   </si>
   <si>
     <t>10F</t>
@@ -27231,10 +27219,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -27377,12 +27371,18 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
@@ -27700,13 +27700,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="67" t="s">
-        <v>8717</v>
+        <v>8713</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>8728</v>
+        <v>8724</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>8716</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -27714,7 +27714,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8702</v>
+        <v>8698</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -27725,7 +27725,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8703</v>
+        <v>8699</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -27733,7 +27733,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8708</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27741,7 +27741,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8704</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -27752,7 +27752,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8705</v>
+        <v>8701</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -27760,7 +27760,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>8706</v>
+        <v>8702</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -27768,7 +27768,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8458</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -27776,7 +27776,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8471</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27784,7 +27784,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8707</v>
+        <v>8703</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -27792,7 +27792,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>8476</v>
+        <v>8472</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -27800,7 +27800,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8434</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27808,7 +27808,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>8436</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -27816,7 +27816,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8709</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -27824,7 +27824,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>8487</v>
+        <v>8483</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -27832,7 +27832,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>8710</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -27840,7 +27840,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>8711</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -27848,7 +27848,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>8447</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -27856,7 +27856,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>8712</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -27864,7 +27864,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>8713</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -27872,7 +27872,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>8714</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -27880,7 +27880,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>8715</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -27888,7 +27888,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8718</v>
+        <v>8714</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -27896,7 +27896,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>8719</v>
+        <v>8715</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -27904,7 +27904,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>8720</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -27912,7 +27912,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>8721</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -27920,7 +27920,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>8722</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -27928,7 +27928,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>8723</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -27936,7 +27936,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>8724</v>
+        <v>8720</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -27944,7 +27944,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>8725</v>
+        <v>8721</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -27952,7 +27952,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>8726</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -27960,7 +27960,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8727</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -27968,7 +27968,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>8729</v>
+        <v>8725</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -27979,7 +27979,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>8730</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -27990,7 +27990,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8731</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -27998,7 +27998,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>8732</v>
+        <v>8728</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -28006,7 +28006,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>8733</v>
+        <v>8729</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -28014,7 +28014,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>8734</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -28022,7 +28022,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8735</v>
+        <v>8731</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -28030,12 +28030,12 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>8736</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" t="s">
-        <v>8737</v>
+        <v>8733</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -28043,7 +28043,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>8738</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -28051,7 +28051,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8739</v>
+        <v>8735</v>
       </c>
     </row>
   </sheetData>
@@ -29694,10 +29694,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8493</v>
+        <v>8489</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8491</v>
+        <v>8487</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -29709,7 +29709,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>8494</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14">
@@ -31319,7 +31319,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8700</v>
+        <v>8696</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>751</v>
@@ -31473,10 +31473,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>8522</v>
+        <v>8518</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>8523</v>
+        <v>8519</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$3</f>
@@ -32157,10 +32157,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8524</v>
+        <v>8520</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>8525</v>
+        <v>8521</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32177,10 +32177,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8526</v>
+        <v>8522</v>
       </c>
       <c r="C182" t="s">
-        <v>8533</v>
+        <v>8529</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32188,7 +32188,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8540</v>
+        <v>8536</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -32199,10 +32199,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8527</v>
+        <v>8523</v>
       </c>
       <c r="C183" t="s">
-        <v>8534</v>
+        <v>8530</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32210,7 +32210,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8541</v>
+        <v>8537</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -32221,10 +32221,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8532</v>
+        <v>8528</v>
       </c>
       <c r="C184" t="s">
-        <v>8535</v>
+        <v>8531</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32232,7 +32232,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8542</v>
+        <v>8538</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -32243,10 +32243,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8531</v>
+        <v>8527</v>
       </c>
       <c r="C185" t="s">
-        <v>8536</v>
+        <v>8532</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32254,7 +32254,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8543</v>
+        <v>8539</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -32265,10 +32265,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8530</v>
+        <v>8526</v>
       </c>
       <c r="C186" t="s">
-        <v>8537</v>
+        <v>8533</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32276,7 +32276,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8544</v>
+        <v>8540</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -32287,10 +32287,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8529</v>
+        <v>8525</v>
       </c>
       <c r="C187" t="s">
-        <v>8538</v>
+        <v>8534</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32298,7 +32298,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8545</v>
+        <v>8541</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -32309,10 +32309,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8528</v>
+        <v>8524</v>
       </c>
       <c r="C188" t="s">
-        <v>8539</v>
+        <v>8535</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -32320,7 +32320,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8546</v>
+        <v>8542</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -33649,7 +33649,7 @@
         <v>492</v>
       </c>
       <c r="C248" s="57" t="s">
-        <v>8489</v>
+        <v>8485</v>
       </c>
       <c r="D248" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -33657,11 +33657,11 @@
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12" t="s">
-        <v>8492</v>
+        <v>8488</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12" t="s">
-        <v>8490</v>
+        <v>8486</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="14">
@@ -34374,7 +34374,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8519</v>
+        <v>8515</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -34392,7 +34392,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8520</v>
+        <v>8516</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -34410,7 +34410,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8521</v>
+        <v>8517</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -34866,7 +34866,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>8701</v>
+        <v>8697</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>327</v>
@@ -35207,7 +35207,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>8556</v>
+        <v>8552</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
@@ -35510,7 +35510,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>8425</v>
+        <v>8421</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35523,7 +35523,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>8426</v>
+        <v>8422</v>
       </c>
       <c r="D335" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35536,7 +35536,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8485</v>
+        <v>8481</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>1430</v>
@@ -35548,10 +35548,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8695</v>
+        <v>8691</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>8694</v>
+        <v>8690</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$2</f>
@@ -35567,10 +35567,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8696</v>
+        <v>8692</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8697</v>
+        <v>8693</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35583,10 +35583,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8698</v>
+        <v>8694</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8699</v>
+        <v>8695</v>
       </c>
       <c r="D339" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -35599,7 +35599,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>8745</v>
+        <v>8741</v>
       </c>
       <c r="C340" s="12" t="s">
         <v>700</v>
@@ -35615,7 +35615,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>8746</v>
+        <v>8742</v>
       </c>
       <c r="D341" s="12" t="str">
         <f>Enums!$A$3</f>
@@ -36169,7 +36169,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8511</v>
+        <v>8507</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1325</v>
@@ -36425,7 +36425,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8513</v>
+        <v>8509</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1303</v>
@@ -38043,10 +38043,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8692</v>
+        <v>8688</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8691</v>
+        <v>8687</v>
       </c>
       <c r="F115" s="1" t="b">
         <v>0</v>
@@ -38091,7 +38091,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8510</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -38100,7 +38100,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>8399</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -38109,7 +38109,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>8355</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14">
@@ -38118,7 +38118,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>8353</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14">
@@ -38127,7 +38127,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>8354</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14">
@@ -38136,7 +38136,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>8400</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14">
@@ -38145,7 +38145,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>8352</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14">
@@ -38154,7 +38154,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>8351</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -38163,7 +38163,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>8401</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -38172,7 +38172,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>8402</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -38181,7 +38181,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>8403</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -38190,7 +38190,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8488</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -38199,7 +38199,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8518</v>
+        <v>8514</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -38208,7 +38208,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8743</v>
+        <v>8739</v>
       </c>
     </row>
   </sheetData>
@@ -38248,25 +38248,25 @@
         <v>Version</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>8498</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>8499</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>8500</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>8513</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>8501</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>8502</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="H1" s="61" t="s">
         <v>8503</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>8504</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>8517</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>8505</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>8506</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>8507</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -39702,15 +39702,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>8398</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>8397</v>
+        <v>8393</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8396</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -39718,7 +39718,7 @@
         <v>263</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8395</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -39726,7 +39726,7 @@
         <v>264</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>8394</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -39735,107 +39735,107 @@
     </row>
     <row r="6" spans="1:5" ht="14">
       <c r="A6" s="6" t="s">
-        <v>8393</v>
+        <v>8389</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8392</v>
+        <v>8388</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="14">
       <c r="B7" s="12" t="s">
-        <v>8391</v>
+        <v>8387</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="14">
       <c r="B8" s="12" t="s">
-        <v>8390</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14">
       <c r="B9" s="12" t="s">
-        <v>8389</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14">
       <c r="B10" s="12" t="s">
-        <v>8388</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14">
       <c r="B11" s="12" t="s">
-        <v>8387</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14">
       <c r="B12" s="12" t="s">
-        <v>8386</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14">
       <c r="B13" s="12" t="s">
-        <v>8385</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14">
       <c r="B14" s="12" t="s">
-        <v>8384</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14">
       <c r="B15" s="12" t="s">
-        <v>8383</v>
+        <v>8379</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="14">
       <c r="B16" s="12" t="s">
-        <v>8382</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="14">
       <c r="B17" s="12" t="s">
-        <v>8381</v>
+        <v>8377</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="14">
       <c r="B18" s="14" t="s">
-        <v>8380</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="14">
       <c r="B19" s="14" t="s">
-        <v>8379</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="14">
       <c r="B20" s="12" t="s">
-        <v>8378</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="14">
       <c r="B21" s="12" t="s">
-        <v>8377</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="B22" s="12" t="s">
-        <v>8376</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>8375</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1">
       <c r="B24" s="12" t="s">
-        <v>8374</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1">
@@ -39846,141 +39846,141 @@
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1">
       <c r="B27" s="30" t="s">
-        <v>8373</v>
+        <v>8369</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>8372</v>
+        <v>8368</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>8371</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1">
       <c r="B28" s="12" t="s">
-        <v>8370</v>
+        <v>8366</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1389</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>8369</v>
+        <v>8365</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>8368</v>
+        <v>8364</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>8367</v>
+        <v>8363</v>
       </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1">
       <c r="B29" s="12" t="s">
-        <v>8366</v>
+        <v>8362</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1388</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>8365</v>
+        <v>8361</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>8364</v>
+        <v>8360</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>8363</v>
+        <v>8359</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>8362</v>
+        <v>8358</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>8361</v>
+        <v>8357</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>8360</v>
+        <v>8356</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>8359</v>
+        <v>8355</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>8358</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1">
       <c r="B30" s="12" t="s">
-        <v>8357</v>
+        <v>8353</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>8356</v>
+        <v>8352</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>8355</v>
+        <v>8351</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>8354</v>
+        <v>8350</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>8353</v>
+        <v>8349</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>8352</v>
+        <v>8348</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>8351</v>
+        <v>8347</v>
       </c>
       <c r="I30" s="47" t="s">
-        <v>8350</v>
+        <v>8346</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>8349</v>
+        <v>8345</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>8348</v>
+        <v>8344</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>8347</v>
+        <v>8343</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>8346</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1">
       <c r="B31" s="12" t="s">
-        <v>8345</v>
+        <v>8341</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1383</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>8344</v>
+        <v>8340</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>8343</v>
+        <v>8339</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>8342</v>
+        <v>8338</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>8341</v>
+        <v>8337</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>7520</v>
+        <v>7516</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>8340</v>
+        <v>8336</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>8339</v>
+        <v>8335</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>8338</v>
+        <v>8334</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>8337</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15" customHeight="1">
       <c r="B32" s="12" t="s">
-        <v>8336</v>
+        <v>8332</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1382</v>
@@ -39999,7 +39999,7 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="B33" s="12" t="s">
-        <v>8335</v>
+        <v>8331</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1381</v>
@@ -40010,7 +40010,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="B34" s="12" t="s">
-        <v>8334</v>
+        <v>8330</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>1380</v>
@@ -40031,29 +40031,29 @@
         <v>1364</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>7519</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="B35" s="12" t="s">
-        <v>8333</v>
+        <v>8329</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>8332</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="B36" s="12" t="s">
-        <v>8331</v>
+        <v>8327</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1378</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8330</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
@@ -40064,7 +40064,7 @@
     </row>
     <row r="39" spans="1:9" ht="14">
       <c r="B39" s="30" t="s">
-        <v>8329</v>
+        <v>8325</v>
       </c>
       <c r="C39" s="6"/>
     </row>
@@ -40073,10 +40073,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>8328</v>
+        <v>8324</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>8326</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14">
@@ -40084,10 +40084,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>8327</v>
+        <v>8323</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>8326</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14">
@@ -40099,7 +40099,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>8325</v>
+        <v>8321</v>
       </c>
       <c r="C43" s="7"/>
     </row>
@@ -40108,7 +40108,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>8324</v>
+        <v>8320</v>
       </c>
       <c r="C44" s="7"/>
     </row>
@@ -40117,7 +40117,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>8323</v>
+        <v>8319</v>
       </c>
       <c r="C45" s="7"/>
     </row>
@@ -40126,7 +40126,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>8322</v>
+        <v>8318</v>
       </c>
       <c r="C46" s="7"/>
     </row>
@@ -40135,7 +40135,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>8321</v>
+        <v>8317</v>
       </c>
       <c r="C47" s="7"/>
     </row>
@@ -40144,7 +40144,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>8320</v>
+        <v>8316</v>
       </c>
       <c r="C48" s="7"/>
     </row>
@@ -40157,7 +40157,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>8319</v>
+        <v>8315</v>
       </c>
       <c r="C50" s="7"/>
     </row>
@@ -40166,7 +40166,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>8318</v>
+        <v>8314</v>
       </c>
       <c r="C51" s="7"/>
     </row>
@@ -40175,7 +40175,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>8317</v>
+        <v>8313</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -40184,7 +40184,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>8316</v>
+        <v>8312</v>
       </c>
       <c r="C53" s="7"/>
     </row>
@@ -40193,7 +40193,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>8315</v>
+        <v>8311</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -40202,7 +40202,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>8314</v>
+        <v>8310</v>
       </c>
       <c r="C55" s="7"/>
     </row>
@@ -40211,7 +40211,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>8313</v>
+        <v>8309</v>
       </c>
       <c r="C56" s="7"/>
     </row>
@@ -40220,7 +40220,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>8312</v>
+        <v>8308</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -40229,7 +40229,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>8311</v>
+        <v>8307</v>
       </c>
       <c r="C58" s="7"/>
     </row>
@@ -40238,7 +40238,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>8310</v>
+        <v>8306</v>
       </c>
       <c r="C59" s="7"/>
     </row>
@@ -40247,7 +40247,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>8309</v>
+        <v>8305</v>
       </c>
       <c r="C60" s="7"/>
     </row>
@@ -40256,7 +40256,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>8308</v>
+        <v>8304</v>
       </c>
       <c r="C61" s="7"/>
     </row>
@@ -40265,7 +40265,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>8307</v>
+        <v>8303</v>
       </c>
       <c r="C62" s="7"/>
     </row>
@@ -40274,7 +40274,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>8306</v>
+        <v>8302</v>
       </c>
       <c r="C63" s="7"/>
     </row>
@@ -40283,7 +40283,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>8305</v>
+        <v>8301</v>
       </c>
       <c r="C64" s="7"/>
     </row>
@@ -40296,7 +40296,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>8304</v>
+        <v>8300</v>
       </c>
       <c r="C66" s="7"/>
     </row>
@@ -40305,7 +40305,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>8303</v>
+        <v>8299</v>
       </c>
       <c r="C67" s="7"/>
     </row>
@@ -40314,7 +40314,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>8302</v>
+        <v>8298</v>
       </c>
       <c r="C68" s="7"/>
     </row>
@@ -40323,7 +40323,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>8301</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14">
@@ -40331,7 +40331,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>8300</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14">
@@ -40339,7 +40339,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>8299</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14">
@@ -40347,7 +40347,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>8298</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14">
@@ -40355,7 +40355,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>8297</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14">
@@ -40363,7 +40363,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>8296</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14">
@@ -40371,7 +40371,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>8295</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14">
@@ -40379,7 +40379,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>8294</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14">
@@ -40387,7 +40387,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>8293</v>
+        <v>8289</v>
       </c>
       <c r="E77" s="8"/>
     </row>
@@ -40396,7 +40396,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>8512</v>
+        <v>8508</v>
       </c>
       <c r="D78" s="8"/>
     </row>
@@ -40408,7 +40408,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>8292</v>
+        <v>8288</v>
       </c>
       <c r="E80" s="8"/>
     </row>
@@ -40417,7 +40417,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>8291</v>
+        <v>8287</v>
       </c>
       <c r="E81" s="8"/>
     </row>
@@ -40426,7 +40426,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>8290</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="83" spans="1:36" ht="14">
@@ -40434,7 +40434,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>8289</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="84" spans="1:36" ht="14">
@@ -40442,7 +40442,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>8515</v>
+        <v>8511</v>
       </c>
     </row>
     <row r="85" spans="1:36" ht="14">
@@ -40450,7 +40450,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>8516</v>
+        <v>8512</v>
       </c>
       <c r="E85" s="8"/>
     </row>
@@ -40459,7 +40459,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>8288</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="87" spans="1:36" ht="14">
@@ -40467,7 +40467,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>8287</v>
+        <v>8283</v>
       </c>
       <c r="E87" s="8"/>
     </row>
@@ -40487,7 +40487,7 @@
         <v>1374</v>
       </c>
       <c r="B91" s="63" t="s">
-        <v>8561</v>
+        <v>8557</v>
       </c>
       <c r="C91" s="63" t="s">
         <v>1376</v>
@@ -40496,25 +40496,25 @@
         <v>1413</v>
       </c>
       <c r="E91" s="63" t="s">
-        <v>8562</v>
+        <v>8558</v>
       </c>
       <c r="F91" s="63" t="s">
-        <v>8563</v>
+        <v>8559</v>
       </c>
       <c r="G91" s="63" t="s">
         <v>1373</v>
       </c>
       <c r="H91" s="63" t="s">
-        <v>8564</v>
+        <v>8560</v>
       </c>
       <c r="I91" s="63" t="s">
         <v>1372</v>
       </c>
       <c r="J91" s="63" t="s">
-        <v>8565</v>
+        <v>8561</v>
       </c>
       <c r="K91" s="63" t="s">
-        <v>8566</v>
+        <v>8562</v>
       </c>
       <c r="L91" s="63" t="s">
         <v>1371</v>
@@ -40529,67 +40529,67 @@
         <v>1368</v>
       </c>
       <c r="P91" s="63" t="s">
+        <v>8563</v>
+      </c>
+      <c r="Q91" s="63" t="s">
+        <v>8564</v>
+      </c>
+      <c r="R91" s="63" t="s">
+        <v>8565</v>
+      </c>
+      <c r="S91" s="63" t="s">
+        <v>8566</v>
+      </c>
+      <c r="T91" s="63" t="s">
         <v>8567</v>
       </c>
-      <c r="Q91" s="63" t="s">
+      <c r="U91" s="63" t="s">
         <v>8568</v>
       </c>
-      <c r="R91" s="63" t="s">
+      <c r="V91" s="63" t="s">
         <v>8569</v>
       </c>
-      <c r="S91" s="63" t="s">
+      <c r="W91" s="63" t="s">
         <v>8570</v>
       </c>
-      <c r="T91" s="63" t="s">
+      <c r="X91" s="63" t="s">
         <v>8571</v>
       </c>
-      <c r="U91" s="63" t="s">
+      <c r="Y91" s="63" t="s">
         <v>8572</v>
       </c>
-      <c r="V91" s="63" t="s">
+      <c r="Z91" s="63" t="s">
         <v>8573</v>
       </c>
-      <c r="W91" s="63" t="s">
+      <c r="AA91" s="63" t="s">
         <v>8574</v>
       </c>
-      <c r="X91" s="63" t="s">
+      <c r="AB91" s="63" t="s">
         <v>8575</v>
       </c>
-      <c r="Y91" s="63" t="s">
+      <c r="AC91" s="63" t="s">
         <v>8576</v>
       </c>
-      <c r="Z91" s="63" t="s">
+      <c r="AD91" s="63" t="s">
         <v>8577</v>
       </c>
-      <c r="AA91" s="63" t="s">
+      <c r="AE91" s="63" t="s">
         <v>8578</v>
       </c>
-      <c r="AB91" s="63" t="s">
+      <c r="AF91" s="63" t="s">
         <v>8579</v>
       </c>
-      <c r="AC91" s="63" t="s">
+      <c r="AG91" s="63" t="s">
         <v>8580</v>
       </c>
-      <c r="AD91" s="63" t="s">
+      <c r="AH91" s="63" t="s">
         <v>8581</v>
       </c>
-      <c r="AE91" s="63" t="s">
+      <c r="AI91" s="63" t="s">
         <v>8582</v>
       </c>
-      <c r="AF91" s="63" t="s">
+      <c r="AJ91" s="63" t="s">
         <v>8583</v>
-      </c>
-      <c r="AG91" s="63" t="s">
-        <v>8584</v>
-      </c>
-      <c r="AH91" s="63" t="s">
-        <v>8585</v>
-      </c>
-      <c r="AI91" s="63" t="s">
-        <v>8586</v>
-      </c>
-      <c r="AJ91" s="63" t="s">
-        <v>8587</v>
       </c>
     </row>
     <row r="92" spans="1:36" ht="25">
@@ -40597,13 +40597,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>8588</v>
+        <v>8584</v>
       </c>
       <c r="C92" s="66" t="s">
         <v>1264</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>8589</v>
+        <v>8585</v>
       </c>
       <c r="E92" s="65" t="str">
         <f>"Fiber ("&amp;B92&amp;")"</f>
@@ -40625,40 +40625,40 @@
         <v>4</v>
       </c>
       <c r="L92" s="66" t="s">
+        <v>8586</v>
+      </c>
+      <c r="M92" s="66" t="s">
+        <v>8587</v>
+      </c>
+      <c r="N92" s="66" t="s">
+        <v>8588</v>
+      </c>
+      <c r="O92" s="66" t="s">
+        <v>8589</v>
+      </c>
+      <c r="P92" s="66" t="s">
         <v>8590</v>
       </c>
-      <c r="M92" s="66" t="s">
+      <c r="Q92" s="66" t="s">
         <v>8591</v>
       </c>
-      <c r="N92" s="66" t="s">
+      <c r="R92" s="66" t="s">
         <v>8592</v>
       </c>
-      <c r="O92" s="66" t="s">
+      <c r="S92" s="66" t="s">
         <v>8593</v>
       </c>
-      <c r="P92" s="66" t="s">
+      <c r="T92" s="66" t="s">
         <v>8594</v>
       </c>
-      <c r="Q92" s="66" t="s">
+      <c r="U92" s="66" t="s">
         <v>8595</v>
       </c>
-      <c r="R92" s="66" t="s">
+      <c r="V92" s="66" t="s">
         <v>8596</v>
       </c>
-      <c r="S92" s="66" t="s">
+      <c r="W92" s="66" t="s">
         <v>8597</v>
-      </c>
-      <c r="T92" s="66" t="s">
-        <v>8598</v>
-      </c>
-      <c r="U92" s="66" t="s">
-        <v>8599</v>
-      </c>
-      <c r="V92" s="66" t="s">
-        <v>8600</v>
-      </c>
-      <c r="W92" s="66" t="s">
-        <v>8601</v>
       </c>
       <c r="X92"/>
       <c r="Y92"/>
@@ -40679,13 +40679,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="65" t="s">
-        <v>8602</v>
+        <v>8598</v>
       </c>
       <c r="C93" s="66" t="s">
         <v>1338</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>8603</v>
+        <v>8599</v>
       </c>
       <c r="E93" s="65" t="str">
         <f t="shared" ref="E93:E102" si="1">"Fiber ("&amp;B93&amp;")"</f>
@@ -40707,34 +40707,34 @@
         <v>4</v>
       </c>
       <c r="L93" s="66" t="s">
+        <v>8600</v>
+      </c>
+      <c r="M93" s="66" t="s">
+        <v>8601</v>
+      </c>
+      <c r="N93" s="66" t="s">
+        <v>8602</v>
+      </c>
+      <c r="O93" s="66" t="s">
+        <v>8603</v>
+      </c>
+      <c r="P93" s="66" t="s">
         <v>8604</v>
       </c>
-      <c r="M93" s="66" t="s">
+      <c r="Q93" s="66" t="s">
         <v>8605</v>
       </c>
-      <c r="N93" s="66" t="s">
+      <c r="R93" s="66" t="s">
         <v>8606</v>
       </c>
-      <c r="O93" s="66" t="s">
+      <c r="S93" s="66" t="s">
         <v>8607</v>
       </c>
-      <c r="P93" s="66" t="s">
+      <c r="T93" s="66" t="s">
         <v>8608</v>
       </c>
-      <c r="Q93" s="66" t="s">
+      <c r="U93" s="66" t="s">
         <v>8609</v>
-      </c>
-      <c r="R93" s="66" t="s">
-        <v>8610</v>
-      </c>
-      <c r="S93" s="66" t="s">
-        <v>8611</v>
-      </c>
-      <c r="T93" s="66" t="s">
-        <v>8612</v>
-      </c>
-      <c r="U93" s="66" t="s">
-        <v>8613</v>
       </c>
       <c r="V93"/>
       <c r="W93"/>
@@ -40763,7 +40763,7 @@
         <v>1180</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>8603</v>
+        <v>8599</v>
       </c>
       <c r="E94" s="65" t="str">
         <f t="shared" si="1"/>
@@ -40785,34 +40785,34 @@
         <v>4</v>
       </c>
       <c r="L94" s="66" t="s">
+        <v>8610</v>
+      </c>
+      <c r="M94" s="66" t="s">
+        <v>8611</v>
+      </c>
+      <c r="N94" s="66" t="s">
+        <v>8612</v>
+      </c>
+      <c r="O94" s="66" t="s">
+        <v>8613</v>
+      </c>
+      <c r="P94" s="66" t="s">
         <v>8614</v>
       </c>
-      <c r="M94" s="66" t="s">
+      <c r="Q94" s="66" t="s">
         <v>8615</v>
       </c>
-      <c r="N94" s="66" t="s">
+      <c r="R94" s="66" t="s">
         <v>8616</v>
       </c>
-      <c r="O94" s="66" t="s">
+      <c r="S94" s="66" t="s">
         <v>8617</v>
       </c>
-      <c r="P94" s="66" t="s">
+      <c r="T94" s="66" t="s">
         <v>8618</v>
       </c>
-      <c r="Q94" s="66" t="s">
+      <c r="U94" s="66" t="s">
         <v>8619</v>
-      </c>
-      <c r="R94" s="66" t="s">
-        <v>8620</v>
-      </c>
-      <c r="S94" s="66" t="s">
-        <v>8621</v>
-      </c>
-      <c r="T94" s="66" t="s">
-        <v>8622</v>
-      </c>
-      <c r="U94" s="66" t="s">
-        <v>8623</v>
       </c>
       <c r="V94"/>
       <c r="W94"/>
@@ -40835,13 +40835,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="65" t="s">
-        <v>8624</v>
+        <v>8620</v>
       </c>
       <c r="C95" s="66" t="s">
         <v>1326</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>8603</v>
+        <v>8599</v>
       </c>
       <c r="E95" s="65" t="str">
         <f t="shared" si="1"/>
@@ -40863,22 +40863,22 @@
         <v>4</v>
       </c>
       <c r="L95" s="66" t="s">
-        <v>8435</v>
+        <v>8431</v>
       </c>
       <c r="M95" s="66" t="s">
-        <v>8625</v>
+        <v>8621</v>
       </c>
       <c r="N95" s="66" t="s">
-        <v>8626</v>
+        <v>8622</v>
       </c>
       <c r="O95" s="66" t="s">
-        <v>8627</v>
+        <v>8623</v>
       </c>
       <c r="P95" s="66" t="s">
-        <v>8461</v>
+        <v>8457</v>
       </c>
       <c r="Q95" s="66" t="s">
-        <v>8628</v>
+        <v>8624</v>
       </c>
       <c r="R95"/>
       <c r="S95"/>
@@ -40911,7 +40911,7 @@
         <v>1208</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>8603</v>
+        <v>8599</v>
       </c>
       <c r="E96" s="65" t="str">
         <f t="shared" si="1"/>
@@ -40933,61 +40933,61 @@
         <v>4</v>
       </c>
       <c r="L96" s="66" t="s">
-        <v>8617</v>
+        <v>8613</v>
       </c>
       <c r="M96" s="66" t="s">
-        <v>8435</v>
+        <v>8431</v>
       </c>
       <c r="N96" s="66" t="s">
+        <v>8622</v>
+      </c>
+      <c r="O96" s="66" t="s">
+        <v>8625</v>
+      </c>
+      <c r="P96" s="66" t="s">
         <v>8626</v>
       </c>
-      <c r="O96" s="66" t="s">
+      <c r="Q96" s="66" t="s">
+        <v>8627</v>
+      </c>
+      <c r="R96" s="66" t="s">
+        <v>8628</v>
+      </c>
+      <c r="S96" s="66" t="s">
         <v>8629</v>
       </c>
-      <c r="P96" s="66" t="s">
+      <c r="T96" s="66" t="s">
         <v>8630</v>
       </c>
-      <c r="Q96" s="66" t="s">
+      <c r="U96" s="66" t="s">
         <v>8631</v>
       </c>
-      <c r="R96" s="66" t="s">
+      <c r="V96" s="66" t="s">
         <v>8632</v>
       </c>
-      <c r="S96" s="66" t="s">
+      <c r="W96" s="66" t="s">
         <v>8633</v>
       </c>
-      <c r="T96" s="66" t="s">
+      <c r="X96" s="66" t="s">
         <v>8634</v>
       </c>
-      <c r="U96" s="66" t="s">
+      <c r="Y96" s="66" t="s">
         <v>8635</v>
       </c>
-      <c r="V96" s="66" t="s">
+      <c r="Z96" s="66" t="s">
         <v>8636</v>
       </c>
-      <c r="W96" s="66" t="s">
+      <c r="AA96" s="66" t="s">
         <v>8637</v>
       </c>
-      <c r="X96" s="66" t="s">
+      <c r="AB96" s="66" t="s">
         <v>8638</v>
       </c>
-      <c r="Y96" s="66" t="s">
+      <c r="AC96" s="66" t="s">
         <v>8639</v>
       </c>
-      <c r="Z96" s="66" t="s">
+      <c r="AD96" s="66" t="s">
         <v>8640</v>
-      </c>
-      <c r="AA96" s="66" t="s">
-        <v>8641</v>
-      </c>
-      <c r="AB96" s="66" t="s">
-        <v>8642</v>
-      </c>
-      <c r="AC96" s="66" t="s">
-        <v>8643</v>
-      </c>
-      <c r="AD96" s="66" t="s">
-        <v>8644</v>
       </c>
       <c r="AE96"/>
       <c r="AF96"/>
@@ -41007,7 +41007,7 @@
         <v>1202</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>8603</v>
+        <v>8599</v>
       </c>
       <c r="E97" s="65" t="str">
         <f t="shared" si="1"/>
@@ -41031,28 +41031,28 @@
         <v>4</v>
       </c>
       <c r="L97" s="66" t="s">
+        <v>8641</v>
+      </c>
+      <c r="M97" s="66" t="s">
+        <v>8642</v>
+      </c>
+      <c r="N97" s="66" t="s">
+        <v>8443</v>
+      </c>
+      <c r="O97" s="66" t="s">
+        <v>8643</v>
+      </c>
+      <c r="P97" s="66" t="s">
+        <v>8644</v>
+      </c>
+      <c r="Q97" s="66" t="s">
         <v>8645</v>
       </c>
-      <c r="M97" s="66" t="s">
+      <c r="R97" s="66" t="s">
         <v>8646</v>
       </c>
-      <c r="N97" s="66" t="s">
-        <v>8447</v>
-      </c>
-      <c r="O97" s="66" t="s">
+      <c r="S97" s="66" t="s">
         <v>8647</v>
-      </c>
-      <c r="P97" s="66" t="s">
-        <v>8648</v>
-      </c>
-      <c r="Q97" s="66" t="s">
-        <v>8649</v>
-      </c>
-      <c r="R97" s="66" t="s">
-        <v>8650</v>
-      </c>
-      <c r="S97" s="66" t="s">
-        <v>8651</v>
       </c>
       <c r="T97"/>
       <c r="U97"/>
@@ -41083,7 +41083,7 @@
         <v>220</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>8652</v>
+        <v>8648</v>
       </c>
       <c r="E98" s="65" t="str">
         <f t="shared" si="1"/>
@@ -41107,50 +41107,50 @@
         <v>4</v>
       </c>
       <c r="L98" s="66" t="s">
-        <v>8653</v>
+        <v>8649</v>
       </c>
       <c r="M98" s="66" t="s">
-        <v>8654</v>
+        <v>8650</v>
       </c>
       <c r="N98" s="66" t="s">
-        <v>8655</v>
+        <v>8651</v>
       </c>
       <c r="O98" s="66" t="s">
-        <v>8656</v>
+        <v>8652</v>
       </c>
       <c r="P98" s="66"/>
       <c r="Q98" s="66" t="s">
+        <v>8653</v>
+      </c>
+      <c r="R98" s="66" t="s">
+        <v>8654</v>
+      </c>
+      <c r="S98" s="66" t="s">
+        <v>8655</v>
+      </c>
+      <c r="T98" s="66" t="s">
+        <v>8656</v>
+      </c>
+      <c r="U98" s="66" t="s">
         <v>8657</v>
       </c>
-      <c r="R98" s="66" t="s">
+      <c r="V98" s="66" t="s">
         <v>8658</v>
       </c>
-      <c r="S98" s="66" t="s">
+      <c r="W98" s="66" t="s">
         <v>8659</v>
       </c>
-      <c r="T98" s="66" t="s">
+      <c r="X98" s="66" t="s">
         <v>8660</v>
       </c>
-      <c r="U98" s="66" t="s">
+      <c r="Y98" s="66" t="s">
         <v>8661</v>
       </c>
-      <c r="V98" s="66" t="s">
+      <c r="Z98" s="66" t="s">
         <v>8662</v>
       </c>
-      <c r="W98" s="66" t="s">
+      <c r="AA98" s="66" t="s">
         <v>8663</v>
-      </c>
-      <c r="X98" s="66" t="s">
-        <v>8664</v>
-      </c>
-      <c r="Y98" s="66" t="s">
-        <v>8665</v>
-      </c>
-      <c r="Z98" s="66" t="s">
-        <v>8666</v>
-      </c>
-      <c r="AA98" s="66" t="s">
-        <v>8667</v>
       </c>
       <c r="AB98"/>
       <c r="AC98"/>
@@ -41173,7 +41173,7 @@
         <v>220</v>
       </c>
       <c r="D99" s="66" t="s">
-        <v>8668</v>
+        <v>8664</v>
       </c>
       <c r="E99" s="65" t="str">
         <f t="shared" si="1"/>
@@ -41195,29 +41195,29 @@
         <v>4</v>
       </c>
       <c r="L99" s="66" t="s">
+        <v>8665</v>
+      </c>
+      <c r="M99" s="66" t="s">
+        <v>8666</v>
+      </c>
+      <c r="N99" s="66" t="s">
+        <v>8667</v>
+      </c>
+      <c r="O99" s="66" t="s">
+        <v>8668</v>
+      </c>
+      <c r="P99" s="66" t="s">
         <v>8669</v>
       </c>
-      <c r="M99" s="66" t="s">
+      <c r="Q99" s="66" t="s">
         <v>8670</v>
       </c>
-      <c r="N99" s="66" t="s">
+      <c r="R99" s="66" t="s">
         <v>8671</v>
-      </c>
-      <c r="O99" s="66" t="s">
-        <v>8672</v>
-      </c>
-      <c r="P99" s="66" t="s">
-        <v>8673</v>
-      </c>
-      <c r="Q99" s="66" t="s">
-        <v>8674</v>
-      </c>
-      <c r="R99" s="66" t="s">
-        <v>8675</v>
       </c>
       <c r="S99" s="66"/>
       <c r="T99" s="66" t="s">
-        <v>8676</v>
+        <v>8672</v>
       </c>
       <c r="U99"/>
       <c r="V99"/>
@@ -41241,13 +41241,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="65" t="s">
-        <v>8677</v>
+        <v>8673</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>7519</v>
+        <v>7515</v>
       </c>
       <c r="D100" s="66" t="s">
-        <v>8678</v>
+        <v>8674</v>
       </c>
       <c r="E100" s="65" t="str">
         <f t="shared" si="1"/>
@@ -41269,25 +41269,25 @@
         <v>4</v>
       </c>
       <c r="L100" s="66" t="s">
+        <v>8675</v>
+      </c>
+      <c r="M100" s="66" t="s">
+        <v>8676</v>
+      </c>
+      <c r="N100" s="66" t="s">
+        <v>8677</v>
+      </c>
+      <c r="O100" s="66" t="s">
+        <v>8678</v>
+      </c>
+      <c r="P100" s="66" t="s">
         <v>8679</v>
       </c>
-      <c r="M100" s="66" t="s">
+      <c r="Q100" s="66" t="s">
         <v>8680</v>
       </c>
-      <c r="N100" s="66" t="s">
+      <c r="R100" s="66" t="s">
         <v>8681</v>
-      </c>
-      <c r="O100" s="66" t="s">
-        <v>8682</v>
-      </c>
-      <c r="P100" s="66" t="s">
-        <v>8683</v>
-      </c>
-      <c r="Q100" s="66" t="s">
-        <v>8684</v>
-      </c>
-      <c r="R100" s="66" t="s">
-        <v>8685</v>
       </c>
       <c r="S100"/>
       <c r="T100"/>
@@ -41313,13 +41313,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="65" t="s">
-        <v>8686</v>
+        <v>8682</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>7520</v>
+        <v>7516</v>
       </c>
       <c r="D101" s="66" t="s">
-        <v>8678</v>
+        <v>8674</v>
       </c>
       <c r="E101" s="65" t="str">
         <f t="shared" si="1"/>
@@ -41371,13 +41371,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="65" t="s">
-        <v>8687</v>
+        <v>8683</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>8688</v>
+        <v>8684</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>8687</v>
+        <v>8683</v>
       </c>
       <c r="E102" s="65" t="str">
         <f t="shared" si="1"/>
@@ -41399,16 +41399,16 @@
         <v>4</v>
       </c>
       <c r="L102" s="66" t="s">
-        <v>8689</v>
+        <v>8685</v>
       </c>
       <c r="M102" s="66" t="s">
-        <v>8690</v>
+        <v>8686</v>
       </c>
       <c r="N102" s="66" t="s">
-        <v>8354</v>
+        <v>8350</v>
       </c>
       <c r="O102" s="66" t="s">
-        <v>8352</v>
+        <v>8348</v>
       </c>
       <c r="P102"/>
       <c r="Q102"/>
@@ -41435,10 +41435,10 @@
     <row r="103" spans="1:36" ht="14">
       <c r="B103" s="12"/>
       <c r="D103" s="53" t="s">
-        <v>8487</v>
+        <v>8483</v>
       </c>
       <c r="E103" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="b">
@@ -41448,10 +41448,10 @@
     <row r="104" spans="1:36" ht="14">
       <c r="B104" s="12"/>
       <c r="D104" s="53" t="s">
-        <v>8486</v>
+        <v>8482</v>
       </c>
       <c r="E104" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="b">
@@ -41461,10 +41461,10 @@
     <row r="105" spans="1:36" ht="14">
       <c r="B105" s="12"/>
       <c r="D105" s="56" t="s">
-        <v>8485</v>
+        <v>8481</v>
       </c>
       <c r="E105" s="54" t="s">
-        <v>8484</v>
+        <v>8480</v>
       </c>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="b">
@@ -41477,10 +41477,10 @@
     <row r="107" spans="1:36" ht="14">
       <c r="B107" s="12"/>
       <c r="D107" s="53" t="s">
-        <v>8483</v>
+        <v>8479</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F107" s="53"/>
       <c r="G107" s="54" t="b">
@@ -41490,10 +41490,10 @@
     <row r="108" spans="1:36" ht="14">
       <c r="B108" s="12"/>
       <c r="D108" s="53" t="s">
-        <v>8482</v>
+        <v>8478</v>
       </c>
       <c r="E108" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F108" s="53"/>
       <c r="G108" s="54" t="b">
@@ -41503,10 +41503,10 @@
     <row r="109" spans="1:36" ht="14">
       <c r="B109" s="12"/>
       <c r="D109" s="53" t="s">
-        <v>8481</v>
+        <v>8477</v>
       </c>
       <c r="E109" s="53" t="s">
-        <v>8444</v>
+        <v>8440</v>
       </c>
       <c r="F109" s="53"/>
       <c r="G109" s="54" t="b">
@@ -41516,10 +41516,10 @@
     <row r="110" spans="1:36" ht="14">
       <c r="B110" s="12"/>
       <c r="D110" s="53" t="s">
-        <v>8480</v>
+        <v>8476</v>
       </c>
       <c r="E110" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F110" s="53"/>
       <c r="G110" s="54" t="b">
@@ -41529,10 +41529,10 @@
     <row r="111" spans="1:36" ht="14">
       <c r="B111" s="12"/>
       <c r="D111" s="53" t="s">
-        <v>8479</v>
+        <v>8475</v>
       </c>
       <c r="E111" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F111" s="53"/>
       <c r="G111" s="54" t="b">
@@ -41542,10 +41542,10 @@
     <row r="112" spans="1:36" ht="14">
       <c r="B112" s="12"/>
       <c r="D112" s="53" t="s">
-        <v>8478</v>
+        <v>8474</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F112" s="53"/>
       <c r="G112" s="54" t="b">
@@ -41555,7 +41555,7 @@
     <row r="113" spans="2:7" ht="14">
       <c r="B113" s="12"/>
       <c r="D113" s="54" t="s">
-        <v>8477</v>
+        <v>8473</v>
       </c>
       <c r="E113" s="54"/>
       <c r="F113" s="53"/>
@@ -41566,10 +41566,10 @@
     <row r="114" spans="2:7" ht="14">
       <c r="B114" s="12"/>
       <c r="D114" s="53" t="s">
-        <v>8476</v>
+        <v>8472</v>
       </c>
       <c r="E114" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F114" s="53"/>
       <c r="G114" s="54" t="b">
@@ -41586,10 +41586,10 @@
     <row r="116" spans="2:7" ht="14">
       <c r="B116" s="12"/>
       <c r="D116" s="53" t="s">
-        <v>8475</v>
+        <v>8471</v>
       </c>
       <c r="E116" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F116" s="53"/>
       <c r="G116" s="54" t="b">
@@ -41599,10 +41599,10 @@
     <row r="117" spans="2:7" ht="14">
       <c r="B117" s="12"/>
       <c r="D117" s="53" t="s">
-        <v>8474</v>
+        <v>8470</v>
       </c>
       <c r="E117" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F117" s="53"/>
       <c r="G117" s="54" t="b">
@@ -41612,10 +41612,10 @@
     <row r="118" spans="2:7" ht="14">
       <c r="B118" s="12"/>
       <c r="D118" s="53" t="s">
-        <v>8473</v>
+        <v>8469</v>
       </c>
       <c r="E118" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F118" s="53"/>
       <c r="G118" s="54" t="b">
@@ -41625,10 +41625,10 @@
     <row r="119" spans="2:7" ht="14">
       <c r="B119" s="12"/>
       <c r="D119" s="53" t="s">
-        <v>8472</v>
+        <v>8468</v>
       </c>
       <c r="E119" s="53" t="s">
-        <v>8437</v>
+        <v>8433</v>
       </c>
       <c r="F119" s="53"/>
       <c r="G119" s="54" t="b">
@@ -41638,10 +41638,10 @@
     <row r="120" spans="2:7" ht="14">
       <c r="B120" s="12"/>
       <c r="D120" s="53" t="s">
-        <v>8471</v>
+        <v>8467</v>
       </c>
       <c r="E120" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F120" s="53"/>
       <c r="G120" s="54" t="b">
@@ -41651,13 +41651,13 @@
     <row r="121" spans="2:7" ht="14">
       <c r="B121" s="12"/>
       <c r="D121" s="53" t="s">
-        <v>8470</v>
+        <v>8466</v>
       </c>
       <c r="E121" s="54" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F121" s="53" t="s">
-        <v>8469</v>
+        <v>8465</v>
       </c>
       <c r="G121" s="54" t="b">
         <v>0</v>
@@ -41666,10 +41666,10 @@
     <row r="122" spans="2:7" ht="14">
       <c r="B122" s="12"/>
       <c r="D122" s="53" t="s">
-        <v>8468</v>
+        <v>8464</v>
       </c>
       <c r="E122" s="53" t="s">
-        <v>8437</v>
+        <v>8433</v>
       </c>
       <c r="F122" s="53"/>
       <c r="G122" s="54" t="b">
@@ -41679,10 +41679,10 @@
     <row r="123" spans="2:7" ht="14">
       <c r="B123" s="12"/>
       <c r="D123" s="53" t="s">
-        <v>8467</v>
+        <v>8463</v>
       </c>
       <c r="E123" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F123" s="53"/>
       <c r="G123" s="54" t="b">
@@ -41692,10 +41692,10 @@
     <row r="124" spans="2:7" ht="14">
       <c r="B124" s="12"/>
       <c r="D124" s="53" t="s">
-        <v>8466</v>
+        <v>8462</v>
       </c>
       <c r="E124" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F124" s="53"/>
       <c r="G124" s="54" t="b">
@@ -41705,10 +41705,10 @@
     <row r="125" spans="2:7" ht="14">
       <c r="B125" s="12"/>
       <c r="D125" s="53" t="s">
-        <v>8465</v>
+        <v>8461</v>
       </c>
       <c r="E125" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F125" s="53"/>
       <c r="G125" s="54" t="b">
@@ -41718,10 +41718,10 @@
     <row r="126" spans="2:7" ht="14">
       <c r="B126" s="12"/>
       <c r="D126" s="53" t="s">
-        <v>8464</v>
+        <v>8460</v>
       </c>
       <c r="E126" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F126" s="53"/>
       <c r="G126" s="54" t="b">
@@ -41738,11 +41738,11 @@
     <row r="128" spans="2:7" ht="14">
       <c r="B128" s="12"/>
       <c r="D128" s="54" t="s">
-        <v>8463</v>
+        <v>8459</v>
       </c>
       <c r="E128" s="55"/>
       <c r="F128" s="53" t="s">
-        <v>8462</v>
+        <v>8458</v>
       </c>
       <c r="G128" s="54" t="b">
         <v>0</v>
@@ -41751,10 +41751,10 @@
     <row r="129" spans="2:7" ht="14">
       <c r="B129" s="12"/>
       <c r="D129" s="53" t="s">
-        <v>8461</v>
+        <v>8457</v>
       </c>
       <c r="E129" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F129" s="53"/>
       <c r="G129" s="54" t="b">
@@ -41764,10 +41764,10 @@
     <row r="130" spans="2:7" ht="14">
       <c r="B130" s="12"/>
       <c r="D130" s="54" t="s">
-        <v>8460</v>
+        <v>8456</v>
       </c>
       <c r="E130" s="54" t="s">
-        <v>8459</v>
+        <v>8455</v>
       </c>
       <c r="F130" s="53"/>
       <c r="G130" s="54" t="b">
@@ -41777,10 +41777,10 @@
     <row r="131" spans="2:7" ht="14">
       <c r="B131" s="12"/>
       <c r="D131" s="53" t="s">
-        <v>8458</v>
+        <v>8454</v>
       </c>
       <c r="E131" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F131" s="53"/>
       <c r="G131" s="54" t="b">
@@ -41790,10 +41790,10 @@
     <row r="132" spans="2:7" ht="14">
       <c r="B132" s="12"/>
       <c r="D132" s="54" t="s">
-        <v>8457</v>
+        <v>8453</v>
       </c>
       <c r="E132" s="54" t="s">
-        <v>8456</v>
+        <v>8452</v>
       </c>
       <c r="F132" s="53"/>
       <c r="G132" s="54" t="b">
@@ -41803,10 +41803,10 @@
     <row r="133" spans="2:7" ht="14">
       <c r="B133" s="12"/>
       <c r="D133" s="54" t="s">
-        <v>8455</v>
+        <v>8451</v>
       </c>
       <c r="E133" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F133" s="53"/>
       <c r="G133" s="54" t="b">
@@ -41816,10 +41816,10 @@
     <row r="134" spans="2:7" ht="14">
       <c r="B134" s="12"/>
       <c r="D134" s="53" t="s">
-        <v>8454</v>
+        <v>8450</v>
       </c>
       <c r="E134" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F134" s="53"/>
       <c r="G134" s="54" t="b">
@@ -41836,10 +41836,10 @@
     <row r="136" spans="2:7" ht="14">
       <c r="B136" s="12"/>
       <c r="D136" s="53" t="s">
-        <v>8453</v>
+        <v>8449</v>
       </c>
       <c r="E136" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F136" s="53"/>
       <c r="G136" s="54" t="b">
@@ -41849,10 +41849,10 @@
     <row r="137" spans="2:7" ht="14">
       <c r="B137" s="12"/>
       <c r="D137" s="53" t="s">
-        <v>8452</v>
+        <v>8448</v>
       </c>
       <c r="E137" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F137" s="53"/>
       <c r="G137" s="54" t="b">
@@ -41862,13 +41862,13 @@
     <row r="138" spans="2:7" ht="14">
       <c r="B138" s="12"/>
       <c r="D138" s="53" t="s">
-        <v>8451</v>
+        <v>8447</v>
       </c>
       <c r="E138" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F138" s="53" t="s">
-        <v>8450</v>
+        <v>8446</v>
       </c>
       <c r="G138" s="54" t="b">
         <v>0</v>
@@ -41877,10 +41877,10 @@
     <row r="139" spans="2:7" ht="14">
       <c r="B139" s="12"/>
       <c r="D139" s="53" t="s">
-        <v>8449</v>
+        <v>8445</v>
       </c>
       <c r="E139" s="54" t="s">
-        <v>8444</v>
+        <v>8440</v>
       </c>
       <c r="F139" s="53"/>
       <c r="G139" s="54" t="b">
@@ -41890,10 +41890,10 @@
     <row r="140" spans="2:7" ht="14">
       <c r="B140" s="12"/>
       <c r="D140" s="53" t="s">
-        <v>8448</v>
+        <v>8444</v>
       </c>
       <c r="E140" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F140" s="53"/>
       <c r="G140" s="54" t="b">
@@ -41903,10 +41903,10 @@
     <row r="141" spans="2:7" ht="14">
       <c r="B141" s="12"/>
       <c r="D141" s="53" t="s">
-        <v>8447</v>
+        <v>8443</v>
       </c>
       <c r="E141" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F141" s="53"/>
       <c r="G141" s="54" t="b">
@@ -41923,10 +41923,10 @@
     <row r="143" spans="2:7" ht="14">
       <c r="B143" s="12"/>
       <c r="D143" s="53" t="s">
-        <v>8446</v>
+        <v>8442</v>
       </c>
       <c r="E143" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F143" s="53"/>
       <c r="G143" s="54" t="b">
@@ -41936,10 +41936,10 @@
     <row r="144" spans="2:7" ht="14">
       <c r="B144" s="12"/>
       <c r="D144" s="53" t="s">
-        <v>8445</v>
+        <v>8441</v>
       </c>
       <c r="E144" s="54" t="s">
-        <v>8444</v>
+        <v>8440</v>
       </c>
       <c r="F144" s="53"/>
       <c r="G144" s="54" t="b">
@@ -41949,11 +41949,11 @@
     <row r="145" spans="2:7" ht="14">
       <c r="B145" s="12"/>
       <c r="D145" s="53" t="s">
-        <v>8443</v>
+        <v>8439</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="53" t="s">
-        <v>8442</v>
+        <v>8438</v>
       </c>
       <c r="G145" s="54" t="b">
         <v>0</v>
@@ -41962,7 +41962,7 @@
     <row r="146" spans="2:7" ht="14">
       <c r="B146" s="12"/>
       <c r="D146" s="54" t="s">
-        <v>8441</v>
+        <v>8437</v>
       </c>
       <c r="E146" s="54"/>
       <c r="F146" s="53"/>
@@ -41973,7 +41973,7 @@
     <row r="147" spans="2:7" ht="14">
       <c r="B147" s="12"/>
       <c r="D147" s="54" t="s">
-        <v>8440</v>
+        <v>8436</v>
       </c>
       <c r="E147" s="54"/>
       <c r="F147" s="53"/>
@@ -41984,10 +41984,10 @@
     <row r="148" spans="2:7" ht="14">
       <c r="B148" s="12"/>
       <c r="D148" s="53" t="s">
-        <v>8439</v>
+        <v>8435</v>
       </c>
       <c r="E148" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F148" s="53"/>
       <c r="G148" s="54" t="b">
@@ -41997,10 +41997,10 @@
     <row r="149" spans="2:7" ht="14">
       <c r="B149" s="12"/>
       <c r="D149" s="53" t="s">
-        <v>8438</v>
+        <v>8434</v>
       </c>
       <c r="E149" s="53" t="s">
-        <v>8437</v>
+        <v>8433</v>
       </c>
       <c r="F149" s="53"/>
       <c r="G149" s="54" t="b">
@@ -42010,10 +42010,10 @@
     <row r="150" spans="2:7" ht="14">
       <c r="B150" s="12"/>
       <c r="D150" s="53" t="s">
-        <v>8436</v>
+        <v>8432</v>
       </c>
       <c r="E150" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F150" s="53"/>
       <c r="G150" s="54" t="b">
@@ -42023,10 +42023,10 @@
     <row r="151" spans="2:7" ht="14">
       <c r="B151" s="12"/>
       <c r="D151" s="53" t="s">
-        <v>8435</v>
+        <v>8431</v>
       </c>
       <c r="E151" s="53" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F151" s="53"/>
       <c r="G151" s="54" t="b">
@@ -42036,10 +42036,10 @@
     <row r="152" spans="2:7" ht="14">
       <c r="B152" s="12"/>
       <c r="D152" s="53" t="s">
-        <v>8434</v>
+        <v>8430</v>
       </c>
       <c r="E152" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F152" s="53"/>
       <c r="G152" s="54" t="b">
@@ -42049,10 +42049,10 @@
     <row r="153" spans="2:7" ht="14">
       <c r="B153" s="12"/>
       <c r="D153" s="53" t="s">
-        <v>8433</v>
+        <v>8429</v>
       </c>
       <c r="E153" s="54" t="s">
-        <v>8432</v>
+        <v>8428</v>
       </c>
       <c r="F153" s="53"/>
       <c r="G153" s="54" t="b">
@@ -42062,10 +42062,10 @@
     <row r="154" spans="2:7" ht="14">
       <c r="B154" s="12"/>
       <c r="D154" s="53" t="s">
-        <v>8431</v>
+        <v>8427</v>
       </c>
       <c r="E154" s="54" t="s">
-        <v>8430</v>
+        <v>8426</v>
       </c>
       <c r="F154" s="53"/>
       <c r="G154" s="54" t="b">
@@ -42840,7 +42840,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>8497</v>
+        <v>8493</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1428</v>
@@ -42851,7 +42851,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>8548</v>
+        <v>8544</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>$A$2</f>
@@ -42887,7 +42887,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>8549</v>
+        <v>8545</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>$A$2</f>
@@ -42923,7 +42923,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>8514</v>
+        <v>8510</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>$A$2</f>
@@ -42947,7 +42947,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>8404</v>
+        <v>8400</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>$A$4</f>
@@ -42995,7 +42995,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>8498</v>
+        <v>8494</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -43025,17 +43025,17 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>8428</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="7" t="s">
-        <v>8429</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>8427</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -43229,99 +43229,99 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>8499</v>
+        <v>8495</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>8276</v>
+        <v>8272</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8415</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>8414</v>
+        <v>8410</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>8416</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>8422</v>
+        <v>8418</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8417</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>8423</v>
+        <v>8419</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8418</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>8424</v>
+        <v>8420</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8419</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>8205</v>
+        <v>8201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>8420</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>8027</v>
+        <v>8023</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>8421</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>8500</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>8495</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>8496</v>
+        <v>8492</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>8501</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>8405</v>
+        <v>8401</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8406</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>8407</v>
+        <v>8403</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8408</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -43329,71 +43329,71 @@
         <v>185</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8409</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>8410</v>
+        <v>8406</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>8411</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>8268</v>
+        <v>8264</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8412</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>8413</v>
+        <v>8409</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8412</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>8550</v>
+        <v>8546</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>8551</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>8552</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>8553</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>8554</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>8555</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>8557</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="62" t="s">
-        <v>8558</v>
+        <v>8554</v>
       </c>
       <c r="B94" s="68">
         <v>41804</v>
@@ -43401,7 +43401,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="62" t="s">
-        <v>8559</v>
+        <v>8555</v>
       </c>
       <c r="B95" s="68">
         <v>41805</v>
@@ -43409,7 +43409,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="62" t="s">
-        <v>8741</v>
+        <v>8737</v>
       </c>
       <c r="B96" s="68">
         <v>41806</v>
@@ -43417,7 +43417,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="62" t="s">
-        <v>8740</v>
+        <v>8736</v>
       </c>
       <c r="B97" s="68">
         <v>41813</v>
@@ -43425,7 +43425,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="62" t="s">
-        <v>8744</v>
+        <v>8740</v>
       </c>
       <c r="B98" s="68">
         <v>41868</v>
@@ -43433,10 +43433,10 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="62" t="s">
-        <v>8560</v>
+        <v>8556</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8742</v>
+        <v>8738</v>
       </c>
     </row>
   </sheetData>
@@ -43458,7 +43458,7 @@
   <dimension ref="A1:J6104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -43469,7 +43469,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="36" t="s">
-        <v>7576</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -43504,28 +43504,12 @@
       <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35" t="s">
-        <v>7512</v>
-      </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35" t="s">
-        <v>7511</v>
-      </c>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="35" t="s">
-        <v>7510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="35" t="s">
-        <v>7509</v>
-      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="35" t="s">
@@ -73942,12 +73926,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>8508</v>
+        <v>8504</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>8286</v>
+        <v>8282</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -73982,10 +73966,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8285</v>
+        <v>8281</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>8284</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
@@ -74016,10 +74000,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>8283</v>
+        <v>8279</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>8282</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -74050,10 +74034,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>8281</v>
+        <v>8277</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>8280</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
@@ -74084,10 +74068,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>8279</v>
+        <v>8275</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>8278</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -74118,10 +74102,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>8277</v>
+        <v>8273</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>8276</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -74152,10 +74136,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>8275</v>
+        <v>8271</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>8274</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -74186,10 +74170,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>8273</v>
+        <v>8269</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>8272</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -74220,10 +74204,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>8271</v>
+        <v>8267</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>8270</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
@@ -74254,10 +74238,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>8269</v>
+        <v>8265</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>8268</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -74288,10 +74272,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>8267</v>
+        <v>8263</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>8266</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -74319,13 +74303,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7518</v>
+        <v>7514</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>8265</v>
+        <v>8261</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>8264</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
@@ -74353,13 +74337,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7517</v>
+        <v>7513</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>8263</v>
+        <v>8259</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>8262</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
@@ -74387,13 +74371,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7516</v>
+        <v>7512</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>8261</v>
+        <v>8257</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>8260</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
@@ -74421,13 +74405,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7515</v>
+        <v>7511</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>8259</v>
+        <v>8255</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>8258</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
@@ -74455,13 +74439,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7514</v>
+        <v>7510</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>8257</v>
+        <v>8253</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>8256</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -74489,13 +74473,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7513</v>
+        <v>7509</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>8255</v>
+        <v>8251</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>8254</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -74526,10 +74510,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>8253</v>
+        <v>8249</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>8252</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -74560,10 +74544,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>8251</v>
+        <v>8247</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>8250</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -74594,10 +74578,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>8249</v>
+        <v>8245</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>8248</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -74628,10 +74612,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>8247</v>
+        <v>8243</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>8246</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
@@ -74662,10 +74646,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>8245</v>
+        <v>8241</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>8244</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
@@ -74696,10 +74680,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>8243</v>
+        <v>8239</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>8242</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
@@ -74730,10 +74714,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>8241</v>
+        <v>8237</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>8240</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
@@ -74764,10 +74748,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>8239</v>
+        <v>8235</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>8238</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -74798,10 +74782,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>8237</v>
+        <v>8233</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>8236</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
@@ -74832,10 +74816,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>8235</v>
+        <v>8231</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>8234</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
@@ -74866,10 +74850,10 @@
         <v>7489</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>8233</v>
+        <v>8229</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>8232</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
@@ -74900,10 +74884,10 @@
         <v>7488</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>8231</v>
+        <v>8227</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>8230</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
@@ -74934,10 +74918,10 @@
         <v>7487</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>8229</v>
+        <v>8225</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>8228</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
@@ -74968,10 +74952,10 @@
         <v>7486</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>8227</v>
+        <v>8223</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>8226</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
@@ -75002,10 +74986,10 @@
         <v>7485</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>8225</v>
+        <v>8221</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>8224</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
@@ -75036,10 +75020,10 @@
         <v>7484</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>8223</v>
+        <v>8219</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>8222</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
@@ -75070,10 +75054,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>8221</v>
+        <v>8217</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>8220</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
@@ -75104,10 +75088,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>8219</v>
+        <v>8215</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>8218</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
@@ -75138,10 +75122,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>8217</v>
+        <v>8213</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>8216</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
@@ -75172,10 +75156,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>8215</v>
+        <v>8211</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>8214</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
@@ -75206,10 +75190,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>8213</v>
+        <v>8209</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>8212</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
@@ -75240,10 +75224,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>8211</v>
+        <v>8207</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>8210</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
@@ -75274,10 +75258,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>8209</v>
+        <v>8205</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>8208</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="24">
@@ -75308,10 +75292,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>8207</v>
+        <v>8203</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>8206</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13">
@@ -75342,10 +75326,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7811</v>
+        <v>7807</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>8205</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13">
@@ -75376,10 +75360,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>8204</v>
+        <v>8200</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>8203</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="24">
@@ -75410,10 +75394,10 @@
         <v>7427</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>8202</v>
+        <v>8198</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>8201</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="24">
@@ -75444,10 +75428,10 @@
         <v>7426</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>8200</v>
+        <v>8196</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>8199</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="24">
@@ -75478,10 +75462,10 @@
         <v>7425</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>8198</v>
+        <v>8194</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>8197</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="24">
@@ -75512,10 +75496,10 @@
         <v>7424</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>8195</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="24">
@@ -75546,10 +75530,10 @@
         <v>7423</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>8194</v>
+        <v>8190</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>8193</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="24">
@@ -75580,10 +75564,10 @@
         <v>7422</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>8192</v>
+        <v>8188</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>8191</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="24">
@@ -75614,10 +75598,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>8190</v>
+        <v>8186</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>8189</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="24">
@@ -75648,10 +75632,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>8188</v>
+        <v>8184</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>8187</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13">
@@ -75682,10 +75666,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>8186</v>
+        <v>8182</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>8185</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24">
@@ -75716,10 +75700,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>8184</v>
+        <v>8180</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>8183</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="24">
@@ -75750,10 +75734,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>8182</v>
+        <v>8178</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>8181</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13">
@@ -75784,10 +75768,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>8180</v>
+        <v>8176</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>8179</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="24">
@@ -75818,10 +75802,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>8178</v>
+        <v>8174</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>8177</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="26">
@@ -75852,10 +75836,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>8176</v>
+        <v>8172</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>8175</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="26">
@@ -75886,10 +75870,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>8174</v>
+        <v>8170</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>8173</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="24">
@@ -75920,10 +75904,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>8172</v>
+        <v>8168</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>8171</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="24">
@@ -75954,10 +75938,10 @@
         <v>7365</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>8169</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="26">
@@ -75988,10 +75972,10 @@
         <v>7364</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>8168</v>
+        <v>8164</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>8167</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="24">
@@ -76022,10 +76006,10 @@
         <v>7363</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>8166</v>
+        <v>8162</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>8165</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="24">
@@ -76056,10 +76040,10 @@
         <v>7362</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>8164</v>
+        <v>8160</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>8163</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13">
@@ -76090,10 +76074,10 @@
         <v>7361</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>8162</v>
+        <v>8158</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>8161</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13">
@@ -76124,10 +76108,10 @@
         <v>7360</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>8160</v>
+        <v>8156</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>8159</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="24">
@@ -76158,10 +76142,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>8158</v>
+        <v>8154</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>8157</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13">
@@ -76192,10 +76176,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>8156</v>
+        <v>8152</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>8155</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="24">
@@ -76226,10 +76210,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>8154</v>
+        <v>8150</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>8153</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="13">
@@ -76260,10 +76244,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>8152</v>
+        <v>8148</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>8151</v>
+        <v>8147</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="24">
@@ -76294,10 +76278,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>8150</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13">
@@ -76328,10 +76312,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>8149</v>
+        <v>8145</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>8148</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="24">
@@ -76362,10 +76346,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="24">
@@ -76396,10 +76380,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13">
@@ -76430,10 +76414,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>8143</v>
+        <v>8139</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13">
@@ -76464,10 +76448,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>8141</v>
+        <v>8137</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13">
@@ -76498,10 +76482,10 @@
         <v>7303</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7783</v>
+        <v>7779</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>8139</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13">
@@ -76532,10 +76516,10 @@
         <v>7302</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13">
@@ -76566,10 +76550,10 @@
         <v>7301</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13">
@@ -76600,10 +76584,10 @@
         <v>7300</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>8134</v>
+        <v>8130</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13">
@@ -76634,10 +76618,10 @@
         <v>7299</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="24">
@@ -76668,10 +76652,10 @@
         <v>7298</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>8130</v>
+        <v>8126</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>8129</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13">
@@ -76702,10 +76686,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>8128</v>
+        <v>8124</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>8127</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13">
@@ -76736,10 +76720,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>8126</v>
+        <v>8122</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7760</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13">
@@ -76770,10 +76754,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7759</v>
+        <v>7755</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>8125</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="13">
@@ -76804,10 +76788,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>8124</v>
+        <v>8120</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>8123</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13">
@@ -76838,10 +76822,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>8122</v>
+        <v>8118</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>8121</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13">
@@ -76872,10 +76856,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>8120</v>
+        <v>8116</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>8119</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="24">
@@ -76906,10 +76890,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>8118</v>
+        <v>8114</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>8117</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="26">
@@ -76940,10 +76924,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>8116</v>
+        <v>8112</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>8115</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="13">
@@ -76974,10 +76958,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>8114</v>
+        <v>8110</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>8113</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13">
@@ -77008,10 +76992,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>8112</v>
+        <v>8108</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>8111</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12">
@@ -77042,10 +77026,10 @@
         <v>7241</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>8110</v>
+        <v>8106</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>8109</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="13">
@@ -77076,10 +77060,10 @@
         <v>7240</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>8108</v>
+        <v>8104</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>8107</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="24">
@@ -77110,10 +77094,10 @@
         <v>7239</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>8106</v>
+        <v>8102</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>8105</v>
+        <v>8101</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12">
@@ -77144,10 +77128,10 @@
         <v>7238</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>8104</v>
+        <v>8100</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>8103</v>
+        <v>8099</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="24">
@@ -77178,10 +77162,10 @@
         <v>7237</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>8102</v>
+        <v>8098</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>8101</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12">
@@ -77212,10 +77196,10 @@
         <v>7236</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>8100</v>
+        <v>8096</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>8099</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="13">
@@ -77246,10 +77230,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>8098</v>
+        <v>8094</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>8097</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="13">
@@ -77280,7 +77264,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>8096</v>
+        <v>8092</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -77314,10 +77298,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7741</v>
+        <v>7737</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>8095</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13">
@@ -77348,10 +77332,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7887</v>
+        <v>7883</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>8094</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13">
@@ -77382,10 +77366,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>8093</v>
+        <v>8089</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>8092</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13">
@@ -77416,10 +77400,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>8091</v>
+        <v>8087</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>8090</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12">
@@ -77450,10 +77434,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>8089</v>
+        <v>8085</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>8088</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12">
@@ -77484,10 +77468,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>8087</v>
+        <v>8083</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>8086</v>
+        <v>8082</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13">
@@ -77518,10 +77502,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>8085</v>
+        <v>8081</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7718</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="24">
@@ -77552,10 +77536,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>8084</v>
+        <v>8080</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>8083</v>
+        <v>8079</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="24">
@@ -77586,10 +77570,10 @@
         <v>7179</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>8082</v>
+        <v>8078</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>8081</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="13">
@@ -77620,10 +77604,10 @@
         <v>7178</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>8080</v>
+        <v>8076</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>8079</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="24">
@@ -77654,10 +77638,10 @@
         <v>7177</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>8078</v>
+        <v>8074</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>8077</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="13">
@@ -77688,10 +77672,10 @@
         <v>7176</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>8076</v>
+        <v>8072</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>8075</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="24">
@@ -77722,10 +77706,10 @@
         <v>7175</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>8074</v>
+        <v>8070</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>8073</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="13">
@@ -77756,10 +77740,10 @@
         <v>7174</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>8072</v>
+        <v>8068</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>8071</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="24">
@@ -77790,10 +77774,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>8070</v>
+        <v>8066</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>8069</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="13">
@@ -77824,10 +77808,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>8068</v>
+        <v>8064</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>8067</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="13">
@@ -77858,10 +77842,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>8066</v>
+        <v>8062</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>8065</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="24">
@@ -77892,10 +77876,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>8064</v>
+        <v>8060</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>8063</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="24">
@@ -77926,10 +77910,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7695</v>
+        <v>7691</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>8062</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12">
@@ -77960,10 +77944,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>8061</v>
+        <v>8057</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>8060</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="24">
@@ -77994,10 +77978,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>8059</v>
+        <v>8055</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>8058</v>
+        <v>8054</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="13">
@@ -78028,10 +78012,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>8057</v>
+        <v>8053</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>8056</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="26">
@@ -78062,10 +78046,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>8055</v>
+        <v>8051</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>8054</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="24">
@@ -78096,10 +78080,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>8053</v>
+        <v>8049</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>8052</v>
+        <v>8048</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="24">
@@ -78130,10 +78114,10 @@
         <v>7117</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>8051</v>
+        <v>8047</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>8050</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="24">
@@ -78164,10 +78148,10 @@
         <v>7116</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7691</v>
+        <v>7687</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>8049</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="13">
@@ -78198,10 +78182,10 @@
         <v>7115</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7689</v>
+        <v>7685</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>8048</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="13">
@@ -78232,10 +78216,10 @@
         <v>7114</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>8047</v>
+        <v>8043</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>8046</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="24">
@@ -78266,10 +78250,10 @@
         <v>7113</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>8045</v>
+        <v>8041</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>8044</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12">
@@ -78300,10 +78284,10 @@
         <v>7112</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>8043</v>
+        <v>8039</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>8042</v>
+        <v>8038</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="26">
@@ -78334,10 +78318,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>8041</v>
+        <v>8037</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>8040</v>
+        <v>8036</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="13">
@@ -78368,10 +78352,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>8039</v>
+        <v>8035</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>8038</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="24">
@@ -78402,10 +78386,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>8037</v>
+        <v>8033</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>8036</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="24">
@@ -78436,10 +78420,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>8035</v>
+        <v>8031</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>8034</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="13">
@@ -78470,10 +78454,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>8033</v>
+        <v>8029</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>8032</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="13">
@@ -78504,10 +78488,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>8031</v>
+        <v>8027</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>8030</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="13">
@@ -78538,10 +78522,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>8029</v>
+        <v>8025</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="13">
@@ -78572,10 +78556,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>8028</v>
+        <v>8024</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>8027</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="13">
@@ -78606,10 +78590,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>8026</v>
+        <v>8022</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>8025</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="24">
@@ -78640,10 +78624,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>8024</v>
+        <v>8020</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>8023</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="24">
@@ -78674,10 +78658,10 @@
         <v>7055</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>8022</v>
+        <v>8018</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>8021</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13">
@@ -78708,10 +78692,10 @@
         <v>7054</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>8020</v>
+        <v>8016</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>8019</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="24">
@@ -78742,10 +78726,10 @@
         <v>7053</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>8018</v>
+        <v>8014</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>8017</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12">
@@ -78776,10 +78760,10 @@
         <v>7052</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>8016</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="24">
@@ -78810,10 +78794,10 @@
         <v>7051</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>8015</v>
+        <v>8011</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>8014</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="13">
@@ -78844,10 +78828,10 @@
         <v>7050</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>8013</v>
+        <v>8009</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>8012</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="24">
@@ -78878,10 +78862,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>8011</v>
+        <v>8007</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>8010</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="13">
@@ -78912,10 +78896,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>8009</v>
+        <v>8005</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>8008</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="24">
@@ -78946,10 +78930,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>8007</v>
+        <v>8003</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>8006</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="24">
@@ -78980,10 +78964,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>8005</v>
+        <v>8001</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>8004</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="26">
@@ -79014,10 +78998,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>8003</v>
+        <v>7999</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>8002</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="13">
@@ -79048,10 +79032,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>8001</v>
+        <v>7997</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7700</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="13">
@@ -79082,10 +79066,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>8000</v>
+        <v>7996</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>7999</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="24">
@@ -79116,10 +79100,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7998</v>
+        <v>7994</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7997</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="26">
@@ -79150,10 +79134,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7996</v>
+        <v>7992</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7995</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12">
@@ -79185,7 +79169,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12">
@@ -79217,7 +79201,7 @@
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12">
@@ -79249,7 +79233,7 @@
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12">
@@ -79281,7 +79265,7 @@
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12">
@@ -79313,7 +79297,7 @@
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12">
@@ -79345,7 +79329,7 @@
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12">
@@ -79377,7 +79361,7 @@
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12">
@@ -79409,7 +79393,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="24">
@@ -79440,10 +79424,10 @@
         <v>5354</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7994</v>
+        <v>7990</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>7993</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="24">
@@ -79474,10 +79458,10 @@
         <v>5353</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7992</v>
+        <v>7988</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>7991</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="26">
@@ -79508,10 +79492,10 @@
         <v>5352</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7990</v>
+        <v>7986</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7989</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="13">
@@ -79542,7 +79526,7 @@
         <v>5351</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7988</v>
+        <v>7984</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -79576,10 +79560,10 @@
         <v>5350</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7987</v>
+        <v>7983</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7986</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="26">
@@ -79610,10 +79594,10 @@
         <v>5349</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7985</v>
+        <v>7981</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7984</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12">
@@ -79645,7 +79629,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12">
@@ -79677,7 +79661,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12">
@@ -79709,7 +79693,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12">
@@ -79741,7 +79725,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12">
@@ -79773,7 +79757,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12">
@@ -79805,7 +79789,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12">
@@ -79837,7 +79821,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12">
@@ -79869,7 +79853,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12">
@@ -79901,7 +79885,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="13">
@@ -79929,13 +79913,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7983</v>
+        <v>7979</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7982</v>
+        <v>7978</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7981</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="13">
@@ -79963,13 +79947,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7980</v>
+        <v>7976</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7979</v>
+        <v>7975</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7978</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="24">
@@ -79997,13 +79981,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7977</v>
+        <v>7973</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7976</v>
+        <v>7972</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7975</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="24">
@@ -80031,13 +80015,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7974</v>
+        <v>7970</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7973</v>
+        <v>7969</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7972</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="13">
@@ -80065,13 +80049,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7971</v>
+        <v>7967</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7970</v>
+        <v>7966</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7969</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="13">
@@ -80099,13 +80083,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7968</v>
+        <v>7964</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7967</v>
+        <v>7963</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7966</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="24">
@@ -80133,13 +80117,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7965</v>
+        <v>7961</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7964</v>
+        <v>7960</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7963</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="13">
@@ -80167,13 +80151,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7962</v>
+        <v>7958</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7961</v>
+        <v>7957</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7960</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="24">
@@ -80201,13 +80185,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7959</v>
+        <v>7955</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7958</v>
+        <v>7954</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7957</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="24">
@@ -80235,13 +80219,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7956</v>
+        <v>7952</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7955</v>
+        <v>7951</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7954</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="13">
@@ -80269,13 +80253,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7953</v>
+        <v>7949</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7952</v>
+        <v>7948</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7951</v>
+        <v>7947</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="13">
@@ -80303,13 +80287,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7950</v>
+        <v>7946</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7949</v>
+        <v>7945</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7948</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12">
@@ -80334,11 +80318,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7947</v>
+        <v>7943</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12">
@@ -80363,11 +80347,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7946</v>
+        <v>7942</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12">
@@ -80392,11 +80376,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7945</v>
+        <v>7941</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12">
@@ -80421,11 +80405,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7944</v>
+        <v>7940</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
   </sheetData>
@@ -80461,7 +80445,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8509</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
@@ -80492,10 +80476,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7943</v>
+        <v>7939</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7942</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
@@ -80526,10 +80510,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7941</v>
+        <v>7937</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7940</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -80560,10 +80544,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7939</v>
+        <v>7935</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7938</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
@@ -80594,10 +80578,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7937</v>
+        <v>7933</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7936</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -80628,10 +80612,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7935</v>
+        <v>7931</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7934</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -80662,10 +80646,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7933</v>
+        <v>7929</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7932</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -80696,10 +80680,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7931</v>
+        <v>7927</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7930</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -80730,10 +80714,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7929</v>
+        <v>7925</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7928</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
@@ -80764,10 +80748,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7927</v>
+        <v>7923</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7926</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -80798,10 +80782,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7925</v>
+        <v>7921</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7924</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -80829,13 +80813,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7923</v>
+        <v>7919</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7922</v>
+        <v>7918</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7921</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
@@ -80866,10 +80850,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7920</v>
+        <v>7916</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7919</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
@@ -80900,10 +80884,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7918</v>
+        <v>7914</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7917</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
@@ -80931,13 +80915,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7916</v>
+        <v>7912</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7915</v>
+        <v>7911</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7914</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
@@ -80965,13 +80949,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7913</v>
+        <v>7909</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7912</v>
+        <v>7908</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7911</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -81002,10 +80986,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7910</v>
+        <v>7906</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7909</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -81036,10 +81020,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7908</v>
+        <v>7904</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7907</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -81070,10 +81054,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7906</v>
+        <v>7902</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7905</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -81104,10 +81088,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7904</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7903</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -81138,10 +81122,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7902</v>
+        <v>7898</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7901</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
@@ -81172,10 +81156,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7900</v>
+        <v>7896</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7899</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
@@ -81206,10 +81190,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7898</v>
+        <v>7894</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7897</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
@@ -81240,10 +81224,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7896</v>
+        <v>7892</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7895</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
@@ -81274,10 +81258,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7894</v>
+        <v>7890</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7893</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -81308,10 +81292,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7892</v>
+        <v>7888</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7891</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
@@ -81342,10 +81326,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7890</v>
+        <v>7886</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7889</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
@@ -81373,13 +81357,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7888</v>
+        <v>7884</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7887</v>
+        <v>7883</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7886</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
@@ -81407,13 +81391,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7885</v>
+        <v>7881</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7884</v>
+        <v>7880</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7883</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
@@ -81441,13 +81425,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7882</v>
+        <v>7878</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7881</v>
+        <v>7877</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7880</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
@@ -81475,13 +81459,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7575</v>
+        <v>7571</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7879</v>
+        <v>7875</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7878</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
@@ -81509,13 +81493,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7877</v>
+        <v>7873</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7876</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
@@ -81543,13 +81527,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7573</v>
+        <v>7569</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7875</v>
+        <v>7871</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7874</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
@@ -81580,10 +81564,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7873</v>
+        <v>7869</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7872</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
@@ -81614,10 +81598,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7871</v>
+        <v>7867</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7870</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
@@ -81648,10 +81632,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7869</v>
+        <v>7865</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7868</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
@@ -81682,10 +81666,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7867</v>
+        <v>7863</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7866</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
@@ -81716,10 +81700,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7865</v>
+        <v>7861</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7864</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
@@ -81750,10 +81734,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7863</v>
+        <v>7859</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7862</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
@@ -81784,10 +81768,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7861</v>
+        <v>7857</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7860</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -81818,10 +81802,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7859</v>
+        <v>7855</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7858</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13">
@@ -81852,10 +81836,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7857</v>
+        <v>7853</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7856</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13">
@@ -81886,10 +81870,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7855</v>
+        <v>7851</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7854</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13">
@@ -81917,13 +81901,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7853</v>
+        <v>7849</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7852</v>
+        <v>7848</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7851</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12">
@@ -81951,13 +81935,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7850</v>
+        <v>7846</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7849</v>
+        <v>7845</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7848</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12">
@@ -81985,13 +81969,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7847</v>
+        <v>7843</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7846</v>
+        <v>7842</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7845</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="13">
@@ -82019,13 +82003,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7844</v>
+        <v>7840</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7843</v>
+        <v>7839</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7842</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="13">
@@ -82053,13 +82037,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7841</v>
+        <v>7837</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7840</v>
+        <v>7836</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7839</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13">
@@ -82087,13 +82071,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7838</v>
+        <v>7834</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7836</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13">
@@ -82124,10 +82108,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7835</v>
+        <v>7831</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7834</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13">
@@ -82158,10 +82142,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7833</v>
+        <v>7829</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7832</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12">
@@ -82192,10 +82176,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7831</v>
+        <v>7827</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7830</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12">
@@ -82226,10 +82210,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7829</v>
+        <v>7825</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7828</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12">
@@ -82260,10 +82244,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7827</v>
+        <v>7823</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7826</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12">
@@ -82294,10 +82278,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7825</v>
+        <v>7821</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7824</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12">
@@ -82328,10 +82312,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7823</v>
+        <v>7819</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7822</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12">
@@ -82362,10 +82346,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7821</v>
+        <v>7817</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7820</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13">
@@ -82396,10 +82380,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7819</v>
+        <v>7815</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7818</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13">
@@ -82430,10 +82414,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7817</v>
+        <v>7813</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7816</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13">
@@ -82461,13 +82445,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7815</v>
+        <v>7811</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7814</v>
+        <v>7810</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7813</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12">
@@ -82495,13 +82479,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7812</v>
+        <v>7808</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7811</v>
+        <v>7807</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7810</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
@@ -82529,13 +82513,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7809</v>
+        <v>7805</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7808</v>
+        <v>7804</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7807</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
@@ -82563,13 +82547,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7806</v>
+        <v>7802</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7805</v>
+        <v>7801</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7804</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12">
@@ -82597,13 +82581,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7803</v>
+        <v>7799</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7802</v>
+        <v>7798</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7801</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12">
@@ -82631,13 +82615,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7800</v>
+        <v>7796</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7799</v>
+        <v>7795</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7798</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12">
@@ -82668,10 +82652,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7796</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12">
@@ -82702,10 +82686,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7795</v>
+        <v>7791</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7794</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12">
@@ -82736,10 +82720,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7793</v>
+        <v>7789</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7792</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12">
@@ -82770,10 +82754,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7791</v>
+        <v>7787</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7790</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12">
@@ -82804,10 +82788,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7789</v>
+        <v>7785</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7788</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12">
@@ -82838,10 +82822,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7787</v>
+        <v>7783</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7786</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="12">
@@ -82872,10 +82856,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7785</v>
+        <v>7781</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7784</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12">
@@ -82906,10 +82890,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7783</v>
+        <v>7779</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7782</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="24">
@@ -82940,10 +82924,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7781</v>
+        <v>7777</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7780</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13">
@@ -82974,10 +82958,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7779</v>
+        <v>7775</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7778</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13">
@@ -83005,13 +82989,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7572</v>
+        <v>7568</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7777</v>
+        <v>7773</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7776</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="12">
@@ -83039,13 +83023,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7775</v>
+        <v>7771</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7774</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12">
@@ -83073,13 +83057,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7570</v>
+        <v>7566</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7773</v>
+        <v>7769</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7772</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12">
@@ -83107,13 +83091,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7771</v>
+        <v>7767</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7770</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
@@ -83141,13 +83125,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7568</v>
+        <v>7564</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7769</v>
+        <v>7765</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7768</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13">
@@ -83175,13 +83159,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7767</v>
+        <v>7763</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7766</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13">
@@ -83212,10 +83196,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7765</v>
+        <v>7761</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7764</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12">
@@ -83246,10 +83230,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7763</v>
+        <v>7759</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7762</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13">
@@ -83280,10 +83264,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7761</v>
+        <v>7757</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7760</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12">
@@ -83314,10 +83298,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7759</v>
+        <v>7755</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7758</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
@@ -83348,10 +83332,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7757</v>
+        <v>7753</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7756</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13">
@@ -83382,10 +83366,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7755</v>
+        <v>7751</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7754</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12">
@@ -83416,10 +83400,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7753</v>
+        <v>7749</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7752</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="13">
@@ -83450,10 +83434,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7750</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="13">
@@ -83484,10 +83468,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7749</v>
+        <v>7745</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7748</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13">
@@ -83518,10 +83502,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7747</v>
+        <v>7743</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7746</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13">
@@ -83549,13 +83533,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7566</v>
+        <v>7562</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7745</v>
+        <v>7741</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7744</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12">
@@ -83583,13 +83567,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7743</v>
+        <v>7739</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7742</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12">
@@ -83617,13 +83601,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7741</v>
+        <v>7737</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7740</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12">
@@ -83651,13 +83635,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7563</v>
+        <v>7559</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7739</v>
+        <v>7735</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7738</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12">
@@ -83685,13 +83669,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7562</v>
+        <v>7558</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7737</v>
+        <v>7733</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7736</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="13">
@@ -83719,13 +83703,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7561</v>
+        <v>7557</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7735</v>
+        <v>7731</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7734</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12">
@@ -83756,10 +83740,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7733</v>
+        <v>7729</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7732</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12">
@@ -83790,10 +83774,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7731</v>
+        <v>7727</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7730</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12">
@@ -83824,10 +83808,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7729</v>
+        <v>7725</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7728</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="24">
@@ -83858,10 +83842,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7727</v>
+        <v>7723</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7726</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="12">
@@ -83892,10 +83876,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7725</v>
+        <v>7721</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7724</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13">
@@ -83926,10 +83910,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7723</v>
+        <v>7719</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7722</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13">
@@ -83960,10 +83944,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7721</v>
+        <v>7717</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7720</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="13">
@@ -83994,10 +83978,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7719</v>
+        <v>7715</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7718</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12">
@@ -84028,10 +84012,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7717</v>
+        <v>7713</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7716</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12">
@@ -84062,10 +84046,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7715</v>
+        <v>7711</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7714</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12">
@@ -84093,13 +84077,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7560</v>
+        <v>7556</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7713</v>
+        <v>7709</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7712</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12">
@@ -84127,13 +84111,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7559</v>
+        <v>7555</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7711</v>
+        <v>7707</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7710</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12">
@@ -84161,13 +84145,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7558</v>
+        <v>7554</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7709</v>
+        <v>7705</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7708</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12">
@@ -84195,13 +84179,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7557</v>
+        <v>7553</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7707</v>
+        <v>7703</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7706</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="13">
@@ -84229,13 +84213,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7556</v>
+        <v>7552</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7705</v>
+        <v>7701</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7704</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="13">
@@ -84263,13 +84247,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7555</v>
+        <v>7551</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7703</v>
+        <v>7699</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7702</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="13">
@@ -84300,10 +84284,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7701</v>
+        <v>7697</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7700</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="13">
@@ -84334,10 +84318,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7699</v>
+        <v>7695</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7698</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12">
@@ -84368,10 +84352,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7697</v>
+        <v>7693</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7696</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12">
@@ -84402,10 +84386,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7695</v>
+        <v>7691</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7694</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12">
@@ -84436,10 +84420,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7693</v>
+        <v>7689</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7692</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12">
@@ -84470,10 +84454,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7691</v>
+        <v>7687</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7690</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12">
@@ -84504,10 +84488,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7689</v>
+        <v>7685</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7688</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12">
@@ -84538,10 +84522,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7687</v>
+        <v>7683</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7686</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12">
@@ -84572,10 +84556,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7685</v>
+        <v>7681</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7684</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="13">
@@ -84606,10 +84590,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7683</v>
+        <v>7679</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7682</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="13">
@@ -84637,13 +84621,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7554</v>
+        <v>7550</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7681</v>
+        <v>7677</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7680</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="13">
@@ -84671,13 +84655,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7553</v>
+        <v>7549</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7679</v>
+        <v>7675</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7678</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="13">
@@ -84705,13 +84689,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7552</v>
+        <v>7548</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7677</v>
+        <v>7673</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7676</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="12">
@@ -84739,13 +84723,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7551</v>
+        <v>7547</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7675</v>
+        <v>7671</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7674</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12">
@@ -84773,13 +84757,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7673</v>
+        <v>7669</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7672</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12">
@@ -84807,13 +84791,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7549</v>
+        <v>7545</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7671</v>
+        <v>7667</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7670</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12">
@@ -84844,10 +84828,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7669</v>
+        <v>7665</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7668</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="13">
@@ -84878,10 +84862,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7667</v>
+        <v>7663</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7666</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12">
@@ -84912,10 +84896,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7664</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12">
@@ -84946,10 +84930,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7663</v>
+        <v>7659</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7662</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12">
@@ -84980,10 +84964,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="13">
@@ -85014,10 +84998,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7659</v>
+        <v>7655</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7658</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12">
@@ -85048,10 +85032,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7657</v>
+        <v>7653</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7656</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12">
@@ -85082,10 +85066,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12">
@@ -85116,10 +85100,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7653</v>
+        <v>7649</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7652</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12">
@@ -85150,10 +85134,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12">
@@ -85181,13 +85165,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7548</v>
+        <v>7544</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7649</v>
+        <v>7645</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12">
@@ -85215,13 +85199,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7547</v>
+        <v>7543</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7647</v>
+        <v>7643</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7646</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12">
@@ -85249,13 +85233,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7644</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12">
@@ -85283,13 +85267,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7545</v>
+        <v>7541</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7643</v>
+        <v>7639</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12">
@@ -85317,13 +85301,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7544</v>
+        <v>7540</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12">
@@ -85351,13 +85335,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7543</v>
+        <v>7539</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7639</v>
+        <v>7635</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12">
@@ -85388,10 +85372,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12">
@@ -85422,10 +85406,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7634</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12">
@@ -85456,10 +85440,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7633</v>
+        <v>7629</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7632</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="36">
@@ -85490,10 +85474,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="36">
@@ -85524,10 +85508,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7629</v>
+        <v>7625</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7628</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="24">
@@ -85558,10 +85542,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7626</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="12">
@@ -85592,10 +85576,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="13">
@@ -85626,10 +85610,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7623</v>
+        <v>7619</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7622</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="13">
@@ -85660,10 +85644,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="13">
@@ -85694,10 +85678,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7619</v>
+        <v>7615</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12">
@@ -85725,13 +85709,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7542</v>
+        <v>7538</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7617</v>
+        <v>7613</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12">
@@ -85759,13 +85743,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7541</v>
+        <v>7537</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12">
@@ -85793,13 +85777,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7540</v>
+        <v>7536</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12">
@@ -85827,13 +85811,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7539</v>
+        <v>7535</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7611</v>
+        <v>7607</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12">
@@ -85861,13 +85845,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7538</v>
+        <v>7534</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7608</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="24">
@@ -85895,13 +85879,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7537</v>
+        <v>7533</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7607</v>
+        <v>7603</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12">
@@ -85929,13 +85913,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7536</v>
+        <v>7532</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7604</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12">
@@ -85963,13 +85947,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7535</v>
+        <v>7531</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7603</v>
+        <v>7599</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7602</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12">
@@ -85997,13 +85981,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7534</v>
+        <v>7530</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12">
@@ -86031,13 +86015,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7533</v>
+        <v>7529</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7598</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12">
@@ -86065,13 +86049,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7532</v>
+        <v>7528</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7597</v>
+        <v>7593</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7596</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="13">
@@ -86099,13 +86083,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7531</v>
+        <v>7527</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="13">
@@ -86133,13 +86117,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7530</v>
+        <v>7526</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7593</v>
+        <v>7589</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7592</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="13">
@@ -86167,13 +86151,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7529</v>
+        <v>7525</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12">
@@ -86201,11 +86185,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7528</v>
+        <v>7524</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12">
@@ -86233,11 +86217,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7527</v>
+        <v>7523</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12">
@@ -86265,13 +86249,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7526</v>
+        <v>7522</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7587</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12">
@@ -86299,13 +86283,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7525</v>
+        <v>7521</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="13">
@@ -86333,13 +86317,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7524</v>
+        <v>7520</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7584</v>
+        <v>7580</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="13">
@@ -86367,13 +86351,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7523</v>
+        <v>7519</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7582</v>
+        <v>7578</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7581</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="13">
@@ -86401,13 +86385,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7522</v>
+        <v>7518</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7580</v>
+        <v>7576</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7579</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12">
@@ -86435,13 +86419,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7521</v>
+        <v>7517</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7578</v>
+        <v>7574</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7577</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1">
@@ -86544,7 +86528,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8547</v>
+        <v>8543</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -92305,7 +92289,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8693</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -92455,10 +92439,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8560</v>
+        <v>8556</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8702</v>
+        <v>8698</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75945" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="1"/>
+    <workbookView xWindow="75945" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="10" r:id="rId1"/>
@@ -27284,7 +27284,7 @@
   </sheetPr>
   <dimension ref="A1:C5988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -57197,7 +57197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
@@ -63662,7 +63662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
       <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
@@ -69729,7 +69729,7 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
@@ -75723,10 +75723,10 @@
   <dimension ref="A1:J352"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B359" sqref="B359"/>
+      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75945" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="3"/>
+    <workbookView xWindow="75945" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="10" r:id="rId1"/>
@@ -63662,7 +63662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
@@ -75722,8 +75722,8 @@
   </sheetPr>
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A153" sqref="A153"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8640" uniqueCount="8348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8636" uniqueCount="8344">
   <si>
     <t>Uuo</t>
   </si>
@@ -22355,18 +22355,6 @@
   </si>
   <si>
     <t>13i</t>
-  </si>
-  <si>
-    <t>13h</t>
-  </si>
-  <si>
-    <t>13g</t>
-  </si>
-  <si>
-    <t>13f</t>
-  </si>
-  <si>
-    <t>13e</t>
   </si>
   <si>
     <t>12F</t>
@@ -26368,12 +26356,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8250</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>8251</v>
+        <v>8247</v>
       </c>
       <c r="B2" s="54">
         <v>41804</v>
@@ -26381,7 +26369,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>8252</v>
+        <v>8248</v>
       </c>
       <c r="B3" s="54">
         <v>41805</v>
@@ -26389,7 +26377,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>8267</v>
+        <v>8263</v>
       </c>
       <c r="B4" s="54">
         <v>41806</v>
@@ -26397,7 +26385,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>8266</v>
+        <v>8262</v>
       </c>
       <c r="B5" s="54">
         <v>41813</v>
@@ -26405,7 +26393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>8270</v>
+        <v>8266</v>
       </c>
       <c r="B6" s="54">
         <v>41868</v>
@@ -26413,15 +26401,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>8274</v>
+        <v>8270</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>8275</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8273</v>
+        <v>8269</v>
       </c>
       <c r="B8" s="54">
         <v>41930</v>
@@ -26429,7 +26417,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8276</v>
+        <v>8272</v>
       </c>
       <c r="B9" s="54">
         <v>41932</v>
@@ -26437,7 +26425,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8277</v>
+        <v>8273</v>
       </c>
       <c r="B10" s="54">
         <v>41941</v>
@@ -26445,7 +26433,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8278</v>
+        <v>8274</v>
       </c>
       <c r="B11" s="54">
         <v>41998</v>
@@ -26453,7 +26441,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8253</v>
+        <v>8249</v>
       </c>
       <c r="B12" s="54">
         <v>42002</v>
@@ -26461,10 +26449,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8279</v>
+        <v>8275</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8268</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26492,7 +26480,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>8201</v>
+        <v>8197</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>1411</v>
@@ -26503,7 +26491,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>8241</v>
+        <v>8237</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>$A$16</f>
@@ -26539,7 +26527,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>8242</v>
+        <v>8238</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>$A$16</f>
@@ -26575,7 +26563,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>8210</v>
+        <v>8206</v>
       </c>
       <c r="B27" s="1" t="str">
         <f>$A$16</f>
@@ -26599,7 +26587,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>8165</v>
+        <v>8161</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>$A$18</f>
@@ -26650,7 +26638,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>8202</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -26680,17 +26668,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>8189</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>8190</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>8188</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -26887,99 +26875,99 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>8203</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8176</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>8175</v>
+        <v>8171</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8177</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>8183</v>
+        <v>8179</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8178</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>8184</v>
+        <v>8180</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>8179</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>8185</v>
+        <v>8181</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8180</v>
+        <v>8176</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>8073</v>
+        <v>8069</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8181</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>7895</v>
+        <v>7891</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>8182</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>8204</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>8199</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>8200</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>8298</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>8166</v>
+        <v>8162</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8167</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>8168</v>
+        <v>8164</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8169</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -26987,31 +26975,31 @@
         <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>8171</v>
+        <v>8167</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8172</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8173</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>8174</v>
+        <v>8170</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8173</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -27019,7 +27007,7 @@
         <v>255</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -27027,7 +27015,7 @@
         <v>256</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -27035,121 +27023,121 @@
         <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>8265</v>
+        <v>8261</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>8295</v>
+        <v>8291</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>8300</v>
+        <v>8296</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8299</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>8281</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>8282</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>8283</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>8284</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>8285</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>8291</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>8292</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>8286</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>8287</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>8288</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>8289</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>8290</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>8243</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>8244</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>8245</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>8246</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>8247</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>8248</v>
+        <v>8244</v>
       </c>
     </row>
   </sheetData>
@@ -27187,7 +27175,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8207</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27196,7 +27184,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>8160</v>
+        <v>8156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -27205,7 +27193,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>8159</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -27214,7 +27202,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>8157</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -27223,7 +27211,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>8158</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -27232,7 +27220,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>8161</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -27241,7 +27229,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>8156</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -27250,7 +27238,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>8155</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -27259,7 +27247,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>8162</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -27268,7 +27256,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>8163</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -27277,7 +27265,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>8164</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -27286,7 +27274,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8192</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -27295,7 +27283,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8211</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -27304,7 +27292,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8269</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -27313,7 +27301,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8293</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -27322,7 +27310,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8311</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -27331,7 +27319,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8322</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -27340,7 +27328,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8323</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -27349,7 +27337,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8324</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -27358,7 +27346,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8325</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -27367,7 +27355,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8326</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -27376,7 +27364,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8327</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -27385,7 +27373,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8328</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -27394,7 +27382,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8329</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -27403,7 +27391,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8330</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -27412,7 +27400,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8331</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -27421,7 +27409,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8332</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -27430,7 +27418,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8333</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -27454,7 +27442,7 @@
   <dimension ref="A1:C5958"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27465,30 +27453,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7444</v>
+        <v>7440</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>7370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>7369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>7368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>7367</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -57281,12 +57249,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>8205</v>
+        <v>8201</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>8154</v>
+        <v>8150</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -57321,10 +57289,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8153</v>
+        <v>8149</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>8152</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57355,10 +57323,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>8151</v>
+        <v>8147</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>8150</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57389,10 +57357,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>8149</v>
+        <v>8145</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>8148</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57423,10 +57391,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57457,10 +57425,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57491,10 +57459,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>8143</v>
+        <v>8139</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57525,10 +57493,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>8141</v>
+        <v>8137</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57559,10 +57527,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>8139</v>
+        <v>8135</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57593,10 +57561,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57627,10 +57595,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>8134</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57658,13 +57626,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7388</v>
+        <v>7384</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57692,13 +57660,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7387</v>
+        <v>7383</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>8130</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57726,13 +57694,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7386</v>
+        <v>7382</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>8129</v>
+        <v>8125</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>8128</v>
+        <v>8124</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57760,13 +57728,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7385</v>
+        <v>7381</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>8127</v>
+        <v>8123</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>8126</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57794,13 +57762,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7384</v>
+        <v>7380</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>8125</v>
+        <v>8121</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>8124</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57828,13 +57796,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7383</v>
+        <v>7379</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>8123</v>
+        <v>8119</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>8122</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57865,10 +57833,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>8121</v>
+        <v>8117</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>8120</v>
+        <v>8116</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57899,10 +57867,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>8119</v>
+        <v>8115</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>8118</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57933,10 +57901,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>8117</v>
+        <v>8113</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>8116</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57967,10 +57935,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>8115</v>
+        <v>8111</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>8114</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58001,10 +57969,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>8113</v>
+        <v>8109</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>8112</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58035,10 +58003,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>8111</v>
+        <v>8107</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>8110</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58069,10 +58037,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>8109</v>
+        <v>8105</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>8108</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58103,10 +58071,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>8107</v>
+        <v>8103</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>8106</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58137,10 +58105,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>8105</v>
+        <v>8101</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>8104</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58171,10 +58139,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>8103</v>
+        <v>8099</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>8102</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58202,13 +58170,13 @@
         <v>282</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>7382</v>
+        <v>7378</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>8101</v>
+        <v>8097</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>8100</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58236,13 +58204,13 @@
         <v>283</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7381</v>
+        <v>7377</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>8099</v>
+        <v>8095</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>8098</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58270,13 +58238,13 @@
         <v>284</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7380</v>
+        <v>7376</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>8097</v>
+        <v>8093</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>8096</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58304,13 +58272,13 @@
         <v>285</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7379</v>
+        <v>7375</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>8095</v>
+        <v>8091</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>8094</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58338,13 +58306,13 @@
         <v>286</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>7378</v>
+        <v>7374</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>8093</v>
+        <v>8089</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>8092</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58372,13 +58340,13 @@
         <v>287</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7377</v>
+        <v>7373</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>8091</v>
+        <v>8087</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>8090</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58409,10 +58377,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>8089</v>
+        <v>8085</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>8088</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58443,10 +58411,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>8087</v>
+        <v>8083</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>8086</v>
+        <v>8082</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58477,10 +58445,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>8085</v>
+        <v>8081</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>8084</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58511,10 +58479,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>8083</v>
+        <v>8079</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>8082</v>
+        <v>8078</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58545,10 +58513,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>8081</v>
+        <v>8077</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>8080</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58579,10 +58547,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>8079</v>
+        <v>8075</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>8078</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -58613,10 +58581,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>8077</v>
+        <v>8073</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>8076</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58647,10 +58615,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>8075</v>
+        <v>8071</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>8074</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58681,10 +58649,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7679</v>
+        <v>7675</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>8073</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58715,10 +58683,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>8072</v>
+        <v>8068</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>8071</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58746,13 +58714,13 @@
         <v>298</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7376</v>
+        <v>7372</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>8070</v>
+        <v>8066</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>8069</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58780,13 +58748,13 @@
         <v>299</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>7375</v>
+        <v>7371</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>8068</v>
+        <v>8064</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>8067</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58814,13 +58782,13 @@
         <v>300</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7374</v>
+        <v>7370</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>8066</v>
+        <v>8062</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>8065</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58848,13 +58816,13 @@
         <v>301</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7373</v>
+        <v>7369</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>8064</v>
+        <v>8060</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>8063</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58882,13 +58850,13 @@
         <v>302</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>7372</v>
+        <v>7368</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>8062</v>
+        <v>8058</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>8061</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58916,13 +58884,13 @@
         <v>303</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>7371</v>
+        <v>7367</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>8060</v>
+        <v>8056</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>8059</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58953,10 +58921,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>8058</v>
+        <v>8054</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>8057</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58987,10 +58955,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>8056</v>
+        <v>8052</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>8055</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59021,10 +58989,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>8054</v>
+        <v>8050</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>8053</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59055,10 +59023,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>8052</v>
+        <v>8048</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>8051</v>
+        <v>8047</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59089,10 +59057,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>8050</v>
+        <v>8046</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>8049</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59123,10 +59091,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>8048</v>
+        <v>8044</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>8047</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59157,10 +59125,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>8046</v>
+        <v>8042</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>8045</v>
+        <v>8041</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59191,10 +59159,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>8044</v>
+        <v>8040</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>8043</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59225,10 +59193,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>8042</v>
+        <v>8038</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>8041</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59259,10 +59227,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>8040</v>
+        <v>8036</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>8039</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59293,10 +59261,10 @@
         <v>7348</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>8038</v>
+        <v>8034</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>8037</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59327,10 +59295,10 @@
         <v>7347</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>8036</v>
+        <v>8032</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>8035</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59361,10 +59329,10 @@
         <v>7346</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>8034</v>
+        <v>8030</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>8033</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59395,10 +59363,10 @@
         <v>7345</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>8032</v>
+        <v>8028</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>8031</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59429,10 +59397,10 @@
         <v>7344</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>8030</v>
+        <v>8026</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>8029</v>
+        <v>8025</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59463,10 +59431,10 @@
         <v>7343</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>8028</v>
+        <v>8024</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>8027</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59497,10 +59465,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>8026</v>
+        <v>8022</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>8025</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59531,10 +59499,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>8024</v>
+        <v>8020</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>8023</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59565,10 +59533,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>8022</v>
+        <v>8018</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>8021</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59599,10 +59567,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>8020</v>
+        <v>8016</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>8019</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59633,10 +59601,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>8018</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59667,10 +59635,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>8017</v>
+        <v>8013</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>8016</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59701,10 +59669,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>8015</v>
+        <v>8011</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>8014</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59735,10 +59703,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>8013</v>
+        <v>8009</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>8012</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59769,10 +59737,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>8011</v>
+        <v>8007</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>8010</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59803,10 +59771,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>8009</v>
+        <v>8005</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>8008</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59837,10 +59805,10 @@
         <v>7286</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>8007</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59871,10 +59839,10 @@
         <v>7285</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>8006</v>
+        <v>8002</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>8005</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59905,10 +59873,10 @@
         <v>7284</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>8004</v>
+        <v>8000</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>8003</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59939,10 +59907,10 @@
         <v>7283</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>8002</v>
+        <v>7998</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>8001</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59973,10 +59941,10 @@
         <v>7282</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>8000</v>
+        <v>7996</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>7999</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60007,10 +59975,10 @@
         <v>7281</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7998</v>
+        <v>7994</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7997</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60041,10 +60009,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7996</v>
+        <v>7992</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7995</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60075,10 +60043,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7994</v>
+        <v>7990</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7628</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60109,10 +60077,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7993</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60143,10 +60111,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7992</v>
+        <v>7988</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>7991</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60177,10 +60145,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7990</v>
+        <v>7986</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>7989</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60211,10 +60179,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7988</v>
+        <v>7984</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7987</v>
+        <v>7983</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60245,10 +60213,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7986</v>
+        <v>7982</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>7985</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60279,10 +60247,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7984</v>
+        <v>7980</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7983</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60313,10 +60281,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7982</v>
+        <v>7978</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7981</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60347,10 +60315,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7980</v>
+        <v>7976</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7979</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60381,10 +60349,10 @@
         <v>7224</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7978</v>
+        <v>7974</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>7977</v>
+        <v>7973</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60415,10 +60383,10 @@
         <v>7223</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7976</v>
+        <v>7972</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>7975</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60449,10 +60417,10 @@
         <v>7222</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7974</v>
+        <v>7970</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>7973</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60483,10 +60451,10 @@
         <v>7221</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7972</v>
+        <v>7968</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7971</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60517,10 +60485,10 @@
         <v>7220</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7970</v>
+        <v>7966</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>7969</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60551,10 +60519,10 @@
         <v>7219</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7968</v>
+        <v>7964</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>7967</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60585,10 +60553,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7966</v>
+        <v>7962</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>7965</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60619,7 +60587,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7964</v>
+        <v>7960</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -60653,10 +60621,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>7963</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60687,10 +60655,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7755</v>
+        <v>7751</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>7962</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60721,10 +60689,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7961</v>
+        <v>7957</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>7960</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60755,10 +60723,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7959</v>
+        <v>7955</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7958</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60789,10 +60757,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7957</v>
+        <v>7953</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>7956</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60823,10 +60791,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7955</v>
+        <v>7951</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>7954</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60857,10 +60825,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7953</v>
+        <v>7949</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60891,10 +60859,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7952</v>
+        <v>7948</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>7951</v>
+        <v>7947</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60925,10 +60893,10 @@
         <v>7162</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7950</v>
+        <v>7946</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>7949</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60959,10 +60927,10 @@
         <v>7161</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7948</v>
+        <v>7944</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>7947</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60993,10 +60961,10 @@
         <v>7160</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7946</v>
+        <v>7942</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>7945</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61027,10 +60995,10 @@
         <v>7159</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7944</v>
+        <v>7940</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>7943</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61061,10 +61029,10 @@
         <v>7158</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7942</v>
+        <v>7938</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7941</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61095,10 +61063,10 @@
         <v>7157</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7940</v>
+        <v>7936</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7939</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61129,10 +61097,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7938</v>
+        <v>7934</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7937</v>
+        <v>7933</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61163,10 +61131,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7936</v>
+        <v>7932</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7935</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61197,10 +61165,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7934</v>
+        <v>7930</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>7933</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61231,10 +61199,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7932</v>
+        <v>7928</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>7931</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61265,10 +61233,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7563</v>
+        <v>7559</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>7930</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61299,10 +61267,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7929</v>
+        <v>7925</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7928</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61333,10 +61301,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7927</v>
+        <v>7923</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>7926</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61367,10 +61335,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7925</v>
+        <v>7921</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>7924</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -61401,10 +61369,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7923</v>
+        <v>7919</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>7922</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61435,10 +61403,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7921</v>
+        <v>7917</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7920</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61469,10 +61437,10 @@
         <v>7100</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7919</v>
+        <v>7915</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7918</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61503,10 +61471,10 @@
         <v>7099</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7559</v>
+        <v>7555</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7917</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61537,10 +61505,10 @@
         <v>7098</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7557</v>
+        <v>7553</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7916</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61571,10 +61539,10 @@
         <v>7097</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7915</v>
+        <v>7911</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>7914</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61605,10 +61573,10 @@
         <v>7096</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7913</v>
+        <v>7909</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>7912</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61639,10 +61607,10 @@
         <v>7095</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7911</v>
+        <v>7907</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7910</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -61673,10 +61641,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7909</v>
+        <v>7905</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>7908</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61707,10 +61675,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7907</v>
+        <v>7903</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7906</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61741,10 +61709,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7905</v>
+        <v>7901</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>7904</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61775,10 +61743,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7903</v>
+        <v>7899</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>7902</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61809,10 +61777,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7901</v>
+        <v>7897</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>7900</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61843,10 +61811,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7899</v>
+        <v>7895</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7898</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61877,10 +61845,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7513</v>
+        <v>7509</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>7897</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61911,10 +61879,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7896</v>
+        <v>7892</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>7895</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61945,10 +61913,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7894</v>
+        <v>7890</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>7893</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61979,10 +61947,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7892</v>
+        <v>7888</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>7891</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62013,10 +61981,10 @@
         <v>7038</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7890</v>
+        <v>7886</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>7889</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62047,10 +62015,10 @@
         <v>7037</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7888</v>
+        <v>7884</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>7887</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62081,10 +62049,10 @@
         <v>7036</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7886</v>
+        <v>7882</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>7885</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62115,10 +62083,10 @@
         <v>7035</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7505</v>
+        <v>7501</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7884</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62149,10 +62117,10 @@
         <v>7034</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7883</v>
+        <v>7879</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7882</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62183,10 +62151,10 @@
         <v>7033</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7881</v>
+        <v>7877</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>7880</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62217,10 +62185,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7879</v>
+        <v>7875</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>7878</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62251,10 +62219,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7877</v>
+        <v>7873</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>7876</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62285,10 +62253,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7875</v>
+        <v>7871</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>7874</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62319,10 +62287,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7873</v>
+        <v>7869</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>7872</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62353,10 +62321,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7871</v>
+        <v>7867</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>7870</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62387,10 +62355,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7869</v>
+        <v>7865</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7568</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62421,10 +62389,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7868</v>
+        <v>7864</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>7867</v>
+        <v>7863</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62455,10 +62423,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7866</v>
+        <v>7862</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7865</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62489,10 +62457,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7864</v>
+        <v>7860</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7863</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62521,7 +62489,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62550,7 +62518,7 @@
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62579,7 +62547,7 @@
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62608,7 +62576,7 @@
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62637,7 +62605,7 @@
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62666,7 +62634,7 @@
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62695,7 +62663,7 @@
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62724,7 +62692,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62755,10 +62723,10 @@
         <v>5337</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7862</v>
+        <v>7858</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>7861</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62789,10 +62757,10 @@
         <v>5336</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7860</v>
+        <v>7856</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>7859</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62823,10 +62791,10 @@
         <v>5335</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7858</v>
+        <v>7854</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7857</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62857,7 +62825,7 @@
         <v>5334</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7856</v>
+        <v>7852</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -62891,10 +62859,10 @@
         <v>5333</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7855</v>
+        <v>7851</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7854</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -62925,10 +62893,10 @@
         <v>5332</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7853</v>
+        <v>7849</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7852</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62957,7 +62925,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62986,7 +62954,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63015,7 +62983,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63044,7 +63012,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63073,7 +63041,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63102,7 +63070,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63131,7 +63099,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63160,7 +63128,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63189,7 +63157,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63217,13 +63185,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7851</v>
+        <v>7847</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7850</v>
+        <v>7846</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7849</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63251,13 +63219,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7848</v>
+        <v>7844</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7847</v>
+        <v>7843</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7846</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63285,13 +63253,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7845</v>
+        <v>7841</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7844</v>
+        <v>7840</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7843</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63319,13 +63287,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7842</v>
+        <v>7838</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7841</v>
+        <v>7837</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7840</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63353,13 +63321,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7839</v>
+        <v>7835</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7838</v>
+        <v>7834</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63387,13 +63355,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7836</v>
+        <v>7832</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7835</v>
+        <v>7831</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7834</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63421,13 +63389,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7833</v>
+        <v>7829</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7832</v>
+        <v>7828</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7831</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63455,13 +63423,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7830</v>
+        <v>7826</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7829</v>
+        <v>7825</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7828</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63489,13 +63457,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7827</v>
+        <v>7823</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7826</v>
+        <v>7822</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7825</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63523,13 +63491,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7824</v>
+        <v>7820</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7823</v>
+        <v>7819</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7822</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63557,13 +63525,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7821</v>
+        <v>7817</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7820</v>
+        <v>7816</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7819</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63591,13 +63559,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7818</v>
+        <v>7814</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7817</v>
+        <v>7813</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7816</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63622,11 +63590,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7815</v>
+        <v>7811</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63651,11 +63619,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7814</v>
+        <v>7810</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63680,11 +63648,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7813</v>
+        <v>7809</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63709,11 +63677,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7812</v>
+        <v>7808</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
   </sheetData>
@@ -63749,7 +63717,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8206</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63780,10 +63748,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7811</v>
+        <v>7807</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7810</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63814,10 +63782,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7809</v>
+        <v>7805</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7808</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63848,10 +63816,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7807</v>
+        <v>7803</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7806</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63882,10 +63850,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7805</v>
+        <v>7801</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7804</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63916,10 +63884,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7803</v>
+        <v>7799</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7802</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63950,10 +63918,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7801</v>
+        <v>7797</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7800</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63984,10 +63952,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7799</v>
+        <v>7795</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7798</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64018,10 +63986,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7796</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64052,10 +64020,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7795</v>
+        <v>7791</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7794</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64086,10 +64054,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7793</v>
+        <v>7789</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7792</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64117,13 +64085,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7791</v>
+        <v>7787</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7790</v>
+        <v>7786</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7789</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64154,10 +64122,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7788</v>
+        <v>7784</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7787</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64188,10 +64156,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7786</v>
+        <v>7782</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7785</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64219,13 +64187,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7784</v>
+        <v>7780</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7783</v>
+        <v>7779</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7782</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64253,13 +64221,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7781</v>
+        <v>7777</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7780</v>
+        <v>7776</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7779</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64290,10 +64258,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7778</v>
+        <v>7774</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7777</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64324,10 +64292,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7776</v>
+        <v>7772</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7775</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64358,10 +64326,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7774</v>
+        <v>7770</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7773</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64392,10 +64360,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7772</v>
+        <v>7768</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7771</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64426,10 +64394,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7770</v>
+        <v>7766</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7769</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64460,10 +64428,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7768</v>
+        <v>7764</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7767</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64494,10 +64462,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7766</v>
+        <v>7762</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7765</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64528,10 +64496,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7764</v>
+        <v>7760</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7763</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64562,10 +64530,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7762</v>
+        <v>7758</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7761</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64596,10 +64564,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7760</v>
+        <v>7756</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7759</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64630,10 +64598,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7758</v>
+        <v>7754</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7757</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64661,13 +64629,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7756</v>
+        <v>7752</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7755</v>
+        <v>7751</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7754</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64695,13 +64663,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7753</v>
+        <v>7749</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7752</v>
+        <v>7748</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7751</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64729,13 +64697,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7750</v>
+        <v>7746</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7749</v>
+        <v>7745</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7748</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64763,13 +64731,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7443</v>
+        <v>7439</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7747</v>
+        <v>7743</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7746</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64797,13 +64765,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7442</v>
+        <v>7438</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7745</v>
+        <v>7741</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7744</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64831,13 +64799,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7441</v>
+        <v>7437</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7743</v>
+        <v>7739</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7742</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64868,10 +64836,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7741</v>
+        <v>7737</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7740</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64902,10 +64870,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7739</v>
+        <v>7735</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7738</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64936,10 +64904,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7737</v>
+        <v>7733</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7736</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64970,10 +64938,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7735</v>
+        <v>7731</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7734</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -65004,10 +64972,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7733</v>
+        <v>7729</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7732</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -65038,10 +65006,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7731</v>
+        <v>7727</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7730</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -65072,10 +65040,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7729</v>
+        <v>7725</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7728</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -65106,10 +65074,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7727</v>
+        <v>7723</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7726</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65140,10 +65108,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7725</v>
+        <v>7721</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7724</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65174,10 +65142,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7723</v>
+        <v>7719</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7722</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65205,13 +65173,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7721</v>
+        <v>7717</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7720</v>
+        <v>7716</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7719</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65239,13 +65207,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7718</v>
+        <v>7714</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7717</v>
+        <v>7713</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7716</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65273,13 +65241,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7715</v>
+        <v>7711</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7714</v>
+        <v>7710</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7713</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65307,13 +65275,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7712</v>
+        <v>7708</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7711</v>
+        <v>7707</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7710</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65341,13 +65309,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7709</v>
+        <v>7705</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7708</v>
+        <v>7704</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7707</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65375,13 +65343,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7706</v>
+        <v>7702</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7705</v>
+        <v>7701</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7704</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65412,10 +65380,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7703</v>
+        <v>7699</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7702</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65446,10 +65414,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7701</v>
+        <v>7697</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7700</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65480,10 +65448,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7699</v>
+        <v>7695</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7698</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65514,10 +65482,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7697</v>
+        <v>7693</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7696</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65548,10 +65516,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7695</v>
+        <v>7691</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7694</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65582,10 +65550,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7693</v>
+        <v>7689</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7692</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65616,10 +65584,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7691</v>
+        <v>7687</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7690</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65650,10 +65618,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7689</v>
+        <v>7685</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7688</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65684,10 +65652,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7687</v>
+        <v>7683</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7686</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65718,10 +65686,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7685</v>
+        <v>7681</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7684</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65749,13 +65717,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7683</v>
+        <v>7679</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7682</v>
+        <v>7678</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7681</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65783,13 +65751,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7680</v>
+        <v>7676</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7679</v>
+        <v>7675</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7678</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65817,13 +65785,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7677</v>
+        <v>7673</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7676</v>
+        <v>7672</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7675</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65851,13 +65819,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7674</v>
+        <v>7670</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7673</v>
+        <v>7669</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7672</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65885,13 +65853,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7671</v>
+        <v>7667</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7670</v>
+        <v>7666</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7669</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65919,13 +65887,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7668</v>
+        <v>7664</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7667</v>
+        <v>7663</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7666</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65956,10 +65924,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7664</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65990,10 +65958,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7663</v>
+        <v>7659</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7662</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66024,10 +65992,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66058,10 +66026,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7659</v>
+        <v>7655</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7658</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66092,10 +66060,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7657</v>
+        <v>7653</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7656</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66126,10 +66094,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66160,10 +66128,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7653</v>
+        <v>7649</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7652</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66194,10 +66162,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66228,10 +66196,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7649</v>
+        <v>7645</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66262,10 +66230,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7647</v>
+        <v>7643</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7646</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66293,13 +66261,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7440</v>
+        <v>7436</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7644</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66327,13 +66295,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7439</v>
+        <v>7435</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7643</v>
+        <v>7639</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66361,13 +66329,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7438</v>
+        <v>7434</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66395,13 +66363,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7437</v>
+        <v>7433</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7639</v>
+        <v>7635</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66429,13 +66397,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7436</v>
+        <v>7432</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66463,13 +66431,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7435</v>
+        <v>7431</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7634</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66500,10 +66468,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7633</v>
+        <v>7629</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7632</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66534,10 +66502,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66568,10 +66536,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7629</v>
+        <v>7625</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7628</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66602,10 +66570,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7626</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66636,10 +66604,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66670,10 +66638,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7623</v>
+        <v>7619</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7622</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66704,10 +66672,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66738,10 +66706,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7619</v>
+        <v>7615</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66772,10 +66740,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7617</v>
+        <v>7613</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66806,10 +66774,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66837,13 +66805,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7434</v>
+        <v>7430</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66871,13 +66839,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7433</v>
+        <v>7429</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7611</v>
+        <v>7607</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66905,13 +66873,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7432</v>
+        <v>7428</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7608</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66939,13 +66907,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7431</v>
+        <v>7427</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7607</v>
+        <v>7603</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66973,13 +66941,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7430</v>
+        <v>7426</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7604</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67007,13 +66975,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7429</v>
+        <v>7425</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7603</v>
+        <v>7599</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7602</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67044,10 +67012,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67078,10 +67046,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7598</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67112,10 +67080,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7597</v>
+        <v>7593</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7596</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -67146,10 +67114,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -67180,10 +67148,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7593</v>
+        <v>7589</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7592</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67214,10 +67182,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67248,10 +67216,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67282,10 +67250,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7587</v>
+        <v>7583</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67316,10 +67284,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7584</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67350,10 +67318,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7582</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67381,13 +67349,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7428</v>
+        <v>7424</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7581</v>
+        <v>7577</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7580</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67415,13 +67383,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7427</v>
+        <v>7423</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7579</v>
+        <v>7575</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7578</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67449,13 +67417,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7426</v>
+        <v>7422</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7577</v>
+        <v>7573</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7576</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67483,13 +67451,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7425</v>
+        <v>7421</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7575</v>
+        <v>7571</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67517,13 +67485,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7424</v>
+        <v>7420</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7573</v>
+        <v>7569</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7572</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67551,13 +67519,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7423</v>
+        <v>7419</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7570</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67588,10 +67556,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7568</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67622,10 +67590,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7566</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67656,10 +67624,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67690,10 +67658,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7563</v>
+        <v>7559</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7562</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67724,10 +67692,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7561</v>
+        <v>7557</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7560</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67758,10 +67726,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7559</v>
+        <v>7555</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7558</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67792,10 +67760,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7557</v>
+        <v>7553</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7556</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67826,10 +67794,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7555</v>
+        <v>7551</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7554</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67860,10 +67828,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7553</v>
+        <v>7549</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7552</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67894,10 +67862,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7551</v>
+        <v>7547</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67925,13 +67893,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7422</v>
+        <v>7418</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7549</v>
+        <v>7545</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7548</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67959,13 +67927,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7421</v>
+        <v>7417</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7547</v>
+        <v>7543</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67993,13 +67961,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7420</v>
+        <v>7416</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7545</v>
+        <v>7541</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7544</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -68027,13 +67995,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7419</v>
+        <v>7415</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7543</v>
+        <v>7539</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7542</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68061,13 +68029,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7418</v>
+        <v>7414</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7541</v>
+        <v>7537</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7540</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68095,13 +68063,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7417</v>
+        <v>7413</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7539</v>
+        <v>7535</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7538</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68132,10 +68100,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7537</v>
+        <v>7533</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7536</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68166,10 +68134,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7535</v>
+        <v>7531</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7534</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68200,10 +68168,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7533</v>
+        <v>7529</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7532</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68234,10 +68202,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7531</v>
+        <v>7527</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7530</v>
+        <v>7526</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68268,10 +68236,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7529</v>
+        <v>7525</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7528</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68302,10 +68270,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7527</v>
+        <v>7523</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7526</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68336,10 +68304,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7525</v>
+        <v>7521</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7524</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68370,10 +68338,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7523</v>
+        <v>7519</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7522</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68404,10 +68372,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7521</v>
+        <v>7517</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7520</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68438,10 +68406,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7519</v>
+        <v>7515</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7518</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68469,13 +68437,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7416</v>
+        <v>7412</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7517</v>
+        <v>7513</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7516</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68503,13 +68471,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7415</v>
+        <v>7411</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7515</v>
+        <v>7511</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7514</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68537,13 +68505,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7414</v>
+        <v>7410</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7513</v>
+        <v>7509</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7512</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68571,13 +68539,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7413</v>
+        <v>7409</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7511</v>
+        <v>7507</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7510</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68605,13 +68573,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7412</v>
+        <v>7408</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7509</v>
+        <v>7505</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7508</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68639,13 +68607,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7411</v>
+        <v>7407</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7507</v>
+        <v>7503</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7506</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68676,10 +68644,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7505</v>
+        <v>7501</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7504</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68710,10 +68678,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7503</v>
+        <v>7499</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7502</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68744,10 +68712,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7501</v>
+        <v>7497</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7500</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -68778,10 +68746,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7499</v>
+        <v>7495</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7498</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -68812,10 +68780,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7497</v>
+        <v>7493</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7496</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -68846,10 +68814,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7495</v>
+        <v>7491</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7494</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -68880,10 +68848,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7493</v>
+        <v>7489</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7492</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68914,10 +68882,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7491</v>
+        <v>7487</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7490</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68948,10 +68916,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7489</v>
+        <v>7485</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7488</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68982,10 +68950,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7487</v>
+        <v>7483</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7486</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69013,13 +68981,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7410</v>
+        <v>7406</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7485</v>
+        <v>7481</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7484</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69047,13 +69015,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7409</v>
+        <v>7405</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7483</v>
+        <v>7479</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7482</v>
+        <v>7478</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69081,13 +69049,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7408</v>
+        <v>7404</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7481</v>
+        <v>7477</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7480</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69115,13 +69083,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7407</v>
+        <v>7403</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7479</v>
+        <v>7475</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7478</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69149,13 +69117,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7406</v>
+        <v>7402</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7477</v>
+        <v>7473</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7476</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -69183,13 +69151,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7405</v>
+        <v>7401</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7475</v>
+        <v>7471</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7474</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -69217,13 +69185,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7404</v>
+        <v>7400</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7473</v>
+        <v>7469</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7472</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69251,13 +69219,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7403</v>
+        <v>7399</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7471</v>
+        <v>7467</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7470</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69285,13 +69253,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7402</v>
+        <v>7398</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7469</v>
+        <v>7465</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7468</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69319,13 +69287,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7401</v>
+        <v>7397</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7467</v>
+        <v>7463</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7466</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69353,13 +69321,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7400</v>
+        <v>7396</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7465</v>
+        <v>7461</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7464</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -69387,13 +69355,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7399</v>
+        <v>7395</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7463</v>
+        <v>7459</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7462</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -69421,13 +69389,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7461</v>
+        <v>7457</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7460</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -69455,13 +69423,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7397</v>
+        <v>7393</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7459</v>
+        <v>7455</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7458</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69489,11 +69457,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7396</v>
+        <v>7392</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69521,11 +69489,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7395</v>
+        <v>7391</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7457</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69553,13 +69521,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7394</v>
+        <v>7390</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7456</v>
+        <v>7452</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7455</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69587,13 +69555,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7393</v>
+        <v>7389</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7454</v>
+        <v>7450</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7453</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -69621,13 +69589,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7392</v>
+        <v>7388</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7452</v>
+        <v>7448</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7451</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -69655,13 +69623,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7391</v>
+        <v>7387</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7450</v>
+        <v>7446</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7449</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -69689,13 +69657,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7390</v>
+        <v>7386</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7448</v>
+        <v>7444</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7447</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -69723,13 +69691,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7389</v>
+        <v>7385</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7446</v>
+        <v>7442</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7445</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -69832,7 +69800,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8240</v>
+        <v>8236</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -73597,7 +73565,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8297</v>
+        <v>8293</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>72</v>
@@ -75593,7 +75561,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8256</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -75747,7 +75715,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8265</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -75756,7 +75724,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8295</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -75765,7 +75733,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8296</v>
+        <v>8292</v>
       </c>
     </row>
   </sheetData>
@@ -77413,10 +77381,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8197</v>
+        <v>8193</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8195</v>
+        <v>8191</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -77428,7 +77396,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>8198</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -79038,7 +79006,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8263</v>
+        <v>8259</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>751</v>
@@ -79192,10 +79160,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>8215</v>
+        <v>8211</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>8216</v>
+        <v>8212</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$17</f>
@@ -79876,10 +79844,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8217</v>
+        <v>8213</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>8218</v>
+        <v>8214</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -79896,10 +79864,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8219</v>
+        <v>8215</v>
       </c>
       <c r="C182" t="s">
-        <v>8226</v>
+        <v>8222</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -79907,7 +79875,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8233</v>
+        <v>8229</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -79918,10 +79886,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8220</v>
+        <v>8216</v>
       </c>
       <c r="C183" t="s">
-        <v>8227</v>
+        <v>8223</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -79929,7 +79897,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8234</v>
+        <v>8230</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -79940,10 +79908,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8225</v>
+        <v>8221</v>
       </c>
       <c r="C184" t="s">
-        <v>8228</v>
+        <v>8224</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -79951,7 +79919,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8235</v>
+        <v>8231</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -79962,10 +79930,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8224</v>
+        <v>8220</v>
       </c>
       <c r="C185" t="s">
-        <v>8229</v>
+        <v>8225</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -79973,7 +79941,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8236</v>
+        <v>8232</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -79984,10 +79952,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8223</v>
+        <v>8219</v>
       </c>
       <c r="C186" t="s">
-        <v>8230</v>
+        <v>8226</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -79995,7 +79963,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8237</v>
+        <v>8233</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -80006,10 +79974,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8222</v>
+        <v>8218</v>
       </c>
       <c r="C187" t="s">
-        <v>8231</v>
+        <v>8227</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -80017,7 +79985,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8238</v>
+        <v>8234</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -80028,10 +79996,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8221</v>
+        <v>8217</v>
       </c>
       <c r="C188" t="s">
-        <v>8232</v>
+        <v>8228</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -80039,7 +80007,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8239</v>
+        <v>8235</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -81368,7 +81336,7 @@
         <v>492</v>
       </c>
       <c r="C248" s="52" t="s">
-        <v>8193</v>
+        <v>8189</v>
       </c>
       <c r="D248" s="18" t="str">
         <f>Enums!$A$18</f>
@@ -81376,11 +81344,11 @@
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12" t="s">
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12" t="s">
-        <v>8194</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -82093,7 +82061,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8212</v>
+        <v>8208</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -82111,7 +82079,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8213</v>
+        <v>8209</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -82129,7 +82097,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8214</v>
+        <v>8210</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -82585,7 +82553,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>8264</v>
+        <v>8260</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>327</v>
@@ -82926,7 +82894,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>8249</v>
+        <v>8245</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
@@ -83229,7 +83197,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>8186</v>
+        <v>8182</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -83242,7 +83210,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>8187</v>
+        <v>8183</v>
       </c>
       <c r="D335" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -83255,7 +83223,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8191</v>
+        <v>8187</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>1413</v>
@@ -83267,10 +83235,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8258</v>
+        <v>8254</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>8257</v>
+        <v>8253</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$16</f>
@@ -83286,10 +83254,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8259</v>
+        <v>8255</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8260</v>
+        <v>8256</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -83302,10 +83270,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8261</v>
+        <v>8257</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8262</v>
+        <v>8258</v>
       </c>
       <c r="D339" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -83318,7 +83286,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>8271</v>
+        <v>8267</v>
       </c>
       <c r="C340" s="12" t="s">
         <v>700</v>
@@ -83334,7 +83302,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>8272</v>
+        <v>8268</v>
       </c>
       <c r="D341" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -83347,7 +83315,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>8302</v>
+        <v>8298</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1413</v>
@@ -83359,7 +83327,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>8303</v>
+        <v>8299</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1414</v>
@@ -83371,7 +83339,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>8304</v>
+        <v>8300</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1414</v>
@@ -83383,7 +83351,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>8305</v>
+        <v>8301</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>1414</v>
@@ -83395,7 +83363,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>8306</v>
+        <v>8302</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>1414</v>
@@ -83407,7 +83375,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>8307</v>
+        <v>8303</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>1414</v>
@@ -83419,7 +83387,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>8308</v>
+        <v>8304</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1414</v>
@@ -83431,7 +83399,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>8309</v>
+        <v>8305</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>1414</v>
@@ -83443,7 +83411,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>8310</v>
+        <v>8306</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>1414</v>
@@ -83458,7 +83426,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>8312</v>
+        <v>8308</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>1414</v>
@@ -83473,10 +83441,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>8313</v>
+        <v>8309</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>8314</v>
+        <v>8310</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>1414</v>
@@ -83488,10 +83456,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>8338</v>
+        <v>8334</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>8339</v>
+        <v>8335</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1414</v>
@@ -83506,10 +83474,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>8340</v>
+        <v>8336</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>8341</v>
+        <v>8337</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>1414</v>
@@ -83524,10 +83492,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>8343</v>
+        <v>8339</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>8342</v>
+        <v>8338</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>1413</v>
@@ -83539,10 +83507,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>8345</v>
+        <v>8341</v>
       </c>
       <c r="C356" t="s">
-        <v>8346</v>
+        <v>8342</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1413</v>
@@ -83595,7 +83563,7 @@
         <v>1359</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>8315</v>
+        <v>8311</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>1358</v>
@@ -83640,10 +83608,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>8320</v>
+        <v>8316</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8319</v>
+        <v>8315</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -83952,7 +83920,7 @@
         <v>1332</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8321</v>
+        <v>8317</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -84046,10 +84014,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>8347</v>
+        <v>8343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8344</v>
+        <v>8340</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -84165,7 +84133,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8208</v>
+        <v>8204</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1317</v>
@@ -84287,7 +84255,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>8294</v>
+        <v>8290</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1308</v>
@@ -84314,7 +84282,7 @@
         <v>1307</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8318</v>
+        <v>8314</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -84457,7 +84425,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8209</v>
+        <v>8205</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1297</v>
@@ -84505,10 +84473,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>8334</v>
+        <v>8330</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>8336</v>
+        <v>8332</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -84529,10 +84497,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>8335</v>
+        <v>8331</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8337</v>
+        <v>8333</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -85192,7 +85160,7 @@
         <v>1241</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>8316</v>
+        <v>8312</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -85450,7 +85418,7 @@
         <v>1220</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8317</v>
+        <v>8313</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -85566,7 +85534,7 @@
         <v>1211</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8301</v>
+        <v>8297</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -86312,10 +86280,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8255</v>
+        <v>8251</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8254</v>
+        <v>8250</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8500" uniqueCount="8225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="8357">
   <si>
     <t>Uuo</t>
   </si>
@@ -21139,6 +21139,21 @@
     <t>19O</t>
   </si>
   <si>
+    <t>19K</t>
+  </si>
+  <si>
+    <t>19J</t>
+  </si>
+  <si>
+    <t>19I</t>
+  </si>
+  <si>
+    <t>19H</t>
+  </si>
+  <si>
+    <t>19G</t>
+  </si>
+  <si>
     <t>19F</t>
   </si>
   <si>
@@ -21157,6 +21172,129 @@
     <t>19A</t>
   </si>
   <si>
+    <t>19z</t>
+  </si>
+  <si>
+    <t>19y</t>
+  </si>
+  <si>
+    <t>19x</t>
+  </si>
+  <si>
+    <t>19w</t>
+  </si>
+  <si>
+    <t>19v</t>
+  </si>
+  <si>
+    <t>19u</t>
+  </si>
+  <si>
+    <t>19t</t>
+  </si>
+  <si>
+    <t>19s</t>
+  </si>
+  <si>
+    <t>19r</t>
+  </si>
+  <si>
+    <t>19q</t>
+  </si>
+  <si>
+    <t>19p</t>
+  </si>
+  <si>
+    <t>19o</t>
+  </si>
+  <si>
+    <t>19n</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>19l</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>18Z</t>
+  </si>
+  <si>
+    <t>18Y</t>
+  </si>
+  <si>
+    <t>18X</t>
+  </si>
+  <si>
+    <t>18W</t>
+  </si>
+  <si>
+    <t>18V</t>
+  </si>
+  <si>
+    <t>18U</t>
+  </si>
+  <si>
+    <t>18T</t>
+  </si>
+  <si>
+    <t>18S</t>
+  </si>
+  <si>
+    <t>18R</t>
+  </si>
+  <si>
+    <t>18Q</t>
+  </si>
+  <si>
+    <t>18P</t>
+  </si>
+  <si>
+    <t>18O</t>
+  </si>
+  <si>
+    <t>18N</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>18L</t>
+  </si>
+  <si>
+    <t>18K</t>
+  </si>
+  <si>
+    <t>18J</t>
+  </si>
+  <si>
+    <t>18I</t>
+  </si>
+  <si>
+    <t>18H</t>
+  </si>
+  <si>
     <t>18F</t>
   </si>
   <si>
@@ -21175,6 +21313,111 @@
     <t>18A</t>
   </si>
   <si>
+    <t>18s</t>
+  </si>
+  <si>
+    <t>18r</t>
+  </si>
+  <si>
+    <t>18q</t>
+  </si>
+  <si>
+    <t>18p</t>
+  </si>
+  <si>
+    <t>18o</t>
+  </si>
+  <si>
+    <t>18n</t>
+  </si>
+  <si>
+    <t>18m</t>
+  </si>
+  <si>
+    <t>18l</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>18j</t>
+  </si>
+  <si>
+    <t>18i</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>18g</t>
+  </si>
+  <si>
+    <t>18f</t>
+  </si>
+  <si>
+    <t>18e</t>
+  </si>
+  <si>
+    <t>18d</t>
+  </si>
+  <si>
+    <t>18c</t>
+  </si>
+  <si>
+    <t>18b</t>
+  </si>
+  <si>
+    <t>18a</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>17O</t>
+  </si>
+  <si>
+    <t>17N</t>
+  </si>
+  <si>
+    <t>17M</t>
+  </si>
+  <si>
+    <t>17L</t>
+  </si>
+  <si>
+    <t>17K</t>
+  </si>
+  <si>
+    <t>17J</t>
+  </si>
+  <si>
+    <t>17I</t>
+  </si>
+  <si>
+    <t>17H</t>
+  </si>
+  <si>
+    <t>17G</t>
+  </si>
+  <si>
     <t>17F</t>
   </si>
   <si>
@@ -21193,6 +21436,117 @@
     <t>17A</t>
   </si>
   <si>
+    <t>17z</t>
+  </si>
+  <si>
+    <t>17y</t>
+  </si>
+  <si>
+    <t>17x</t>
+  </si>
+  <si>
+    <t>17w</t>
+  </si>
+  <si>
+    <t>17v</t>
+  </si>
+  <si>
+    <t>17u</t>
+  </si>
+  <si>
+    <t>17t</t>
+  </si>
+  <si>
+    <t>17s</t>
+  </si>
+  <si>
+    <t>17r</t>
+  </si>
+  <si>
+    <t>17q</t>
+  </si>
+  <si>
+    <t>17p</t>
+  </si>
+  <si>
+    <t>17a</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>16Z</t>
+  </si>
+  <si>
+    <t>16Y</t>
+  </si>
+  <si>
+    <t>16X</t>
+  </si>
+  <si>
+    <t>16W</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>16U</t>
+  </si>
+  <si>
+    <t>16T</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>16R</t>
+  </si>
+  <si>
+    <t>16Q</t>
+  </si>
+  <si>
+    <t>16P</t>
+  </si>
+  <si>
+    <t>16O</t>
+  </si>
+  <si>
+    <t>16N</t>
+  </si>
+  <si>
+    <t>16M</t>
+  </si>
+  <si>
+    <t>16L</t>
+  </si>
+  <si>
     <t>16F</t>
   </si>
   <si>
@@ -21400,15 +21754,6 @@
     <t>15w</t>
   </si>
   <si>
-    <t>15v</t>
-  </si>
-  <si>
-    <t>15u</t>
-  </si>
-  <si>
-    <t>15t</t>
-  </si>
-  <si>
     <t>15r</t>
   </si>
   <si>
@@ -21598,15 +21943,6 @@
     <t>14r</t>
   </si>
   <si>
-    <t>14q</t>
-  </si>
-  <si>
-    <t>14p</t>
-  </si>
-  <si>
-    <t>14o</t>
-  </si>
-  <si>
     <t>14m</t>
   </si>
   <si>
@@ -21794,15 +22130,6 @@
   </si>
   <si>
     <t>13m</t>
-  </si>
-  <si>
-    <t>13l</t>
-  </si>
-  <si>
-    <t>13k</t>
-  </si>
-  <si>
-    <t>13j</t>
   </si>
   <si>
     <t>12F</t>
@@ -25254,13 +25581,82 @@
     <t>33</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>2f</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2i</t>
+  </si>
+  <si>
+    <t>2j</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>2l</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>2n</t>
+  </si>
+  <si>
+    <t>2o</t>
+  </si>
+  <si>
+    <t>2p</t>
+  </si>
+  <si>
+    <t>2q</t>
+  </si>
+  <si>
+    <t>2r</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>2t</t>
   </si>
 </sst>
 </file>
@@ -26000,12 +26396,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8062</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>8063</v>
+        <v>8172</v>
       </c>
       <c r="B2" s="54">
         <v>41804</v>
@@ -26013,7 +26409,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>8064</v>
+        <v>8173</v>
       </c>
       <c r="B3" s="54">
         <v>41805</v>
@@ -26021,7 +26417,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>8079</v>
+        <v>8188</v>
       </c>
       <c r="B4" s="54">
         <v>41806</v>
@@ -26029,7 +26425,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>8078</v>
+        <v>8187</v>
       </c>
       <c r="B5" s="54">
         <v>41813</v>
@@ -26037,7 +26433,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>8082</v>
+        <v>8191</v>
       </c>
       <c r="B6" s="54">
         <v>41868</v>
@@ -26045,15 +26441,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>8086</v>
+        <v>8195</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>8087</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8085</v>
+        <v>8194</v>
       </c>
       <c r="B8" s="54">
         <v>41930</v>
@@ -26061,7 +26457,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8088</v>
+        <v>8197</v>
       </c>
       <c r="B9" s="54">
         <v>41932</v>
@@ -26069,7 +26465,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8089</v>
+        <v>8198</v>
       </c>
       <c r="B10" s="54">
         <v>41941</v>
@@ -26077,7 +26473,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8090</v>
+        <v>8199</v>
       </c>
       <c r="B11" s="54">
         <v>41998</v>
@@ -26085,7 +26481,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8065</v>
+        <v>8174</v>
       </c>
       <c r="B12" s="54">
         <v>42002</v>
@@ -26093,10 +26489,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8091</v>
+        <v>8200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8080</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26124,7 +26520,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>8013</v>
+        <v>8122</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>1409</v>
@@ -26135,7 +26531,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>8053</v>
+        <v>8162</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>$A$16</f>
@@ -26171,7 +26567,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>8054</v>
+        <v>8163</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>$A$16</f>
@@ -26207,7 +26603,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>8022</v>
+        <v>8131</v>
       </c>
       <c r="B27" s="1" t="str">
         <f>$A$16</f>
@@ -26231,7 +26627,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>7977</v>
+        <v>8086</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>$A$18</f>
@@ -26282,7 +26678,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>8014</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -26312,17 +26708,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>8001</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>8002</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>8000</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -26519,99 +26915,99 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>8015</v>
+        <v>8124</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>7956</v>
+        <v>8065</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>7988</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>7987</v>
+        <v>8096</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7989</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>7995</v>
+        <v>8104</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7990</v>
+        <v>8099</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>7996</v>
+        <v>8105</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7991</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7997</v>
+        <v>8106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7992</v>
+        <v>8101</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>7885</v>
+        <v>7994</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7993</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>7707</v>
+        <v>7816</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7994</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>8016</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>8011</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>8012</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>8110</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>7978</v>
+        <v>8087</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>7979</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>7980</v>
+        <v>8089</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>7981</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -26619,31 +27015,31 @@
         <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7982</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>7983</v>
+        <v>8092</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7984</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>7948</v>
+        <v>8057</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7985</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>7986</v>
+        <v>8095</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7985</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -26651,7 +27047,7 @@
         <v>255</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7982</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -26659,7 +27055,7 @@
         <v>256</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7982</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -26667,136 +27063,136 @@
         <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7982</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>8077</v>
+        <v>8186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7982</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>8107</v>
+        <v>8216</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7982</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>8112</v>
+        <v>8221</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8111</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>8093</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>8094</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>8095</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>8096</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>8097</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>8103</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>8104</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>8098</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>8099</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>8100</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>8101</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>8102</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>8055</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>8056</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>8057</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>8058</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>8059</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>8060</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>8162</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>8163</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>8164</v>
+        <v>8273</v>
       </c>
     </row>
   </sheetData>
@@ -26834,7 +27230,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8019</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26843,7 +27239,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>7972</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -26852,7 +27248,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>7971</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26861,7 +27257,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>7969</v>
+        <v>8078</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26870,7 +27266,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>7970</v>
+        <v>8079</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26879,7 +27275,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>7973</v>
+        <v>8082</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26888,7 +27284,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>7968</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26897,7 +27293,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>7967</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -26906,7 +27302,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>7974</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -26915,7 +27311,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>7975</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -26924,7 +27320,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>7976</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -26933,7 +27329,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8004</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -26942,7 +27338,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8023</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -26951,7 +27347,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8081</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26960,7 +27356,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8105</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -26969,7 +27365,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8123</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -26978,7 +27374,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8134</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -26987,7 +27383,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8135</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -26996,7 +27392,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8136</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -27005,7 +27401,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8137</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -27014,7 +27410,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8138</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -27023,7 +27419,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8139</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -27032,7 +27428,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8140</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -27041,7 +27437,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8141</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -27050,7 +27446,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8142</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -27059,7 +27455,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8143</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -27068,7 +27464,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8144</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -27077,7 +27473,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8145</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -27086,7 +27482,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8161</v>
+        <v>8270</v>
       </c>
     </row>
   </sheetData>
@@ -27104,10 +27500,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F5552"/>
+  <dimension ref="A1:M5552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27116,502 +27512,932 @@
     <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7256</v>
+        <v>7365</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="57" t="s">
-        <v>8224</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>7182</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>7116</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>8201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>6960</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>8223</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>7181</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>7115</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>7049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>6959</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>8222</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>7180</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>7114</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>7048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>6958</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>8221</v>
+        <v>8330</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>7179</v>
+        <v>7291</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>7113</v>
+        <v>7228</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>7047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>7165</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>8331</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>7096</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>7070</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>7044</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>7012</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>6986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>6957</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>8220</v>
+        <v>8329</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>7178</v>
+        <v>7290</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>7112</v>
+        <v>7227</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>7046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>7164</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>8332</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>7095</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>7069</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>7043</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>7011</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>6956</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>8219</v>
+        <v>8328</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>7177</v>
+        <v>7289</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>7111</v>
+        <v>7226</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>7045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7163</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>8333</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>7094</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>7068</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>7042</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>7010</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>6955</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>8218</v>
+        <v>8327</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>7176</v>
+        <v>7288</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>7110</v>
+        <v>7225</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>7044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7162</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>8334</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>7093</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>7067</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>7041</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>7009</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>6954</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>8217</v>
+        <v>8326</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>7175</v>
+        <v>7287</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>7109</v>
+        <v>7224</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>7043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7161</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>8335</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>7092</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>7066</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>7040</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>7008</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>6953</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>8216</v>
+        <v>8325</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>7174</v>
+        <v>7286</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>7108</v>
+        <v>7223</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>7042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7160</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>8336</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>7091</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>7065</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>7039</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>7007</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>6952</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>7252</v>
+        <v>7361</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>7173</v>
+        <v>7285</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>7107</v>
+        <v>7222</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>7041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7159</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>8337</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>7090</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>7064</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>7038</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>7006</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>6951</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>7251</v>
+        <v>7360</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>7172</v>
+        <v>7284</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>7106</v>
+        <v>7221</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7158</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>8338</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>7089</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>7063</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>7037</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>7005</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>6950</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>7250</v>
+        <v>7359</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>7171</v>
+        <v>7283</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>7105</v>
+        <v>7220</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>7039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7157</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>8339</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>7088</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>7062</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>7036</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>7004</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>6949</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>7249</v>
+        <v>7358</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>7170</v>
+        <v>7282</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>7104</v>
+        <v>7219</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>7038</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7156</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>8340</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>7087</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>7061</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>7035</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>7003</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>6948</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>7248</v>
+        <v>7357</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>7169</v>
+        <v>7281</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>7103</v>
+        <v>7218</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>7037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7155</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>8341</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>7086</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>7060</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>7034</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>7002</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>6947</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>7247</v>
+        <v>7356</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>7168</v>
+        <v>7280</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>7102</v>
+        <v>7217</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>7036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7154</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>8342</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>7085</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>7059</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>7033</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>7001</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>6946</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>8215</v>
+        <v>8324</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>7167</v>
+        <v>7279</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>7101</v>
+        <v>7216</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>7035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7153</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>8343</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>7084</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>7058</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>7032</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>7000</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>6945</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>8214</v>
+        <v>8323</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>7166</v>
+        <v>7278</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>7100</v>
+        <v>7215</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>7034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7152</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>8344</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>7083</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>7057</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>7031</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>6999</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>6944</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>8213</v>
+        <v>8322</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>7165</v>
+        <v>7277</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>7099</v>
+        <v>7214</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>7033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7151</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>8345</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>7082</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>7056</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>7030</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>6998</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>6943</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>8212</v>
+        <v>8321</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>7164</v>
+        <v>7276</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>7098</v>
+        <v>7213</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>7032</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7150</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>8346</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>7081</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>7055</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>7029</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>6997</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>6942</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>8211</v>
+        <v>8320</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>7163</v>
+        <v>7275</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>7097</v>
+        <v>7212</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>7031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7149</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>8347</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>7080</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>7054</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>7028</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>6996</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>6941</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>8210</v>
+        <v>8319</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>7162</v>
+        <v>7274</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>7096</v>
+        <v>7211</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>7030</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7148</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>8348</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>7079</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>7053</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>7027</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>6995</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>6940</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>8209</v>
+        <v>8318</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>7161</v>
+        <v>7273</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>7095</v>
+        <v>7210</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>7029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7147</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>8349</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>7078</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>7052</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>7026</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>6994</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>6939</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>8208</v>
+        <v>8317</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>7160</v>
+        <v>7272</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>7094</v>
+        <v>7209</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>7028</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7146</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>8350</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>7077</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>7051</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>7025</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>6993</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>6938</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>8207</v>
+        <v>8316</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>7159</v>
+        <v>7271</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>7093</v>
+        <v>7208</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>7027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7145</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>8351</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>7076</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>7050</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>7024</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>6992</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>6937</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>8206</v>
+        <v>8315</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>7158</v>
+        <v>7270</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>7092</v>
+        <v>7207</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>7026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7144</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>8352</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>7075</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>7049</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>7023</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>6991</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>6936</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>8205</v>
+        <v>8314</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>7157</v>
+        <v>7269</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>7091</v>
+        <v>7206</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7143</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>8353</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>7074</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>7048</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>7022</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>6990</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>6935</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>8204</v>
+        <v>8313</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>7156</v>
+        <v>7268</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>7090</v>
+        <v>7205</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>7024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7142</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>8354</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>7073</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>7047</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>7021</v>
+      </c>
+      <c r="L30" s="35" t="s">
+        <v>6989</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>6934</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>8203</v>
+        <v>8312</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>7155</v>
+        <v>7267</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>7089</v>
+        <v>7204</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7141</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>8355</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>7072</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>7046</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>7020</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>6988</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>6962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>6933</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>8202</v>
+        <v>8311</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>7154</v>
+        <v>7266</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>7088</v>
+        <v>7203</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>7022</v>
+        <v>7140</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>8356</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>7071</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>7045</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>7019</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>6987</v>
+      </c>
+      <c r="M32" s="35" t="s">
+        <v>6961</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -27619,16 +28445,16 @@
         <v>6932</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>8201</v>
+        <v>8310</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>7153</v>
+        <v>7265</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>7087</v>
+        <v>7202</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>7021</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -27636,16 +28462,16 @@
         <v>6931</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>8200</v>
+        <v>8309</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>7152</v>
+        <v>7264</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>7086</v>
+        <v>7201</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>7020</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -27653,16 +28479,16 @@
         <v>6930</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>8199</v>
+        <v>8308</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>7151</v>
+        <v>7263</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>7085</v>
+        <v>7200</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>7019</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -27670,16 +28496,16 @@
         <v>6929</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>8198</v>
+        <v>8307</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>7150</v>
+        <v>7262</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>7084</v>
+        <v>7199</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>7018</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -27687,16 +28513,16 @@
         <v>6928</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>8197</v>
+        <v>8306</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>7149</v>
+        <v>7261</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>7083</v>
+        <v>7198</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>7017</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -27704,16 +28530,16 @@
         <v>6927</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>8196</v>
+        <v>8305</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>7148</v>
+        <v>7260</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>7082</v>
+        <v>7197</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>7016</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -27721,16 +28547,16 @@
         <v>6926</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>8195</v>
+        <v>8304</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>7147</v>
+        <v>7259</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>7081</v>
+        <v>7196</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>7015</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -27738,16 +28564,16 @@
         <v>6925</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>8194</v>
+        <v>8303</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>7146</v>
+        <v>7258</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>7080</v>
+        <v>7195</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>7014</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -27755,16 +28581,16 @@
         <v>6924</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>8193</v>
+        <v>8302</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>7145</v>
+        <v>7257</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>7079</v>
+        <v>7194</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>7013</v>
+        <v>7131</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -27772,16 +28598,16 @@
         <v>6923</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>8192</v>
+        <v>8301</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>7144</v>
+        <v>7256</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>7078</v>
+        <v>7193</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>7012</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -27789,16 +28615,16 @@
         <v>6922</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>8191</v>
+        <v>8300</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>7143</v>
+        <v>7255</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>7077</v>
+        <v>7192</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>7011</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -27806,16 +28632,16 @@
         <v>6921</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>8190</v>
+        <v>8299</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>7142</v>
+        <v>7254</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>7076</v>
+        <v>7191</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>7010</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -27823,16 +28649,16 @@
         <v>6920</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>8189</v>
+        <v>8298</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>7141</v>
+        <v>7253</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>7075</v>
+        <v>7190</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>7009</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -27840,16 +28666,16 @@
         <v>6919</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>8188</v>
+        <v>8297</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>7140</v>
+        <v>7252</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>7074</v>
+        <v>7189</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>7008</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -27857,16 +28683,16 @@
         <v>6918</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>8187</v>
+        <v>8296</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>7139</v>
+        <v>7251</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>7073</v>
+        <v>7188</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>7007</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -27874,16 +28700,16 @@
         <v>6917</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>8186</v>
+        <v>8295</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>7138</v>
+        <v>7250</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>7072</v>
+        <v>7187</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>7006</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -27891,16 +28717,16 @@
         <v>6916</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>8185</v>
+        <v>8294</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>7137</v>
+        <v>7249</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>7071</v>
+        <v>7186</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>7005</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -27908,16 +28734,16 @@
         <v>6915</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>8184</v>
+        <v>8293</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>7136</v>
+        <v>7248</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>7070</v>
+        <v>7185</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>7004</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -27925,16 +28751,16 @@
         <v>6914</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>8183</v>
+        <v>8292</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>7135</v>
+        <v>7247</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>7069</v>
+        <v>7184</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>7003</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -27942,16 +28768,16 @@
         <v>6913</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>8182</v>
+        <v>8291</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>7134</v>
+        <v>7246</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>7068</v>
+        <v>7183</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>7002</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -27959,16 +28785,16 @@
         <v>6912</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>8181</v>
+        <v>8290</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>7133</v>
+        <v>7245</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>7067</v>
+        <v>7182</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>7001</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -27976,16 +28802,16 @@
         <v>6911</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>8180</v>
+        <v>8289</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>7132</v>
+        <v>7244</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>7066</v>
+        <v>7181</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>7000</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -27993,16 +28819,16 @@
         <v>6910</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>8179</v>
+        <v>8288</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>7131</v>
+        <v>7243</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>7065</v>
+        <v>7180</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>6999</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -28010,16 +28836,16 @@
         <v>6909</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>8178</v>
+        <v>8287</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>7130</v>
+        <v>7242</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>7064</v>
+        <v>7179</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>6998</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -28027,16 +28853,16 @@
         <v>6908</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>8177</v>
+        <v>8286</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>7129</v>
+        <v>7241</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>7063</v>
+        <v>7178</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>6997</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -28044,16 +28870,16 @@
         <v>6907</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>8176</v>
+        <v>8285</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>7128</v>
+        <v>7240</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>7062</v>
+        <v>7177</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>6996</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -28061,16 +28887,16 @@
         <v>6906</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>8175</v>
+        <v>8284</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>7127</v>
+        <v>7239</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>7061</v>
+        <v>7176</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>6995</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -28078,16 +28904,16 @@
         <v>6905</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>8174</v>
+        <v>8283</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>7126</v>
+        <v>7238</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>7060</v>
+        <v>7175</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>6994</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -28095,16 +28921,16 @@
         <v>6904</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>8173</v>
+        <v>8282</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>7125</v>
+        <v>7237</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>7059</v>
+        <v>7174</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>6993</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -28112,16 +28938,16 @@
         <v>6903</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>8172</v>
+        <v>8281</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>7124</v>
+        <v>7236</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>7058</v>
+        <v>7173</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>6992</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -28129,16 +28955,16 @@
         <v>6902</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>8171</v>
+        <v>8280</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>7123</v>
+        <v>7235</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>7057</v>
+        <v>7172</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>6991</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -28146,16 +28972,16 @@
         <v>6901</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>8170</v>
+        <v>8279</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>7122</v>
+        <v>7234</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>7056</v>
+        <v>7171</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>6990</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -28163,16 +28989,16 @@
         <v>6900</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>8169</v>
+        <v>8278</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>7121</v>
+        <v>7233</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>7055</v>
+        <v>7170</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>6989</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -28180,16 +29006,16 @@
         <v>6899</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>8168</v>
+        <v>8277</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>7120</v>
+        <v>7232</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>7054</v>
+        <v>7169</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>6988</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -28197,16 +29023,16 @@
         <v>6898</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>8167</v>
+        <v>8276</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>7119</v>
+        <v>7231</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>7053</v>
+        <v>7168</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>6987</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -28214,16 +29040,16 @@
         <v>6897</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>8166</v>
+        <v>8275</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>7118</v>
+        <v>7230</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>7052</v>
+        <v>7167</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>6986</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -28231,16 +29057,16 @@
         <v>6896</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>8165</v>
+        <v>8274</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>7117</v>
+        <v>7229</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>7051</v>
+        <v>7166</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>6985</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -55688,12 +56514,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>8017</v>
+        <v>8126</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>7966</v>
+        <v>8075</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -55728,10 +56554,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7965</v>
+        <v>8074</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>7964</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55762,10 +56588,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7963</v>
+        <v>8072</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>7962</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55796,10 +56622,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7961</v>
+        <v>8070</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>7960</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55830,10 +56656,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7959</v>
+        <v>8068</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7958</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55864,10 +56690,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7957</v>
+        <v>8066</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7956</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55898,10 +56724,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7955</v>
+        <v>8064</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7954</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55932,10 +56758,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7953</v>
+        <v>8062</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>7952</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55966,10 +56792,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7951</v>
+        <v>8060</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>7950</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56000,10 +56826,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7949</v>
+        <v>8058</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>7948</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56034,10 +56860,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7947</v>
+        <v>8056</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>7946</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56065,13 +56891,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7200</v>
+        <v>7309</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7945</v>
+        <v>8054</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>7944</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56099,13 +56925,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7199</v>
+        <v>7308</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7943</v>
+        <v>8052</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7942</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56133,13 +56959,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7198</v>
+        <v>7307</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7941</v>
+        <v>8050</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7940</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56167,13 +56993,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7197</v>
+        <v>7306</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7939</v>
+        <v>8048</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7938</v>
+        <v>8047</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56201,13 +57027,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7196</v>
+        <v>7305</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7937</v>
+        <v>8046</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7936</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56235,13 +57061,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7195</v>
+        <v>7304</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7935</v>
+        <v>8044</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7934</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56272,10 +57098,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7933</v>
+        <v>8042</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>7932</v>
+        <v>8041</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56306,10 +57132,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7931</v>
+        <v>8040</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>7930</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56340,10 +57166,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7929</v>
+        <v>8038</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>7928</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56374,10 +57200,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7927</v>
+        <v>8036</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7926</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56408,10 +57234,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7925</v>
+        <v>8034</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7924</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56442,10 +57268,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7923</v>
+        <v>8032</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7922</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56476,10 +57302,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7921</v>
+        <v>8030</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7920</v>
+        <v>8029</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56510,10 +57336,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7919</v>
+        <v>8028</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>7918</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56544,10 +57370,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7917</v>
+        <v>8026</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>7916</v>
+        <v>8025</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56578,10 +57404,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7915</v>
+        <v>8024</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>7914</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56609,13 +57435,13 @@
         <v>282</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>7194</v>
+        <v>7303</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7913</v>
+        <v>8022</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>7912</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56643,13 +57469,13 @@
         <v>283</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7193</v>
+        <v>7302</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7911</v>
+        <v>8020</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7910</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56677,13 +57503,13 @@
         <v>284</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7192</v>
+        <v>7301</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7909</v>
+        <v>8018</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>7908</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56711,13 +57537,13 @@
         <v>285</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7191</v>
+        <v>7300</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7907</v>
+        <v>8016</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>7906</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56745,13 +57571,13 @@
         <v>286</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>7190</v>
+        <v>7299</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7905</v>
+        <v>8014</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7904</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56779,13 +57605,13 @@
         <v>287</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7189</v>
+        <v>7298</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7903</v>
+        <v>8012</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>7902</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56816,10 +57642,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7901</v>
+        <v>8010</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7900</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56850,10 +57676,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7899</v>
+        <v>8008</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>7898</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56884,10 +57710,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7897</v>
+        <v>8006</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>7896</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56918,10 +57744,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7895</v>
+        <v>8004</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>7894</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56952,10 +57778,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7893</v>
+        <v>8002</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>7892</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56986,10 +57812,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7891</v>
+        <v>8000</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7890</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57020,10 +57846,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7889</v>
+        <v>7998</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>7888</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57054,10 +57880,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7887</v>
+        <v>7996</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7886</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57088,10 +57914,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7491</v>
+        <v>7600</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7885</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57122,10 +57948,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7884</v>
+        <v>7993</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7883</v>
+        <v>7992</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57153,13 +57979,13 @@
         <v>298</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7188</v>
+        <v>7297</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7882</v>
+        <v>7991</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>7881</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57187,13 +58013,13 @@
         <v>299</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>7187</v>
+        <v>7296</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7880</v>
+        <v>7989</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7879</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57221,13 +58047,13 @@
         <v>300</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7186</v>
+        <v>7295</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7878</v>
+        <v>7987</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7877</v>
+        <v>7986</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57255,13 +58081,13 @@
         <v>301</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7185</v>
+        <v>7294</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7876</v>
+        <v>7985</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>7875</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57289,13 +58115,13 @@
         <v>302</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>7184</v>
+        <v>7293</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7874</v>
+        <v>7983</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>7873</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57323,13 +58149,13 @@
         <v>303</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>7183</v>
+        <v>7292</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7872</v>
+        <v>7981</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>7871</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57360,10 +58186,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7870</v>
+        <v>7979</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>7869</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57394,10 +58220,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7868</v>
+        <v>7977</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>7867</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57428,10 +58254,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7866</v>
+        <v>7975</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>7865</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57462,10 +58288,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7864</v>
+        <v>7973</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>7863</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57496,10 +58322,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7862</v>
+        <v>7971</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>7861</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57530,10 +58356,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7860</v>
+        <v>7969</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>7859</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57564,10 +58390,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7858</v>
+        <v>7967</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>7857</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57598,10 +58424,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7856</v>
+        <v>7965</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>7855</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57632,10 +58458,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7854</v>
+        <v>7963</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7853</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57666,10 +58492,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7852</v>
+        <v>7961</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7851</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57697,13 +58523,13 @@
         <v>314</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7165</v>
+        <v>7277</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7850</v>
+        <v>7959</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7849</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57731,13 +58557,13 @@
         <v>315</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>7164</v>
+        <v>7276</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7848</v>
+        <v>7957</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>7847</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57765,13 +58591,13 @@
         <v>316</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>7163</v>
+        <v>7275</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7846</v>
+        <v>7955</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>7845</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57799,13 +58625,13 @@
         <v>317</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7162</v>
+        <v>7274</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7844</v>
+        <v>7953</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>7843</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57833,13 +58659,13 @@
         <v>318</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>7161</v>
+        <v>7273</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7842</v>
+        <v>7951</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>7841</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57867,13 +58693,13 @@
         <v>319</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>7160</v>
+        <v>7272</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7840</v>
+        <v>7949</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>7839</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57904,10 +58730,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7838</v>
+        <v>7947</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>7837</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57938,10 +58764,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7836</v>
+        <v>7945</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>7835</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57972,10 +58798,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7834</v>
+        <v>7943</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7833</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58006,10 +58832,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7832</v>
+        <v>7941</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>7831</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58040,10 +58866,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7477</v>
+        <v>7586</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>7830</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58074,10 +58900,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7829</v>
+        <v>7938</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>7828</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58108,10 +58934,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7827</v>
+        <v>7936</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>7826</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58142,10 +58968,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7825</v>
+        <v>7934</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>7824</v>
+        <v>7933</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58176,10 +59002,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7823</v>
+        <v>7932</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>7822</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58210,10 +59036,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7821</v>
+        <v>7930</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7820</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58241,13 +59067,13 @@
         <v>330</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>7104</v>
+        <v>7219</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7463</v>
+        <v>7572</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7819</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58275,13 +59101,13 @@
         <v>331</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>7103</v>
+        <v>7218</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7818</v>
+        <v>7927</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>7817</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58309,13 +59135,13 @@
         <v>332</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7102</v>
+        <v>7217</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7816</v>
+        <v>7925</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>7815</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58343,13 +59169,13 @@
         <v>333</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7101</v>
+        <v>7216</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7814</v>
+        <v>7923</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>7813</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58377,13 +59203,13 @@
         <v>334</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7100</v>
+        <v>7215</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7812</v>
+        <v>7921</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>7811</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58411,13 +59237,13 @@
         <v>335</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>7099</v>
+        <v>7214</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7810</v>
+        <v>7919</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7809</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58448,10 +59274,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7808</v>
+        <v>7917</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7807</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58482,10 +59308,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7806</v>
+        <v>7915</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7440</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58516,10 +59342,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7439</v>
+        <v>7548</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7805</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58550,10 +59376,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7804</v>
+        <v>7913</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>7803</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58584,10 +59410,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7802</v>
+        <v>7911</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>7801</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58618,10 +59444,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7800</v>
+        <v>7909</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7799</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58652,10 +59478,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7798</v>
+        <v>7907</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>7797</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58686,10 +59512,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7796</v>
+        <v>7905</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7795</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58720,10 +59546,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7794</v>
+        <v>7903</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7793</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58754,10 +59580,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7792</v>
+        <v>7901</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7791</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58785,13 +59611,13 @@
         <v>346</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>7043</v>
+        <v>7161</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7790</v>
+        <v>7899</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>7789</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58819,13 +59645,13 @@
         <v>347</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7042</v>
+        <v>7160</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7788</v>
+        <v>7897</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>7787</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58853,13 +59679,13 @@
         <v>348</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>7041</v>
+        <v>7159</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7786</v>
+        <v>7895</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>7785</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58887,13 +59713,13 @@
         <v>349</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>7040</v>
+        <v>7158</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7784</v>
+        <v>7893</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7783</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58921,13 +59747,13 @@
         <v>350</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>7039</v>
+        <v>7157</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7782</v>
+        <v>7891</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>7781</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58955,13 +59781,13 @@
         <v>351</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7038</v>
+        <v>7156</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7780</v>
+        <v>7889</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>7779</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58992,10 +59818,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7778</v>
+        <v>7887</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>7777</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59026,7 +59852,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7776</v>
+        <v>7885</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -59060,10 +59886,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7421</v>
+        <v>7530</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>7775</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59094,10 +59920,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7567</v>
+        <v>7676</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>7774</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59128,10 +59954,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7773</v>
+        <v>7882</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>7772</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59162,10 +59988,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7771</v>
+        <v>7880</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7770</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59196,10 +60022,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7769</v>
+        <v>7878</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>7768</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59230,10 +60056,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7767</v>
+        <v>7876</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>7766</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59264,10 +60090,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7765</v>
+        <v>7874</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7398</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59298,10 +60124,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7764</v>
+        <v>7873</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>7763</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59329,13 +60155,13 @@
         <v>362</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>6984</v>
+        <v>7102</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7762</v>
+        <v>7871</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>7761</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59363,13 +60189,13 @@
         <v>363</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>6983</v>
+        <v>7101</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7760</v>
+        <v>7869</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>7759</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59397,13 +60223,13 @@
         <v>364</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>6982</v>
+        <v>7100</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7758</v>
+        <v>7867</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>7757</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59431,13 +60257,13 @@
         <v>365</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>6981</v>
+        <v>7099</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7756</v>
+        <v>7865</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>7755</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59465,13 +60291,13 @@
         <v>366</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>6980</v>
+        <v>7098</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7754</v>
+        <v>7863</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7753</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59499,13 +60325,13 @@
         <v>367</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>6979</v>
+        <v>7097</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7752</v>
+        <v>7861</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7751</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59536,10 +60362,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7750</v>
+        <v>7859</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7749</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59570,10 +60396,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7748</v>
+        <v>7857</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7747</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59604,10 +60430,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7746</v>
+        <v>7855</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>7745</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59638,10 +60464,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7744</v>
+        <v>7853</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>7743</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59672,10 +60498,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7375</v>
+        <v>7484</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>7742</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59706,10 +60532,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7741</v>
+        <v>7850</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7740</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59740,10 +60566,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7739</v>
+        <v>7848</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>7738</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59774,10 +60600,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7737</v>
+        <v>7846</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>7736</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59808,10 +60634,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7735</v>
+        <v>7844</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>7734</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59842,10 +60668,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7733</v>
+        <v>7842</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7732</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59873,13 +60699,13 @@
         <v>378</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>6978</v>
+        <v>7059</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7731</v>
+        <v>7840</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7730</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59907,13 +60733,13 @@
         <v>379</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>6977</v>
+        <v>7058</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7371</v>
+        <v>7480</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7729</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59941,13 +60767,13 @@
         <v>380</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>6976</v>
+        <v>7057</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7369</v>
+        <v>7478</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7728</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59975,13 +60801,13 @@
         <v>381</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>6975</v>
+        <v>7056</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7727</v>
+        <v>7836</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>7726</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60009,13 +60835,13 @@
         <v>382</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>6974</v>
+        <v>7055</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7725</v>
+        <v>7834</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>7724</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60043,13 +60869,13 @@
         <v>383</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>6973</v>
+        <v>7054</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7723</v>
+        <v>7832</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7722</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60080,10 +60906,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7721</v>
+        <v>7830</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>7720</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60114,10 +60940,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7719</v>
+        <v>7828</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7718</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60148,10 +60974,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7717</v>
+        <v>7826</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>7716</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60182,10 +61008,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7715</v>
+        <v>7824</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>7714</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60216,10 +61042,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7713</v>
+        <v>7822</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>7712</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60250,10 +61076,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7711</v>
+        <v>7820</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7710</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60284,10 +61110,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7325</v>
+        <v>7434</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>7709</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60318,10 +61144,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7708</v>
+        <v>7817</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>7707</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60352,10 +61178,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7706</v>
+        <v>7815</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>7705</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60386,10 +61212,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7704</v>
+        <v>7813</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>7703</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60417,13 +61243,13 @@
         <v>394</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>6972</v>
+        <v>7018</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7702</v>
+        <v>7811</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>7701</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60451,13 +61277,13 @@
         <v>395</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>6971</v>
+        <v>7017</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7700</v>
+        <v>7809</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>7699</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60485,13 +61311,13 @@
         <v>396</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>6970</v>
+        <v>7016</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7698</v>
+        <v>7807</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>7697</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60519,13 +61345,13 @@
         <v>397</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>6969</v>
+        <v>7015</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7317</v>
+        <v>7426</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7696</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60553,13 +61379,13 @@
         <v>398</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>6968</v>
+        <v>7014</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7695</v>
+        <v>7804</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7694</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60587,13 +61413,13 @@
         <v>399</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>6967</v>
+        <v>7013</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7693</v>
+        <v>7802</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>7692</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60624,10 +61450,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7691</v>
+        <v>7800</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>7690</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60658,10 +61484,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7689</v>
+        <v>7798</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>7688</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60692,10 +61518,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7687</v>
+        <v>7796</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>7686</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60726,10 +61552,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7685</v>
+        <v>7794</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>7684</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60760,10 +61586,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7683</v>
+        <v>7792</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>7682</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60794,10 +61620,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7681</v>
+        <v>7790</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7380</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60828,10 +61654,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7680</v>
+        <v>7789</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>7679</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60862,10 +61688,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7678</v>
+        <v>7787</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7677</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60896,10 +61722,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7676</v>
+        <v>7785</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7675</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60928,7 +61754,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60953,11 +61779,11 @@
         <v>410</v>
       </c>
       <c r="G156" s="39" t="s">
-        <v>6966</v>
+        <v>6971</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60982,11 +61808,11 @@
         <v>411</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>6965</v>
+        <v>6970</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61011,11 +61837,11 @@
         <v>412</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>6964</v>
+        <v>6969</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61040,11 +61866,11 @@
         <v>413</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>6963</v>
+        <v>6968</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61069,11 +61895,11 @@
         <v>414</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>6962</v>
+        <v>6967</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61098,11 +61924,11 @@
         <v>415</v>
       </c>
       <c r="G161" s="39" t="s">
-        <v>6961</v>
+        <v>6966</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61131,7 +61957,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61162,10 +61988,10 @@
         <v>5335</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7674</v>
+        <v>7783</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>7673</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -61196,10 +62022,10 @@
         <v>5334</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7672</v>
+        <v>7781</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>7671</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -61230,10 +62056,10 @@
         <v>5333</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7670</v>
+        <v>7779</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7669</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61264,7 +62090,7 @@
         <v>5332</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7668</v>
+        <v>7777</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -61298,10 +62124,10 @@
         <v>5331</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7667</v>
+        <v>7776</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7666</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -61332,10 +62158,10 @@
         <v>5330</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7665</v>
+        <v>7774</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7664</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61364,7 +62190,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61393,7 +62219,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61422,7 +62248,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61451,7 +62277,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61480,7 +62306,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61509,7 +62335,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61538,7 +62364,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61567,7 +62393,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61596,7 +62422,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61624,13 +62450,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7663</v>
+        <v>7772</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7662</v>
+        <v>7771</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7661</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61658,13 +62484,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7660</v>
+        <v>7769</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7659</v>
+        <v>7768</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7658</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61692,13 +62518,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7657</v>
+        <v>7766</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7656</v>
+        <v>7765</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7655</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61726,13 +62552,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7654</v>
+        <v>7763</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7653</v>
+        <v>7762</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7652</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61760,13 +62586,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7651</v>
+        <v>7760</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7650</v>
+        <v>7759</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7649</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61794,13 +62620,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7648</v>
+        <v>7757</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7647</v>
+        <v>7756</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7646</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61828,13 +62654,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7645</v>
+        <v>7754</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7644</v>
+        <v>7753</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7643</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61862,13 +62688,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7642</v>
+        <v>7751</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7641</v>
+        <v>7750</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7640</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61896,13 +62722,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7639</v>
+        <v>7748</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7638</v>
+        <v>7747</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7637</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61930,13 +62756,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7636</v>
+        <v>7745</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7635</v>
+        <v>7744</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7634</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61964,13 +62790,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7633</v>
+        <v>7742</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7632</v>
+        <v>7741</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7631</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61998,13 +62824,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7630</v>
+        <v>7739</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7629</v>
+        <v>7738</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7628</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62029,11 +62855,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7627</v>
+        <v>7736</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62058,11 +62884,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7626</v>
+        <v>7735</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62087,11 +62913,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7625</v>
+        <v>7734</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62116,11 +62942,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7624</v>
+        <v>7733</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
   </sheetData>
@@ -62156,7 +62982,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>8018</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62187,10 +63013,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7623</v>
+        <v>7732</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7622</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62221,10 +63047,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7621</v>
+        <v>7730</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7620</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62255,10 +63081,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7619</v>
+        <v>7728</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7618</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62289,10 +63115,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7617</v>
+        <v>7726</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7616</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62323,10 +63149,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7615</v>
+        <v>7724</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7614</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62357,10 +63183,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7613</v>
+        <v>7722</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7612</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62391,10 +63217,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7611</v>
+        <v>7720</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7610</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62425,10 +63251,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7609</v>
+        <v>7718</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7608</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62459,10 +63285,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7607</v>
+        <v>7716</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7606</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62493,10 +63319,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7605</v>
+        <v>7714</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7604</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62524,13 +63350,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7603</v>
+        <v>7712</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7602</v>
+        <v>7711</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7601</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62561,10 +63387,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7600</v>
+        <v>7709</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7599</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62595,10 +63421,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7598</v>
+        <v>7707</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7597</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62626,13 +63452,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7596</v>
+        <v>7705</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7595</v>
+        <v>7704</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7594</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62660,13 +63486,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7593</v>
+        <v>7702</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7592</v>
+        <v>7701</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7591</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62697,10 +63523,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7590</v>
+        <v>7699</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7589</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62731,10 +63557,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7588</v>
+        <v>7697</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7587</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62765,10 +63591,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7586</v>
+        <v>7695</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7585</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62799,10 +63625,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7584</v>
+        <v>7693</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7583</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62833,10 +63659,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7582</v>
+        <v>7691</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7581</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62867,10 +63693,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7580</v>
+        <v>7689</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7579</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62901,10 +63727,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7578</v>
+        <v>7687</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7577</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62935,10 +63761,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7576</v>
+        <v>7685</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7575</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62969,10 +63795,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7574</v>
+        <v>7683</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7573</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63003,10 +63829,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7572</v>
+        <v>7681</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7571</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63037,10 +63863,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7570</v>
+        <v>7679</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7569</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63068,13 +63894,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7568</v>
+        <v>7677</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7567</v>
+        <v>7676</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7566</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63102,13 +63928,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7565</v>
+        <v>7674</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7564</v>
+        <v>7673</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7563</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63136,13 +63962,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7562</v>
+        <v>7671</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7561</v>
+        <v>7670</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7560</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63170,13 +63996,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7255</v>
+        <v>7364</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7559</v>
+        <v>7668</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7558</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63204,13 +64030,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7254</v>
+        <v>7363</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7557</v>
+        <v>7666</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7556</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63238,13 +64064,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7253</v>
+        <v>7362</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7555</v>
+        <v>7664</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7554</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63275,10 +64101,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7553</v>
+        <v>7662</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7552</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63309,10 +64135,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7551</v>
+        <v>7660</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7550</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63343,10 +64169,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7549</v>
+        <v>7658</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7548</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63377,10 +64203,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7547</v>
+        <v>7656</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7546</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63411,10 +64237,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7545</v>
+        <v>7654</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7544</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63445,10 +64271,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7543</v>
+        <v>7652</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7542</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63479,10 +64305,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7541</v>
+        <v>7650</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7540</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63513,10 +64339,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7539</v>
+        <v>7648</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7538</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63547,10 +64373,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7537</v>
+        <v>7646</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7536</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63581,10 +64407,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7535</v>
+        <v>7644</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7534</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63612,13 +64438,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7533</v>
+        <v>7642</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7532</v>
+        <v>7641</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7531</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63646,13 +64472,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7530</v>
+        <v>7639</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7529</v>
+        <v>7638</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7528</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63680,13 +64506,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7527</v>
+        <v>7636</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7526</v>
+        <v>7635</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7525</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63714,13 +64540,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7524</v>
+        <v>7633</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7523</v>
+        <v>7632</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7522</v>
+        <v>7631</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63748,13 +64574,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7521</v>
+        <v>7630</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7520</v>
+        <v>7629</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7519</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63782,13 +64608,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7518</v>
+        <v>7627</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7517</v>
+        <v>7626</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7516</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63819,10 +64645,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7515</v>
+        <v>7624</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7514</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63853,10 +64679,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7513</v>
+        <v>7622</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7512</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63887,10 +64713,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7511</v>
+        <v>7620</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7510</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63921,10 +64747,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7509</v>
+        <v>7618</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7508</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63955,10 +64781,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7507</v>
+        <v>7616</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7506</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63989,10 +64815,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7505</v>
+        <v>7614</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7504</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64023,10 +64849,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7503</v>
+        <v>7612</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7502</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64057,10 +64883,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7501</v>
+        <v>7610</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7500</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64091,10 +64917,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7499</v>
+        <v>7608</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7498</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64125,10 +64951,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7497</v>
+        <v>7606</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7496</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64156,13 +64982,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7495</v>
+        <v>7604</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7494</v>
+        <v>7603</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7493</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64190,13 +65016,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7492</v>
+        <v>7601</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7491</v>
+        <v>7600</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7490</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64224,13 +65050,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7489</v>
+        <v>7598</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7488</v>
+        <v>7597</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7487</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64258,13 +65084,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7486</v>
+        <v>7595</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7485</v>
+        <v>7594</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7484</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64292,13 +65118,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7483</v>
+        <v>7592</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7482</v>
+        <v>7591</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7481</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64326,13 +65152,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7480</v>
+        <v>7589</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7479</v>
+        <v>7588</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7478</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64363,10 +65189,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7477</v>
+        <v>7586</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7476</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64397,10 +65223,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7475</v>
+        <v>7584</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7474</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64431,10 +65257,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7473</v>
+        <v>7582</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7472</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64465,10 +65291,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7471</v>
+        <v>7580</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7470</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64499,10 +65325,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7469</v>
+        <v>7578</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7468</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64533,10 +65359,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7467</v>
+        <v>7576</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7466</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64567,10 +65393,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7465</v>
+        <v>7574</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7464</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64601,10 +65427,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7463</v>
+        <v>7572</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7462</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64635,10 +65461,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7461</v>
+        <v>7570</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7460</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64669,10 +65495,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7459</v>
+        <v>7568</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7458</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64700,13 +65526,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7252</v>
+        <v>7361</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7457</v>
+        <v>7566</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7456</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64734,13 +65560,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7251</v>
+        <v>7360</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7455</v>
+        <v>7564</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7454</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64768,13 +65594,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7250</v>
+        <v>7359</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7453</v>
+        <v>7562</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7452</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64802,13 +65628,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7249</v>
+        <v>7358</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7451</v>
+        <v>7560</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7450</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64836,13 +65662,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7248</v>
+        <v>7357</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7449</v>
+        <v>7558</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7448</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64870,13 +65696,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7247</v>
+        <v>7356</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7447</v>
+        <v>7556</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7446</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64907,10 +65733,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7445</v>
+        <v>7554</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7444</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64941,10 +65767,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7443</v>
+        <v>7552</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7442</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64975,10 +65801,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7441</v>
+        <v>7550</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7440</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65009,10 +65835,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7439</v>
+        <v>7548</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7438</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65043,10 +65869,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7437</v>
+        <v>7546</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7436</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65077,10 +65903,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7435</v>
+        <v>7544</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7434</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65111,10 +65937,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7433</v>
+        <v>7542</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7432</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65145,10 +65971,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7431</v>
+        <v>7540</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7430</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65179,10 +66005,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7429</v>
+        <v>7538</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7428</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65213,10 +66039,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7427</v>
+        <v>7536</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7426</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65244,13 +66070,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7246</v>
+        <v>7355</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7425</v>
+        <v>7534</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7424</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65278,13 +66104,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7245</v>
+        <v>7354</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7423</v>
+        <v>7532</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7422</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65312,13 +66138,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7244</v>
+        <v>7353</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7421</v>
+        <v>7530</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7420</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65346,13 +66172,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7243</v>
+        <v>7352</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7419</v>
+        <v>7528</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7418</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65380,13 +66206,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7242</v>
+        <v>7351</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7417</v>
+        <v>7526</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7416</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65414,13 +66240,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7241</v>
+        <v>7350</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7415</v>
+        <v>7524</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7414</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65451,10 +66277,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7413</v>
+        <v>7522</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7412</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65485,10 +66311,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7411</v>
+        <v>7520</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7410</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65519,10 +66345,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7409</v>
+        <v>7518</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7408</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65553,10 +66379,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7407</v>
+        <v>7516</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7406</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65587,10 +66413,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7405</v>
+        <v>7514</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7404</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65621,10 +66447,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7403</v>
+        <v>7512</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7402</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65655,10 +66481,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7401</v>
+        <v>7510</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7400</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65689,10 +66515,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7399</v>
+        <v>7508</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7398</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65723,10 +66549,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7397</v>
+        <v>7506</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7396</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65757,10 +66583,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7395</v>
+        <v>7504</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7394</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65788,13 +66614,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7240</v>
+        <v>7349</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7393</v>
+        <v>7502</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7392</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65822,13 +66648,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7239</v>
+        <v>7348</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7391</v>
+        <v>7500</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7390</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65856,13 +66682,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7238</v>
+        <v>7347</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7389</v>
+        <v>7498</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7388</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65890,13 +66716,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7237</v>
+        <v>7346</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7387</v>
+        <v>7496</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7386</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65924,13 +66750,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7236</v>
+        <v>7345</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7385</v>
+        <v>7494</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7384</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65958,13 +66784,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7235</v>
+        <v>7344</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7383</v>
+        <v>7492</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7382</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65995,10 +66821,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7381</v>
+        <v>7490</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7380</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66029,10 +66855,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7379</v>
+        <v>7488</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7378</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66063,10 +66889,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7377</v>
+        <v>7486</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7376</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66097,10 +66923,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7375</v>
+        <v>7484</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7374</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66131,10 +66957,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7373</v>
+        <v>7482</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7372</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66165,10 +66991,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7371</v>
+        <v>7480</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7370</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66199,10 +67025,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7369</v>
+        <v>7478</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7368</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66233,10 +67059,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7367</v>
+        <v>7476</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7366</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66267,10 +67093,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7365</v>
+        <v>7474</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7364</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66301,10 +67127,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7363</v>
+        <v>7472</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7362</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66332,13 +67158,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7234</v>
+        <v>7343</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7361</v>
+        <v>7470</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7360</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66366,13 +67192,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7233</v>
+        <v>7342</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7359</v>
+        <v>7468</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7358</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66400,13 +67226,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7232</v>
+        <v>7341</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7357</v>
+        <v>7466</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7356</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66434,13 +67260,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7231</v>
+        <v>7340</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7355</v>
+        <v>7464</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7354</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66468,13 +67294,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7230</v>
+        <v>7339</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7353</v>
+        <v>7462</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7352</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66502,13 +67328,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7229</v>
+        <v>7338</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7351</v>
+        <v>7460</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7350</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66539,10 +67365,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7349</v>
+        <v>7458</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7348</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66573,10 +67399,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7347</v>
+        <v>7456</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7346</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66607,10 +67433,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7345</v>
+        <v>7454</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7344</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66641,10 +67467,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7343</v>
+        <v>7452</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7342</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66675,10 +67501,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7341</v>
+        <v>7450</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7340</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66709,10 +67535,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7339</v>
+        <v>7448</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7338</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66743,10 +67569,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7337</v>
+        <v>7446</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7336</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66777,10 +67603,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7335</v>
+        <v>7444</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7334</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66811,10 +67637,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7333</v>
+        <v>7442</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7332</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66845,10 +67671,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7331</v>
+        <v>7440</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7330</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66876,13 +67702,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7228</v>
+        <v>7337</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7329</v>
+        <v>7438</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7328</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66910,13 +67736,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7227</v>
+        <v>7336</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7327</v>
+        <v>7436</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7326</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66944,13 +67770,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7226</v>
+        <v>7335</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7325</v>
+        <v>7434</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7324</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66978,13 +67804,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7225</v>
+        <v>7334</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7323</v>
+        <v>7432</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7322</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67012,13 +67838,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7224</v>
+        <v>7333</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7321</v>
+        <v>7430</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7320</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67046,13 +67872,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7223</v>
+        <v>7332</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7319</v>
+        <v>7428</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7318</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67083,10 +67909,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7317</v>
+        <v>7426</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7316</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67117,10 +67943,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7315</v>
+        <v>7424</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7314</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67151,10 +67977,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7313</v>
+        <v>7422</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7312</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -67185,10 +68011,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7311</v>
+        <v>7420</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7310</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -67219,10 +68045,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7309</v>
+        <v>7418</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7308</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -67253,10 +68079,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7307</v>
+        <v>7416</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7306</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -67287,10 +68113,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7305</v>
+        <v>7414</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7304</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67321,10 +68147,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7303</v>
+        <v>7412</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7302</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67355,10 +68181,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7301</v>
+        <v>7410</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7300</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67389,10 +68215,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7299</v>
+        <v>7408</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7298</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67420,13 +68246,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7222</v>
+        <v>7331</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7297</v>
+        <v>7406</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7296</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67454,13 +68280,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7221</v>
+        <v>7330</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7295</v>
+        <v>7404</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7294</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67488,13 +68314,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7220</v>
+        <v>7329</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7293</v>
+        <v>7402</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7292</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67522,13 +68348,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7219</v>
+        <v>7328</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7291</v>
+        <v>7400</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7290</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67556,13 +68382,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7218</v>
+        <v>7327</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7289</v>
+        <v>7398</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7288</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -67590,13 +68416,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7217</v>
+        <v>7326</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7287</v>
+        <v>7396</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7286</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -67624,13 +68450,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7216</v>
+        <v>7325</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7285</v>
+        <v>7394</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7284</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67658,13 +68484,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7215</v>
+        <v>7324</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7283</v>
+        <v>7392</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7282</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67692,13 +68518,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7214</v>
+        <v>7323</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7281</v>
+        <v>7390</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7280</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67726,13 +68552,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7213</v>
+        <v>7322</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7279</v>
+        <v>7388</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7278</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67760,13 +68586,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7212</v>
+        <v>7321</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7277</v>
+        <v>7386</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7276</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67794,13 +68620,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7211</v>
+        <v>7320</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7275</v>
+        <v>7384</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7274</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67828,13 +68654,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7210</v>
+        <v>7319</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7273</v>
+        <v>7382</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7272</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67862,13 +68688,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7209</v>
+        <v>7318</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7271</v>
+        <v>7380</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7270</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67896,11 +68722,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7208</v>
+        <v>7317</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67928,11 +68754,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7207</v>
+        <v>7316</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7269</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67960,13 +68786,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7206</v>
+        <v>7315</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7268</v>
+        <v>7377</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7267</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67994,13 +68820,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7205</v>
+        <v>7314</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7266</v>
+        <v>7375</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7265</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68028,13 +68854,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7204</v>
+        <v>7313</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7264</v>
+        <v>7373</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7263</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68062,13 +68888,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7203</v>
+        <v>7312</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7262</v>
+        <v>7371</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7261</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -68096,13 +68922,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7202</v>
+        <v>7311</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7260</v>
+        <v>7369</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7259</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -68130,13 +68956,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7201</v>
+        <v>7310</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7258</v>
+        <v>7367</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7257</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -68239,7 +69065,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8052</v>
+        <v>8161</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -72004,7 +72830,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8109</v>
+        <v>8218</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>72</v>
@@ -74000,7 +74826,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8068</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -74154,7 +74980,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8077</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -74163,7 +74989,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8107</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -74172,7 +74998,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8108</v>
+        <v>8217</v>
       </c>
     </row>
   </sheetData>
@@ -75820,10 +76646,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8009</v>
+        <v>8118</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>8007</v>
+        <v>8116</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -75835,7 +76661,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>8010</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -77445,7 +78271,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8075</v>
+        <v>8184</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>751</v>
@@ -77599,10 +78425,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>8027</v>
+        <v>8136</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>8028</v>
+        <v>8137</v>
       </c>
       <c r="D151" s="18" t="str">
         <f>Enums!$A$17</f>
@@ -78283,10 +79109,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8029</v>
+        <v>8138</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>8030</v>
+        <v>8139</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78303,10 +79129,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8031</v>
+        <v>8140</v>
       </c>
       <c r="C182" t="s">
-        <v>8038</v>
+        <v>8147</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78314,7 +79140,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>8045</v>
+        <v>8154</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -78325,10 +79151,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8032</v>
+        <v>8141</v>
       </c>
       <c r="C183" t="s">
-        <v>8039</v>
+        <v>8148</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78336,7 +79162,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>8046</v>
+        <v>8155</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -78347,10 +79173,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>8037</v>
+        <v>8146</v>
       </c>
       <c r="C184" t="s">
-        <v>8040</v>
+        <v>8149</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78358,7 +79184,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>8047</v>
+        <v>8156</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -78369,10 +79195,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8036</v>
+        <v>8145</v>
       </c>
       <c r="C185" t="s">
-        <v>8041</v>
+        <v>8150</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78380,7 +79206,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>8048</v>
+        <v>8157</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -78391,10 +79217,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8035</v>
+        <v>8144</v>
       </c>
       <c r="C186" t="s">
-        <v>8042</v>
+        <v>8151</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78402,7 +79228,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>8049</v>
+        <v>8158</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -78413,10 +79239,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8034</v>
+        <v>8143</v>
       </c>
       <c r="C187" t="s">
-        <v>8043</v>
+        <v>8152</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78424,7 +79250,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>8050</v>
+        <v>8159</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -78435,10 +79261,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8033</v>
+        <v>8142</v>
       </c>
       <c r="C188" t="s">
-        <v>8044</v>
+        <v>8153</v>
       </c>
       <c r="D188" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -78446,7 +79272,7 @@
       </c>
       <c r="E188" s="12"/>
       <c r="F188" s="12" t="s">
-        <v>8051</v>
+        <v>8160</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -79775,7 +80601,7 @@
         <v>492</v>
       </c>
       <c r="C248" s="52" t="s">
-        <v>8005</v>
+        <v>8114</v>
       </c>
       <c r="D248" s="18" t="str">
         <f>Enums!$A$18</f>
@@ -79783,11 +80609,11 @@
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="12" t="s">
-        <v>8008</v>
+        <v>8117</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12" t="s">
-        <v>8006</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -80500,7 +81326,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8024</v>
+        <v>8133</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -80518,7 +81344,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8025</v>
+        <v>8134</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -80536,7 +81362,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8026</v>
+        <v>8135</v>
       </c>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="str">
@@ -80992,7 +81818,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>8076</v>
+        <v>8185</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>327</v>
@@ -81333,7 +82159,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>8061</v>
+        <v>8170</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="12" t="str">
@@ -81636,7 +82462,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>7998</v>
+        <v>8107</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -81649,7 +82475,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>7999</v>
+        <v>8108</v>
       </c>
       <c r="D335" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -81662,7 +82488,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8003</v>
+        <v>8112</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>1411</v>
@@ -81674,10 +82500,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8070</v>
+        <v>8179</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>8069</v>
+        <v>8178</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$16</f>
@@ -81693,10 +82519,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8071</v>
+        <v>8180</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8072</v>
+        <v>8181</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -81709,10 +82535,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8073</v>
+        <v>8182</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8074</v>
+        <v>8183</v>
       </c>
       <c r="D339" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -81725,7 +82551,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>8083</v>
+        <v>8192</v>
       </c>
       <c r="C340" s="12" t="s">
         <v>700</v>
@@ -81741,7 +82567,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>8084</v>
+        <v>8193</v>
       </c>
       <c r="D341" s="12" t="str">
         <f>Enums!$A$17</f>
@@ -81754,7 +82580,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>8114</v>
+        <v>8223</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1411</v>
@@ -81766,7 +82592,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>8115</v>
+        <v>8224</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1412</v>
@@ -81778,7 +82604,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>8116</v>
+        <v>8225</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1412</v>
@@ -81790,7 +82616,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>8117</v>
+        <v>8226</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>1412</v>
@@ -81802,7 +82628,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>8118</v>
+        <v>8227</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>1412</v>
@@ -81814,7 +82640,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>8119</v>
+        <v>8228</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>1412</v>
@@ -81826,7 +82652,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>8120</v>
+        <v>8229</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1412</v>
@@ -81838,7 +82664,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>8121</v>
+        <v>8230</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>1412</v>
@@ -81850,7 +82676,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>8122</v>
+        <v>8231</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>1412</v>
@@ -81865,7 +82691,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>8124</v>
+        <v>8233</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>1412</v>
@@ -81880,10 +82706,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>8125</v>
+        <v>8234</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>8126</v>
+        <v>8235</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>1412</v>
@@ -81895,10 +82721,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>8150</v>
+        <v>8259</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>8151</v>
+        <v>8260</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1412</v>
@@ -81913,10 +82739,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>8152</v>
+        <v>8261</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>8153</v>
+        <v>8262</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>1412</v>
@@ -81931,10 +82757,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>8155</v>
+        <v>8264</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>8154</v>
+        <v>8263</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>1411</v>
@@ -81946,10 +82772,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>8157</v>
+        <v>8266</v>
       </c>
       <c r="C356" t="s">
-        <v>8158</v>
+        <v>8267</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1411</v>
@@ -82002,7 +82828,7 @@
         <v>1357</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>8127</v>
+        <v>8236</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>1356</v>
@@ -82047,10 +82873,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>8132</v>
+        <v>8241</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8131</v>
+        <v>8240</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -82170,7 +82996,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>8160</v>
+        <v>8269</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>225</v>
@@ -82359,7 +83185,7 @@
         <v>1332</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8133</v>
+        <v>8242</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -82453,10 +83279,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>8159</v>
+        <v>8268</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8156</v>
+        <v>8265</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -82572,7 +83398,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>8020</v>
+        <v>8129</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1317</v>
@@ -82694,7 +83520,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>8106</v>
+        <v>8215</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1308</v>
@@ -82721,7 +83547,7 @@
         <v>1307</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8130</v>
+        <v>8239</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -82864,7 +83690,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8021</v>
+        <v>8130</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1297</v>
@@ -82912,10 +83738,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>8146</v>
+        <v>8255</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>8148</v>
+        <v>8257</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -82936,10 +83762,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>8147</v>
+        <v>8256</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8149</v>
+        <v>8258</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -83599,7 +84425,7 @@
         <v>1241</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>8128</v>
+        <v>8237</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -83857,7 +84683,7 @@
         <v>1220</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8129</v>
+        <v>8238</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -83973,7 +84799,7 @@
         <v>1211</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8113</v>
+        <v>8222</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -84719,10 +85545,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>8067</v>
+        <v>8176</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8066</v>
+        <v>8175</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="83385" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="8"/>
+    <workbookView xWindow="83385" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8339" uniqueCount="8101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8300" uniqueCount="8060">
   <si>
     <t>Uuo</t>
   </si>
@@ -21167,39 +21167,6 @@
     <t>16n</t>
   </si>
   <si>
-    <t>16m</t>
-  </si>
-  <si>
-    <t>16l</t>
-  </si>
-  <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>16j</t>
-  </si>
-  <si>
-    <t>16i</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>16g</t>
-  </si>
-  <si>
-    <t>16f</t>
-  </si>
-  <si>
-    <t>16e</t>
-  </si>
-  <si>
-    <t>16d</t>
-  </si>
-  <si>
-    <t>16c</t>
-  </si>
-  <si>
     <t>15F</t>
   </si>
   <si>
@@ -21248,39 +21215,6 @@
     <t>15i</t>
   </si>
   <si>
-    <t>15h</t>
-  </si>
-  <si>
-    <t>15g</t>
-  </si>
-  <si>
-    <t>15f</t>
-  </si>
-  <si>
-    <t>15e</t>
-  </si>
-  <si>
-    <t>15d</t>
-  </si>
-  <si>
-    <t>15c</t>
-  </si>
-  <si>
-    <t>15b</t>
-  </si>
-  <si>
-    <t>15a</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
     <t>14F</t>
   </si>
   <si>
@@ -21327,39 +21261,6 @@
   </si>
   <si>
     <t>14d</t>
-  </si>
-  <si>
-    <t>14c</t>
-  </si>
-  <si>
-    <t>14b</t>
-  </si>
-  <si>
-    <t>14a</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>142</t>
   </si>
   <si>
     <t>13F</t>
@@ -24667,39 +24568,6 @@
     <t>5X</t>
   </si>
   <si>
-    <t>5W</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>5U</t>
-  </si>
-  <si>
-    <t>5T</t>
-  </si>
-  <si>
-    <t>5S</t>
-  </si>
-  <si>
-    <t>5R</t>
-  </si>
-  <si>
-    <t>5Q</t>
-  </si>
-  <si>
-    <t>5P</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>5L</t>
-  </si>
-  <si>
-    <t>5K</t>
-  </si>
-  <si>
     <t>PEAd</t>
   </si>
   <si>
@@ -24884,6 +24752,15 @@
   </si>
   <si>
     <t>Cyclopentadiene</t>
+  </si>
+  <si>
+    <t>Smelting Class</t>
+  </si>
+  <si>
+    <t>Ingot</t>
+  </si>
+  <si>
+    <t>Pellets</t>
   </si>
 </sst>
 </file>
@@ -25607,10 +25484,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25622,12 +25499,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7915</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>7916</v>
+        <v>7883</v>
       </c>
       <c r="B2" s="54">
         <v>41804</v>
@@ -25635,7 +25512,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>7917</v>
+        <v>7884</v>
       </c>
       <c r="B3" s="54">
         <v>41805</v>
@@ -25643,7 +25520,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>7932</v>
+        <v>7899</v>
       </c>
       <c r="B4" s="54">
         <v>41806</v>
@@ -25651,7 +25528,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>7931</v>
+        <v>7898</v>
       </c>
       <c r="B5" s="54">
         <v>41813</v>
@@ -25659,7 +25536,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>7935</v>
+        <v>7902</v>
       </c>
       <c r="B6" s="54">
         <v>41868</v>
@@ -25667,15 +25544,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>7939</v>
+        <v>7906</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>7940</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7938</v>
+        <v>7905</v>
       </c>
       <c r="B8" s="54">
         <v>41930</v>
@@ -25683,7 +25560,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7941</v>
+        <v>7908</v>
       </c>
       <c r="B9" s="54">
         <v>41932</v>
@@ -25691,7 +25568,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7942</v>
+        <v>7909</v>
       </c>
       <c r="B10" s="54">
         <v>41941</v>
@@ -25699,7 +25576,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7943</v>
+        <v>7910</v>
       </c>
       <c r="B11" s="54">
         <v>41998</v>
@@ -25707,7 +25584,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7918</v>
+        <v>7885</v>
       </c>
       <c r="B12" s="54">
         <v>42002</v>
@@ -25715,7 +25592,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8049</v>
+        <v>8005</v>
       </c>
       <c r="B13" s="54">
         <v>42037</v>
@@ -25723,7 +25600,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8080</v>
+        <v>8036</v>
       </c>
       <c r="B14" s="54">
         <v>42042</v>
@@ -25731,10 +25608,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7944</v>
+        <v>7911</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7933</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -25762,7 +25639,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>7873</v>
+        <v>7840</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>1387</v>
@@ -25773,7 +25650,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>7906</v>
+        <v>7873</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>$A$18</f>
@@ -25809,7 +25686,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>7907</v>
+        <v>7874</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>$A$18</f>
@@ -25845,7 +25722,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>7881</v>
+        <v>7848</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>$A$18</f>
@@ -25869,7 +25746,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>7837</v>
+        <v>7804</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>$A$20</f>
@@ -25920,7 +25797,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>7874</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -25950,17 +25827,17 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>7861</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>7862</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>7860</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -26157,99 +26034,99 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>7875</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>7816</v>
+        <v>7783</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7848</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>7847</v>
+        <v>7814</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7849</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7855</v>
+        <v>7822</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7850</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>7856</v>
+        <v>7823</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7851</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>7857</v>
+        <v>7824</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7852</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>7745</v>
+        <v>7712</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7853</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>7567</v>
+        <v>7534</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7854</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>7876</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>7871</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>7872</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>7963</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>7838</v>
+        <v>7805</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7839</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>7840</v>
+        <v>7807</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7841</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -26257,31 +26134,31 @@
         <v>185</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7842</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>7843</v>
+        <v>7810</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7844</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>7808</v>
+        <v>7775</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7845</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>7846</v>
+        <v>7813</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7845</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -26289,7 +26166,7 @@
         <v>255</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7842</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -26297,7 +26174,7 @@
         <v>256</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7842</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -26305,136 +26182,161 @@
         <v>257</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7842</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>7930</v>
+        <v>7897</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7842</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>7960</v>
+        <v>7927</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7842</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>7965</v>
+        <v>7932</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7964</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>7946</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>7947</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>7948</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>7949</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>7950</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>7956</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>7957</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>7951</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>7952</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>7953</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>7954</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>7955</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>7908</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>7909</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>7910</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>7911</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>7912</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>7913</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>8015</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>8016</v>
+        <v>7983</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>8017</v>
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>8059</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>7794</v>
       </c>
     </row>
   </sheetData>
@@ -26467,7 +26369,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7879</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26476,7 +26378,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>7832</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -26485,7 +26387,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>7831</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26494,7 +26396,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>7829</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26503,7 +26405,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>7830</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26512,7 +26414,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>7833</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26521,7 +26423,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>7828</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26530,7 +26432,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>7827</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -26539,7 +26441,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>7834</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -26548,7 +26450,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>7835</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -26557,7 +26459,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>7836</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -26566,7 +26468,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7864</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -26575,7 +26477,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7882</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -26584,7 +26486,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7934</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26593,7 +26495,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7958</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -26602,7 +26504,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7976</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -26611,7 +26513,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7987</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -26620,7 +26522,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7988</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -26629,7 +26531,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7989</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -26638,7 +26540,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7990</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -26647,7 +26549,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7991</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -26656,7 +26558,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7992</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -26665,7 +26567,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7993</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -26674,7 +26576,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7994</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -26683,7 +26585,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7995</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -26692,7 +26594,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7996</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -26701,7 +26603,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7997</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -26710,7 +26612,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7998</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -26719,7 +26621,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8014</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -26728,7 +26630,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8081</v>
+        <v>8037</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26646,7 @@
   <dimension ref="A1:F5552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26753,68 +26655,194 @@
     <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7116</v>
+        <v>7083</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>6937</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="35" t="s">
+        <v>7994</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>7003</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>6987</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>6936</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="35" t="s">
+        <v>7993</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>7002</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>6986</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>6935</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="35" t="s">
+        <v>7992</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>7001</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>6985</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>6934</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="35" t="s">
+        <v>7991</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>6984</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>6933</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="35" t="s">
+        <v>7990</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>6999</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>6983</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>6932</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="35" t="s">
+        <v>7989</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>6998</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>6982</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>6931</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="35" t="s">
+        <v>7988</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>6997</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>6981</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>6930</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="35" t="s">
+        <v>7987</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>6996</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>6980</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>6929</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="35" t="s">
+        <v>7986</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>6995</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>6979</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>6928</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="35" t="s">
+        <v>7985</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>6994</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>6978</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>6962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>6927</v>
       </c>
+      <c r="C16"/>
+      <c r="D16">
+        <v>142</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
@@ -26976,414 +27004,162 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
         <v>6894</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>8038</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>7036</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>7009</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>6982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
         <v>6893</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>8037</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>7035</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>7008</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>6981</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
         <v>6892</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>8036</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>7034</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>7007</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>6980</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
         <v>6891</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>8035</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>7033</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>7006</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>6979</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="35" t="s">
         <v>6890</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>8034</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>7032</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>7005</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>6978</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>6889</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>8033</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>7031</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>7004</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>6977</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
         <v>6888</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>8032</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>7030</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>7003</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>6976</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
         <v>6887</v>
       </c>
-      <c r="C56" s="35" t="s">
-        <v>8031</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>7029</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>7002</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>6975</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="35" t="s">
         <v>6886</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>8030</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>7028</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>7001</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>6974</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
         <v>6885</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>8029</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>7027</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>7000</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>6973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
         <v>6884</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>8028</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>7026</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>6999</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>6972</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
         <v>6883</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>8027</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>7025</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>6998</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>6971</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="35" t="s">
         <v>6882</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>8026</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>7024</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>6997</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>6970</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
         <v>6881</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>8025</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>7023</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>6996</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>6969</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="35" t="s">
         <v>6880</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>8024</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>7022</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>6995</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>6968</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>6879</v>
       </c>
-      <c r="C64" s="35" t="s">
-        <v>8023</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>7021</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>6994</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>6967</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
         <v>6878</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>8022</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>7020</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>6993</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>6966</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
         <v>6877</v>
       </c>
-      <c r="C66" s="35" t="s">
-        <v>8021</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>7019</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>6992</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>6965</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>6876</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>8020</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>7018</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>6991</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>6964</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
         <v>6875</v>
       </c>
-      <c r="C68" s="35" t="s">
-        <v>8019</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>7017</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>6990</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>6963</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="35" t="s">
         <v>6874</v>
       </c>
-      <c r="C69" s="35" t="s">
-        <v>8018</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>7016</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>6989</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>6962</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="35" t="s">
         <v>6873</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="35" t="s">
         <v>6872</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>6871</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="35" t="s">
         <v>6870</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>6869</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="35" t="s">
         <v>6868</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="35" t="s">
         <v>6867</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>6866</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
         <v>6865</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="35" t="s">
         <v>6864</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>6863</v>
       </c>
@@ -54773,12 +54549,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>7877</v>
+        <v>7844</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>7826</v>
+        <v>7793</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -54813,10 +54589,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7825</v>
+        <v>7792</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>7824</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54847,10 +54623,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7823</v>
+        <v>7790</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>7822</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54881,10 +54657,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7821</v>
+        <v>7788</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>7820</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54915,10 +54691,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7819</v>
+        <v>7786</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7818</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54949,10 +54725,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7817</v>
+        <v>7784</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7816</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54983,10 +54759,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7815</v>
+        <v>7782</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7814</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55017,10 +54793,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7813</v>
+        <v>7780</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>7812</v>
+        <v>7779</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55051,10 +54827,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7811</v>
+        <v>7778</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>7810</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55085,10 +54861,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7809</v>
+        <v>7776</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>7808</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55119,10 +54895,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7807</v>
+        <v>7774</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>7806</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55150,13 +54926,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7060</v>
+        <v>7027</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7805</v>
+        <v>7772</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>7804</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55184,13 +54960,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7059</v>
+        <v>7026</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7803</v>
+        <v>7770</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7802</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55218,13 +54994,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7058</v>
+        <v>7025</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7801</v>
+        <v>7768</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7800</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55252,13 +55028,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7057</v>
+        <v>7024</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7799</v>
+        <v>7766</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7798</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55286,13 +55062,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7056</v>
+        <v>7023</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7797</v>
+        <v>7764</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7796</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55320,13 +55096,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7055</v>
+        <v>7022</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7795</v>
+        <v>7762</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7794</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55357,10 +55133,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7793</v>
+        <v>7760</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>7792</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55391,10 +55167,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7791</v>
+        <v>7758</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>7790</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55425,10 +55201,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7789</v>
+        <v>7756</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>7788</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55459,10 +55235,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7787</v>
+        <v>7754</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7786</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55493,10 +55269,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7785</v>
+        <v>7752</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7784</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55527,10 +55303,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7783</v>
+        <v>7750</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7782</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55561,10 +55337,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7781</v>
+        <v>7748</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7780</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55595,10 +55371,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7779</v>
+        <v>7746</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>7778</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55629,10 +55405,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7777</v>
+        <v>7744</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>7776</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55663,10 +55439,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7775</v>
+        <v>7742</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>7774</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55694,13 +55470,13 @@
         <v>282</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>7054</v>
+        <v>7021</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7773</v>
+        <v>7740</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>7772</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55728,13 +55504,13 @@
         <v>283</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7053</v>
+        <v>7020</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7771</v>
+        <v>7738</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7770</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55762,13 +55538,13 @@
         <v>284</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7052</v>
+        <v>7019</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7769</v>
+        <v>7736</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>7768</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55796,13 +55572,13 @@
         <v>285</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7051</v>
+        <v>7018</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7767</v>
+        <v>7734</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>7766</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55830,13 +55606,13 @@
         <v>286</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>7050</v>
+        <v>7017</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7765</v>
+        <v>7732</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7764</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55864,13 +55640,13 @@
         <v>287</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7049</v>
+        <v>7016</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7763</v>
+        <v>7730</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>7762</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55901,10 +55677,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7761</v>
+        <v>7728</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7760</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55935,10 +55711,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7759</v>
+        <v>7726</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>7758</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55969,10 +55745,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7757</v>
+        <v>7724</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>7756</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56003,10 +55779,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7755</v>
+        <v>7722</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>7754</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56037,10 +55813,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7753</v>
+        <v>7720</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>7752</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56071,10 +55847,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7751</v>
+        <v>7718</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7750</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -56105,10 +55881,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7749</v>
+        <v>7716</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>7748</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56139,10 +55915,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7747</v>
+        <v>7714</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7746</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56173,10 +55949,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7351</v>
+        <v>7318</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7745</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56207,10 +55983,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7744</v>
+        <v>7711</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7743</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56238,13 +56014,13 @@
         <v>298</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7048</v>
+        <v>7015</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7742</v>
+        <v>7709</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>7741</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56272,13 +56048,13 @@
         <v>299</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>7047</v>
+        <v>7014</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7740</v>
+        <v>7707</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7739</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56306,13 +56082,13 @@
         <v>300</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7046</v>
+        <v>7013</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7738</v>
+        <v>7705</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7737</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56340,13 +56116,13 @@
         <v>301</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7045</v>
+        <v>7012</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7736</v>
+        <v>7703</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>7735</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56374,13 +56150,13 @@
         <v>302</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>7044</v>
+        <v>7011</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7734</v>
+        <v>7701</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>7733</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56408,13 +56184,13 @@
         <v>303</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>7043</v>
+        <v>7010</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7732</v>
+        <v>7699</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>7731</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56445,10 +56221,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7730</v>
+        <v>7697</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>7729</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56479,10 +56255,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7728</v>
+        <v>7695</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>7727</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56513,10 +56289,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7726</v>
+        <v>7693</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>7725</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56547,10 +56323,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7724</v>
+        <v>7691</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>7723</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56581,10 +56357,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7722</v>
+        <v>7689</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>7721</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56615,10 +56391,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7720</v>
+        <v>7687</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>7719</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56649,10 +56425,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7718</v>
+        <v>7685</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>7717</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56683,10 +56459,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7716</v>
+        <v>7683</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>7715</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56717,10 +56493,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7714</v>
+        <v>7681</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7713</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56751,10 +56527,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7712</v>
+        <v>7679</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7711</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56782,13 +56558,13 @@
         <v>314</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7042</v>
+        <v>7009</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7710</v>
+        <v>7677</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7709</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56816,13 +56592,13 @@
         <v>315</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>7041</v>
+        <v>7008</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7708</v>
+        <v>7675</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>7707</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56850,13 +56626,13 @@
         <v>316</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>7040</v>
+        <v>7007</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7706</v>
+        <v>7673</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>7705</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56884,13 +56660,13 @@
         <v>317</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7039</v>
+        <v>7006</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7704</v>
+        <v>7671</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>7703</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56918,13 +56694,13 @@
         <v>318</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>7038</v>
+        <v>7005</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7702</v>
+        <v>7669</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>7701</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56952,13 +56728,13 @@
         <v>319</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>7037</v>
+        <v>7004</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7700</v>
+        <v>7667</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>7699</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56989,10 +56765,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7698</v>
+        <v>7665</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>7697</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57023,10 +56799,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7696</v>
+        <v>7663</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>7695</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57057,10 +56833,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7694</v>
+        <v>7661</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7693</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57091,10 +56867,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7692</v>
+        <v>7659</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>7691</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57125,10 +56901,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7337</v>
+        <v>7304</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>7690</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57159,10 +56935,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7689</v>
+        <v>7656</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>7688</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57193,10 +56969,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7687</v>
+        <v>7654</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>7686</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57227,10 +57003,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7685</v>
+        <v>7652</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>7684</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57261,10 +57037,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7683</v>
+        <v>7650</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>7682</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57295,10 +57071,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7681</v>
+        <v>7648</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7680</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57326,13 +57102,13 @@
         <v>330</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>7015</v>
+        <v>6993</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7323</v>
+        <v>7290</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7679</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57360,13 +57136,13 @@
         <v>331</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>7014</v>
+        <v>6992</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7678</v>
+        <v>7645</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>7677</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57394,13 +57170,13 @@
         <v>332</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7013</v>
+        <v>6991</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7676</v>
+        <v>7643</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>7675</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57428,13 +57204,13 @@
         <v>333</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7012</v>
+        <v>6990</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7674</v>
+        <v>7641</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>7673</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57462,13 +57238,13 @@
         <v>334</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7011</v>
+        <v>6989</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7672</v>
+        <v>7639</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>7671</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57496,13 +57272,13 @@
         <v>335</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>7010</v>
+        <v>6988</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7670</v>
+        <v>7637</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7669</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57533,10 +57309,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7668</v>
+        <v>7635</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7667</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57567,10 +57343,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7666</v>
+        <v>7633</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7300</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57601,10 +57377,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7299</v>
+        <v>7266</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7665</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57635,10 +57411,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7664</v>
+        <v>7631</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>7663</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57669,10 +57445,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7662</v>
+        <v>7629</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>7661</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57703,10 +57479,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7660</v>
+        <v>7627</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7659</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57737,10 +57513,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7658</v>
+        <v>7625</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>7657</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57771,10 +57547,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7656</v>
+        <v>7623</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7655</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57805,10 +57581,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7654</v>
+        <v>7621</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7653</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57839,10 +57615,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7652</v>
+        <v>7619</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7651</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57870,13 +57646,13 @@
         <v>346</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>6988</v>
+        <v>6977</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7650</v>
+        <v>7617</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>7649</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57904,13 +57680,13 @@
         <v>347</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>6987</v>
+        <v>6976</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7648</v>
+        <v>7615</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>7647</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57938,13 +57714,13 @@
         <v>348</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>6986</v>
+        <v>6975</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7646</v>
+        <v>7613</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>7645</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -57972,13 +57748,13 @@
         <v>349</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>6985</v>
+        <v>6974</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7644</v>
+        <v>7611</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7643</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58006,13 +57782,13 @@
         <v>350</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>6984</v>
+        <v>6973</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7642</v>
+        <v>7609</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>7641</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58040,13 +57816,13 @@
         <v>351</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>6983</v>
+        <v>6972</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7640</v>
+        <v>7607</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>7639</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58077,10 +57853,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7638</v>
+        <v>7605</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>7637</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58111,7 +57887,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7636</v>
+        <v>7603</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -58145,10 +57921,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7281</v>
+        <v>7248</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>7635</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58179,10 +57955,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7427</v>
+        <v>7394</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>7634</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58213,10 +57989,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7633</v>
+        <v>7600</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>7632</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58247,10 +58023,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7631</v>
+        <v>7598</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7630</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58281,10 +58057,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7629</v>
+        <v>7596</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>7628</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58315,10 +58091,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7627</v>
+        <v>7594</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>7626</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58349,10 +58125,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7625</v>
+        <v>7592</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7258</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58383,10 +58159,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7624</v>
+        <v>7591</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>7623</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58417,10 +58193,10 @@
         <v>6961</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7622</v>
+        <v>7589</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>7621</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58451,10 +58227,10 @@
         <v>6960</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7620</v>
+        <v>7587</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>7619</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58485,10 +58261,10 @@
         <v>6959</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7618</v>
+        <v>7585</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>7617</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58519,10 +58295,10 @@
         <v>6958</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7616</v>
+        <v>7583</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>7615</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58553,10 +58329,10 @@
         <v>6957</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7614</v>
+        <v>7581</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7613</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58587,10 +58363,10 @@
         <v>6956</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7612</v>
+        <v>7579</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7611</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58621,10 +58397,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7610</v>
+        <v>7577</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7609</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58655,10 +58431,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7608</v>
+        <v>7575</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7607</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58689,10 +58465,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7606</v>
+        <v>7573</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>7605</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58723,10 +58499,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7604</v>
+        <v>7571</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>7603</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58757,10 +58533,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7235</v>
+        <v>7202</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>7602</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58791,10 +58567,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7601</v>
+        <v>7568</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7600</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58825,10 +58601,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7599</v>
+        <v>7566</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>7598</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58859,10 +58635,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7597</v>
+        <v>7564</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>7596</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58893,10 +58669,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7595</v>
+        <v>7562</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>7594</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58927,10 +58703,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7593</v>
+        <v>7560</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7592</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58961,10 +58737,10 @@
         <v>6955</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7591</v>
+        <v>7558</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7590</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58995,10 +58771,10 @@
         <v>6954</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7231</v>
+        <v>7198</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7589</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59029,10 +58805,10 @@
         <v>6953</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7229</v>
+        <v>7196</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7588</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59063,10 +58839,10 @@
         <v>6952</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7587</v>
+        <v>7554</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>7586</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59097,10 +58873,10 @@
         <v>6951</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7585</v>
+        <v>7552</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>7584</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59131,10 +58907,10 @@
         <v>6950</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7583</v>
+        <v>7550</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7582</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59165,10 +58941,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7581</v>
+        <v>7548</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>7580</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59199,10 +58975,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7579</v>
+        <v>7546</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7578</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59233,10 +59009,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7577</v>
+        <v>7544</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>7576</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59267,10 +59043,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7575</v>
+        <v>7542</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>7574</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59301,10 +59077,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7573</v>
+        <v>7540</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>7572</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59335,10 +59111,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7571</v>
+        <v>7538</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7570</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59369,10 +59145,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7185</v>
+        <v>7152</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>7569</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59403,10 +59179,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7568</v>
+        <v>7535</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>7567</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59437,10 +59213,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7566</v>
+        <v>7533</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>7565</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59471,10 +59247,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7564</v>
+        <v>7531</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>7563</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59505,10 +59281,10 @@
         <v>6949</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7562</v>
+        <v>7529</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>7561</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59539,10 +59315,10 @@
         <v>6948</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7560</v>
+        <v>7527</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>7559</v>
+        <v>7526</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59573,10 +59349,10 @@
         <v>6947</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7558</v>
+        <v>7525</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>7557</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59607,10 +59383,10 @@
         <v>6946</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7177</v>
+        <v>7144</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7556</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59641,10 +59417,10 @@
         <v>6945</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7555</v>
+        <v>7522</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7554</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59675,10 +59451,10 @@
         <v>6944</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7553</v>
+        <v>7520</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>7552</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59709,10 +59485,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7551</v>
+        <v>7518</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>7550</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59743,10 +59519,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7549</v>
+        <v>7516</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>7548</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59777,10 +59553,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7547</v>
+        <v>7514</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>7546</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59811,10 +59587,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7545</v>
+        <v>7512</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>7544</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59845,10 +59621,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7543</v>
+        <v>7510</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>7542</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59879,10 +59655,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7541</v>
+        <v>7508</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7240</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59913,10 +59689,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7540</v>
+        <v>7507</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>7539</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59947,10 +59723,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7538</v>
+        <v>7505</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7537</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59981,10 +59757,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7536</v>
+        <v>7503</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7535</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60013,7 +59789,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60042,7 +59818,7 @@
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60071,7 +59847,7 @@
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60100,7 +59876,7 @@
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60129,7 +59905,7 @@
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60158,7 +59934,7 @@
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60187,7 +59963,7 @@
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60216,7 +59992,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60247,10 +60023,10 @@
         <v>5313</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7534</v>
+        <v>7501</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>7533</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60281,10 +60057,10 @@
         <v>5312</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7532</v>
+        <v>7499</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>7531</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60315,10 +60091,10 @@
         <v>5311</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7530</v>
+        <v>7497</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7529</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60349,7 +60125,7 @@
         <v>5310</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7528</v>
+        <v>7495</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -60383,10 +60159,10 @@
         <v>5309</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7527</v>
+        <v>7494</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7526</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60417,10 +60193,10 @@
         <v>5308</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7525</v>
+        <v>7492</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7524</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60449,7 +60225,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60478,7 +60254,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60507,7 +60283,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60536,7 +60312,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60565,7 +60341,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60594,7 +60370,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60623,7 +60399,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60652,7 +60428,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60681,7 +60457,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60709,13 +60485,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7523</v>
+        <v>7490</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7522</v>
+        <v>7489</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7521</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60743,13 +60519,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7520</v>
+        <v>7487</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7519</v>
+        <v>7486</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7518</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60777,13 +60553,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7517</v>
+        <v>7484</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7516</v>
+        <v>7483</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7515</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60811,13 +60587,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7514</v>
+        <v>7481</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7513</v>
+        <v>7480</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7512</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60845,13 +60621,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7511</v>
+        <v>7478</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7510</v>
+        <v>7477</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7509</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60879,13 +60655,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7508</v>
+        <v>7475</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7507</v>
+        <v>7474</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7506</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60913,13 +60689,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7505</v>
+        <v>7472</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7504</v>
+        <v>7471</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7503</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60947,13 +60723,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7502</v>
+        <v>7469</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7501</v>
+        <v>7468</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7500</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60981,13 +60757,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7499</v>
+        <v>7466</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7498</v>
+        <v>7465</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7497</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61015,13 +60791,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7496</v>
+        <v>7463</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7495</v>
+        <v>7462</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7494</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61049,13 +60825,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7493</v>
+        <v>7460</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7492</v>
+        <v>7459</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7491</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -61083,13 +60859,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7490</v>
+        <v>7457</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7489</v>
+        <v>7456</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7488</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61114,11 +60890,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7487</v>
+        <v>7454</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61143,11 +60919,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7486</v>
+        <v>7453</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61172,11 +60948,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7485</v>
+        <v>7452</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61201,11 +60977,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7484</v>
+        <v>7451</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
   </sheetData>
@@ -61236,7 +61012,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7878</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61267,10 +61043,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7483</v>
+        <v>7450</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7482</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61301,10 +61077,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7481</v>
+        <v>7448</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7480</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61335,10 +61111,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7479</v>
+        <v>7446</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7478</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61369,10 +61145,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7477</v>
+        <v>7444</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7476</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61403,10 +61179,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7475</v>
+        <v>7442</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7474</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61437,10 +61213,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7473</v>
+        <v>7440</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7472</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61471,10 +61247,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7471</v>
+        <v>7438</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7470</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61505,10 +61281,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7469</v>
+        <v>7436</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7468</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61539,10 +61315,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7467</v>
+        <v>7434</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7466</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61573,10 +61349,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7465</v>
+        <v>7432</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7464</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61604,13 +61380,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7463</v>
+        <v>7430</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7462</v>
+        <v>7429</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7461</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61641,10 +61417,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7460</v>
+        <v>7427</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7459</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61675,10 +61451,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7458</v>
+        <v>7425</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7457</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61706,13 +61482,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7456</v>
+        <v>7423</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7455</v>
+        <v>7422</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7454</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61740,13 +61516,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7453</v>
+        <v>7420</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7452</v>
+        <v>7419</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7451</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61777,10 +61553,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7450</v>
+        <v>7417</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7449</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61811,10 +61587,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7448</v>
+        <v>7415</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7447</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61845,10 +61621,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7446</v>
+        <v>7413</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7445</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61879,10 +61655,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7444</v>
+        <v>7411</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7443</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61913,10 +61689,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7442</v>
+        <v>7409</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7441</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61947,10 +61723,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7440</v>
+        <v>7407</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7439</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61981,10 +61757,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7438</v>
+        <v>7405</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7437</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62015,10 +61791,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7436</v>
+        <v>7403</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7435</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62049,10 +61825,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7434</v>
+        <v>7401</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7433</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62083,10 +61859,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7432</v>
+        <v>7399</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7431</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62117,10 +61893,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7430</v>
+        <v>7397</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7429</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62148,13 +61924,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7428</v>
+        <v>7395</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7427</v>
+        <v>7394</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7426</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62182,13 +61958,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7425</v>
+        <v>7392</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7424</v>
+        <v>7391</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7423</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62216,13 +61992,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7422</v>
+        <v>7389</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7421</v>
+        <v>7388</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7420</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62250,13 +62026,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7115</v>
+        <v>7082</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7419</v>
+        <v>7386</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7418</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62284,13 +62060,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7114</v>
+        <v>7081</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7417</v>
+        <v>7384</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7416</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62318,13 +62094,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7113</v>
+        <v>7080</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7415</v>
+        <v>7382</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7414</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62355,10 +62131,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7413</v>
+        <v>7380</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7412</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62389,10 +62165,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7411</v>
+        <v>7378</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7410</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62423,10 +62199,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7409</v>
+        <v>7376</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7408</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62457,10 +62233,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7407</v>
+        <v>7374</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7406</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62491,10 +62267,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7405</v>
+        <v>7372</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7404</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62525,10 +62301,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7403</v>
+        <v>7370</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7402</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62559,10 +62335,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7401</v>
+        <v>7368</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7400</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62593,10 +62369,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7399</v>
+        <v>7366</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7398</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62627,10 +62403,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7397</v>
+        <v>7364</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7396</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62661,10 +62437,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7395</v>
+        <v>7362</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7394</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62692,13 +62468,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7393</v>
+        <v>7360</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7392</v>
+        <v>7359</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7391</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62726,13 +62502,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7390</v>
+        <v>7357</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7389</v>
+        <v>7356</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7388</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62760,13 +62536,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7387</v>
+        <v>7354</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7386</v>
+        <v>7353</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7385</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62794,13 +62570,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7384</v>
+        <v>7351</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7383</v>
+        <v>7350</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7382</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62828,13 +62604,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7381</v>
+        <v>7348</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7380</v>
+        <v>7347</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7379</v>
+        <v>7346</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62862,13 +62638,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7378</v>
+        <v>7345</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7377</v>
+        <v>7344</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7376</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62899,10 +62675,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7375</v>
+        <v>7342</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7374</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62933,10 +62709,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7373</v>
+        <v>7340</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7372</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62967,10 +62743,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7371</v>
+        <v>7338</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7370</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63001,10 +62777,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7369</v>
+        <v>7336</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7368</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63035,10 +62811,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7367</v>
+        <v>7334</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7366</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63069,10 +62845,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7365</v>
+        <v>7332</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7364</v>
+        <v>7331</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63103,10 +62879,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7363</v>
+        <v>7330</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7362</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63137,10 +62913,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7361</v>
+        <v>7328</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7360</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63171,10 +62947,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7359</v>
+        <v>7326</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7358</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63205,10 +62981,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7357</v>
+        <v>7324</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7356</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63236,13 +63012,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7355</v>
+        <v>7322</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7354</v>
+        <v>7321</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7353</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63270,13 +63046,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7352</v>
+        <v>7319</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7351</v>
+        <v>7318</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7350</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63304,13 +63080,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7349</v>
+        <v>7316</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7348</v>
+        <v>7315</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7347</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63338,13 +63114,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7346</v>
+        <v>7313</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7345</v>
+        <v>7312</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7344</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63372,13 +63148,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7343</v>
+        <v>7310</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7342</v>
+        <v>7309</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7341</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63406,13 +63182,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7340</v>
+        <v>7307</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7339</v>
+        <v>7306</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7338</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63443,10 +63219,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7337</v>
+        <v>7304</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7336</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63477,10 +63253,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7335</v>
+        <v>7302</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7334</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63511,10 +63287,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7333</v>
+        <v>7300</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7332</v>
+        <v>7299</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63545,10 +63321,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7331</v>
+        <v>7298</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7330</v>
+        <v>7297</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63579,10 +63355,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7329</v>
+        <v>7296</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7328</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63613,10 +63389,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7327</v>
+        <v>7294</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7326</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63647,10 +63423,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7325</v>
+        <v>7292</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7324</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63681,10 +63457,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7323</v>
+        <v>7290</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7322</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63715,10 +63491,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7321</v>
+        <v>7288</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7320</v>
+        <v>7287</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63749,10 +63525,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7319</v>
+        <v>7286</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7318</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63780,13 +63556,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7112</v>
+        <v>7079</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7317</v>
+        <v>7284</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7316</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63814,13 +63590,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7111</v>
+        <v>7078</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7315</v>
+        <v>7282</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7314</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63848,13 +63624,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7110</v>
+        <v>7077</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7313</v>
+        <v>7280</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7312</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63882,13 +63658,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7109</v>
+        <v>7076</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7311</v>
+        <v>7278</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7310</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63916,13 +63692,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7108</v>
+        <v>7075</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7309</v>
+        <v>7276</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7308</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63950,13 +63726,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7107</v>
+        <v>7074</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7307</v>
+        <v>7274</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7306</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63987,10 +63763,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7305</v>
+        <v>7272</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7304</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64021,10 +63797,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7303</v>
+        <v>7270</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7302</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64055,10 +63831,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7301</v>
+        <v>7268</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7300</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64089,10 +63865,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7299</v>
+        <v>7266</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7298</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64123,10 +63899,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7297</v>
+        <v>7264</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7296</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64157,10 +63933,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7295</v>
+        <v>7262</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7294</v>
+        <v>7261</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64191,10 +63967,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7293</v>
+        <v>7260</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7292</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64225,10 +64001,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7291</v>
+        <v>7258</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7290</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64259,10 +64035,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7289</v>
+        <v>7256</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7288</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64293,10 +64069,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7287</v>
+        <v>7254</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7286</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64324,13 +64100,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7106</v>
+        <v>7073</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7285</v>
+        <v>7252</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7284</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64358,13 +64134,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7105</v>
+        <v>7072</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7283</v>
+        <v>7250</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7282</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64392,13 +64168,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7104</v>
+        <v>7071</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7281</v>
+        <v>7248</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7280</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64426,13 +64202,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7103</v>
+        <v>7070</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7279</v>
+        <v>7246</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7278</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64460,13 +64236,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7102</v>
+        <v>7069</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7277</v>
+        <v>7244</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7276</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64494,13 +64270,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7101</v>
+        <v>7068</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7275</v>
+        <v>7242</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7274</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64531,10 +64307,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7273</v>
+        <v>7240</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7272</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64565,10 +64341,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7271</v>
+        <v>7238</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7270</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64599,10 +64375,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7269</v>
+        <v>7236</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7268</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64633,10 +64409,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7267</v>
+        <v>7234</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7266</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64667,10 +64443,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7265</v>
+        <v>7232</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7264</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64701,10 +64477,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7263</v>
+        <v>7230</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7262</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64735,10 +64511,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7261</v>
+        <v>7228</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7260</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64769,10 +64545,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7259</v>
+        <v>7226</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7258</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64803,10 +64579,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7257</v>
+        <v>7224</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7256</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64837,10 +64613,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7255</v>
+        <v>7222</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7254</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64868,13 +64644,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7100</v>
+        <v>7067</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7253</v>
+        <v>7220</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7252</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64902,13 +64678,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7099</v>
+        <v>7066</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7251</v>
+        <v>7218</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7250</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64936,13 +64712,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7098</v>
+        <v>7065</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7249</v>
+        <v>7216</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7248</v>
+        <v>7215</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64970,13 +64746,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7097</v>
+        <v>7064</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7247</v>
+        <v>7214</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7246</v>
+        <v>7213</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65004,13 +64780,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7096</v>
+        <v>7063</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7245</v>
+        <v>7212</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7244</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65038,13 +64814,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7095</v>
+        <v>7062</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7243</v>
+        <v>7210</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7242</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65075,10 +64851,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7241</v>
+        <v>7208</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7240</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65109,10 +64885,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7239</v>
+        <v>7206</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7238</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65143,10 +64919,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7237</v>
+        <v>7204</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7236</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65177,10 +64953,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7235</v>
+        <v>7202</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7234</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65211,10 +64987,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7233</v>
+        <v>7200</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7232</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65245,10 +65021,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7231</v>
+        <v>7198</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7230</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65279,10 +65055,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7229</v>
+        <v>7196</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7228</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65313,10 +65089,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7227</v>
+        <v>7194</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7226</v>
+        <v>7193</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65347,10 +65123,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7225</v>
+        <v>7192</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7224</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65381,10 +65157,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7223</v>
+        <v>7190</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7222</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65412,13 +65188,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7094</v>
+        <v>7061</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7221</v>
+        <v>7188</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7220</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65446,13 +65222,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7093</v>
+        <v>7060</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7219</v>
+        <v>7186</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7218</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65480,13 +65256,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7092</v>
+        <v>7059</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7217</v>
+        <v>7184</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7216</v>
+        <v>7183</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65514,13 +65290,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7091</v>
+        <v>7058</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7215</v>
+        <v>7182</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7214</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65548,13 +65324,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7090</v>
+        <v>7057</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7213</v>
+        <v>7180</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7212</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65582,13 +65358,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7089</v>
+        <v>7056</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7211</v>
+        <v>7178</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7210</v>
+        <v>7177</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65619,10 +65395,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7209</v>
+        <v>7176</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7208</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65653,10 +65429,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7207</v>
+        <v>7174</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7206</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65687,10 +65463,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7205</v>
+        <v>7172</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7204</v>
+        <v>7171</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65721,10 +65497,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7203</v>
+        <v>7170</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7202</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65755,10 +65531,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7201</v>
+        <v>7168</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7200</v>
+        <v>7167</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65789,10 +65565,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7199</v>
+        <v>7166</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7198</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65823,10 +65599,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7197</v>
+        <v>7164</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7196</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65857,10 +65633,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7195</v>
+        <v>7162</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7194</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65891,10 +65667,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7193</v>
+        <v>7160</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7192</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65925,10 +65701,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7191</v>
+        <v>7158</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7190</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65956,13 +65732,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7088</v>
+        <v>7055</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7189</v>
+        <v>7156</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7188</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65990,13 +65766,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7087</v>
+        <v>7054</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7187</v>
+        <v>7154</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7186</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66024,13 +65800,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7086</v>
+        <v>7053</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7185</v>
+        <v>7152</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7184</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66058,13 +65834,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7085</v>
+        <v>7052</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7183</v>
+        <v>7150</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7182</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66092,13 +65868,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7084</v>
+        <v>7051</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7181</v>
+        <v>7148</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7180</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66126,13 +65902,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7083</v>
+        <v>7050</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7179</v>
+        <v>7146</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7178</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66163,10 +65939,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7177</v>
+        <v>7144</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7176</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66197,10 +65973,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7175</v>
+        <v>7142</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7174</v>
+        <v>7141</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66231,10 +66007,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7173</v>
+        <v>7140</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7172</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -66265,10 +66041,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7171</v>
+        <v>7138</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7170</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -66299,10 +66075,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7169</v>
+        <v>7136</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7168</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66333,10 +66109,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7167</v>
+        <v>7134</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7166</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66367,10 +66143,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7165</v>
+        <v>7132</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7164</v>
+        <v>7131</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66401,10 +66177,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7163</v>
+        <v>7130</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7162</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66435,10 +66211,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7161</v>
+        <v>7128</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7160</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66469,10 +66245,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7159</v>
+        <v>7126</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7158</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66500,13 +66276,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7082</v>
+        <v>7049</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7157</v>
+        <v>7124</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7156</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66534,13 +66310,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7081</v>
+        <v>7048</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7155</v>
+        <v>7122</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7154</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66568,13 +66344,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7080</v>
+        <v>7047</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7153</v>
+        <v>7120</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7152</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66602,13 +66378,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7079</v>
+        <v>7046</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7151</v>
+        <v>7118</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7150</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66636,13 +66412,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7078</v>
+        <v>7045</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7149</v>
+        <v>7116</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7148</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66670,13 +66446,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7077</v>
+        <v>7044</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7147</v>
+        <v>7114</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7146</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66704,13 +66480,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7076</v>
+        <v>7043</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7145</v>
+        <v>7112</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7144</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66738,13 +66514,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7075</v>
+        <v>7042</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7143</v>
+        <v>7110</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7142</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66772,13 +66548,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7074</v>
+        <v>7041</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7141</v>
+        <v>7108</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7140</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66806,13 +66582,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7073</v>
+        <v>7040</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7139</v>
+        <v>7106</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7138</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66840,13 +66616,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7072</v>
+        <v>7039</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7137</v>
+        <v>7104</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7136</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66874,13 +66650,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7071</v>
+        <v>7038</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7135</v>
+        <v>7102</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7134</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66908,13 +66684,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7070</v>
+        <v>7037</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7133</v>
+        <v>7100</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7132</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66942,13 +66718,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7069</v>
+        <v>7036</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7131</v>
+        <v>7098</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7130</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66976,11 +66752,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7068</v>
+        <v>7035</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67008,11 +66784,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7067</v>
+        <v>7034</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7129</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67040,13 +66816,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7066</v>
+        <v>7033</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7128</v>
+        <v>7095</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7127</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67074,13 +66850,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7065</v>
+        <v>7032</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7126</v>
+        <v>7093</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7125</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67108,13 +66884,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7064</v>
+        <v>7031</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7124</v>
+        <v>7091</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7123</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67142,13 +66918,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7063</v>
+        <v>7030</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7122</v>
+        <v>7089</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7121</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -67176,13 +66952,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7062</v>
+        <v>7029</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7120</v>
+        <v>7087</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7119</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -67210,13 +66986,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7061</v>
+        <v>7028</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7118</v>
+        <v>7085</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7117</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -67314,7 +67090,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7905</v>
+        <v>7872</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -71079,7 +70855,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>7962</v>
+        <v>7929</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>72</v>
@@ -73070,7 +72846,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7921</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -73219,7 +72995,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7930</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -73228,7 +73004,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7960</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -73237,7 +73013,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7961</v>
+        <v>7928</v>
       </c>
     </row>
   </sheetData>
@@ -73258,11 +73034,11 @@
   </sheetPr>
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C364" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C349" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D391" sqref="D391"/>
+      <selection pane="bottomRight" activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -73468,7 +73244,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8067</v>
+        <v>8023</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>1108</v>
@@ -73493,7 +73269,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8068</v>
+        <v>8024</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>1106</v>
@@ -73518,7 +73294,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8069</v>
+        <v>8025</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>1104</v>
@@ -74472,10 +74248,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8086</v>
+        <v>8042</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>8085</v>
+        <v>8041</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -74878,10 +74654,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7869</v>
+        <v>7836</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>7867</v>
+        <v>7834</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -74893,7 +74669,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>7870</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -75226,7 +75002,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8058</v>
+        <v>8014</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>885</v>
@@ -75292,7 +75068,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8041</v>
+        <v>7997</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12" t="str">
@@ -75599,7 +75375,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8066</v>
+        <v>8022</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>282</v>
@@ -76325,7 +76101,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>8065</v>
+        <v>8021</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>301</v>
@@ -76483,7 +76259,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>7928</v>
+        <v>7895</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>744</v>
@@ -76637,10 +76413,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>7886</v>
+        <v>7853</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>7887</v>
+        <v>7854</v>
       </c>
       <c r="D150" s="18" t="str">
         <f>Enums!$A$19</f>
@@ -77321,10 +77097,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7888</v>
+        <v>7855</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>7889</v>
+        <v>7856</v>
       </c>
       <c r="D180" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77341,10 +77117,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8062</v>
+        <v>8018</v>
       </c>
       <c r="C181" t="s">
-        <v>7891</v>
+        <v>7858</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77352,7 +77128,7 @@
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12" t="s">
-        <v>7898</v>
+        <v>7865</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -77363,10 +77139,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8063</v>
+        <v>8019</v>
       </c>
       <c r="C182" t="s">
-        <v>7892</v>
+        <v>7859</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77374,7 +77150,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>7899</v>
+        <v>7866</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -77385,10 +77161,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8064</v>
+        <v>8020</v>
       </c>
       <c r="C183" t="s">
-        <v>7893</v>
+        <v>7860</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77396,7 +77172,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>7900</v>
+        <v>7867</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -77407,10 +77183,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7890</v>
+        <v>7857</v>
       </c>
       <c r="C184" t="s">
-        <v>7894</v>
+        <v>7861</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77418,7 +77194,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>7901</v>
+        <v>7868</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -77429,10 +77205,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8059</v>
+        <v>8015</v>
       </c>
       <c r="C185" t="s">
-        <v>7895</v>
+        <v>7862</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77440,7 +77216,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>7902</v>
+        <v>7869</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -77451,10 +77227,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8060</v>
+        <v>8016</v>
       </c>
       <c r="C186" t="s">
-        <v>7896</v>
+        <v>7863</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77462,7 +77238,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>7903</v>
+        <v>7870</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -77473,10 +77249,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8061</v>
+        <v>8017</v>
       </c>
       <c r="C187" t="s">
-        <v>7897</v>
+        <v>7864</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77484,7 +77260,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>7904</v>
+        <v>7871</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -77515,7 +77291,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>8073</v>
+        <v>8029</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>323</v>
@@ -77833,7 +77609,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>8055</v>
+        <v>8011</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>604</v>
@@ -77873,7 +77649,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>8056</v>
+        <v>8012</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>602</v>
@@ -77895,7 +77671,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>8057</v>
+        <v>8013</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>565</v>
@@ -78105,7 +77881,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>8054</v>
+        <v>8010</v>
       </c>
       <c r="C216" s="12"/>
       <c r="D216" s="12" t="str">
@@ -78168,7 +77944,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>8052</v>
+        <v>8008</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>572</v>
@@ -78192,7 +77968,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>8053</v>
+        <v>8009</v>
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="12" t="str">
@@ -78809,7 +78585,7 @@
         <v>492</v>
       </c>
       <c r="C247" s="52" t="s">
-        <v>7865</v>
+        <v>7832</v>
       </c>
       <c r="D247" s="18" t="str">
         <f>Enums!$A$20</f>
@@ -78817,11 +78593,11 @@
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="12" t="s">
-        <v>7868</v>
+        <v>7835</v>
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="12" t="s">
-        <v>7866</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -79534,7 +79310,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>7883</v>
+        <v>7850</v>
       </c>
       <c r="C278" s="12"/>
       <c r="D278" s="12" t="str">
@@ -79552,7 +79328,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>7884</v>
+        <v>7851</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -79570,7 +79346,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>7885</v>
+        <v>7852</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -80026,7 +79802,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>7929</v>
+        <v>7896</v>
       </c>
       <c r="C301" s="18" t="s">
         <v>327</v>
@@ -80367,7 +80143,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>7914</v>
+        <v>7881</v>
       </c>
       <c r="C316" s="14"/>
       <c r="D316" s="12" t="str">
@@ -80670,7 +80446,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>7858</v>
+        <v>7825</v>
       </c>
       <c r="D333" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80683,7 +80459,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>7859</v>
+        <v>7826</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80696,7 +80472,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>7863</v>
+        <v>7830</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>1389</v>
@@ -80708,10 +80484,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>7923</v>
+        <v>7890</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7922</v>
+        <v>7889</v>
       </c>
       <c r="D336" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80727,10 +80503,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>7924</v>
+        <v>7891</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>7925</v>
+        <v>7892</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80743,10 +80519,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>7926</v>
+        <v>7893</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>7927</v>
+        <v>7894</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80759,7 +80535,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>7936</v>
+        <v>7903</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>693</v>
@@ -80775,7 +80551,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>7937</v>
+        <v>7904</v>
       </c>
       <c r="D340" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80788,7 +80564,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>7967</v>
+        <v>7934</v>
       </c>
       <c r="D341" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80801,7 +80577,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>7968</v>
+        <v>7935</v>
       </c>
       <c r="D342" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80814,7 +80590,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>7969</v>
+        <v>7936</v>
       </c>
       <c r="D343" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80827,7 +80603,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>7970</v>
+        <v>7937</v>
       </c>
       <c r="D344" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80840,7 +80616,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>7971</v>
+        <v>7938</v>
       </c>
       <c r="D345" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80853,7 +80629,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>7972</v>
+        <v>7939</v>
       </c>
       <c r="D346" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80866,7 +80642,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>7973</v>
+        <v>7940</v>
       </c>
       <c r="D347" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80879,7 +80655,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>7974</v>
+        <v>7941</v>
       </c>
       <c r="D348" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80892,7 +80668,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>7975</v>
+        <v>7942</v>
       </c>
       <c r="D349" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80908,7 +80684,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>7977</v>
+        <v>7944</v>
       </c>
       <c r="D350" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80924,10 +80700,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>7978</v>
+        <v>7945</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7979</v>
+        <v>7946</v>
       </c>
       <c r="D351" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80940,10 +80716,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>8003</v>
+        <v>7970</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>8004</v>
+        <v>7971</v>
       </c>
       <c r="D352" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80959,10 +80735,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>8005</v>
+        <v>7972</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>8006</v>
+        <v>7973</v>
       </c>
       <c r="D353" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80978,10 +80754,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>8008</v>
+        <v>7975</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>8007</v>
+        <v>7974</v>
       </c>
       <c r="D354" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80994,10 +80770,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>8010</v>
+        <v>7977</v>
       </c>
       <c r="C355" t="s">
-        <v>8011</v>
+        <v>7978</v>
       </c>
       <c r="D355" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81010,7 +80786,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>8042</v>
+        <v>7998</v>
       </c>
       <c r="D356" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81023,7 +80799,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>8043</v>
+        <v>7999</v>
       </c>
       <c r="D357" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81036,7 +80812,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>8044</v>
+        <v>8000</v>
       </c>
       <c r="D358" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81049,7 +80825,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>8045</v>
+        <v>8001</v>
       </c>
       <c r="D359" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81062,7 +80838,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>8046</v>
+        <v>8002</v>
       </c>
       <c r="D360" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81075,7 +80851,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>8047</v>
+        <v>8003</v>
       </c>
       <c r="D361" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81088,7 +80864,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>8048</v>
+        <v>8004</v>
       </c>
       <c r="D362" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81101,7 +80877,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>8050</v>
+        <v>8006</v>
       </c>
       <c r="D363" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81114,7 +80890,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>8051</v>
+        <v>8007</v>
       </c>
       <c r="D364" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81127,7 +80903,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>8070</v>
+        <v>8026</v>
       </c>
       <c r="D365" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81140,7 +80916,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>8071</v>
+        <v>8027</v>
       </c>
       <c r="D366" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81153,7 +80929,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>8072</v>
+        <v>8028</v>
       </c>
       <c r="D367" s="12" t="str">
         <f>Enums!$A$20</f>
@@ -81166,7 +80942,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>8074</v>
+        <v>8030</v>
       </c>
       <c r="D368" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81179,7 +80955,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>8075</v>
+        <v>8031</v>
       </c>
       <c r="D369" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81192,7 +80968,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>8076</v>
+        <v>8032</v>
       </c>
       <c r="D370" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81205,7 +80981,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>8077</v>
+        <v>8033</v>
       </c>
       <c r="D371" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81218,7 +80994,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>8078</v>
+        <v>8034</v>
       </c>
       <c r="D372" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81231,7 +81007,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>8084</v>
+        <v>8040</v>
       </c>
       <c r="D373" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81244,7 +81020,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>8087</v>
+        <v>8043</v>
       </c>
       <c r="D374" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81257,7 +81033,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>8088</v>
+        <v>8044</v>
       </c>
       <c r="D375" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81270,7 +81046,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>8089</v>
+        <v>8045</v>
       </c>
       <c r="D376" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81296,7 +81072,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>8090</v>
+        <v>8046</v>
       </c>
       <c r="D378" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81309,7 +81085,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>8091</v>
+        <v>8047</v>
       </c>
       <c r="D379" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81322,7 +81098,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>8092</v>
+        <v>8048</v>
       </c>
       <c r="D380" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81335,7 +81111,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>8093</v>
+        <v>8049</v>
       </c>
       <c r="D381" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81348,7 +81124,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>8094</v>
+        <v>8050</v>
       </c>
       <c r="D382" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81361,7 +81137,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>8095</v>
+        <v>8051</v>
       </c>
       <c r="D383" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81377,7 +81153,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>8096</v>
+        <v>8052</v>
       </c>
       <c r="D384" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81393,7 +81169,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>8097</v>
+        <v>8053</v>
       </c>
       <c r="D385" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81406,7 +81182,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>8098</v>
+        <v>8054</v>
       </c>
       <c r="D386" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81419,7 +81195,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>8099</v>
+        <v>8055</v>
       </c>
       <c r="D387" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81432,7 +81208,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>8100</v>
+        <v>8056</v>
       </c>
       <c r="D388" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81451,8 +81227,8 @@
   </sheetPr>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -81481,7 +81257,7 @@
         <v>1335</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>7980</v>
+        <v>7947</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>1334</v>
@@ -81526,10 +81302,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>7985</v>
+        <v>7952</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7984</v>
+        <v>7951</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -81649,10 +81425,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>8013</v>
+        <v>7980</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8013</v>
+        <v>7980</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -81838,7 +81614,7 @@
         <v>1310</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7986</v>
+        <v>7953</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -81932,10 +81708,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>8012</v>
+        <v>7979</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8009</v>
+        <v>7976</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -82051,7 +81827,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>7880</v>
+        <v>7847</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1295</v>
@@ -82173,7 +81949,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>7959</v>
+        <v>7926</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1286</v>
@@ -82200,7 +81976,7 @@
         <v>1285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7983</v>
+        <v>7950</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -82343,10 +82119,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8082</v>
+        <v>8038</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>8083</v>
+        <v>8039</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -82391,10 +82167,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>7999</v>
+        <v>7966</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>8001</v>
+        <v>7968</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -82415,10 +82191,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>8000</v>
+        <v>7967</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8002</v>
+        <v>7969</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -82674,7 +82450,7 @@
         <v>1254</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>8039</v>
+        <v>7995</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -82914,7 +82690,7 @@
         <v>1234</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>8040</v>
+        <v>7996</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -83078,7 +82854,7 @@
         <v>1221</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>7981</v>
+        <v>7948</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -83242,7 +83018,7 @@
         <v>1208</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>8079</v>
+        <v>8035</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -83336,7 +83112,7 @@
         <v>1201</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7982</v>
+        <v>7949</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -83452,7 +83228,7 @@
         <v>1192</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7966</v>
+        <v>7933</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -84198,10 +83974,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>7920</v>
+        <v>7887</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>7919</v>
+        <v>7886</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="83385" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="7"/>
+    <workbookView xWindow="84315" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="10" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -73038,7 +73039,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C349" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F369" sqref="F369"/>
+      <selection pane="bottomRight" activeCell="F370" sqref="F370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -21051,21 +21051,6 @@
     <t>19U</t>
   </si>
   <si>
-    <t>19T</t>
-  </si>
-  <si>
-    <t>19S</t>
-  </si>
-  <si>
-    <t>19R</t>
-  </si>
-  <si>
-    <t>19Q</t>
-  </si>
-  <si>
-    <t>19P</t>
-  </si>
-  <si>
     <t>19F</t>
   </si>
   <si>
@@ -24521,9 +24506,6 @@
     </r>
   </si>
   <si>
-    <t>Isobutylene Rubber</t>
-  </si>
-  <si>
     <t>Carbon Fiber</t>
   </si>
   <si>
@@ -24762,6 +24744,24 @@
   </si>
   <si>
     <t>Pellets</t>
+  </si>
+  <si>
+    <t>Isobutylene-Isoprene Rubber</t>
+  </si>
+  <si>
+    <t>Fluorite</t>
+  </si>
+  <si>
+    <t>Nitrogen Dioxide</t>
+  </si>
+  <si>
+    <t>Sodium Nitrite</t>
+  </si>
+  <si>
+    <t>NaNO2</t>
+  </si>
+  <si>
+    <t>Dicyclopentadiene</t>
   </si>
 </sst>
 </file>
@@ -25487,7 +25487,7 @@
   </sheetPr>
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
@@ -25500,12 +25500,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7882</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>7883</v>
+        <v>7878</v>
       </c>
       <c r="B2" s="54">
         <v>41804</v>
@@ -25513,7 +25513,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>7884</v>
+        <v>7879</v>
       </c>
       <c r="B3" s="54">
         <v>41805</v>
@@ -25521,7 +25521,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>7899</v>
+        <v>7894</v>
       </c>
       <c r="B4" s="54">
         <v>41806</v>
@@ -25529,7 +25529,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>7898</v>
+        <v>7893</v>
       </c>
       <c r="B5" s="54">
         <v>41813</v>
@@ -25537,7 +25537,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>7902</v>
+        <v>7897</v>
       </c>
       <c r="B6" s="54">
         <v>41868</v>
@@ -25545,15 +25545,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>7906</v>
+        <v>7901</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>7907</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7905</v>
+        <v>7900</v>
       </c>
       <c r="B8" s="54">
         <v>41930</v>
@@ -25561,7 +25561,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7908</v>
+        <v>7903</v>
       </c>
       <c r="B9" s="54">
         <v>41932</v>
@@ -25569,7 +25569,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7909</v>
+        <v>7904</v>
       </c>
       <c r="B10" s="54">
         <v>41941</v>
@@ -25577,7 +25577,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7910</v>
+        <v>7905</v>
       </c>
       <c r="B11" s="54">
         <v>41998</v>
@@ -25585,7 +25585,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7885</v>
+        <v>7880</v>
       </c>
       <c r="B12" s="54">
         <v>42002</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8005</v>
+        <v>7999</v>
       </c>
       <c r="B13" s="54">
         <v>42037</v>
@@ -25601,7 +25601,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8036</v>
+        <v>8030</v>
       </c>
       <c r="B14" s="54">
         <v>42042</v>
@@ -25609,10 +25609,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7911</v>
+        <v>7906</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7900</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -25640,7 +25640,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>7840</v>
+        <v>7835</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>1387</v>
@@ -25651,7 +25651,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>7873</v>
+        <v>7868</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>$A$18</f>
@@ -25687,7 +25687,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>7874</v>
+        <v>7869</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>$A$18</f>
@@ -25723,7 +25723,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>7848</v>
+        <v>7843</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>$A$18</f>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>7804</v>
+        <v>7799</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>$A$20</f>
@@ -25798,7 +25798,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>7841</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -25828,17 +25828,17 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>7828</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>7829</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>7827</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -26035,99 +26035,99 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>7842</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>7783</v>
+        <v>7778</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7815</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>7814</v>
+        <v>7809</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7816</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7822</v>
+        <v>7817</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7817</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>7823</v>
+        <v>7818</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7818</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>7824</v>
+        <v>7819</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7819</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>7712</v>
+        <v>7707</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7820</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>7534</v>
+        <v>7529</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7821</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>7843</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>7838</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>7839</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>7930</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>7805</v>
+        <v>7800</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7806</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>7807</v>
+        <v>7802</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7808</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -26135,31 +26135,31 @@
         <v>185</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>7810</v>
+        <v>7805</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7811</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>7775</v>
+        <v>7770</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7812</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>7813</v>
+        <v>7808</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7812</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -26167,7 +26167,7 @@
         <v>255</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -26175,7 +26175,7 @@
         <v>256</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -26183,146 +26183,146 @@
         <v>257</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>7897</v>
+        <v>7892</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>7927</v>
+        <v>7922</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>7932</v>
+        <v>7927</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7931</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>7913</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>7914</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>7915</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>7916</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>7917</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>7923</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>7924</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>7918</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>7919</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>7920</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>7921</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>7922</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>7875</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>7876</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>7877</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>7878</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>7879</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>7880</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>7982</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>7983</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>7984</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>8057</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>8058</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -26332,12 +26332,12 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>8059</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>7794</v>
+        <v>7789</v>
       </c>
     </row>
   </sheetData>
@@ -26370,7 +26370,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7846</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26379,7 +26379,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>7799</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -26388,7 +26388,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>7798</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26397,7 +26397,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>7796</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26406,7 +26406,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>7797</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26415,7 +26415,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>7800</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26424,7 +26424,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>7795</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26433,7 +26433,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>7794</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -26442,7 +26442,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>7801</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -26451,7 +26451,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>7802</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -26460,7 +26460,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>7803</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -26469,7 +26469,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7831</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -26478,7 +26478,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7849</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -26487,7 +26487,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7901</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26496,7 +26496,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7925</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -26505,7 +26505,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7943</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -26514,7 +26514,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7954</v>
+        <v>7949</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -26523,7 +26523,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7955</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -26532,7 +26532,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7956</v>
+        <v>7951</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -26541,7 +26541,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7957</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -26550,7 +26550,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7958</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -26559,7 +26559,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7959</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -26568,7 +26568,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7960</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -26577,7 +26577,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7961</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -26586,7 +26586,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7962</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -26595,7 +26595,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7963</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -26604,7 +26604,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7964</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -26613,7 +26613,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7965</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -26622,7 +26622,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7981</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -26631,7 +26631,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8037</v>
+        <v>8031</v>
       </c>
     </row>
   </sheetData>
@@ -26647,7 +26647,7 @@
   <dimension ref="A1:F5552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26658,95 +26658,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7083</v>
+        <v>7078</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7912</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>6937</v>
-      </c>
       <c r="C6" s="35" t="s">
-        <v>7994</v>
+        <v>7988</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>7003</v>
+        <v>6998</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>6987</v>
+        <v>6982</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>6971</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>6936</v>
-      </c>
       <c r="C7" s="35" t="s">
-        <v>7993</v>
+        <v>7987</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>7002</v>
+        <v>6997</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>6986</v>
+        <v>6981</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>6970</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>6935</v>
-      </c>
       <c r="C8" s="35" t="s">
-        <v>7992</v>
+        <v>7986</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>7001</v>
+        <v>6996</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>6985</v>
+        <v>6980</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>6969</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>6934</v>
-      </c>
       <c r="C9" s="35" t="s">
-        <v>7991</v>
+        <v>7985</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>7000</v>
+        <v>6995</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>6984</v>
+        <v>6979</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>6968</v>
+        <v>6963</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>6933</v>
-      </c>
       <c r="C10" s="35" t="s">
-        <v>7990</v>
+        <v>7984</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>6999</v>
+        <v>6994</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>6983</v>
+        <v>6978</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>6967</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -26754,16 +26739,16 @@
         <v>6932</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>7989</v>
+        <v>7983</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>6998</v>
+        <v>6993</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>6982</v>
+        <v>6977</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>6966</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -26771,16 +26756,16 @@
         <v>6931</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>7988</v>
+        <v>7982</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>6997</v>
+        <v>6992</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>6981</v>
+        <v>6976</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>6965</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -26788,16 +26773,16 @@
         <v>6930</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>7987</v>
+        <v>7981</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>6996</v>
+        <v>6991</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>6980</v>
+        <v>6975</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>6964</v>
+        <v>6959</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -26805,16 +26790,16 @@
         <v>6929</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>7986</v>
+        <v>7980</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>6995</v>
+        <v>6990</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>6979</v>
+        <v>6974</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>6963</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -26822,16 +26807,16 @@
         <v>6928</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>7985</v>
+        <v>7979</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>6994</v>
+        <v>6989</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>6978</v>
+        <v>6973</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>6962</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -54550,12 +54535,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>7844</v>
+        <v>7839</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>7793</v>
+        <v>7788</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -54590,10 +54575,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7792</v>
+        <v>7787</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>7791</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54624,10 +54609,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7790</v>
+        <v>7785</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>7789</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54658,10 +54643,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7788</v>
+        <v>7783</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>7787</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54692,10 +54677,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7786</v>
+        <v>7781</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7785</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54726,10 +54711,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7784</v>
+        <v>7779</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7783</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54760,10 +54745,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7782</v>
+        <v>7777</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7781</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54794,10 +54779,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7780</v>
+        <v>7775</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>7779</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54828,10 +54813,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7778</v>
+        <v>7773</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>7777</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54862,10 +54847,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7776</v>
+        <v>7771</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>7775</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54896,10 +54881,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7774</v>
+        <v>7769</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>7773</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54927,13 +54912,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7772</v>
+        <v>7767</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>7771</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54961,13 +54946,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7770</v>
+        <v>7765</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7769</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54995,13 +54980,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7768</v>
+        <v>7763</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7767</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55029,13 +55014,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7766</v>
+        <v>7761</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7765</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55063,13 +55048,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7764</v>
+        <v>7759</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7763</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55097,13 +55082,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7762</v>
+        <v>7757</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7761</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55134,10 +55119,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7760</v>
+        <v>7755</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>7759</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55168,10 +55153,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7758</v>
+        <v>7753</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>7757</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55202,10 +55187,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7756</v>
+        <v>7751</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>7755</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55236,10 +55221,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7754</v>
+        <v>7749</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7753</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55270,10 +55255,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7752</v>
+        <v>7747</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7751</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55304,10 +55289,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7750</v>
+        <v>7745</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7749</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55338,10 +55323,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7748</v>
+        <v>7743</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7747</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55372,10 +55357,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7746</v>
+        <v>7741</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>7745</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55406,10 +55391,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7744</v>
+        <v>7739</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>7743</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55440,10 +55425,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7742</v>
+        <v>7737</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>7741</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55471,13 +55456,13 @@
         <v>282</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7740</v>
+        <v>7735</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>7739</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55505,13 +55490,13 @@
         <v>283</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7020</v>
+        <v>7015</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7738</v>
+        <v>7733</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7737</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55539,13 +55524,13 @@
         <v>284</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7019</v>
+        <v>7014</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7736</v>
+        <v>7731</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>7735</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55573,13 +55558,13 @@
         <v>285</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7018</v>
+        <v>7013</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7734</v>
+        <v>7729</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>7733</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55607,13 +55592,13 @@
         <v>286</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>7017</v>
+        <v>7012</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7732</v>
+        <v>7727</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7731</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55641,13 +55626,13 @@
         <v>287</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7016</v>
+        <v>7011</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7730</v>
+        <v>7725</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>7729</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55678,10 +55663,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7728</v>
+        <v>7723</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7727</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55712,10 +55697,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7726</v>
+        <v>7721</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>7725</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55746,10 +55731,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7724</v>
+        <v>7719</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>7723</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55780,10 +55765,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7722</v>
+        <v>7717</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>7721</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55814,10 +55799,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7720</v>
+        <v>7715</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>7719</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55848,10 +55833,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7718</v>
+        <v>7713</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7717</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55882,10 +55867,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7716</v>
+        <v>7711</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>7715</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55916,10 +55901,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7714</v>
+        <v>7709</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7713</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -55950,10 +55935,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7318</v>
+        <v>7313</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7712</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -55984,10 +55969,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7711</v>
+        <v>7706</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7710</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56015,13 +56000,13 @@
         <v>298</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7015</v>
+        <v>7010</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7709</v>
+        <v>7704</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>7708</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56049,13 +56034,13 @@
         <v>299</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>7014</v>
+        <v>7009</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7707</v>
+        <v>7702</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7706</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56083,13 +56068,13 @@
         <v>300</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7013</v>
+        <v>7008</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7705</v>
+        <v>7700</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7704</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56117,13 +56102,13 @@
         <v>301</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7012</v>
+        <v>7007</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7703</v>
+        <v>7698</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>7702</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56151,13 +56136,13 @@
         <v>302</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>7011</v>
+        <v>7006</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7701</v>
+        <v>7696</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>7700</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56185,13 +56170,13 @@
         <v>303</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>7010</v>
+        <v>7005</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7699</v>
+        <v>7694</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>7698</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56222,10 +56207,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7697</v>
+        <v>7692</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>7696</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56256,10 +56241,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7695</v>
+        <v>7690</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>7694</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56290,10 +56275,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7693</v>
+        <v>7688</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>7692</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56324,10 +56309,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7691</v>
+        <v>7686</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>7690</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56358,10 +56343,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7689</v>
+        <v>7684</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>7688</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56392,10 +56377,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7687</v>
+        <v>7682</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>7686</v>
+        <v>7681</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56426,10 +56411,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7685</v>
+        <v>7680</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>7684</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56460,10 +56445,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7683</v>
+        <v>7678</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>7682</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56494,10 +56479,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7681</v>
+        <v>7676</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7680</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56528,10 +56513,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7679</v>
+        <v>7674</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7678</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56559,13 +56544,13 @@
         <v>314</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7009</v>
+        <v>7004</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7677</v>
+        <v>7672</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7676</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56593,13 +56578,13 @@
         <v>315</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>7008</v>
+        <v>7003</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7675</v>
+        <v>7670</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>7674</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56627,13 +56612,13 @@
         <v>316</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>7007</v>
+        <v>7002</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7673</v>
+        <v>7668</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>7672</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56661,13 +56646,13 @@
         <v>317</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7006</v>
+        <v>7001</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7671</v>
+        <v>7666</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>7670</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56695,13 +56680,13 @@
         <v>318</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>7005</v>
+        <v>7000</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7669</v>
+        <v>7664</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>7668</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56729,13 +56714,13 @@
         <v>319</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>7004</v>
+        <v>6999</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7667</v>
+        <v>7662</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>7666</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56766,10 +56751,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7665</v>
+        <v>7660</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>7664</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56800,10 +56785,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7663</v>
+        <v>7658</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>7662</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56834,10 +56819,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7661</v>
+        <v>7656</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7660</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56868,10 +56853,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7659</v>
+        <v>7654</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>7658</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56902,10 +56887,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7304</v>
+        <v>7299</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>7657</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56936,10 +56921,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7656</v>
+        <v>7651</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>7655</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56970,10 +56955,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7654</v>
+        <v>7649</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>7653</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57004,10 +56989,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7652</v>
+        <v>7647</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>7651</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57038,10 +57023,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7650</v>
+        <v>7645</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>7649</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57072,10 +57057,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7648</v>
+        <v>7643</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7647</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57103,13 +57088,13 @@
         <v>330</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>6993</v>
+        <v>6988</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7290</v>
+        <v>7285</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7646</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57137,13 +57122,13 @@
         <v>331</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>6992</v>
+        <v>6987</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7645</v>
+        <v>7640</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>7644</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57171,13 +57156,13 @@
         <v>332</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>6991</v>
+        <v>6986</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7643</v>
+        <v>7638</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>7642</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57205,13 +57190,13 @@
         <v>333</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>6990</v>
+        <v>6985</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7641</v>
+        <v>7636</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>7640</v>
+        <v>7635</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57239,13 +57224,13 @@
         <v>334</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>6989</v>
+        <v>6984</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7639</v>
+        <v>7634</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>7638</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57273,13 +57258,13 @@
         <v>335</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>6988</v>
+        <v>6983</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7637</v>
+        <v>7632</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7636</v>
+        <v>7631</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57310,10 +57295,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7635</v>
+        <v>7630</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7634</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57344,10 +57329,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7633</v>
+        <v>7628</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7267</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57378,10 +57363,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7266</v>
+        <v>7261</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7632</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57412,10 +57397,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7631</v>
+        <v>7626</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>7630</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57446,10 +57431,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7629</v>
+        <v>7624</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>7628</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57480,10 +57465,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7627</v>
+        <v>7622</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7626</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57514,10 +57499,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7625</v>
+        <v>7620</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>7624</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57548,10 +57533,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7623</v>
+        <v>7618</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7622</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57582,10 +57567,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7621</v>
+        <v>7616</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7620</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57616,10 +57601,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7619</v>
+        <v>7614</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7618</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57647,13 +57632,13 @@
         <v>346</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>6977</v>
+        <v>6972</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7617</v>
+        <v>7612</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>7616</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57681,13 +57666,13 @@
         <v>347</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>6976</v>
+        <v>6971</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7615</v>
+        <v>7610</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>7614</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57715,13 +57700,13 @@
         <v>348</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>6975</v>
+        <v>6970</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7613</v>
+        <v>7608</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>7612</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -57749,13 +57734,13 @@
         <v>349</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>6974</v>
+        <v>6969</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7611</v>
+        <v>7606</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7610</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57783,13 +57768,13 @@
         <v>350</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>6973</v>
+        <v>6968</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7609</v>
+        <v>7604</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>7608</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -57817,13 +57802,13 @@
         <v>351</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>6972</v>
+        <v>6967</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7607</v>
+        <v>7602</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>7606</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57854,10 +57839,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7605</v>
+        <v>7600</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>7604</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57888,7 +57873,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7603</v>
+        <v>7598</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -57922,10 +57907,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7248</v>
+        <v>7243</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>7602</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57956,10 +57941,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7394</v>
+        <v>7389</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>7601</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57990,10 +57975,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7600</v>
+        <v>7595</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>7599</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58024,10 +58009,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7598</v>
+        <v>7593</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7597</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58058,10 +58043,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7596</v>
+        <v>7591</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>7595</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58092,10 +58077,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7594</v>
+        <v>7589</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>7593</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58126,10 +58111,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7592</v>
+        <v>7587</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7225</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58160,10 +58145,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7591</v>
+        <v>7586</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>7590</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58191,13 +58176,13 @@
         <v>362</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>6961</v>
+        <v>6956</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7589</v>
+        <v>7584</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>7588</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58225,13 +58210,13 @@
         <v>363</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>6960</v>
+        <v>6955</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7587</v>
+        <v>7582</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>7586</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58259,13 +58244,13 @@
         <v>364</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>6959</v>
+        <v>6954</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7585</v>
+        <v>7580</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>7584</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58293,13 +58278,13 @@
         <v>365</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>6958</v>
+        <v>6953</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7583</v>
+        <v>7578</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>7582</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58327,13 +58312,13 @@
         <v>366</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>6957</v>
+        <v>6952</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7581</v>
+        <v>7576</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7580</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58361,13 +58346,13 @@
         <v>367</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>6956</v>
+        <v>6951</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7579</v>
+        <v>7574</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7578</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58398,10 +58383,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7577</v>
+        <v>7572</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7576</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58432,10 +58417,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7575</v>
+        <v>7570</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7574</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58466,10 +58451,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7573</v>
+        <v>7568</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>7572</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58500,10 +58485,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7571</v>
+        <v>7566</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>7570</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58534,10 +58519,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7202</v>
+        <v>7197</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>7569</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58568,10 +58553,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7568</v>
+        <v>7563</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7567</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58602,10 +58587,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7566</v>
+        <v>7561</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>7565</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58636,10 +58621,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7564</v>
+        <v>7559</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>7563</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58670,10 +58655,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7562</v>
+        <v>7557</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>7561</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58704,10 +58689,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7560</v>
+        <v>7555</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7559</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58735,13 +58720,13 @@
         <v>378</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>6955</v>
+        <v>6950</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7558</v>
+        <v>7553</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7557</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58769,13 +58754,13 @@
         <v>379</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>6954</v>
+        <v>6949</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7198</v>
+        <v>7193</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7556</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58803,13 +58788,13 @@
         <v>380</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>6953</v>
+        <v>6948</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7196</v>
+        <v>7191</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7555</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58837,13 +58822,13 @@
         <v>381</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>6952</v>
+        <v>6947</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7554</v>
+        <v>7549</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>7553</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58871,13 +58856,13 @@
         <v>382</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>6951</v>
+        <v>6946</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7552</v>
+        <v>7547</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>7551</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58905,13 +58890,13 @@
         <v>383</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>6950</v>
+        <v>6945</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7550</v>
+        <v>7545</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7549</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58942,10 +58927,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7548</v>
+        <v>7543</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>7547</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58976,10 +58961,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7546</v>
+        <v>7541</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7545</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59010,10 +58995,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7544</v>
+        <v>7539</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>7543</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59044,10 +59029,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7542</v>
+        <v>7537</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>7541</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59078,10 +59063,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7540</v>
+        <v>7535</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>7539</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59112,10 +59097,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7538</v>
+        <v>7533</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7537</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59146,10 +59131,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7152</v>
+        <v>7147</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>7536</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59180,10 +59165,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7535</v>
+        <v>7530</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>7534</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59214,10 +59199,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7533</v>
+        <v>7528</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>7532</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59248,10 +59233,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7531</v>
+        <v>7526</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>7530</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59279,13 +59264,13 @@
         <v>394</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>6949</v>
+        <v>6944</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7529</v>
+        <v>7524</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>7528</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59313,13 +59298,13 @@
         <v>395</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>6948</v>
+        <v>6943</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7527</v>
+        <v>7522</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>7526</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59347,13 +59332,13 @@
         <v>396</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>6947</v>
+        <v>6942</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7525</v>
+        <v>7520</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>7524</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59381,13 +59366,13 @@
         <v>397</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>6946</v>
+        <v>6941</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7144</v>
+        <v>7139</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7523</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59415,13 +59400,13 @@
         <v>398</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>6945</v>
+        <v>6940</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7522</v>
+        <v>7517</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7521</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59449,13 +59434,13 @@
         <v>399</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>6944</v>
+        <v>6939</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7520</v>
+        <v>7515</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>7519</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59486,10 +59471,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7518</v>
+        <v>7513</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>7517</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59520,10 +59505,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7516</v>
+        <v>7511</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>7515</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59554,10 +59539,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7514</v>
+        <v>7509</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>7513</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59588,10 +59573,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7512</v>
+        <v>7507</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>7511</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59622,10 +59607,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7510</v>
+        <v>7505</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>7509</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59656,10 +59641,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7508</v>
+        <v>7503</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7207</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59690,10 +59675,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7507</v>
+        <v>7502</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>7506</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59724,10 +59709,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7505</v>
+        <v>7500</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7504</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59758,10 +59743,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7503</v>
+        <v>7498</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7502</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59790,7 +59775,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59815,11 +59800,11 @@
         <v>410</v>
       </c>
       <c r="G156" s="39" t="s">
-        <v>6943</v>
+        <v>6938</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59844,11 +59829,11 @@
         <v>411</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>6942</v>
+        <v>6937</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59873,11 +59858,11 @@
         <v>412</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>6941</v>
+        <v>6936</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59902,11 +59887,11 @@
         <v>413</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>6940</v>
+        <v>6935</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59931,11 +59916,11 @@
         <v>414</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>6939</v>
+        <v>6934</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59960,11 +59945,11 @@
         <v>415</v>
       </c>
       <c r="G161" s="39" t="s">
-        <v>6938</v>
+        <v>6933</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59993,7 +59978,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60024,10 +60009,10 @@
         <v>5313</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7501</v>
+        <v>7496</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>7500</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60058,10 +60043,10 @@
         <v>5312</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7499</v>
+        <v>7494</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>7498</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60092,10 +60077,10 @@
         <v>5311</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7497</v>
+        <v>7492</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7496</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -60126,7 +60111,7 @@
         <v>5310</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7495</v>
+        <v>7490</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -60160,10 +60145,10 @@
         <v>5309</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7494</v>
+        <v>7489</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7493</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -60194,10 +60179,10 @@
         <v>5308</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7492</v>
+        <v>7487</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7491</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60226,7 +60211,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60255,7 +60240,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60284,7 +60269,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60313,7 +60298,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60342,7 +60327,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60371,7 +60356,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60400,7 +60385,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60429,7 +60414,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60458,7 +60443,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60486,13 +60471,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7490</v>
+        <v>7485</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7489</v>
+        <v>7484</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7488</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60520,13 +60505,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7487</v>
+        <v>7482</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7486</v>
+        <v>7481</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7485</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60554,13 +60539,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7484</v>
+        <v>7479</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7483</v>
+        <v>7478</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7482</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60588,13 +60573,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7481</v>
+        <v>7476</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7480</v>
+        <v>7475</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7479</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60622,13 +60607,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7478</v>
+        <v>7473</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7477</v>
+        <v>7472</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7476</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60656,13 +60641,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7475</v>
+        <v>7470</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7474</v>
+        <v>7469</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7473</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60690,13 +60675,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7472</v>
+        <v>7467</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7471</v>
+        <v>7466</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7470</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60724,13 +60709,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7469</v>
+        <v>7464</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7468</v>
+        <v>7463</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7467</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60758,13 +60743,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7466</v>
+        <v>7461</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7465</v>
+        <v>7460</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7464</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60792,13 +60777,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7463</v>
+        <v>7458</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7462</v>
+        <v>7457</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7461</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60826,13 +60811,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7460</v>
+        <v>7455</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7459</v>
+        <v>7454</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7458</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60860,13 +60845,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7457</v>
+        <v>7452</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7456</v>
+        <v>7451</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7455</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60891,11 +60876,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7454</v>
+        <v>7449</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60920,11 +60905,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7453</v>
+        <v>7448</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60949,11 +60934,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7452</v>
+        <v>7447</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60978,11 +60963,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7451</v>
+        <v>7446</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
   </sheetData>
@@ -61013,7 +60998,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7845</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61044,10 +61029,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7450</v>
+        <v>7445</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7449</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61078,10 +61063,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7448</v>
+        <v>7443</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7447</v>
+        <v>7442</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61112,10 +61097,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7446</v>
+        <v>7441</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7445</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61146,10 +61131,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7444</v>
+        <v>7439</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7443</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61180,10 +61165,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7442</v>
+        <v>7437</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7441</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61214,10 +61199,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7440</v>
+        <v>7435</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7439</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61248,10 +61233,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7438</v>
+        <v>7433</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7437</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61282,10 +61267,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7436</v>
+        <v>7431</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7435</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61316,10 +61301,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7434</v>
+        <v>7429</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7433</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61350,10 +61335,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7432</v>
+        <v>7427</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7431</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61381,13 +61366,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7430</v>
+        <v>7425</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7429</v>
+        <v>7424</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7428</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61418,10 +61403,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7427</v>
+        <v>7422</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7426</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61452,10 +61437,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7425</v>
+        <v>7420</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7424</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61483,13 +61468,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7423</v>
+        <v>7418</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7422</v>
+        <v>7417</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7421</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61517,13 +61502,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7420</v>
+        <v>7415</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7419</v>
+        <v>7414</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7418</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61554,10 +61539,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7417</v>
+        <v>7412</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7416</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61588,10 +61573,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7415</v>
+        <v>7410</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7414</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61622,10 +61607,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7413</v>
+        <v>7408</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7412</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61656,10 +61641,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7411</v>
+        <v>7406</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7410</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61690,10 +61675,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7409</v>
+        <v>7404</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7408</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61724,10 +61709,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7407</v>
+        <v>7402</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7406</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61758,10 +61743,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7405</v>
+        <v>7400</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7404</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61792,10 +61777,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7403</v>
+        <v>7398</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7402</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61826,10 +61811,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7401</v>
+        <v>7396</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7400</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61860,10 +61845,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7399</v>
+        <v>7394</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7398</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61894,10 +61879,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7397</v>
+        <v>7392</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7396</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61925,13 +61910,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7395</v>
+        <v>7390</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7394</v>
+        <v>7389</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7393</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61959,13 +61944,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7392</v>
+        <v>7387</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7391</v>
+        <v>7386</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7390</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61993,13 +61978,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7389</v>
+        <v>7384</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7388</v>
+        <v>7383</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7387</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62027,13 +62012,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7082</v>
+        <v>7077</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7386</v>
+        <v>7381</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7385</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62061,13 +62046,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7081</v>
+        <v>7076</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7384</v>
+        <v>7379</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7383</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62095,13 +62080,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7080</v>
+        <v>7075</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7382</v>
+        <v>7377</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7381</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62132,10 +62117,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7380</v>
+        <v>7375</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7379</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62166,10 +62151,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7378</v>
+        <v>7373</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7377</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62200,10 +62185,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7376</v>
+        <v>7371</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7375</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62234,10 +62219,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7374</v>
+        <v>7369</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7373</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62268,10 +62253,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7372</v>
+        <v>7367</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7371</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62302,10 +62287,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7370</v>
+        <v>7365</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7369</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62336,10 +62321,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7368</v>
+        <v>7363</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7367</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -62370,10 +62355,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7366</v>
+        <v>7361</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7365</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62404,10 +62389,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7364</v>
+        <v>7359</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7363</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62438,10 +62423,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7362</v>
+        <v>7357</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7361</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62469,13 +62454,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7360</v>
+        <v>7355</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7359</v>
+        <v>7354</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7358</v>
+        <v>7353</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62503,13 +62488,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7357</v>
+        <v>7352</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7356</v>
+        <v>7351</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7355</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62537,13 +62522,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7354</v>
+        <v>7349</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7353</v>
+        <v>7348</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7352</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62571,13 +62556,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7351</v>
+        <v>7346</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7350</v>
+        <v>7345</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7349</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62605,13 +62590,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7348</v>
+        <v>7343</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7347</v>
+        <v>7342</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7346</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62639,13 +62624,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7345</v>
+        <v>7340</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7344</v>
+        <v>7339</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7343</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62676,10 +62661,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7342</v>
+        <v>7337</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7341</v>
+        <v>7336</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62710,10 +62695,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7340</v>
+        <v>7335</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7339</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62744,10 +62729,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7338</v>
+        <v>7333</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7337</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62778,10 +62763,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7336</v>
+        <v>7331</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7335</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62812,10 +62797,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7334</v>
+        <v>7329</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7333</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62846,10 +62831,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7332</v>
+        <v>7327</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7331</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62880,10 +62865,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7330</v>
+        <v>7325</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7329</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62914,10 +62899,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7328</v>
+        <v>7323</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7327</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62948,10 +62933,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7326</v>
+        <v>7321</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7325</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62982,10 +62967,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7324</v>
+        <v>7319</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7323</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63013,13 +62998,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7322</v>
+        <v>7317</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7321</v>
+        <v>7316</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7320</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63047,13 +63032,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7319</v>
+        <v>7314</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7318</v>
+        <v>7313</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7317</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63081,13 +63066,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7316</v>
+        <v>7311</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7315</v>
+        <v>7310</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7314</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63115,13 +63100,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7313</v>
+        <v>7308</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7312</v>
+        <v>7307</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7311</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63149,13 +63134,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7310</v>
+        <v>7305</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7309</v>
+        <v>7304</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7308</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63183,13 +63168,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7307</v>
+        <v>7302</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7306</v>
+        <v>7301</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7305</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63220,10 +63205,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7304</v>
+        <v>7299</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7303</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63254,10 +63239,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7302</v>
+        <v>7297</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7301</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63288,10 +63273,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7300</v>
+        <v>7295</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7299</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63322,10 +63307,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7298</v>
+        <v>7293</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7297</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63356,10 +63341,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7296</v>
+        <v>7291</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7295</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63390,10 +63375,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7294</v>
+        <v>7289</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7293</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63424,10 +63409,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7292</v>
+        <v>7287</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7291</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63458,10 +63443,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7290</v>
+        <v>7285</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7289</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63492,10 +63477,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7288</v>
+        <v>7283</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7287</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63526,10 +63511,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7286</v>
+        <v>7281</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7285</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63557,13 +63542,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7079</v>
+        <v>7074</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7284</v>
+        <v>7279</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7283</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63591,13 +63576,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7078</v>
+        <v>7073</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7282</v>
+        <v>7277</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7281</v>
+        <v>7276</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63625,13 +63610,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7077</v>
+        <v>7072</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7280</v>
+        <v>7275</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7279</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63659,13 +63644,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7076</v>
+        <v>7071</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7278</v>
+        <v>7273</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7277</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63693,13 +63678,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7075</v>
+        <v>7070</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7276</v>
+        <v>7271</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7275</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63727,13 +63712,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7074</v>
+        <v>7069</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7274</v>
+        <v>7269</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7273</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63764,10 +63749,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7272</v>
+        <v>7267</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7271</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63798,10 +63783,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7270</v>
+        <v>7265</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7269</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63832,10 +63817,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7268</v>
+        <v>7263</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7267</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63866,10 +63851,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7266</v>
+        <v>7261</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7265</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63900,10 +63885,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7264</v>
+        <v>7259</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7263</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63934,10 +63919,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7262</v>
+        <v>7257</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7261</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63968,10 +63953,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7260</v>
+        <v>7255</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7259</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64002,10 +63987,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7258</v>
+        <v>7253</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7257</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64036,10 +64021,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7256</v>
+        <v>7251</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7255</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64070,10 +64055,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7254</v>
+        <v>7249</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7253</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64101,13 +64086,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7073</v>
+        <v>7068</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7252</v>
+        <v>7247</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7251</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64135,13 +64120,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7072</v>
+        <v>7067</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7250</v>
+        <v>7245</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7249</v>
+        <v>7244</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64169,13 +64154,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7071</v>
+        <v>7066</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7248</v>
+        <v>7243</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7247</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64203,13 +64188,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7070</v>
+        <v>7065</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7246</v>
+        <v>7241</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7245</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64237,13 +64222,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7069</v>
+        <v>7064</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7244</v>
+        <v>7239</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7243</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64271,13 +64256,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7068</v>
+        <v>7063</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7242</v>
+        <v>7237</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7241</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64308,10 +64293,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7240</v>
+        <v>7235</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7239</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64342,10 +64327,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7238</v>
+        <v>7233</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7237</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64376,10 +64361,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7236</v>
+        <v>7231</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7235</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64410,10 +64395,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7234</v>
+        <v>7229</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7233</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64444,10 +64429,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7232</v>
+        <v>7227</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7231</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64478,10 +64463,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7230</v>
+        <v>7225</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7229</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64512,10 +64497,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7228</v>
+        <v>7223</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7227</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64546,10 +64531,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7226</v>
+        <v>7221</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7225</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64580,10 +64565,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7224</v>
+        <v>7219</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7223</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64614,10 +64599,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7222</v>
+        <v>7217</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7221</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64645,13 +64630,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7067</v>
+        <v>7062</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7220</v>
+        <v>7215</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7219</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64679,13 +64664,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7066</v>
+        <v>7061</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7218</v>
+        <v>7213</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7217</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64713,13 +64698,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7065</v>
+        <v>7060</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7216</v>
+        <v>7211</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7215</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64747,13 +64732,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7064</v>
+        <v>7059</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7214</v>
+        <v>7209</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7213</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64781,13 +64766,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7063</v>
+        <v>7058</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7212</v>
+        <v>7207</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7211</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64815,13 +64800,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7062</v>
+        <v>7057</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7210</v>
+        <v>7205</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7209</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64852,10 +64837,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7208</v>
+        <v>7203</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7207</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64886,10 +64871,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7206</v>
+        <v>7201</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7205</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64920,10 +64905,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7204</v>
+        <v>7199</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7203</v>
+        <v>7198</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64954,10 +64939,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7202</v>
+        <v>7197</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7201</v>
+        <v>7196</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64988,10 +64973,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7200</v>
+        <v>7195</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7199</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65022,10 +65007,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7198</v>
+        <v>7193</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7197</v>
+        <v>7192</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65056,10 +65041,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7196</v>
+        <v>7191</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7195</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65090,10 +65075,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7194</v>
+        <v>7189</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7193</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65124,10 +65109,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7192</v>
+        <v>7187</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7191</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65158,10 +65143,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7190</v>
+        <v>7185</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7189</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65189,13 +65174,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7061</v>
+        <v>7056</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7188</v>
+        <v>7183</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7187</v>
+        <v>7182</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65223,13 +65208,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7060</v>
+        <v>7055</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7186</v>
+        <v>7181</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7185</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65257,13 +65242,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7059</v>
+        <v>7054</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7184</v>
+        <v>7179</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7183</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65291,13 +65276,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7058</v>
+        <v>7053</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7182</v>
+        <v>7177</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7181</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65325,13 +65310,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7057</v>
+        <v>7052</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7180</v>
+        <v>7175</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7179</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65359,13 +65344,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7056</v>
+        <v>7051</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7178</v>
+        <v>7173</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7177</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65396,10 +65381,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7176</v>
+        <v>7171</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7175</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65430,10 +65415,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7174</v>
+        <v>7169</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7173</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65464,10 +65449,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7172</v>
+        <v>7167</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7171</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65498,10 +65483,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7170</v>
+        <v>7165</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7169</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65532,10 +65517,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7168</v>
+        <v>7163</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7167</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65566,10 +65551,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7166</v>
+        <v>7161</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7165</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65600,10 +65585,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7164</v>
+        <v>7159</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7163</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65634,10 +65619,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7162</v>
+        <v>7157</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7161</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65668,10 +65653,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7160</v>
+        <v>7155</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7159</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65702,10 +65687,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7158</v>
+        <v>7153</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7157</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65733,13 +65718,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>7055</v>
+        <v>7050</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7156</v>
+        <v>7151</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7155</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65767,13 +65752,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>7054</v>
+        <v>7049</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7154</v>
+        <v>7149</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7153</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65801,13 +65786,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>7053</v>
+        <v>7048</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7152</v>
+        <v>7147</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7151</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65835,13 +65820,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
-        <v>7052</v>
+        <v>7047</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7150</v>
+        <v>7145</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7149</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65869,13 +65854,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
-        <v>7051</v>
+        <v>7046</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7148</v>
+        <v>7143</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7147</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65903,13 +65888,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>7050</v>
+        <v>7045</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7146</v>
+        <v>7141</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7145</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65940,10 +65925,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7144</v>
+        <v>7139</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7143</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65974,10 +65959,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7142</v>
+        <v>7137</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7141</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66008,10 +65993,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7140</v>
+        <v>7135</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7139</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -66042,10 +66027,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7138</v>
+        <v>7133</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7137</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -66076,10 +66061,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7136</v>
+        <v>7131</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7135</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66110,10 +66095,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7134</v>
+        <v>7129</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7133</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66144,10 +66129,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7132</v>
+        <v>7127</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7131</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66178,10 +66163,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7130</v>
+        <v>7125</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7129</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66212,10 +66197,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7128</v>
+        <v>7123</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7127</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66246,10 +66231,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7126</v>
+        <v>7121</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7125</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66277,13 +66262,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>7049</v>
+        <v>7044</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7124</v>
+        <v>7119</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7123</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66311,13 +66296,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>7048</v>
+        <v>7043</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7122</v>
+        <v>7117</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7121</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66345,13 +66330,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>7047</v>
+        <v>7042</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7120</v>
+        <v>7115</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7119</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66379,13 +66364,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>7046</v>
+        <v>7041</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7118</v>
+        <v>7113</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7117</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66413,13 +66398,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>7045</v>
+        <v>7040</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7116</v>
+        <v>7111</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7115</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66447,13 +66432,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>7044</v>
+        <v>7039</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7114</v>
+        <v>7109</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7113</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -66481,13 +66466,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>7043</v>
+        <v>7038</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7112</v>
+        <v>7107</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7111</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66515,13 +66500,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>7042</v>
+        <v>7037</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7110</v>
+        <v>7105</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7109</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66549,13 +66534,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>7041</v>
+        <v>7036</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7108</v>
+        <v>7103</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7107</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66583,13 +66568,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>7040</v>
+        <v>7035</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7106</v>
+        <v>7101</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7105</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66617,13 +66602,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>7039</v>
+        <v>7034</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7104</v>
+        <v>7099</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7103</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66651,13 +66636,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>7038</v>
+        <v>7033</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7102</v>
+        <v>7097</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7101</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66685,13 +66670,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>7037</v>
+        <v>7032</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7100</v>
+        <v>7095</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7099</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66719,13 +66704,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>7036</v>
+        <v>7031</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7098</v>
+        <v>7093</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7097</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66753,11 +66738,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>7035</v>
+        <v>7030</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66785,11 +66770,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>7034</v>
+        <v>7029</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66817,13 +66802,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>7033</v>
+        <v>7028</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7095</v>
+        <v>7090</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7094</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66851,13 +66836,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>7032</v>
+        <v>7027</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7093</v>
+        <v>7088</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7092</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66885,13 +66870,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>7031</v>
+        <v>7026</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7091</v>
+        <v>7086</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7090</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66919,13 +66904,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7089</v>
+        <v>7084</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7088</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66953,13 +66938,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7087</v>
+        <v>7082</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7086</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66987,13 +66972,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7085</v>
+        <v>7080</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7084</v>
+        <v>7079</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -67057,10 +67042,10 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -67091,7 +67076,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7872</v>
+        <v>7867</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -70856,7 +70841,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>7929</v>
+        <v>7924</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>72</v>
@@ -72765,10 +72750,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -72847,7 +72832,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7888</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -72857,6 +72842,15 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="str">
+        <f>Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8055</v>
       </c>
     </row>
   </sheetData>
@@ -72996,7 +72990,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7897</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -73005,7 +72999,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7927</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -73014,7 +73008,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7928</v>
+        <v>7923</v>
       </c>
     </row>
   </sheetData>
@@ -73033,13 +73027,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J388"/>
+  <dimension ref="A1:J391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C349" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F370" sqref="F370"/>
+      <selection pane="bottomRight" activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -73245,7 +73239,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8023</v>
+        <v>8017</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>1108</v>
@@ -73270,7 +73264,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8024</v>
+        <v>8018</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>1106</v>
@@ -73295,7 +73289,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8025</v>
+        <v>8019</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>1104</v>
@@ -74249,10 +74243,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8042</v>
+        <v>8036</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>8041</v>
+        <v>8035</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -74655,10 +74649,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7836</v>
+        <v>7831</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>7834</v>
+        <v>7829</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -74670,7 +74664,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>7837</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -75003,7 +74997,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8014</v>
+        <v>8008</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>885</v>
@@ -75069,7 +75063,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7997</v>
+        <v>7991</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12" t="str">
@@ -75376,7 +75370,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8022</v>
+        <v>8016</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>282</v>
@@ -76102,7 +76096,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>8021</v>
+        <v>8015</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>301</v>
@@ -76260,7 +76254,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>7895</v>
+        <v>7890</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>744</v>
@@ -76414,10 +76408,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>7853</v>
+        <v>7848</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>7854</v>
+        <v>7849</v>
       </c>
       <c r="D150" s="18" t="str">
         <f>Enums!$A$19</f>
@@ -77098,10 +77092,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7855</v>
+        <v>7850</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>7856</v>
+        <v>7851</v>
       </c>
       <c r="D180" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77118,10 +77112,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>8018</v>
+        <v>8012</v>
       </c>
       <c r="C181" t="s">
-        <v>7858</v>
+        <v>7853</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77129,7 +77123,7 @@
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12" t="s">
-        <v>7865</v>
+        <v>7860</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -77140,10 +77134,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>8019</v>
+        <v>8013</v>
       </c>
       <c r="C182" t="s">
-        <v>7859</v>
+        <v>7854</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77151,7 +77145,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>7866</v>
+        <v>7861</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -77162,10 +77156,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8020</v>
+        <v>8014</v>
       </c>
       <c r="C183" t="s">
-        <v>7860</v>
+        <v>7855</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77173,7 +77167,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>7867</v>
+        <v>7862</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -77184,10 +77178,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7857</v>
+        <v>7852</v>
       </c>
       <c r="C184" t="s">
-        <v>7861</v>
+        <v>7856</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77195,7 +77189,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>7868</v>
+        <v>7863</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -77206,10 +77200,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8015</v>
+        <v>8009</v>
       </c>
       <c r="C185" t="s">
-        <v>7862</v>
+        <v>7857</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77217,7 +77211,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>7869</v>
+        <v>7864</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -77228,10 +77222,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8016</v>
+        <v>8010</v>
       </c>
       <c r="C186" t="s">
-        <v>7863</v>
+        <v>7858</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77239,7 +77233,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>7870</v>
+        <v>7865</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -77250,10 +77244,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>8017</v>
+        <v>8011</v>
       </c>
       <c r="C187" t="s">
-        <v>7864</v>
+        <v>7859</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -77261,7 +77255,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>7871</v>
+        <v>7866</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -77292,7 +77286,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>8029</v>
+        <v>8023</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>323</v>
@@ -77610,7 +77604,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>8011</v>
+        <v>8005</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>604</v>
@@ -77650,7 +77644,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>8012</v>
+        <v>8006</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>602</v>
@@ -77672,7 +77666,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>8013</v>
+        <v>8007</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>565</v>
@@ -77882,7 +77876,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>8010</v>
+        <v>8004</v>
       </c>
       <c r="C216" s="12"/>
       <c r="D216" s="12" t="str">
@@ -77945,7 +77939,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>8008</v>
+        <v>8002</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>572</v>
@@ -77969,7 +77963,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>8009</v>
+        <v>8003</v>
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="12" t="str">
@@ -78586,7 +78580,7 @@
         <v>492</v>
       </c>
       <c r="C247" s="52" t="s">
-        <v>7832</v>
+        <v>7827</v>
       </c>
       <c r="D247" s="18" t="str">
         <f>Enums!$A$20</f>
@@ -78594,11 +78588,11 @@
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="12" t="s">
-        <v>7835</v>
+        <v>7830</v>
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="12" t="s">
-        <v>7833</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -78901,8 +78895,8 @@
         <v>447</v>
       </c>
       <c r="D260" s="12" t="str">
-        <f>Enums!$A$19</f>
-        <v>Liquid</v>
+        <f>Enums!$A$18</f>
+        <v>Solid</v>
       </c>
       <c r="E260" s="12"/>
       <c r="F260" s="12" t="s">
@@ -79311,7 +79305,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>7850</v>
+        <v>7845</v>
       </c>
       <c r="C278" s="12"/>
       <c r="D278" s="12" t="str">
@@ -79329,7 +79323,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>7851</v>
+        <v>7846</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -79347,7 +79341,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>7852</v>
+        <v>7847</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -79803,7 +79797,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>7896</v>
+        <v>7891</v>
       </c>
       <c r="C301" s="18" t="s">
         <v>327</v>
@@ -80144,7 +80138,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>7881</v>
+        <v>7876</v>
       </c>
       <c r="C316" s="14"/>
       <c r="D316" s="12" t="str">
@@ -80447,7 +80441,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>7825</v>
+        <v>7820</v>
       </c>
       <c r="D333" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80460,7 +80454,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>7826</v>
+        <v>7821</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80473,7 +80467,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>7830</v>
+        <v>7825</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>1389</v>
@@ -80485,10 +80479,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>7890</v>
+        <v>7885</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7889</v>
+        <v>7884</v>
       </c>
       <c r="D336" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80504,10 +80498,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>7891</v>
+        <v>7886</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>7892</v>
+        <v>7887</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80520,10 +80514,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>7893</v>
+        <v>7888</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>7894</v>
+        <v>7889</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80536,7 +80530,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>7903</v>
+        <v>7898</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>693</v>
@@ -80552,7 +80546,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>7904</v>
+        <v>7899</v>
       </c>
       <c r="D340" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80565,7 +80559,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>7934</v>
+        <v>7929</v>
       </c>
       <c r="D341" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80578,7 +80572,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>7935</v>
+        <v>7930</v>
       </c>
       <c r="D342" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80591,7 +80585,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>7936</v>
+        <v>7931</v>
       </c>
       <c r="D343" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80604,7 +80598,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>7937</v>
+        <v>7932</v>
       </c>
       <c r="D344" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80617,7 +80611,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>7938</v>
+        <v>7933</v>
       </c>
       <c r="D345" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80630,7 +80624,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>7939</v>
+        <v>7934</v>
       </c>
       <c r="D346" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80643,7 +80637,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>7940</v>
+        <v>7935</v>
       </c>
       <c r="D347" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80656,7 +80650,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>7941</v>
+        <v>7936</v>
       </c>
       <c r="D348" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80669,7 +80663,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>7942</v>
+        <v>7937</v>
       </c>
       <c r="D349" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80685,7 +80679,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>7944</v>
+        <v>7939</v>
       </c>
       <c r="D350" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80701,10 +80695,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>7945</v>
+        <v>7940</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7946</v>
+        <v>7941</v>
       </c>
       <c r="D351" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80717,10 +80711,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>7970</v>
+        <v>7965</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>7971</v>
+        <v>7966</v>
       </c>
       <c r="D352" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80736,10 +80730,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>7972</v>
+        <v>7967</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>7973</v>
+        <v>7968</v>
       </c>
       <c r="D353" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80755,10 +80749,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>7975</v>
+        <v>7970</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>7974</v>
+        <v>7969</v>
       </c>
       <c r="D354" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80771,10 +80765,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>7977</v>
+        <v>7972</v>
       </c>
       <c r="C355" t="s">
-        <v>7978</v>
+        <v>7973</v>
       </c>
       <c r="D355" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80787,7 +80781,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>7998</v>
+        <v>7992</v>
       </c>
       <c r="D356" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80800,7 +80794,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>7999</v>
+        <v>7993</v>
       </c>
       <c r="D357" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80813,7 +80807,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>8000</v>
+        <v>7994</v>
       </c>
       <c r="D358" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80826,7 +80820,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>8001</v>
+        <v>7995</v>
       </c>
       <c r="D359" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80839,7 +80833,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>8002</v>
+        <v>7996</v>
       </c>
       <c r="D360" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80852,7 +80846,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>8003</v>
+        <v>7997</v>
       </c>
       <c r="D361" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80865,7 +80859,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>8004</v>
+        <v>7998</v>
       </c>
       <c r="D362" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80878,7 +80872,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>8006</v>
+        <v>8000</v>
       </c>
       <c r="D363" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80891,7 +80885,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>8007</v>
+        <v>8001</v>
       </c>
       <c r="D364" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80904,7 +80898,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>8026</v>
+        <v>8020</v>
       </c>
       <c r="D365" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80917,7 +80911,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>8027</v>
+        <v>8021</v>
       </c>
       <c r="D366" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80930,7 +80924,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>8028</v>
+        <v>8022</v>
       </c>
       <c r="D367" s="12" t="str">
         <f>Enums!$A$20</f>
@@ -80943,7 +80937,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>8030</v>
+        <v>8024</v>
       </c>
       <c r="D368" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80956,7 +80950,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>8031</v>
+        <v>8025</v>
       </c>
       <c r="D369" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80969,7 +80963,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>8032</v>
+        <v>8026</v>
       </c>
       <c r="D370" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80982,7 +80976,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>8033</v>
+        <v>8027</v>
       </c>
       <c r="D371" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80995,7 +80989,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>8034</v>
+        <v>8028</v>
       </c>
       <c r="D372" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81008,7 +81002,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>8040</v>
+        <v>8034</v>
       </c>
       <c r="D373" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81021,7 +81015,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>8043</v>
+        <v>8037</v>
       </c>
       <c r="D374" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81034,7 +81028,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>8044</v>
+        <v>8038</v>
       </c>
       <c r="D375" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81047,7 +81041,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>8045</v>
+        <v>8039</v>
       </c>
       <c r="D376" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81073,7 +81067,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>8046</v>
+        <v>8040</v>
       </c>
       <c r="D378" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81086,7 +81080,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>8047</v>
+        <v>8041</v>
       </c>
       <c r="D379" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81099,7 +81093,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>8048</v>
+        <v>8042</v>
       </c>
       <c r="D380" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -81112,7 +81106,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>8049</v>
+        <v>8043</v>
       </c>
       <c r="D381" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81125,7 +81119,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>8050</v>
+        <v>8044</v>
       </c>
       <c r="D382" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81138,7 +81132,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>8051</v>
+        <v>8045</v>
       </c>
       <c r="D383" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81154,7 +81148,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>8052</v>
+        <v>8046</v>
       </c>
       <c r="D384" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81170,7 +81164,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>8053</v>
+        <v>8047</v>
       </c>
       <c r="D385" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81183,7 +81177,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>8054</v>
+        <v>8048</v>
       </c>
       <c r="D386" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81196,7 +81190,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>8055</v>
+        <v>8049</v>
       </c>
       <c r="D387" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -81209,9 +81203,51 @@
         <v>1.1.2</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>8050</v>
+      </c>
+      <c r="D388" s="12" t="str">
+        <f>Enums!$A$19</f>
+        <v>Liquid</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="str">
+        <f>Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>8056</v>
       </c>
-      <c r="D388" s="12" t="str">
+      <c r="D389" s="12" t="str">
+        <f>Enums!$A$20</f>
+        <v>Gas</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="str">
+        <f>Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>8057</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>8058</v>
+      </c>
+      <c r="D390" s="12" t="str">
+        <f>Enums!$A$18</f>
+        <v>Solid</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="str">
+        <f>Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>8059</v>
+      </c>
+      <c r="D391" s="12" t="str">
         <f>Enums!$A$19</f>
         <v>Liquid</v>
       </c>
@@ -81229,8 +81265,8 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81258,7 +81294,7 @@
         <v>1335</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>7947</v>
+        <v>7942</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>1334</v>
@@ -81303,10 +81339,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>7952</v>
+        <v>7947</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7951</v>
+        <v>7946</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -81426,10 +81462,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>7980</v>
+        <v>7974</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7980</v>
+        <v>7974</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -81615,7 +81651,7 @@
         <v>1310</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7953</v>
+        <v>7948</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -81709,10 +81745,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>7979</v>
+        <v>8054</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7976</v>
+        <v>7971</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -81828,7 +81864,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>7847</v>
+        <v>7842</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1295</v>
@@ -81950,7 +81986,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>7926</v>
+        <v>7921</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1286</v>
@@ -81977,7 +82013,7 @@
         <v>1285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7950</v>
+        <v>7945</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -82120,10 +82156,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>8038</v>
+        <v>8032</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>8039</v>
+        <v>8033</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -82168,10 +82204,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>7966</v>
+        <v>7961</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>7968</v>
+        <v>7963</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -82192,10 +82228,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>7967</v>
+        <v>7962</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7969</v>
+        <v>7964</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -82451,7 +82487,7 @@
         <v>1254</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>7995</v>
+        <v>7989</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -82691,7 +82727,7 @@
         <v>1234</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>7996</v>
+        <v>7990</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -82855,7 +82891,7 @@
         <v>1221</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>7948</v>
+        <v>7943</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -83019,7 +83055,7 @@
         <v>1208</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>8035</v>
+        <v>8029</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -83113,7 +83149,7 @@
         <v>1201</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7949</v>
+        <v>7944</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -83229,7 +83265,7 @@
         <v>1192</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7933</v>
+        <v>7928</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -83975,10 +84011,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>7887</v>
+        <v>7882</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>7886</v>
+        <v>7881</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="84315" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="8"/>
+    <workbookView xWindow="84315" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8254" uniqueCount="8014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8157" uniqueCount="7917">
   <si>
     <t>Uuo</t>
   </si>
@@ -20695,297 +20695,6 @@
   </si>
   <si>
     <t>1bO</t>
-  </si>
-  <si>
-    <t>1bN</t>
-  </si>
-  <si>
-    <t>1bM</t>
-  </si>
-  <si>
-    <t>1bL</t>
-  </si>
-  <si>
-    <t>1bK</t>
-  </si>
-  <si>
-    <t>1bJ</t>
-  </si>
-  <si>
-    <t>1bI</t>
-  </si>
-  <si>
-    <t>1bH</t>
-  </si>
-  <si>
-    <t>1bG</t>
-  </si>
-  <si>
-    <t>1bF</t>
-  </si>
-  <si>
-    <t>1bE</t>
-  </si>
-  <si>
-    <t>1bD</t>
-  </si>
-  <si>
-    <t>1bC</t>
-  </si>
-  <si>
-    <t>1bB</t>
-  </si>
-  <si>
-    <t>1bA</t>
-  </si>
-  <si>
-    <t>1bm</t>
-  </si>
-  <si>
-    <t>1bl</t>
-  </si>
-  <si>
-    <t>1bk</t>
-  </si>
-  <si>
-    <t>1bj</t>
-  </si>
-  <si>
-    <t>1bi</t>
-  </si>
-  <si>
-    <t>1bh</t>
-  </si>
-  <si>
-    <t>1bg</t>
-  </si>
-  <si>
-    <t>1bf</t>
-  </si>
-  <si>
-    <t>1be</t>
-  </si>
-  <si>
-    <t>1bd</t>
-  </si>
-  <si>
-    <t>1bc</t>
-  </si>
-  <si>
-    <t>1bb</t>
-  </si>
-  <si>
-    <t>1ba</t>
-  </si>
-  <si>
-    <t>1b9</t>
-  </si>
-  <si>
-    <t>1b8</t>
-  </si>
-  <si>
-    <t>1b7</t>
-  </si>
-  <si>
-    <t>1b6</t>
-  </si>
-  <si>
-    <t>1b5</t>
-  </si>
-  <si>
-    <t>1b4</t>
-  </si>
-  <si>
-    <t>1b3</t>
-  </si>
-  <si>
-    <t>1b2</t>
-  </si>
-  <si>
-    <t>1aZ</t>
-  </si>
-  <si>
-    <t>1aY</t>
-  </si>
-  <si>
-    <t>1aX</t>
-  </si>
-  <si>
-    <t>1aW</t>
-  </si>
-  <si>
-    <t>1aV</t>
-  </si>
-  <si>
-    <t>1aU</t>
-  </si>
-  <si>
-    <t>1aT</t>
-  </si>
-  <si>
-    <t>1aS</t>
-  </si>
-  <si>
-    <t>1aR</t>
-  </si>
-  <si>
-    <t>1aQ</t>
-  </si>
-  <si>
-    <t>1aP</t>
-  </si>
-  <si>
-    <t>1aO</t>
-  </si>
-  <si>
-    <t>1aN</t>
-  </si>
-  <si>
-    <t>1aM</t>
-  </si>
-  <si>
-    <t>1aL</t>
-  </si>
-  <si>
-    <t>1aK</t>
-  </si>
-  <si>
-    <t>1aJ</t>
-  </si>
-  <si>
-    <t>1aI</t>
-  </si>
-  <si>
-    <t>1aH</t>
-  </si>
-  <si>
-    <t>1aG</t>
-  </si>
-  <si>
-    <t>1aF</t>
-  </si>
-  <si>
-    <t>1aC</t>
-  </si>
-  <si>
-    <t>1aB</t>
-  </si>
-  <si>
-    <t>1aA</t>
-  </si>
-  <si>
-    <t>1az</t>
-  </si>
-  <si>
-    <t>1ay</t>
-  </si>
-  <si>
-    <t>1ax</t>
-  </si>
-  <si>
-    <t>1aw</t>
-  </si>
-  <si>
-    <t>1av</t>
-  </si>
-  <si>
-    <t>1au</t>
-  </si>
-  <si>
-    <t>1at</t>
-  </si>
-  <si>
-    <t>1as</t>
-  </si>
-  <si>
-    <t>1ar</t>
-  </si>
-  <si>
-    <t>1aq</t>
-  </si>
-  <si>
-    <t>1ap</t>
-  </si>
-  <si>
-    <t>1ao</t>
-  </si>
-  <si>
-    <t>1an</t>
-  </si>
-  <si>
-    <t>1am</t>
-  </si>
-  <si>
-    <t>1al</t>
-  </si>
-  <si>
-    <t>1ak</t>
-  </si>
-  <si>
-    <t>1aj</t>
-  </si>
-  <si>
-    <t>1ag</t>
-  </si>
-  <si>
-    <t>1af</t>
-  </si>
-  <si>
-    <t>1ae</t>
-  </si>
-  <si>
-    <t>1ad</t>
-  </si>
-  <si>
-    <t>1ac</t>
-  </si>
-  <si>
-    <t>1ab</t>
-  </si>
-  <si>
-    <t>1aa</t>
-  </si>
-  <si>
-    <t>1a9</t>
-  </si>
-  <si>
-    <t>1a8</t>
-  </si>
-  <si>
-    <t>1a7</t>
-  </si>
-  <si>
-    <t>1a6</t>
-  </si>
-  <si>
-    <t>1a5</t>
-  </si>
-  <si>
-    <t>1a4</t>
-  </si>
-  <si>
-    <t>1a3</t>
-  </si>
-  <si>
-    <t>1a2</t>
-  </si>
-  <si>
-    <t>1a1</t>
-  </si>
-  <si>
-    <t>1a0</t>
-  </si>
-  <si>
-    <t>19Z</t>
-  </si>
-  <si>
-    <t>19Y</t>
-  </si>
-  <si>
-    <t>19X</t>
-  </si>
-  <si>
-    <t>19W</t>
   </si>
   <si>
     <t>19F</t>
@@ -25362,12 +25071,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7826</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>7827</v>
+        <v>7730</v>
       </c>
       <c r="B2" s="54">
         <v>41804</v>
@@ -25375,7 +25084,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>7828</v>
+        <v>7731</v>
       </c>
       <c r="B3" s="54">
         <v>41805</v>
@@ -25383,7 +25092,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>7843</v>
+        <v>7746</v>
       </c>
       <c r="B4" s="54">
         <v>41806</v>
@@ -25391,7 +25100,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>7842</v>
+        <v>7745</v>
       </c>
       <c r="B5" s="54">
         <v>41813</v>
@@ -25399,7 +25108,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>7846</v>
+        <v>7749</v>
       </c>
       <c r="B6" s="54">
         <v>41868</v>
@@ -25407,15 +25116,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>7850</v>
+        <v>7753</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>7851</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7849</v>
+        <v>7752</v>
       </c>
       <c r="B8" s="54">
         <v>41930</v>
@@ -25423,7 +25132,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7852</v>
+        <v>7755</v>
       </c>
       <c r="B9" s="54">
         <v>41932</v>
@@ -25431,7 +25140,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7853</v>
+        <v>7756</v>
       </c>
       <c r="B10" s="54">
         <v>41941</v>
@@ -25439,7 +25148,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7854</v>
+        <v>7757</v>
       </c>
       <c r="B11" s="54">
         <v>41998</v>
@@ -25447,7 +25156,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7829</v>
+        <v>7732</v>
       </c>
       <c r="B12" s="54">
         <v>42002</v>
@@ -25455,7 +25164,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7938</v>
+        <v>7841</v>
       </c>
       <c r="B13" s="54">
         <v>42037</v>
@@ -25463,7 +25172,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7967</v>
+        <v>7870</v>
       </c>
       <c r="B14" s="54">
         <v>42042</v>
@@ -25471,10 +25180,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7855</v>
+        <v>7758</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7844</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -25502,7 +25211,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>7784</v>
+        <v>7687</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>1387</v>
@@ -25513,7 +25222,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>7817</v>
+        <v>7720</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>$A$18</f>
@@ -25549,7 +25258,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>7818</v>
+        <v>7721</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>$A$18</f>
@@ -25585,7 +25294,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>7792</v>
+        <v>7695</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>$A$18</f>
@@ -25609,7 +25318,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>7748</v>
+        <v>7651</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>$A$20</f>
@@ -25660,7 +25369,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>7785</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -25690,17 +25399,17 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>7772</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>7773</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>7771</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -25897,99 +25606,99 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>7786</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>7727</v>
+        <v>7630</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7759</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>7758</v>
+        <v>7661</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7760</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7766</v>
+        <v>7669</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7761</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>7767</v>
+        <v>7670</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7762</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>7768</v>
+        <v>7671</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7763</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>7656</v>
+        <v>7559</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7764</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>7478</v>
+        <v>7381</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7765</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>7787</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>7782</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>7783</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>7874</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>7749</v>
+        <v>7652</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7750</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>7751</v>
+        <v>7654</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7752</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -25997,31 +25706,31 @@
         <v>185</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7753</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>7754</v>
+        <v>7657</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7755</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>7719</v>
+        <v>7622</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7756</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>7757</v>
+        <v>7660</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7756</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -26029,7 +25738,7 @@
         <v>255</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7753</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -26037,7 +25746,7 @@
         <v>256</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7753</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -26045,146 +25754,146 @@
         <v>257</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7753</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>7841</v>
+        <v>7744</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7753</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>7871</v>
+        <v>7774</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7753</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>7876</v>
+        <v>7779</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7875</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>7857</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>7858</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>7859</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>7860</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>7861</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>7867</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>7868</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>7862</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>7863</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>7864</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>7865</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>7866</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>7819</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>7820</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>7821</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>7822</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>7823</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>7824</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>7925</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>7926</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>7927</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>7987</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>7988</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -26194,12 +25903,12 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>7989</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>7738</v>
+        <v>7641</v>
       </c>
     </row>
   </sheetData>
@@ -26232,7 +25941,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7790</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26241,7 +25950,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>7743</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -26250,7 +25959,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>7742</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26259,7 +25968,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>7740</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26268,7 +25977,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>7741</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26277,7 +25986,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>7744</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26286,7 +25995,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>7739</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -26295,7 +26004,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>7738</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -26304,7 +26013,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>7745</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -26313,7 +26022,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>7746</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -26322,7 +26031,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>7747</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -26331,7 +26040,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7775</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -26340,7 +26049,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7793</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -26349,7 +26058,7 @@
         <v>1.0.3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7845</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -26358,7 +26067,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7869</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -26367,7 +26076,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7887</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -26376,7 +26085,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7898</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -26385,7 +26094,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7899</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -26394,7 +26103,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7900</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -26403,7 +26112,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7901</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -26412,7 +26121,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7902</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -26421,7 +26130,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7903</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -26430,7 +26139,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7904</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -26439,7 +26148,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7905</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -26448,7 +26157,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7906</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -26457,7 +26166,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7907</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -26466,7 +26175,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7908</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -26475,7 +26184,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7909</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -26484,7 +26193,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7924</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -26493,7 +26202,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7968</v>
+        <v>7871</v>
       </c>
     </row>
   </sheetData>
@@ -26506,10 +26215,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I5452"/>
+  <dimension ref="A1:E5452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26518,438 +26227,114 @@
     <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>7027</v>
+        <v>6930</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F13" s="35" t="s">
-        <v>6911</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>6890</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>6870</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>6849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="35" t="s">
-        <v>6910</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>6889</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>6869</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>6848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>6828</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>6909</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>6888</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>6868</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>6847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>6827</v>
-      </c>
+        <v>7759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C16"/>
       <c r="E16"/>
-      <c r="F16" s="35" t="s">
-        <v>6908</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>6887</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>6867</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>6846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>6826</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>6907</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>6886</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>6866</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>6845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>6825</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>6906</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>6885</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>6865</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>6844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>6824</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>6905</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>6884</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>6864</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>6843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>6823</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>6904</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>6883</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>6863</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>6842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>6822</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>6903</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>6882</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>6862</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>6841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>6821</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>6902</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>6881</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>6861</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>6840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>6820</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>6901</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>6880</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>6860</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>6839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>6819</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>6900</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>6879</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>6859</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>6838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>6818</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>6899</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>6878</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>6858</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>6837</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>6817</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>6898</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>6877</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>6857</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>6836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>6816</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>6897</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>6876</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>6856</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>6835</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>6815</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>6896</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>6875</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>6855</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>6834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>6814</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>6895</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>6874</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>6854</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>6833</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>6813</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>6894</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>6873</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>6853</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>6832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>6812</v>
       </c>
-      <c r="F31" s="35" t="s">
-        <v>6893</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>6872</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>6852</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>6831</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>6811</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>6892</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>6871</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>6851</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>6830</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>6810</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>6891</v>
-      </c>
-      <c r="G33">
-        <v>142</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>6850</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>6829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>6809</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
         <v>6808</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>6807</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>6806</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>6805</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>6804</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>6803</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
         <v>6802</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>6801</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>6800</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
         <v>6799</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>6798</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>6797</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>6796</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
         <v>6795</v>
       </c>
@@ -53999,12 +53384,12 @@
         <v>Version</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>7788</v>
+        <v>7691</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="34" t="s">
-        <v>7737</v>
+        <v>7640</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -54039,10 +53424,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7736</v>
+        <v>7639</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>7735</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54073,10 +53458,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7734</v>
+        <v>7637</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>7733</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54107,10 +53492,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7732</v>
+        <v>7635</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>7731</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54141,10 +53526,10 @@
         <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7730</v>
+        <v>7633</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7729</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54175,10 +53560,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7728</v>
+        <v>7631</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7727</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54209,10 +53594,10 @@
         <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7726</v>
+        <v>7629</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7725</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54243,10 +53628,10 @@
         <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7724</v>
+        <v>7627</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>7723</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54277,10 +53662,10 @@
         <v>107</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7722</v>
+        <v>7625</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>7721</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54311,10 +53696,10 @@
         <v>108</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7720</v>
+        <v>7623</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>7719</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54345,10 +53730,10 @@
         <v>109</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7718</v>
+        <v>7621</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>7717</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54376,13 +53761,13 @@
         <v>266</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>6971</v>
+        <v>6874</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7716</v>
+        <v>7619</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>7715</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54410,13 +53795,13 @@
         <v>267</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>6970</v>
+        <v>6873</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7714</v>
+        <v>7617</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7713</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54444,13 +53829,13 @@
         <v>268</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>6969</v>
+        <v>6872</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7712</v>
+        <v>7615</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7711</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54478,13 +53863,13 @@
         <v>269</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>6968</v>
+        <v>6871</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7710</v>
+        <v>7613</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7709</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54512,13 +53897,13 @@
         <v>270</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>6967</v>
+        <v>6870</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7708</v>
+        <v>7611</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7707</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54546,13 +53931,13 @@
         <v>271</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>6966</v>
+        <v>6869</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7706</v>
+        <v>7609</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7705</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54583,10 +53968,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7704</v>
+        <v>7607</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>7703</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54617,10 +54002,10 @@
         <v>111</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7702</v>
+        <v>7605</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>7701</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54651,10 +54036,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7700</v>
+        <v>7603</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>7699</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54685,10 +54070,10 @@
         <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7698</v>
+        <v>7601</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7697</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54719,10 +54104,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7696</v>
+        <v>7599</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7695</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54753,10 +54138,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7694</v>
+        <v>7597</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7693</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54787,10 +54172,10 @@
         <v>116</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7692</v>
+        <v>7595</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7691</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54821,10 +54206,10 @@
         <v>117</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7690</v>
+        <v>7593</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>7689</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54855,10 +54240,10 @@
         <v>118</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7688</v>
+        <v>7591</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>7687</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54889,10 +54274,10 @@
         <v>119</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7686</v>
+        <v>7589</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>7685</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54920,13 +54305,13 @@
         <v>282</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>6965</v>
+        <v>6868</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7684</v>
+        <v>7587</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>7683</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54954,13 +54339,13 @@
         <v>283</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>6964</v>
+        <v>6867</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7682</v>
+        <v>7585</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7681</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54988,13 +54373,13 @@
         <v>284</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>6963</v>
+        <v>6866</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7680</v>
+        <v>7583</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>7679</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55022,13 +54407,13 @@
         <v>285</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>6962</v>
+        <v>6865</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7678</v>
+        <v>7581</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>7677</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55056,13 +54441,13 @@
         <v>286</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>6961</v>
+        <v>6864</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7676</v>
+        <v>7579</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7675</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55090,13 +54475,13 @@
         <v>287</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>6960</v>
+        <v>6863</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7674</v>
+        <v>7577</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>7673</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55127,10 +54512,10 @@
         <v>120</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7672</v>
+        <v>7575</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7671</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55161,10 +54546,10 @@
         <v>121</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7670</v>
+        <v>7573</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>7669</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55195,10 +54580,10 @@
         <v>122</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7668</v>
+        <v>7571</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>7667</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55229,10 +54614,10 @@
         <v>123</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7666</v>
+        <v>7569</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>7665</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55263,10 +54648,10 @@
         <v>124</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7664</v>
+        <v>7567</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>7663</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55297,10 +54682,10 @@
         <v>125</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7662</v>
+        <v>7565</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7661</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55331,10 +54716,10 @@
         <v>126</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7660</v>
+        <v>7563</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>7659</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55365,10 +54750,10 @@
         <v>127</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7658</v>
+        <v>7561</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7657</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -55399,10 +54784,10 @@
         <v>128</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7262</v>
+        <v>7165</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7656</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -55433,10 +54818,10 @@
         <v>129</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7655</v>
+        <v>7558</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7654</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55464,13 +54849,13 @@
         <v>298</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>6959</v>
+        <v>6862</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7653</v>
+        <v>7556</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>7652</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55498,13 +54883,13 @@
         <v>299</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>6958</v>
+        <v>6861</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7651</v>
+        <v>7554</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7650</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55532,13 +54917,13 @@
         <v>300</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>6957</v>
+        <v>6860</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7649</v>
+        <v>7552</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7648</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55566,13 +54951,13 @@
         <v>301</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>6956</v>
+        <v>6859</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7647</v>
+        <v>7550</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>7646</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55600,13 +54985,13 @@
         <v>302</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>6955</v>
+        <v>6858</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7645</v>
+        <v>7548</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>7644</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55634,13 +55019,13 @@
         <v>303</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>6954</v>
+        <v>6857</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7643</v>
+        <v>7546</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>7642</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55671,10 +55056,10 @@
         <v>130</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7641</v>
+        <v>7544</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>7640</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55705,10 +55090,10 @@
         <v>131</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7639</v>
+        <v>7542</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>7638</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55739,10 +55124,10 @@
         <v>132</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7637</v>
+        <v>7540</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>7636</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -55773,10 +55158,10 @@
         <v>133</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7635</v>
+        <v>7538</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>7634</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55807,10 +55192,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7633</v>
+        <v>7536</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>7632</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -55841,10 +55226,10 @@
         <v>135</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7631</v>
+        <v>7534</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>7630</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -55875,10 +55260,10 @@
         <v>136</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7629</v>
+        <v>7532</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>7628</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -55909,10 +55294,10 @@
         <v>137</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7627</v>
+        <v>7530</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>7626</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -55943,10 +55328,10 @@
         <v>138</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7625</v>
+        <v>7528</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7624</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -55977,10 +55362,10 @@
         <v>139</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7623</v>
+        <v>7526</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7622</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56008,13 +55393,13 @@
         <v>314</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>6953</v>
+        <v>6856</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7621</v>
+        <v>7524</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7620</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56042,13 +55427,13 @@
         <v>315</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>6952</v>
+        <v>6855</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7619</v>
+        <v>7522</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>7618</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56076,13 +55461,13 @@
         <v>316</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>6951</v>
+        <v>6854</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7617</v>
+        <v>7520</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>7616</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56110,13 +55495,13 @@
         <v>317</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>6950</v>
+        <v>6853</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7615</v>
+        <v>7518</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>7614</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56144,13 +55529,13 @@
         <v>318</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>6949</v>
+        <v>6852</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7613</v>
+        <v>7516</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>7612</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56178,13 +55563,13 @@
         <v>319</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>6948</v>
+        <v>6851</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7611</v>
+        <v>7514</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>7610</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56215,10 +55600,10 @@
         <v>140</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7609</v>
+        <v>7512</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>7608</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56249,10 +55634,10 @@
         <v>141</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7607</v>
+        <v>7510</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>7606</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56283,10 +55668,10 @@
         <v>142</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7605</v>
+        <v>7508</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7604</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56317,10 +55702,10 @@
         <v>143</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7603</v>
+        <v>7506</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>7602</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56351,10 +55736,10 @@
         <v>144</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7248</v>
+        <v>7151</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>7601</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56385,10 +55770,10 @@
         <v>145</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7600</v>
+        <v>7503</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>7599</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56419,10 +55804,10 @@
         <v>146</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7598</v>
+        <v>7501</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>7597</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56453,10 +55838,10 @@
         <v>147</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7596</v>
+        <v>7499</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>7595</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56487,10 +55872,10 @@
         <v>148</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7594</v>
+        <v>7497</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>7593</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56521,10 +55906,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7592</v>
+        <v>7495</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7591</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56552,13 +55937,13 @@
         <v>330</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>6947</v>
+        <v>6850</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7234</v>
+        <v>7137</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7590</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56586,13 +55971,13 @@
         <v>331</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>6946</v>
+        <v>6849</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7589</v>
+        <v>7492</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>7588</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56620,13 +56005,13 @@
         <v>332</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>6945</v>
+        <v>6848</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7587</v>
+        <v>7490</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>7586</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56654,13 +56039,13 @@
         <v>333</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>6944</v>
+        <v>6847</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7585</v>
+        <v>7488</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>7584</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56688,13 +56073,13 @@
         <v>334</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>6943</v>
+        <v>6846</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7583</v>
+        <v>7486</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>7582</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56722,13 +56107,13 @@
         <v>335</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>6942</v>
+        <v>6845</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7581</v>
+        <v>7484</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7580</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56759,10 +56144,10 @@
         <v>150</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7579</v>
+        <v>7482</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7578</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56793,10 +56178,10 @@
         <v>151</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7577</v>
+        <v>7480</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>7211</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56827,10 +56212,10 @@
         <v>152</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7210</v>
+        <v>7113</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7576</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56861,10 +56246,10 @@
         <v>153</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7575</v>
+        <v>7478</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>7574</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -56895,10 +56280,10 @@
         <v>154</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7573</v>
+        <v>7476</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>7572</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -56929,10 +56314,10 @@
         <v>155</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7571</v>
+        <v>7474</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7570</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56963,10 +56348,10 @@
         <v>156</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7569</v>
+        <v>7472</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>7568</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -56997,10 +56382,10 @@
         <v>157</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7567</v>
+        <v>7470</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7566</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57031,10 +56416,10 @@
         <v>158</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7565</v>
+        <v>7468</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7564</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57065,10 +56450,10 @@
         <v>159</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7563</v>
+        <v>7466</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7562</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57096,13 +56481,13 @@
         <v>346</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>6941</v>
+        <v>6844</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7561</v>
+        <v>7464</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>7560</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57130,13 +56515,13 @@
         <v>347</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>6940</v>
+        <v>6843</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7559</v>
+        <v>7462</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>7558</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57164,13 +56549,13 @@
         <v>348</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>6939</v>
+        <v>6842</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7557</v>
+        <v>7460</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>7556</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -57198,13 +56583,13 @@
         <v>349</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>6938</v>
+        <v>6841</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7555</v>
+        <v>7458</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7554</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57232,13 +56617,13 @@
         <v>350</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>6937</v>
+        <v>6840</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7553</v>
+        <v>7456</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>7552</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -57266,13 +56651,13 @@
         <v>351</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>6936</v>
+        <v>6839</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7551</v>
+        <v>7454</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>7550</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57303,10 +56688,10 @@
         <v>160</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7549</v>
+        <v>7452</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>7548</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57337,7 +56722,7 @@
         <v>161</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7547</v>
+        <v>7450</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>393</v>
@@ -57371,10 +56756,10 @@
         <v>162</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7192</v>
+        <v>7095</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>7546</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57405,10 +56790,10 @@
         <v>163</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7338</v>
+        <v>7241</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>7545</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -57439,10 +56824,10 @@
         <v>164</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7544</v>
+        <v>7447</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>7543</v>
+        <v>7446</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57473,10 +56858,10 @@
         <v>165</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7542</v>
+        <v>7445</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7541</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57507,10 +56892,10 @@
         <v>166</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7540</v>
+        <v>7443</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>7539</v>
+        <v>7442</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -57541,10 +56926,10 @@
         <v>167</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7538</v>
+        <v>7441</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>7537</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57575,10 +56960,10 @@
         <v>168</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7536</v>
+        <v>7439</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>7169</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57609,10 +56994,10 @@
         <v>169</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7535</v>
+        <v>7438</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>7534</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57640,13 +57025,13 @@
         <v>362</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>6935</v>
+        <v>6838</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7533</v>
+        <v>7436</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>7532</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57674,13 +57059,13 @@
         <v>363</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>6934</v>
+        <v>6837</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7531</v>
+        <v>7434</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>7530</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57708,13 +57093,13 @@
         <v>364</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>6933</v>
+        <v>6836</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7529</v>
+        <v>7432</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>7528</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -57742,13 +57127,13 @@
         <v>365</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>6932</v>
+        <v>6835</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7527</v>
+        <v>7430</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>7526</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57776,13 +57161,13 @@
         <v>366</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>6931</v>
+        <v>6834</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7525</v>
+        <v>7428</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7524</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57810,13 +57195,13 @@
         <v>367</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>6930</v>
+        <v>6833</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7523</v>
+        <v>7426</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7522</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57847,10 +57232,10 @@
         <v>170</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7521</v>
+        <v>7424</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7520</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57881,10 +57266,10 @@
         <v>171</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7519</v>
+        <v>7422</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7518</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57915,10 +57300,10 @@
         <v>172</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7517</v>
+        <v>7420</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>7516</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57949,10 +57334,10 @@
         <v>173</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7515</v>
+        <v>7418</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>7514</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -57983,10 +57368,10 @@
         <v>174</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7146</v>
+        <v>7049</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>7513</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58017,10 +57402,10 @@
         <v>175</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7512</v>
+        <v>7415</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7511</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58051,10 +57436,10 @@
         <v>176</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7510</v>
+        <v>7413</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>7509</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58085,10 +57470,10 @@
         <v>177</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7508</v>
+        <v>7411</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>7507</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58119,10 +57504,10 @@
         <v>178</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7506</v>
+        <v>7409</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>7505</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58153,10 +57538,10 @@
         <v>179</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7504</v>
+        <v>7407</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7503</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58184,13 +57569,13 @@
         <v>378</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>6929</v>
+        <v>6832</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7502</v>
+        <v>7405</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7501</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58218,13 +57603,13 @@
         <v>379</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>6928</v>
+        <v>6831</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7142</v>
+        <v>7045</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7500</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58252,13 +57637,13 @@
         <v>380</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>6927</v>
+        <v>6830</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7140</v>
+        <v>7043</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7499</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58286,13 +57671,13 @@
         <v>381</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>6926</v>
+        <v>6829</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7498</v>
+        <v>7401</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>7497</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58320,13 +57705,13 @@
         <v>382</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>6925</v>
+        <v>6828</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7496</v>
+        <v>7399</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>7495</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58354,13 +57739,13 @@
         <v>383</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>6924</v>
+        <v>6827</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7494</v>
+        <v>7397</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7493</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58391,10 +57776,10 @@
         <v>180</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7492</v>
+        <v>7395</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>7491</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58425,10 +57810,10 @@
         <v>181</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7490</v>
+        <v>7393</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7489</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58459,10 +57844,10 @@
         <v>182</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7488</v>
+        <v>7391</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>7487</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58493,10 +57878,10 @@
         <v>183</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7486</v>
+        <v>7389</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>7485</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58527,10 +57912,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7484</v>
+        <v>7387</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>7483</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58561,10 +57946,10 @@
         <v>185</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7482</v>
+        <v>7385</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7481</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58595,10 +57980,10 @@
         <v>186</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7096</v>
+        <v>6999</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>7480</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58629,10 +58014,10 @@
         <v>187</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7479</v>
+        <v>7382</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>7478</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58663,10 +58048,10 @@
         <v>188</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7477</v>
+        <v>7380</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>7476</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58697,10 +58082,10 @@
         <v>189</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7475</v>
+        <v>7378</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>7474</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -58728,13 +58113,13 @@
         <v>394</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>6923</v>
+        <v>6826</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7473</v>
+        <v>7376</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>7472</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58762,13 +58147,13 @@
         <v>395</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>6922</v>
+        <v>6825</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7471</v>
+        <v>7374</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>7470</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58796,13 +58181,13 @@
         <v>396</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>6921</v>
+        <v>6824</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7469</v>
+        <v>7372</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>7468</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -58830,13 +58215,13 @@
         <v>397</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>6920</v>
+        <v>6823</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>7088</v>
+        <v>6991</v>
       </c>
       <c r="I143" s="37" t="s">
-        <v>7467</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58864,13 +58249,13 @@
         <v>398</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>6919</v>
+        <v>6822</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>7466</v>
+        <v>7369</v>
       </c>
       <c r="I144" s="37" t="s">
-        <v>7465</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58898,13 +58283,13 @@
         <v>399</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>6918</v>
+        <v>6821</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7464</v>
+        <v>7367</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>7463</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -58935,10 +58320,10 @@
         <v>190</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7462</v>
+        <v>7365</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>7461</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -58969,10 +58354,10 @@
         <v>191</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7460</v>
+        <v>7363</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>7459</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59003,10 +58388,10 @@
         <v>192</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7458</v>
+        <v>7361</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>7457</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59037,10 +58422,10 @@
         <v>193</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7456</v>
+        <v>7359</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>7455</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59071,10 +58456,10 @@
         <v>194</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7454</v>
+        <v>7357</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>7453</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59105,10 +58490,10 @@
         <v>195</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7452</v>
+        <v>7355</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>7151</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59139,10 +58524,10 @@
         <v>196</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7451</v>
+        <v>7354</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>7450</v>
+        <v>7353</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59173,10 +58558,10 @@
         <v>197</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7449</v>
+        <v>7352</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7448</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59207,10 +58592,10 @@
         <v>198</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7447</v>
+        <v>7350</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7446</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59239,7 +58624,7 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59264,11 +58649,11 @@
         <v>410</v>
       </c>
       <c r="G156" s="39" t="s">
-        <v>6917</v>
+        <v>6820</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59293,11 +58678,11 @@
         <v>411</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>6916</v>
+        <v>6819</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59322,11 +58707,11 @@
         <v>412</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>6915</v>
+        <v>6818</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59351,11 +58736,11 @@
         <v>413</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>6914</v>
+        <v>6817</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59380,11 +58765,11 @@
         <v>414</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>6913</v>
+        <v>6816</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59409,11 +58794,11 @@
         <v>415</v>
       </c>
       <c r="G161" s="39" t="s">
-        <v>6912</v>
+        <v>6815</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59442,7 +58827,7 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59473,10 +58858,10 @@
         <v>5313</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7445</v>
+        <v>7348</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>7444</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59507,10 +58892,10 @@
         <v>5312</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7443</v>
+        <v>7346</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>7442</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59541,10 +58926,10 @@
         <v>5311</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7441</v>
+        <v>7344</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>7440</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -59575,7 +58960,7 @@
         <v>5310</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7439</v>
+        <v>7342</v>
       </c>
       <c r="I166" s="38" t="s">
         <v>73</v>
@@ -59609,10 +58994,10 @@
         <v>5309</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7438</v>
+        <v>7341</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7437</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -59643,10 +59028,10 @@
         <v>5308</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7436</v>
+        <v>7339</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7435</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59675,7 +59060,7 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59704,7 +59089,7 @@
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59733,7 +59118,7 @@
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59762,7 +59147,7 @@
       </c>
       <c r="H172" s="8"/>
       <c r="I172" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59791,7 +59176,7 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59820,7 +59205,7 @@
       </c>
       <c r="H174" s="8"/>
       <c r="I174" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59849,7 +59234,7 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59878,7 +59263,7 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -59907,7 +59292,7 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59935,13 +59320,13 @@
         <v>2256</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>7434</v>
+        <v>7337</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>7433</v>
+        <v>7336</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>7432</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -59969,13 +59354,13 @@
         <v>2257</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>7431</v>
+        <v>7334</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>7430</v>
+        <v>7333</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>7429</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60003,13 +59388,13 @@
         <v>2258</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>7428</v>
+        <v>7331</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>7427</v>
+        <v>7330</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>7426</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60037,13 +59422,13 @@
         <v>2259</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>7425</v>
+        <v>7328</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>7424</v>
+        <v>7327</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>7423</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60071,13 +59456,13 @@
         <v>2260</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>7422</v>
+        <v>7325</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>7421</v>
+        <v>7324</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>7420</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60105,13 +59490,13 @@
         <v>2261</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>7419</v>
+        <v>7322</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>7418</v>
+        <v>7321</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>7417</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60139,13 +59524,13 @@
         <v>2262</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>7416</v>
+        <v>7319</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>7415</v>
+        <v>7318</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>7414</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60173,13 +59558,13 @@
         <v>2263</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>7413</v>
+        <v>7316</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>7412</v>
+        <v>7315</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>7411</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60207,13 +59592,13 @@
         <v>2264</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>7410</v>
+        <v>7313</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>7409</v>
+        <v>7312</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>7408</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60241,13 +59626,13 @@
         <v>2265</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>7407</v>
+        <v>7310</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>7406</v>
+        <v>7309</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>7405</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60275,13 +59660,13 @@
         <v>2266</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>7404</v>
+        <v>7307</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>7403</v>
+        <v>7306</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>7402</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -60309,13 +59694,13 @@
         <v>2267</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>7401</v>
+        <v>7304</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>7400</v>
+        <v>7303</v>
       </c>
       <c r="I189" s="38" t="s">
-        <v>7399</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60340,11 +59725,11 @@
         <v>2268</v>
       </c>
       <c r="G190" s="39" t="s">
-        <v>7398</v>
+        <v>7301</v>
       </c>
       <c r="H190" s="8"/>
       <c r="I190" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60369,11 +59754,11 @@
         <v>2269</v>
       </c>
       <c r="G191" s="39" t="s">
-        <v>7397</v>
+        <v>7300</v>
       </c>
       <c r="H191" s="8"/>
       <c r="I191" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60398,11 +59783,11 @@
         <v>2270</v>
       </c>
       <c r="G192" s="39" t="s">
-        <v>7396</v>
+        <v>7299</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -60427,11 +59812,11 @@
         <v>2271</v>
       </c>
       <c r="G193" s="39" t="s">
-        <v>7395</v>
+        <v>7298</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
   </sheetData>
@@ -60462,7 +59847,7 @@
         <v>Version</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7789</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60493,10 +59878,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7394</v>
+        <v>7297</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>7393</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60527,10 +59912,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>7392</v>
+        <v>7295</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>7391</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60561,10 +59946,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>7390</v>
+        <v>7293</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>7389</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60595,10 +59980,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7388</v>
+        <v>7291</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>7387</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60629,10 +60014,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7386</v>
+        <v>7289</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>7385</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60663,10 +60048,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>7384</v>
+        <v>7287</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>7383</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60697,10 +60082,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>7382</v>
+        <v>7285</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>7381</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60731,10 +60116,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>7380</v>
+        <v>7283</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>7379</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60765,10 +60150,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7378</v>
+        <v>7281</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>7377</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60799,10 +60184,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>7376</v>
+        <v>7279</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>7375</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60830,13 +60215,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>7374</v>
+        <v>7277</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>7373</v>
+        <v>7276</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>7372</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60867,10 +60252,10 @@
         <v>226</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>7371</v>
+        <v>7274</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>7370</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60901,10 +60286,10 @@
         <v>224</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>7369</v>
+        <v>7272</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>7368</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60932,13 +60317,13 @@
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>7367</v>
+        <v>7270</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7366</v>
+        <v>7269</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>7365</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -60966,13 +60351,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>7364</v>
+        <v>7267</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7363</v>
+        <v>7266</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>7362</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61003,10 +60388,10 @@
         <v>218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>7361</v>
+        <v>7264</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>7360</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61037,10 +60422,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>7359</v>
+        <v>7262</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>7358</v>
+        <v>7261</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61071,10 +60456,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>7357</v>
+        <v>7260</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>7356</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61105,10 +60490,10 @@
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>7355</v>
+        <v>7258</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>7354</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61139,10 +60524,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>7353</v>
+        <v>7256</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>7352</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61173,10 +60558,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>7351</v>
+        <v>7254</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>7350</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61207,10 +60592,10 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>7349</v>
+        <v>7252</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>7348</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61241,10 +60626,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>7347</v>
+        <v>7250</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>7346</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61275,10 +60660,10 @@
         <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>7345</v>
+        <v>7248</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>7344</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61309,10 +60694,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>7343</v>
+        <v>7246</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>7342</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61343,10 +60728,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>7341</v>
+        <v>7244</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>7340</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61374,13 +60759,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>7339</v>
+        <v>7242</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7338</v>
+        <v>7241</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>7337</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61408,13 +60793,13 @@
         <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7336</v>
+        <v>7239</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>7335</v>
+        <v>7238</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>7334</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61442,13 +60827,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7333</v>
+        <v>7236</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7332</v>
+        <v>7235</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>7331</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61476,13 +60861,13 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7026</v>
+        <v>6929</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7330</v>
+        <v>7233</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>7329</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61510,13 +60895,13 @@
         <v>30</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>7025</v>
+        <v>6928</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7328</v>
+        <v>7231</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>7327</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61544,13 +60929,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7024</v>
+        <v>6927</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>7326</v>
+        <v>7229</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>7325</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61581,10 +60966,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>7324</v>
+        <v>7227</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>7323</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61615,10 +61000,10 @@
         <v>21</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>7322</v>
+        <v>7225</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>7321</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61649,10 +61034,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>7320</v>
+        <v>7223</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>7319</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61683,10 +61068,10 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7318</v>
+        <v>7221</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>7317</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61717,10 +61102,10 @@
         <v>24</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7316</v>
+        <v>7219</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>7315</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61751,10 +61136,10 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>7314</v>
+        <v>7217</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>7313</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61785,10 +61170,10 @@
         <v>26</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>7312</v>
+        <v>7215</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>7311</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -61819,10 +61204,10 @@
         <v>27</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7310</v>
+        <v>7213</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>7309</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61853,10 +61238,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7308</v>
+        <v>7211</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>7307</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61887,10 +61272,10 @@
         <v>29</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7306</v>
+        <v>7209</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>7305</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -61918,13 +61303,13 @@
         <v>42</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7304</v>
+        <v>7207</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>7303</v>
+        <v>7206</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>7302</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61952,13 +61337,13 @@
         <v>43</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>7301</v>
+        <v>7204</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7300</v>
+        <v>7203</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>7299</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -61986,13 +61371,13 @@
         <v>44</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7298</v>
+        <v>7201</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>7297</v>
+        <v>7200</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>7296</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62020,13 +61405,13 @@
         <v>45</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>7295</v>
+        <v>7198</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>7294</v>
+        <v>7197</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>7293</v>
+        <v>7196</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62054,13 +61439,13 @@
         <v>46</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7292</v>
+        <v>7195</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7291</v>
+        <v>7194</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>7290</v>
+        <v>7193</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62088,13 +61473,13 @@
         <v>47</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7289</v>
+        <v>7192</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7288</v>
+        <v>7191</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>7287</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62125,10 +61510,10 @@
         <v>30</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7286</v>
+        <v>7189</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>7285</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62159,10 +61544,10 @@
         <v>31</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7284</v>
+        <v>7187</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>7283</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62193,10 +61578,10 @@
         <v>32</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7282</v>
+        <v>7185</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>7281</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62227,10 +61612,10 @@
         <v>33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7280</v>
+        <v>7183</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>7279</v>
+        <v>7182</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62261,10 +61646,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7278</v>
+        <v>7181</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>7277</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62295,10 +61680,10 @@
         <v>35</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7276</v>
+        <v>7179</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>7275</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62329,10 +61714,10 @@
         <v>36</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7274</v>
+        <v>7177</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>7273</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62363,10 +61748,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7272</v>
+        <v>7175</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>7271</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62397,10 +61782,10 @@
         <v>38</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7270</v>
+        <v>7173</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>7269</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62431,10 +61816,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7268</v>
+        <v>7171</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>7267</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62462,13 +61847,13 @@
         <v>58</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7266</v>
+        <v>7169</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7265</v>
+        <v>7168</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>7264</v>
+        <v>7167</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62496,13 +61881,13 @@
         <v>59</v>
       </c>
       <c r="G61" s="42" t="s">
-        <v>7263</v>
+        <v>7166</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7262</v>
+        <v>7165</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>7261</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62530,13 +61915,13 @@
         <v>60</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>7260</v>
+        <v>7163</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7259</v>
+        <v>7162</v>
       </c>
       <c r="I62" s="37" t="s">
-        <v>7258</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62564,13 +61949,13 @@
         <v>61</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>7257</v>
+        <v>7160</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7256</v>
+        <v>7159</v>
       </c>
       <c r="I63" s="37" t="s">
-        <v>7255</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62598,13 +61983,13 @@
         <v>62</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>7254</v>
+        <v>7157</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7253</v>
+        <v>7156</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>7252</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62632,13 +62017,13 @@
         <v>63</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>7251</v>
+        <v>7154</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7250</v>
+        <v>7153</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>7249</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62669,10 +62054,10 @@
         <v>40</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7248</v>
+        <v>7151</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>7247</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62703,10 +62088,10 @@
         <v>41</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7246</v>
+        <v>7149</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>7245</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62737,10 +62122,10 @@
         <v>42</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7244</v>
+        <v>7147</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>7243</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62771,10 +62156,10 @@
         <v>43</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7242</v>
+        <v>7145</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>7241</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62805,10 +62190,10 @@
         <v>44</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7240</v>
+        <v>7143</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>7239</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62839,10 +62224,10 @@
         <v>45</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7238</v>
+        <v>7141</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>7237</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62873,10 +62258,10 @@
         <v>46</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7236</v>
+        <v>7139</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>7235</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -62907,10 +62292,10 @@
         <v>47</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>7234</v>
+        <v>7137</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>7233</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -62941,10 +62326,10 @@
         <v>48</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>7232</v>
+        <v>7135</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>7231</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -62975,10 +62360,10 @@
         <v>49</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>7230</v>
+        <v>7133</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>7229</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63006,13 +62391,13 @@
         <v>74</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>7023</v>
+        <v>6926</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7228</v>
+        <v>7131</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>7227</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63040,13 +62425,13 @@
         <v>75</v>
       </c>
       <c r="G77" s="42" t="s">
-        <v>7022</v>
+        <v>6925</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>7226</v>
+        <v>7129</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>7225</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63074,13 +62459,13 @@
         <v>76</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7021</v>
+        <v>6924</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7224</v>
+        <v>7127</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>7223</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63108,13 +62493,13 @@
         <v>77</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>7020</v>
+        <v>6923</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>7222</v>
+        <v>7125</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>7221</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63142,13 +62527,13 @@
         <v>78</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>7019</v>
+        <v>6922</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>7220</v>
+        <v>7123</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>7219</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63176,13 +62561,13 @@
         <v>79</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>7018</v>
+        <v>6921</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>7218</v>
+        <v>7121</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>7217</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63213,10 +62598,10 @@
         <v>50</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>7216</v>
+        <v>7119</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>7215</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63247,10 +62632,10 @@
         <v>51</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>7214</v>
+        <v>7117</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>7213</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63281,10 +62666,10 @@
         <v>52</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7212</v>
+        <v>7115</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>7211</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63315,10 +62700,10 @@
         <v>53</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>7210</v>
+        <v>7113</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>7209</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63349,10 +62734,10 @@
         <v>54</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>7208</v>
+        <v>7111</v>
       </c>
       <c r="I86" s="37" t="s">
-        <v>7207</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63383,10 +62768,10 @@
         <v>55</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7206</v>
+        <v>7109</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>7205</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63417,10 +62802,10 @@
         <v>56</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7204</v>
+        <v>7107</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>7203</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63451,10 +62836,10 @@
         <v>57</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>7202</v>
+        <v>7105</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>7201</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63485,10 +62870,10 @@
         <v>58</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>7200</v>
+        <v>7103</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>7199</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63519,10 +62904,10 @@
         <v>59</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>7198</v>
+        <v>7101</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>7197</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63550,13 +62935,13 @@
         <v>90</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>7017</v>
+        <v>6920</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>7196</v>
+        <v>7099</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>7195</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63584,13 +62969,13 @@
         <v>91</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>7016</v>
+        <v>6919</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>7194</v>
+        <v>7097</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>7193</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63618,13 +63003,13 @@
         <v>92</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7015</v>
+        <v>6918</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>7192</v>
+        <v>7095</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>7191</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63652,13 +63037,13 @@
         <v>93</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>7014</v>
+        <v>6917</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>7190</v>
+        <v>7093</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>7189</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63686,13 +63071,13 @@
         <v>94</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>7013</v>
+        <v>6916</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>7188</v>
+        <v>7091</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>7187</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63720,13 +63105,13 @@
         <v>95</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7012</v>
+        <v>6915</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>7186</v>
+        <v>7089</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>7185</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63757,10 +63142,10 @@
         <v>60</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>7184</v>
+        <v>7087</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>7183</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63791,10 +63176,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>7182</v>
+        <v>7085</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>7181</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -63825,10 +63210,10 @@
         <v>62</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>7180</v>
+        <v>7083</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>7179</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63859,10 +63244,10 @@
         <v>63</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7178</v>
+        <v>7081</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>7177</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -63893,10 +63278,10 @@
         <v>64</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7176</v>
+        <v>7079</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>7175</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63927,10 +63312,10 @@
         <v>65</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>7174</v>
+        <v>7077</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>7173</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63961,10 +63346,10 @@
         <v>66</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7172</v>
+        <v>7075</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>7171</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -63995,10 +63380,10 @@
         <v>67</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7170</v>
+        <v>7073</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>7169</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64029,10 +63414,10 @@
         <v>68</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7168</v>
+        <v>7071</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>7167</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64063,10 +63448,10 @@
         <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7166</v>
+        <v>7069</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>7165</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64094,13 +63479,13 @@
         <v>106</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>7011</v>
+        <v>6914</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7164</v>
+        <v>7067</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>7163</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64128,13 +63513,13 @@
         <v>107</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>7010</v>
+        <v>6913</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7162</v>
+        <v>7065</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>7161</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64162,13 +63547,13 @@
         <v>108</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>7009</v>
+        <v>6912</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>7160</v>
+        <v>7063</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>7159</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64196,13 +63581,13 @@
         <v>109</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>7008</v>
+        <v>6911</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>7158</v>
+        <v>7061</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>7157</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64230,13 +63615,13 @@
         <v>110</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>7007</v>
+        <v>6910</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>7156</v>
+        <v>7059</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>7155</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64264,13 +63649,13 @@
         <v>111</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>7006</v>
+        <v>6909</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>7154</v>
+        <v>7057</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>7153</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64301,10 +63686,10 @@
         <v>70</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>7152</v>
+        <v>7055</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>7151</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64335,10 +63720,10 @@
         <v>71</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>7150</v>
+        <v>7053</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>7149</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64369,10 +63754,10 @@
         <v>72</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>7148</v>
+        <v>7051</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>7147</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64403,10 +63788,10 @@
         <v>73</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>7146</v>
+        <v>7049</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>7145</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64437,10 +63822,10 @@
         <v>74</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>7144</v>
+        <v>7047</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>7143</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64471,10 +63856,10 @@
         <v>75</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>7142</v>
+        <v>7045</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>7141</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64505,10 +63890,10 @@
         <v>76</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>7140</v>
+        <v>7043</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>7139</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64539,10 +63924,10 @@
         <v>77</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>7138</v>
+        <v>7041</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>7137</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64573,10 +63958,10 @@
         <v>78</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>7136</v>
+        <v>7039</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>7135</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64607,10 +63992,10 @@
         <v>79</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>7134</v>
+        <v>7037</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>7133</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64638,13 +64023,13 @@
         <v>122</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>7005</v>
+        <v>6908</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>7132</v>
+        <v>7035</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>7131</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64672,13 +64057,13 @@
         <v>123</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>7004</v>
+        <v>6907</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>7130</v>
+        <v>7033</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>7129</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64706,13 +64091,13 @@
         <v>124</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>7003</v>
+        <v>6906</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>7128</v>
+        <v>7031</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>7127</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -64740,13 +64125,13 @@
         <v>125</v>
       </c>
       <c r="G127" s="43" t="s">
-        <v>7002</v>
+        <v>6905</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>7126</v>
+        <v>7029</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>7125</v>
+        <v>7028</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64774,13 +64159,13 @@
         <v>126</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>7001</v>
+        <v>6904</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>7124</v>
+        <v>7027</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>7123</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64808,13 +64193,13 @@
         <v>127</v>
       </c>
       <c r="G129" s="43" t="s">
-        <v>7000</v>
+        <v>6903</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>7122</v>
+        <v>7025</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>7121</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64845,10 +64230,10 @@
         <v>80</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>7120</v>
+        <v>7023</v>
       </c>
       <c r="I130" s="37" t="s">
-        <v>7119</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -64879,10 +64264,10 @@
         <v>81</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>7118</v>
+        <v>7021</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>7117</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64913,10 +64298,10 @@
         <v>82</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>7116</v>
+        <v>7019</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>7115</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64947,10 +64332,10 @@
         <v>83</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>7114</v>
+        <v>7017</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>7113</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -64981,10 +64366,10 @@
         <v>84</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>7112</v>
+        <v>7015</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>7111</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65015,10 +64400,10 @@
         <v>85</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>7110</v>
+        <v>7013</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>7109</v>
+        <v>7012</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65049,10 +64434,10 @@
         <v>86</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>7108</v>
+        <v>7011</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>7107</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65083,10 +64468,10 @@
         <v>87</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>7106</v>
+        <v>7009</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>7105</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65117,10 +64502,10 @@
         <v>88</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>7104</v>
+        <v>7007</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>7103</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65151,10 +64536,10 @@
         <v>89</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>7102</v>
+        <v>7005</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>7101</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65182,13 +64567,13 @@
         <v>138</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>6999</v>
+        <v>6902</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>7100</v>
+        <v>7003</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>7099</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65216,13 +64601,13 @@
         <v>139</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>6998</v>
+        <v>6901</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>7098</v>
+        <v>7001</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>7097</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65250,13 +64635,13 @@
         <v>140</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>6997</v>
+        <v>6900</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>7096</v>
+        <v>6999</v>
       </c>
       <c r="I142" s="37" t="s">
-        <v>7095</v>
+        <v>6998</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65284,13 +64669,13 @@
         <v>141</v>
       </c>
       <c r="G143" s="43" t="s">
+        <v>6899</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>6997</v>
+      </c>
+      <c r="I143" s="37" t="s">
         <v>6996</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>7094</v>
-      </c>
-      <c r="I143" s="37" t="s">
-        <v>7093</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65318,13 +64703,13 @@
         <v>142</v>
       </c>
       <c r="G144" s="43" t="s">
+        <v>6898</v>
+      </c>
+      <c r="H144" s="8" t="s">
         <v>6995</v>
       </c>
-      <c r="H144" s="8" t="s">
-        <v>7092</v>
-      </c>
       <c r="I144" s="37" t="s">
-        <v>7091</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65352,13 +64737,13 @@
         <v>143</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>6994</v>
+        <v>6897</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>7090</v>
+        <v>6993</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>7089</v>
+        <v>6992</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65389,10 +64774,10 @@
         <v>90</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>7088</v>
+        <v>6991</v>
       </c>
       <c r="I146" s="37" t="s">
-        <v>7087</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65423,10 +64808,10 @@
         <v>91</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>7086</v>
+        <v>6989</v>
       </c>
       <c r="I147" s="37" t="s">
-        <v>7085</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65457,10 +64842,10 @@
         <v>92</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>7084</v>
+        <v>6987</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>7083</v>
+        <v>6986</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -65491,10 +64876,10 @@
         <v>93</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>7082</v>
+        <v>6985</v>
       </c>
       <c r="I149" s="37" t="s">
-        <v>7081</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -65525,10 +64910,10 @@
         <v>94</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>7080</v>
+        <v>6983</v>
       </c>
       <c r="I150" s="37" t="s">
-        <v>7079</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65559,10 +64944,10 @@
         <v>95</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>7078</v>
+        <v>6981</v>
       </c>
       <c r="I151" s="37" t="s">
-        <v>7077</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65593,10 +64978,10 @@
         <v>96</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>7076</v>
+        <v>6979</v>
       </c>
       <c r="I152" s="37" t="s">
-        <v>7075</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65627,10 +65012,10 @@
         <v>97</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>7074</v>
+        <v>6977</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>7073</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65661,10 +65046,10 @@
         <v>98</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>7072</v>
+        <v>6975</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>7071</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -65695,10 +65080,10 @@
         <v>99</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>7070</v>
+        <v>6973</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>7069</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65726,13 +65111,13 @@
         <v>154</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>6993</v>
+        <v>6896</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>7068</v>
+        <v>6971</v>
       </c>
       <c r="I156" s="37" t="s">
-        <v>7067</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65760,13 +65145,13 @@
         <v>155</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>6992</v>
+        <v>6895</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>7066</v>
+        <v>6969</v>
       </c>
       <c r="I157" s="37" t="s">
-        <v>7065</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65794,13 +65179,13 @@
         <v>156</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>6991</v>
+        <v>6894</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>7064</v>
+        <v>6967</v>
       </c>
       <c r="I158" s="37" t="s">
-        <v>7063</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65828,13 +65213,13 @@
         <v>157</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>6990</v>
+        <v>6893</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>7062</v>
+        <v>6965</v>
       </c>
       <c r="I159" s="37" t="s">
-        <v>7061</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65862,13 +65247,13 @@
         <v>158</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>6989</v>
+        <v>6892</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>7060</v>
+        <v>6963</v>
       </c>
       <c r="I160" s="37" t="s">
-        <v>7059</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65896,13 +65281,13 @@
         <v>159</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>6988</v>
+        <v>6891</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>7058</v>
+        <v>6961</v>
       </c>
       <c r="I161" s="37" t="s">
-        <v>7057</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -65930,13 +65315,13 @@
         <v>160</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>6987</v>
+        <v>6890</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>7056</v>
+        <v>6959</v>
       </c>
       <c r="I162" s="37" t="s">
-        <v>7055</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65964,13 +65349,13 @@
         <v>161</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>6986</v>
+        <v>6889</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>7054</v>
+        <v>6957</v>
       </c>
       <c r="I163" s="37" t="s">
-        <v>7053</v>
+        <v>6956</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -65998,13 +65383,13 @@
         <v>162</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>6985</v>
+        <v>6888</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>7052</v>
+        <v>6955</v>
       </c>
       <c r="I164" s="37" t="s">
-        <v>7051</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66032,13 +65417,13 @@
         <v>163</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>6984</v>
+        <v>6887</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>7050</v>
+        <v>6953</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>7049</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66066,13 +65451,13 @@
         <v>164</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>6983</v>
+        <v>6886</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>7048</v>
+        <v>6951</v>
       </c>
       <c r="I166" s="37" t="s">
-        <v>7047</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66100,13 +65485,13 @@
         <v>165</v>
       </c>
       <c r="G167" s="40" t="s">
-        <v>6982</v>
+        <v>6885</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>7046</v>
+        <v>6949</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>7045</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66134,13 +65519,13 @@
         <v>166</v>
       </c>
       <c r="G168" s="40" t="s">
-        <v>6981</v>
+        <v>6884</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>7044</v>
+        <v>6947</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>7043</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66168,13 +65553,13 @@
         <v>167</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>6980</v>
+        <v>6883</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>7042</v>
+        <v>6945</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>7041</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66202,11 +65587,11 @@
         <v>168</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>6979</v>
+        <v>6882</v>
       </c>
       <c r="H170" s="8"/>
       <c r="I170" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66234,11 +65619,11 @@
         <v>169</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>6978</v>
+        <v>6881</v>
       </c>
       <c r="H171" s="8"/>
       <c r="I171" s="8" t="s">
-        <v>7040</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66266,13 +65651,13 @@
         <v>170</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>6977</v>
+        <v>6880</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>7039</v>
+        <v>6942</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>7038</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66300,13 +65685,13 @@
         <v>171</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>6976</v>
+        <v>6879</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>7037</v>
+        <v>6940</v>
       </c>
       <c r="I173" s="37" t="s">
-        <v>7036</v>
+        <v>6939</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66334,13 +65719,13 @@
         <v>172</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>6975</v>
+        <v>6878</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>7035</v>
+        <v>6938</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>7034</v>
+        <v>6937</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66368,13 +65753,13 @@
         <v>173</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>6974</v>
+        <v>6877</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>7033</v>
+        <v>6936</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>7032</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -66402,13 +65787,13 @@
         <v>174</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>6973</v>
+        <v>6876</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>7031</v>
+        <v>6934</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>7030</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -66436,13 +65821,13 @@
         <v>175</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>6972</v>
+        <v>6875</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>7029</v>
+        <v>6932</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>7028</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -66540,7 +65925,7 @@
         <v>246</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7816</v>
+        <v>7719</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>245</v>
@@ -70305,7 +69690,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>7873</v>
+        <v>7776</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>72</v>
@@ -72296,7 +71681,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7832</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -72314,7 +71699,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7991</v>
+        <v>7894</v>
       </c>
     </row>
   </sheetData>
@@ -72454,7 +71839,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7841</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -72463,7 +71848,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7871</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -72472,7 +71857,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7872</v>
+        <v>7775</v>
       </c>
     </row>
   </sheetData>
@@ -72703,7 +72088,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7956</v>
+        <v>7859</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>1108</v>
@@ -72728,7 +72113,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7957</v>
+        <v>7860</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>1106</v>
@@ -72753,7 +72138,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7958</v>
+        <v>7861</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>1104</v>
@@ -73707,10 +73092,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7973</v>
+        <v>7876</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>7972</v>
+        <v>7875</v>
       </c>
       <c r="D52" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -74113,10 +73498,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7780</v>
+        <v>7683</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>7778</v>
+        <v>7681</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -74128,7 +73513,7 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>7781</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -74461,7 +73846,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7947</v>
+        <v>7850</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>885</v>
@@ -74527,7 +73912,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7930</v>
+        <v>7833</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12" t="str">
@@ -74834,7 +74219,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7955</v>
+        <v>7858</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>282</v>
@@ -75560,7 +74945,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>7954</v>
+        <v>7857</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>301</v>
@@ -75718,7 +75103,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>7839</v>
+        <v>7742</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>744</v>
@@ -75872,10 +75257,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>7797</v>
+        <v>7700</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>7798</v>
+        <v>7701</v>
       </c>
       <c r="D150" s="18" t="str">
         <f>Enums!$A$19</f>
@@ -76556,10 +75941,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7799</v>
+        <v>7702</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>7800</v>
+        <v>7703</v>
       </c>
       <c r="D180" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76576,10 +75961,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>7951</v>
+        <v>7854</v>
       </c>
       <c r="C181" t="s">
-        <v>7802</v>
+        <v>7705</v>
       </c>
       <c r="D181" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76587,7 +75972,7 @@
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12" t="s">
-        <v>7809</v>
+        <v>7712</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -76598,10 +75983,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>7952</v>
+        <v>7855</v>
       </c>
       <c r="C182" t="s">
-        <v>7803</v>
+        <v>7706</v>
       </c>
       <c r="D182" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76609,7 +75994,7 @@
       </c>
       <c r="E182" s="12"/>
       <c r="F182" s="12" t="s">
-        <v>7810</v>
+        <v>7713</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -76620,10 +76005,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>7953</v>
+        <v>7856</v>
       </c>
       <c r="C183" t="s">
-        <v>7804</v>
+        <v>7707</v>
       </c>
       <c r="D183" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76631,7 +76016,7 @@
       </c>
       <c r="E183" s="12"/>
       <c r="F183" s="12" t="s">
-        <v>7811</v>
+        <v>7714</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -76642,10 +76027,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7801</v>
+        <v>7704</v>
       </c>
       <c r="C184" t="s">
-        <v>7805</v>
+        <v>7708</v>
       </c>
       <c r="D184" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76653,7 +76038,7 @@
       </c>
       <c r="E184" s="12"/>
       <c r="F184" s="12" t="s">
-        <v>7812</v>
+        <v>7715</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -76664,10 +76049,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>7948</v>
+        <v>7851</v>
       </c>
       <c r="C185" t="s">
-        <v>7806</v>
+        <v>7709</v>
       </c>
       <c r="D185" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76675,7 +76060,7 @@
       </c>
       <c r="E185" s="12"/>
       <c r="F185" s="12" t="s">
-        <v>7813</v>
+        <v>7716</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -76686,10 +76071,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>7949</v>
+        <v>7852</v>
       </c>
       <c r="C186" t="s">
-        <v>7807</v>
+        <v>7710</v>
       </c>
       <c r="D186" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76697,7 +76082,7 @@
       </c>
       <c r="E186" s="12"/>
       <c r="F186" s="12" t="s">
-        <v>7814</v>
+        <v>7717</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -76708,10 +76093,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>7950</v>
+        <v>7853</v>
       </c>
       <c r="C187" t="s">
-        <v>7808</v>
+        <v>7711</v>
       </c>
       <c r="D187" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -76719,7 +76104,7 @@
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>7815</v>
+        <v>7718</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -76750,7 +76135,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>7962</v>
+        <v>7865</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>323</v>
@@ -77068,7 +76453,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>7944</v>
+        <v>7847</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>604</v>
@@ -77108,7 +76493,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>7945</v>
+        <v>7848</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>602</v>
@@ -77130,7 +76515,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>7946</v>
+        <v>7849</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>565</v>
@@ -77340,7 +76725,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>7943</v>
+        <v>7846</v>
       </c>
       <c r="C216" s="12"/>
       <c r="D216" s="12" t="str">
@@ -77403,7 +76788,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>7941</v>
+        <v>7844</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>572</v>
@@ -77427,7 +76812,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>7942</v>
+        <v>7845</v>
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="12" t="str">
@@ -78044,7 +77429,7 @@
         <v>492</v>
       </c>
       <c r="C247" s="52" t="s">
-        <v>7776</v>
+        <v>7679</v>
       </c>
       <c r="D247" s="18" t="str">
         <f>Enums!$A$20</f>
@@ -78052,11 +77437,11 @@
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="12" t="s">
-        <v>7779</v>
+        <v>7682</v>
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="12" t="s">
-        <v>7777</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -78769,7 +78154,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>7794</v>
+        <v>7697</v>
       </c>
       <c r="C278" s="12"/>
       <c r="D278" s="12" t="str">
@@ -78787,7 +78172,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>7795</v>
+        <v>7698</v>
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
@@ -78805,7 +78190,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>7796</v>
+        <v>7699</v>
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
@@ -79261,7 +78646,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>7840</v>
+        <v>7743</v>
       </c>
       <c r="C301" s="18" t="s">
         <v>327</v>
@@ -79602,7 +78987,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>7825</v>
+        <v>7728</v>
       </c>
       <c r="C316" s="14"/>
       <c r="D316" s="12" t="str">
@@ -79905,7 +79290,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>7769</v>
+        <v>7672</v>
       </c>
       <c r="D333" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -79918,7 +79303,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>7770</v>
+        <v>7673</v>
       </c>
       <c r="D334" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -79931,7 +79316,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>7774</v>
+        <v>7677</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>1389</v>
@@ -79943,10 +79328,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>7834</v>
+        <v>7737</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7833</v>
+        <v>7736</v>
       </c>
       <c r="D336" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -79962,10 +79347,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>7835</v>
+        <v>7738</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>7836</v>
+        <v>7739</v>
       </c>
       <c r="D337" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -79978,10 +79363,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>7837</v>
+        <v>7740</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>7838</v>
+        <v>7741</v>
       </c>
       <c r="D338" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -79994,7 +79379,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>7847</v>
+        <v>7750</v>
       </c>
       <c r="C339" s="12" t="s">
         <v>693</v>
@@ -80010,7 +79395,7 @@
         <v>1.0.4</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>7848</v>
+        <v>7751</v>
       </c>
       <c r="D340" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80023,7 +79408,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>7878</v>
+        <v>7781</v>
       </c>
       <c r="D341" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80036,7 +79421,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>7879</v>
+        <v>7782</v>
       </c>
       <c r="D342" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80049,7 +79434,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>7880</v>
+        <v>7783</v>
       </c>
       <c r="D343" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80062,7 +79447,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>7881</v>
+        <v>7784</v>
       </c>
       <c r="D344" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80075,7 +79460,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>7882</v>
+        <v>7785</v>
       </c>
       <c r="D345" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80088,7 +79473,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>7883</v>
+        <v>7786</v>
       </c>
       <c r="D346" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80101,7 +79486,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>7884</v>
+        <v>7787</v>
       </c>
       <c r="D347" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80114,7 +79499,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>7885</v>
+        <v>7788</v>
       </c>
       <c r="D348" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80127,7 +79512,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>7886</v>
+        <v>7789</v>
       </c>
       <c r="D349" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80143,7 +79528,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>7888</v>
+        <v>7791</v>
       </c>
       <c r="D350" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80159,10 +79544,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>7889</v>
+        <v>7792</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7890</v>
+        <v>7793</v>
       </c>
       <c r="D351" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80175,10 +79560,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>7914</v>
+        <v>7817</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>7915</v>
+        <v>7818</v>
       </c>
       <c r="D352" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80194,10 +79579,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>7916</v>
+        <v>7819</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>7917</v>
+        <v>7820</v>
       </c>
       <c r="D353" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80213,10 +79598,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>7919</v>
+        <v>7822</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>7918</v>
+        <v>7821</v>
       </c>
       <c r="D354" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80229,10 +79614,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>7921</v>
+        <v>7824</v>
       </c>
       <c r="C355" t="s">
-        <v>7922</v>
+        <v>7825</v>
       </c>
       <c r="D355" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80245,7 +79630,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>7931</v>
+        <v>7834</v>
       </c>
       <c r="D356" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80258,7 +79643,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>7932</v>
+        <v>7835</v>
       </c>
       <c r="D357" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80271,7 +79656,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>7933</v>
+        <v>7836</v>
       </c>
       <c r="D358" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80284,7 +79669,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>7934</v>
+        <v>7837</v>
       </c>
       <c r="D359" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80297,7 +79682,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>7935</v>
+        <v>7838</v>
       </c>
       <c r="D360" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80310,7 +79695,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>7936</v>
+        <v>7839</v>
       </c>
       <c r="D361" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80323,7 +79708,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>7937</v>
+        <v>7840</v>
       </c>
       <c r="D362" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80336,7 +79721,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>7939</v>
+        <v>7842</v>
       </c>
       <c r="D363" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80349,7 +79734,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>7940</v>
+        <v>7843</v>
       </c>
       <c r="D364" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80362,7 +79747,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>7959</v>
+        <v>7862</v>
       </c>
       <c r="D365" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80375,7 +79760,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>7960</v>
+        <v>7863</v>
       </c>
       <c r="D366" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80388,7 +79773,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>7961</v>
+        <v>7864</v>
       </c>
       <c r="D367" s="12" t="str">
         <f>Enums!$A$20</f>
@@ -80401,7 +79786,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>7963</v>
+        <v>7866</v>
       </c>
       <c r="D368" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80414,7 +79799,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>7964</v>
+        <v>7867</v>
       </c>
       <c r="D369" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80427,7 +79812,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>7965</v>
+        <v>7868</v>
       </c>
       <c r="D370" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80440,7 +79825,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>8001</v>
+        <v>7904</v>
       </c>
       <c r="D371" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80453,7 +79838,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>8002</v>
+        <v>7905</v>
       </c>
       <c r="D372" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80466,7 +79851,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>7971</v>
+        <v>7874</v>
       </c>
       <c r="D373" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80479,7 +79864,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>7974</v>
+        <v>7877</v>
       </c>
       <c r="D374" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80492,7 +79877,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>7996</v>
+        <v>7899</v>
       </c>
       <c r="D375" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80505,7 +79890,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>7975</v>
+        <v>7878</v>
       </c>
       <c r="D376" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80531,7 +79916,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>7976</v>
+        <v>7879</v>
       </c>
       <c r="D378" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80544,7 +79929,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>7977</v>
+        <v>7880</v>
       </c>
       <c r="D379" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80557,7 +79942,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>7978</v>
+        <v>7881</v>
       </c>
       <c r="D380" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80570,7 +79955,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>7979</v>
+        <v>7882</v>
       </c>
       <c r="D381" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80583,7 +79968,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>7980</v>
+        <v>7883</v>
       </c>
       <c r="D382" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80596,7 +79981,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>7981</v>
+        <v>7884</v>
       </c>
       <c r="D383" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80612,7 +79997,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>7982</v>
+        <v>7885</v>
       </c>
       <c r="D384" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80628,7 +80013,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>7983</v>
+        <v>7886</v>
       </c>
       <c r="D385" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80641,7 +80026,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>7984</v>
+        <v>7887</v>
       </c>
       <c r="D386" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80654,7 +80039,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>7985</v>
+        <v>7888</v>
       </c>
       <c r="D387" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80667,7 +80052,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>7986</v>
+        <v>7889</v>
       </c>
       <c r="D388" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80680,7 +80065,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>7992</v>
+        <v>7895</v>
       </c>
       <c r="D389" s="12" t="str">
         <f>Enums!$A$20</f>
@@ -80693,10 +80078,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>7993</v>
+        <v>7896</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>7994</v>
+        <v>7897</v>
       </c>
       <c r="D390" s="12" t="str">
         <f>Enums!$A$18</f>
@@ -80709,7 +80094,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>7995</v>
+        <v>7898</v>
       </c>
       <c r="D391" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80722,10 +80107,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>8000</v>
+        <v>7903</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>7997</v>
+        <v>7900</v>
       </c>
       <c r="D392" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80738,10 +80123,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>7998</v>
+        <v>7901</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>7999</v>
+        <v>7902</v>
       </c>
       <c r="D393" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80754,10 +80139,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>8003</v>
+        <v>7906</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>8004</v>
+        <v>7907</v>
       </c>
       <c r="D394" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80770,7 +80155,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>8005</v>
+        <v>7908</v>
       </c>
       <c r="D395" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80783,7 +80168,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>8006</v>
+        <v>7909</v>
       </c>
       <c r="D396" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80796,7 +80181,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>8007</v>
+        <v>7910</v>
       </c>
       <c r="D397" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80809,7 +80194,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>8008</v>
+        <v>7911</v>
       </c>
       <c r="D398" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80822,7 +80207,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>8009</v>
+        <v>7912</v>
       </c>
       <c r="D399" s="12" t="str">
         <f>Enums!$A$19</f>
@@ -80841,9 +80226,9 @@
   </sheetPr>
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80871,7 +80256,7 @@
         <v>1335</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>7891</v>
+        <v>7794</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>1334</v>
@@ -80916,10 +80301,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>7896</v>
+        <v>7799</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7895</v>
+        <v>7798</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -81039,10 +80424,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>7923</v>
+        <v>7826</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7923</v>
+        <v>7826</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -81228,7 +80613,7 @@
         <v>1310</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7897</v>
+        <v>7800</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -81322,10 +80707,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>7990</v>
+        <v>7893</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7920</v>
+        <v>7823</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -81441,7 +80826,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>7791</v>
+        <v>7694</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>1295</v>
@@ -81563,7 +80948,7 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>7870</v>
+        <v>7773</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1286</v>
@@ -81590,7 +80975,7 @@
         <v>1285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7894</v>
+        <v>7797</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -81733,10 +81118,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>7969</v>
+        <v>7872</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>7970</v>
+        <v>7873</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -81781,10 +81166,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>7910</v>
+        <v>7813</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>7912</v>
+        <v>7815</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -81805,10 +81190,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>7911</v>
+        <v>7814</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7913</v>
+        <v>7816</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -82064,7 +81449,7 @@
         <v>1254</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>7928</v>
+        <v>7831</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -82304,7 +81689,7 @@
         <v>1234</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>7929</v>
+        <v>7832</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -82468,7 +81853,7 @@
         <v>1221</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>7892</v>
+        <v>7795</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -82632,7 +82017,7 @@
         <v>1208</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>7966</v>
+        <v>7869</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -82726,7 +82111,7 @@
         <v>1201</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7893</v>
+        <v>7796</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -82842,7 +82227,7 @@
         <v>1192</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7877</v>
+        <v>7780</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -83588,10 +82973,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>7831</v>
+        <v>7734</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>7830</v>
+        <v>7733</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -83610,10 +82995,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>8010</v>
+        <v>7913</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8012</v>
+        <v>7915</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -83632,10 +83017,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8011</v>
+        <v>7914</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>8013</v>
+        <v>7916</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>

--- a/config/Polycraft Inputs.xlsx
+++ b/config/Polycraft Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="84315" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860" activeTab="1"/>
+    <workbookView xWindow="85245" yWindow="555" windowWidth="19125" windowHeight="19395" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="10" r:id="rId1"/>
@@ -29,12 +29,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8157" uniqueCount="7917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8159" uniqueCount="7919">
   <si>
     <t>Uuo</t>
   </si>
@@ -24333,6 +24332,12 @@
   </si>
   <si>
     <t>Carbon Fiber Resin (P)</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -25056,10 +25061,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25180,77 +25185,69 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>7917</v>
+      </c>
+      <c r="B15" s="54">
+        <v>42060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>7918</v>
+      </c>
+      <c r="B16" s="54">
+        <v>42062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>7758</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>7747</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>7687</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>1387</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>1386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f>$A$18</f>
-        <v>Solid</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f>$A$19</f>
-        <v>Liquid</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>1383</v>
+        <v>7720</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>$A$20</f>
-        <v>Gas</v>
+        <v>Solid</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -25258,35 +25255,35 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>7721</v>
+        <v>1385</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>$A$18</f>
-        <v>Solid</v>
+        <f>$A$21</f>
+        <v>Liquid</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>$A$19</f>
-        <v>Liquid</v>
+        <f>$A$22</f>
+        <v>Gas</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>1382</v>
+        <v>7721</v>
       </c>
       <c r="B28" s="1" t="str">
         <f>$A$20</f>
-        <v>Gas</v>
+        <v>Solid</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -25294,35 +25291,35 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>7695</v>
+        <v>1384</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>$A$18</f>
-        <v>Solid</v>
+        <f>$A$21</f>
+        <v>Liquid</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f>$A$19</f>
-        <v>Liquid</v>
+        <f>$A$22</f>
+        <v>Gas</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>7651</v>
+        <v>7695</v>
       </c>
       <c r="B31" s="1" t="str">
         <f>$A$20</f>
-        <v>Gas</v>
+        <v>Solid</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -25330,428 +25327,436 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>$A$18</f>
-        <v>Solid</v>
+        <f>$A$21</f>
+        <v>Liquid</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>1379</v>
+        <v>7651</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>$A$19</f>
-        <v>Liquid</v>
+        <f>$A$22</f>
+        <v>Gas</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B34" s="1" t="str">
         <f>$A$20</f>
-        <v>Gas</v>
+        <v>Solid</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>$A$21</f>
+        <v>Liquid</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>$A$22</f>
+        <v>Gas</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>7688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>7675</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>7676</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>7676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>7674</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>1371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>1368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>1365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="32" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="32" t="s">
         <v>1191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>1349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1342</v>
+        <v>1345</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>1341</v>
+        <v>1344</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>7689</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>7630</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>7662</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>7661</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>7663</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7669</v>
+        <v>7630</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7664</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>7670</v>
+        <v>7661</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7665</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>7671</v>
+        <v>7669</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7666</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>7559</v>
+        <v>7670</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7667</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>7671</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>7559</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>7381</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>7668</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
         <v>7690</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>7685</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>7686</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>7777</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>7652</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>7653</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>7654</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>7655</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>7652</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7656</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>7657</v>
+        <v>7654</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7658</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>7622</v>
+        <v>185</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7659</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>7660</v>
+        <v>7657</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7659</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>255</v>
+        <v>7622</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7656</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>256</v>
+        <v>7660</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7656</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7656</v>
@@ -25759,7 +25764,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>7744</v>
+        <v>256</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7656</v>
@@ -25767,7 +25772,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>7774</v>
+        <v>257</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7656</v>
@@ -25775,139 +25780,155 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>7744</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>7774</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>7779</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>7778</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
         <v>7760</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>7761</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>7762</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>7763</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>7764</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>7770</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>7771</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>7765</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>7766</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>7767</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>7768</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>7767</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>7768</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>7769</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>7722</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>7723</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>7724</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>7725</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>7726</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>7727</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
         <v>7828</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>7829</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>7830</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
         <v>7890</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>7891</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>7892</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>7892</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>7641</v>
       </c>
     </row>
@@ -26217,7 +26238,7 @@
   </sheetPr>
   <dimension ref="A1:E5452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -71940,7 +71961,7 @@
         <v>1121</v>
       </c>
       <c r="D2" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E2" s="12"/>
@@ -71964,7 +71985,7 @@
         <v>1117</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E3" s="12"/>
@@ -71988,7 +72009,7 @@
         <v>1114</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E4" s="12"/>
@@ -72008,7 +72029,7 @@
         <v>1112</v>
       </c>
       <c r="D5" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E5" s="12"/>
@@ -72026,7 +72047,7 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E6" s="12"/>
@@ -72046,7 +72067,7 @@
         <v>602</v>
       </c>
       <c r="D7" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E7" s="27" t="b">
@@ -72070,7 +72091,7 @@
         <v>602</v>
       </c>
       <c r="D8" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E8" s="27" t="b">
@@ -72094,7 +72115,7 @@
         <v>1108</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E9" s="24"/>
@@ -72119,7 +72140,7 @@
         <v>1106</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E10" s="24"/>
@@ -72144,7 +72165,7 @@
         <v>1104</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E11" s="24"/>
@@ -72169,7 +72190,7 @@
         <v>1101</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E12" s="24"/>
@@ -72194,7 +72215,7 @@
         <v>1098</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E13" s="24"/>
@@ -72221,7 +72242,7 @@
         <v>1094</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E14" s="25"/>
@@ -72246,7 +72267,7 @@
         <v>1091</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E15" s="24"/>
@@ -72273,7 +72294,7 @@
         <v>1087</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E16" s="24"/>
@@ -72298,7 +72319,7 @@
         <v>1084</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E17" s="24"/>
@@ -72322,7 +72343,7 @@
         <v>1081</v>
       </c>
       <c r="D18" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E18" s="24"/>
@@ -72349,7 +72370,7 @@
         <v>1077</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E19" s="25"/>
@@ -72374,7 +72395,7 @@
         <v>602</v>
       </c>
       <c r="D20" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E20" s="27" t="b">
@@ -72399,7 +72420,7 @@
         <v>1072</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E21" s="24"/>
@@ -72424,7 +72445,7 @@
         <v>1069</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E22" s="12"/>
@@ -72448,7 +72469,7 @@
         <v>1065</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E23" s="24"/>
@@ -72471,7 +72492,7 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E24" s="12"/>
@@ -72489,7 +72510,7 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E25" s="12"/>
@@ -72509,7 +72530,7 @@
         <v>602</v>
       </c>
       <c r="D26" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E26" s="27" t="b">
@@ -72532,7 +72553,7 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E27" s="12"/>
@@ -72550,7 +72571,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E28" s="12"/>
@@ -72568,7 +72589,7 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E29" s="12"/>
@@ -72588,7 +72609,7 @@
         <v>1054</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E30" s="18"/>
@@ -72612,7 +72633,7 @@
         <v>1051</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E31" s="12"/>
@@ -72636,7 +72657,7 @@
         <v>1047</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E32" s="18"/>
@@ -72660,7 +72681,7 @@
         <v>1043</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E33" s="12"/>
@@ -72684,7 +72705,7 @@
         <v>1039</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E34" s="18"/>
@@ -72706,7 +72727,7 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E35" s="12"/>
@@ -72724,7 +72745,7 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E36" s="12"/>
@@ -72742,7 +72763,7 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E37" s="12"/>
@@ -72762,7 +72783,7 @@
         <v>1032</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E38" s="12"/>
@@ -72786,7 +72807,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E39" s="12"/>
@@ -72810,7 +72831,7 @@
         <v>1024</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E40" s="12"/>
@@ -72834,7 +72855,7 @@
         <v>1020</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E41" s="12"/>
@@ -72858,7 +72879,7 @@
         <v>1016</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E42" s="12"/>
@@ -72882,7 +72903,7 @@
         <v>1012</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E43" s="12"/>
@@ -72906,7 +72927,7 @@
         <v>1008</v>
       </c>
       <c r="D44" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E44" s="12"/>
@@ -72930,7 +72951,7 @@
         <v>1004</v>
       </c>
       <c r="D45" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E45" s="12"/>
@@ -72954,7 +72975,7 @@
         <v>1000</v>
       </c>
       <c r="D46" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E46" s="12"/>
@@ -72978,7 +72999,7 @@
         <v>997</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E47" s="12"/>
@@ -73002,7 +73023,7 @@
         <v>993</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E48" s="12"/>
@@ -73026,7 +73047,7 @@
         <v>990</v>
       </c>
       <c r="D49" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E49" s="12"/>
@@ -73050,7 +73071,7 @@
         <v>986</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E50" s="12"/>
@@ -73074,7 +73095,7 @@
         <v>982</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E51" s="12"/>
@@ -73098,7 +73119,7 @@
         <v>7875</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E52" s="12"/>
@@ -73120,7 +73141,7 @@
         <v>978</v>
       </c>
       <c r="D53" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E53" s="12"/>
@@ -73144,7 +73165,7 @@
         <v>326</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E54" s="12"/>
@@ -73168,7 +73189,7 @@
         <v>200</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E55" s="12"/>
@@ -73192,7 +73213,7 @@
         <v>970</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E56" s="12"/>
@@ -73216,7 +73237,7 @@
         <v>966</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E57" s="12"/>
@@ -73240,7 +73261,7 @@
         <v>963</v>
       </c>
       <c r="D58" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E58" s="12"/>
@@ -73262,7 +73283,7 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E59" s="12"/>
@@ -73282,7 +73303,7 @@
         <v>958</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E60" s="23" t="b">
@@ -73304,7 +73325,7 @@
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E61" s="12"/>
@@ -73324,7 +73345,7 @@
         <v>955</v>
       </c>
       <c r="D62" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E62" s="12"/>
@@ -73348,7 +73369,7 @@
         <v>951</v>
       </c>
       <c r="D63" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E63" s="12"/>
@@ -73372,7 +73393,7 @@
         <v>947</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E64" s="12"/>
@@ -73392,7 +73413,7 @@
         <v>945</v>
       </c>
       <c r="D65" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E65" s="12"/>
@@ -73416,7 +73437,7 @@
         <v>941</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E66" s="12"/>
@@ -73440,7 +73461,7 @@
         <v>937</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E67" s="12"/>
@@ -73460,7 +73481,7 @@
         <v>604</v>
       </c>
       <c r="D68" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E68" s="18" t="b">
@@ -73484,7 +73505,7 @@
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E69" s="12"/>
@@ -73504,7 +73525,7 @@
         <v>7681</v>
       </c>
       <c r="D70" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E70" s="12" t="b">
@@ -73526,7 +73547,7 @@
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E71" s="12"/>
@@ -73546,7 +73567,7 @@
         <v>930</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E72" s="12"/>
@@ -73570,7 +73591,7 @@
         <v>926</v>
       </c>
       <c r="D73" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E73" s="12"/>
@@ -73594,7 +73615,7 @@
         <v>922</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E74" s="12"/>
@@ -73618,7 +73639,7 @@
         <v>919</v>
       </c>
       <c r="D75" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E75" s="12"/>
@@ -73642,7 +73663,7 @@
         <v>915</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E76" s="12"/>
@@ -73666,7 +73687,7 @@
         <v>911</v>
       </c>
       <c r="D77" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E77" s="12"/>
@@ -73690,7 +73711,7 @@
         <v>907</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E78" s="12"/>
@@ -73712,7 +73733,7 @@
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E79" s="12"/>
@@ -73732,7 +73753,7 @@
         <v>903</v>
       </c>
       <c r="D80" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E80" s="12"/>
@@ -73756,7 +73777,7 @@
         <v>899</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E81" s="12"/>
@@ -73780,7 +73801,7 @@
         <v>895</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E82" s="12"/>
@@ -73804,7 +73825,7 @@
         <v>891</v>
       </c>
       <c r="D83" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E83" s="12"/>
@@ -73828,7 +73849,7 @@
         <v>888</v>
       </c>
       <c r="D84" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E84" s="12"/>
@@ -73852,7 +73873,7 @@
         <v>885</v>
       </c>
       <c r="D85" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E85" s="12"/>
@@ -73876,7 +73897,7 @@
         <v>881</v>
       </c>
       <c r="D86" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E86" s="12"/>
@@ -73898,7 +73919,7 @@
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E87" s="12"/>
@@ -73916,7 +73937,7 @@
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E88" s="12"/>
@@ -73936,7 +73957,7 @@
         <v>877</v>
       </c>
       <c r="D89" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E89" s="18" t="b">
@@ -73960,7 +73981,7 @@
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E90" s="12"/>
@@ -73980,7 +74001,7 @@
         <v>873</v>
       </c>
       <c r="D91" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E91" s="12"/>
@@ -74004,7 +74025,7 @@
         <v>870</v>
       </c>
       <c r="D92" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F92" s="18"/>
@@ -74025,7 +74046,7 @@
         <v>326</v>
       </c>
       <c r="D93" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E93" s="12"/>
@@ -74049,7 +74070,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E94" s="12"/>
@@ -74071,7 +74092,7 @@
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E95" s="12"/>
@@ -74089,7 +74110,7 @@
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E96" s="12"/>
@@ -74109,7 +74130,7 @@
         <v>860</v>
       </c>
       <c r="D97" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E97" s="12"/>
@@ -74133,7 +74154,7 @@
         <v>856</v>
       </c>
       <c r="D98" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E98" s="12"/>
@@ -74155,7 +74176,7 @@
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E99" s="12"/>
@@ -74177,7 +74198,7 @@
         <v>850</v>
       </c>
       <c r="D100" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E100" s="12"/>
@@ -74201,7 +74222,7 @@
         <v>846</v>
       </c>
       <c r="D101" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E101" s="12"/>
@@ -74225,7 +74246,7 @@
         <v>282</v>
       </c>
       <c r="D102" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E102" s="12"/>
@@ -74249,7 +74270,7 @@
         <v>600</v>
       </c>
       <c r="D103" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E103" s="18" t="b">
@@ -74271,7 +74292,7 @@
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E104" s="12"/>
@@ -74291,7 +74312,7 @@
         <v>837</v>
       </c>
       <c r="D105" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E105" s="12"/>
@@ -74313,7 +74334,7 @@
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E106" s="12"/>
@@ -74333,7 +74354,7 @@
         <v>832</v>
       </c>
       <c r="D107" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F107" s="18"/>
@@ -74350,7 +74371,7 @@
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E108" s="12"/>
@@ -74368,7 +74389,7 @@
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E109" s="12"/>
@@ -74388,7 +74409,7 @@
         <v>747</v>
       </c>
       <c r="D110" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E110" s="12"/>
@@ -74410,7 +74431,7 @@
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E111" s="12"/>
@@ -74430,7 +74451,7 @@
         <v>824</v>
       </c>
       <c r="D112" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E112" s="25"/>
@@ -74453,7 +74474,7 @@
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E113" s="12"/>
@@ -74473,7 +74494,7 @@
         <v>615</v>
       </c>
       <c r="D114" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E114" s="12"/>
@@ -74495,7 +74516,7 @@
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E115" s="12"/>
@@ -74515,7 +74536,7 @@
         <v>817</v>
       </c>
       <c r="D116" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E116" s="25"/>
@@ -74540,7 +74561,7 @@
         <v>814</v>
       </c>
       <c r="D117" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F117" s="18"/>
@@ -74559,7 +74580,7 @@
         <v>812</v>
       </c>
       <c r="D118" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E118" s="25"/>
@@ -74586,7 +74607,7 @@
         <v>807</v>
       </c>
       <c r="D119" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E119" s="12"/>
@@ -74610,7 +74631,7 @@
         <v>803</v>
       </c>
       <c r="D120" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E120" s="18"/>
@@ -74628,7 +74649,7 @@
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E121" s="12"/>
@@ -74648,7 +74669,7 @@
         <v>800</v>
       </c>
       <c r="D122" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E122" s="12"/>
@@ -74670,7 +74691,7 @@
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E123" s="12"/>
@@ -74690,7 +74711,7 @@
         <v>796</v>
       </c>
       <c r="D124" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E124" s="18"/>
@@ -74712,7 +74733,7 @@
         <v>793</v>
       </c>
       <c r="D125" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E125" s="18"/>
@@ -74733,7 +74754,7 @@
         <v>791</v>
       </c>
       <c r="D126" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E126" s="12"/>
@@ -74757,7 +74778,7 @@
         <v>787</v>
       </c>
       <c r="D127" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E127" s="12"/>
@@ -74779,7 +74800,7 @@
       </c>
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E128" s="12"/>
@@ -74799,7 +74820,7 @@
         <v>782</v>
       </c>
       <c r="D129" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E129" s="18"/>
@@ -74819,7 +74840,7 @@
         <v>780</v>
       </c>
       <c r="D130" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E130" s="18"/>
@@ -74839,7 +74860,7 @@
         <v>778</v>
       </c>
       <c r="D131" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E131" s="18"/>
@@ -74863,7 +74884,7 @@
         <v>774</v>
       </c>
       <c r="D132" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E132" s="18"/>
@@ -74883,7 +74904,7 @@
         <v>772</v>
       </c>
       <c r="D133" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F133" s="17" t="s">
@@ -74903,7 +74924,7 @@
         <v>769</v>
       </c>
       <c r="D134" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E134" s="12"/>
@@ -74927,7 +74948,7 @@
         <v>303</v>
       </c>
       <c r="D135" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E135" s="12"/>
@@ -74951,7 +74972,7 @@
         <v>301</v>
       </c>
       <c r="D136" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E136" s="12"/>
@@ -74975,7 +74996,7 @@
         <v>760</v>
       </c>
       <c r="D137" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E137" s="12"/>
@@ -74997,7 +75018,7 @@
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E138" s="12"/>
@@ -75017,7 +75038,7 @@
         <v>755</v>
       </c>
       <c r="D139" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E139" s="12"/>
@@ -75041,7 +75062,7 @@
         <v>747</v>
       </c>
       <c r="D140" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E140" s="12"/>
@@ -75065,7 +75086,7 @@
         <v>600</v>
       </c>
       <c r="D141" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E141" s="18"/>
@@ -75085,7 +75106,7 @@
         <v>747</v>
       </c>
       <c r="D142" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E142" s="12"/>
@@ -75109,7 +75130,7 @@
         <v>744</v>
       </c>
       <c r="D143" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E143" s="12"/>
@@ -75131,7 +75152,7 @@
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E144" s="12"/>
@@ -75151,7 +75172,7 @@
         <v>739</v>
       </c>
       <c r="D145" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E145" s="12"/>
@@ -75175,7 +75196,7 @@
         <v>600</v>
       </c>
       <c r="D146" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E146" s="18" t="b">
@@ -75193,7 +75214,7 @@
         <v>734</v>
       </c>
       <c r="D147" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E147" s="14"/>
@@ -75217,7 +75238,7 @@
         <v>731</v>
       </c>
       <c r="D148" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E148" s="12"/>
@@ -75241,7 +75262,7 @@
         <v>602</v>
       </c>
       <c r="D149" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E149" s="18" t="b">
@@ -75263,7 +75284,7 @@
         <v>7701</v>
       </c>
       <c r="D150" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E150" s="18"/>
@@ -75283,7 +75304,7 @@
         <v>726</v>
       </c>
       <c r="D151" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E151" s="12"/>
@@ -75307,7 +75328,7 @@
         <v>722</v>
       </c>
       <c r="D152" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E152" s="12"/>
@@ -75327,7 +75348,7 @@
         <v>718</v>
       </c>
       <c r="D153" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E153" s="12"/>
@@ -75351,7 +75372,7 @@
         <v>715</v>
       </c>
       <c r="D154" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E154" s="12"/>
@@ -75375,7 +75396,7 @@
         <v>711</v>
       </c>
       <c r="D155" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E155" s="12"/>
@@ -75399,7 +75420,7 @@
         <v>709</v>
       </c>
       <c r="D156" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E156" s="12"/>
@@ -75423,7 +75444,7 @@
         <v>705</v>
       </c>
       <c r="D157" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E157" s="12"/>
@@ -75447,7 +75468,7 @@
         <v>701</v>
       </c>
       <c r="D158" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E158" s="12"/>
@@ -75471,7 +75492,7 @@
         <v>604</v>
       </c>
       <c r="D159" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E159" s="18" t="b">
@@ -75493,7 +75514,7 @@
         <v>565</v>
       </c>
       <c r="D160" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E160" s="18" t="b">
@@ -75515,7 +75536,7 @@
         <v>695</v>
       </c>
       <c r="D161" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E161" s="18"/>
@@ -75535,7 +75556,7 @@
         <v>693</v>
       </c>
       <c r="D162" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E162" s="12"/>
@@ -75559,7 +75580,7 @@
         <v>686</v>
       </c>
       <c r="D163" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E163" s="12"/>
@@ -75583,7 +75604,7 @@
         <v>686</v>
       </c>
       <c r="D164" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E164" s="12"/>
@@ -75607,7 +75628,7 @@
         <v>682</v>
       </c>
       <c r="D165" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E165" s="20"/>
@@ -75631,7 +75652,7 @@
         <v>600</v>
       </c>
       <c r="D166" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E166" s="19" t="b">
@@ -75653,7 +75674,7 @@
         <v>600</v>
       </c>
       <c r="D167" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E167" s="19" t="b">
@@ -75675,7 +75696,7 @@
         <v>600</v>
       </c>
       <c r="D168" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E168" s="19" t="b">
@@ -75697,7 +75718,7 @@
         <v>600</v>
       </c>
       <c r="D169" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E169" s="19" t="b">
@@ -75719,7 +75740,7 @@
         <v>600</v>
       </c>
       <c r="D170" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E170" s="20" t="b">
@@ -75743,7 +75764,7 @@
         <v>326</v>
       </c>
       <c r="D171" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E171" s="12"/>
@@ -75767,7 +75788,7 @@
         <v>670</v>
       </c>
       <c r="D172" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E172" s="12"/>
@@ -75791,7 +75812,7 @@
         <v>666</v>
       </c>
       <c r="D173" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E173" s="12"/>
@@ -75815,7 +75836,7 @@
         <v>662</v>
       </c>
       <c r="D174" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E174" s="12"/>
@@ -75839,7 +75860,7 @@
         <v>658</v>
       </c>
       <c r="D175" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E175" s="12"/>
@@ -75863,7 +75884,7 @@
         <v>655</v>
       </c>
       <c r="D176" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E176" s="12"/>
@@ -75887,7 +75908,7 @@
         <v>651</v>
       </c>
       <c r="D177" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E177" s="12"/>
@@ -75909,7 +75930,7 @@
       </c>
       <c r="C178" s="12"/>
       <c r="D178" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E178" s="12"/>
@@ -75927,7 +75948,7 @@
       </c>
       <c r="C179" s="12"/>
       <c r="D179" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E179" s="12"/>
@@ -75947,7 +75968,7 @@
         <v>7703</v>
       </c>
       <c r="D180" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E180" s="12"/>
@@ -75967,7 +75988,7 @@
         <v>7705</v>
       </c>
       <c r="D181" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E181" s="12"/>
@@ -75989,7 +76010,7 @@
         <v>7706</v>
       </c>
       <c r="D182" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E182" s="12"/>
@@ -76011,7 +76032,7 @@
         <v>7707</v>
       </c>
       <c r="D183" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E183" s="12"/>
@@ -76033,7 +76054,7 @@
         <v>7708</v>
       </c>
       <c r="D184" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E184" s="12"/>
@@ -76055,7 +76076,7 @@
         <v>7709</v>
       </c>
       <c r="D185" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E185" s="12"/>
@@ -76077,7 +76098,7 @@
         <v>7710</v>
       </c>
       <c r="D186" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E186" s="12"/>
@@ -76099,7 +76120,7 @@
         <v>7711</v>
       </c>
       <c r="D187" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E187" s="12"/>
@@ -76117,7 +76138,7 @@
         <v>76</v>
       </c>
       <c r="D188" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E188" s="12"/>
@@ -76141,7 +76162,7 @@
         <v>323</v>
       </c>
       <c r="D189" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E189" s="18"/>
@@ -76161,7 +76182,7 @@
         <v>642</v>
       </c>
       <c r="D190" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E190" s="22"/>
@@ -76181,7 +76202,7 @@
       </c>
       <c r="C191" s="12"/>
       <c r="D191" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E191" s="12"/>
@@ -76201,7 +76222,7 @@
         <v>638</v>
       </c>
       <c r="D192" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E192" s="18"/>
@@ -76225,7 +76246,7 @@
         <v>635</v>
       </c>
       <c r="D193" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E193" s="18"/>
@@ -76249,7 +76270,7 @@
         <v>631</v>
       </c>
       <c r="D194" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E194" s="12"/>
@@ -76273,7 +76294,7 @@
         <v>267</v>
       </c>
       <c r="D195" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E195" s="12"/>
@@ -76297,7 +76318,7 @@
         <v>626</v>
       </c>
       <c r="D196" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E196" s="12"/>
@@ -76321,7 +76342,7 @@
         <v>622</v>
       </c>
       <c r="D197" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E197" s="12"/>
@@ -76345,7 +76366,7 @@
         <v>619</v>
       </c>
       <c r="D198" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E198" s="12"/>
@@ -76369,7 +76390,7 @@
         <v>615</v>
       </c>
       <c r="D199" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E199" s="12"/>
@@ -76393,7 +76414,7 @@
         <v>611</v>
       </c>
       <c r="D200" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E200" s="12"/>
@@ -76415,7 +76436,7 @@
       </c>
       <c r="C201" s="12"/>
       <c r="D201" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E201" s="12"/>
@@ -76435,7 +76456,7 @@
         <v>607</v>
       </c>
       <c r="D202" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E202" s="12"/>
@@ -76459,7 +76480,7 @@
         <v>604</v>
       </c>
       <c r="D203" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E203" s="18" t="b">
@@ -76479,7 +76500,7 @@
       </c>
       <c r="C204" s="12"/>
       <c r="D204" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E204" s="12"/>
@@ -76499,7 +76520,7 @@
         <v>602</v>
       </c>
       <c r="D205" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E205" s="18" t="b">
@@ -76521,7 +76542,7 @@
         <v>565</v>
       </c>
       <c r="D206" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E206" s="18" t="b">
@@ -76543,7 +76564,7 @@
         <v>600</v>
       </c>
       <c r="D207" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E207" s="18"/>
@@ -76563,7 +76584,7 @@
         <v>598</v>
       </c>
       <c r="D208" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E208" s="12"/>
@@ -76585,7 +76606,7 @@
       </c>
       <c r="C209" s="12"/>
       <c r="D209" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E209" s="12"/>
@@ -76603,7 +76624,7 @@
       </c>
       <c r="C210" s="12"/>
       <c r="D210" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E210" s="12"/>
@@ -76623,7 +76644,7 @@
         <v>565</v>
       </c>
       <c r="D211" s="18" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E211" s="18" t="b">
@@ -76641,7 +76662,7 @@
         <v>591</v>
       </c>
       <c r="D212" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E212" s="12"/>
@@ -76665,7 +76686,7 @@
         <v>587</v>
       </c>
       <c r="D213" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E213" s="12"/>
@@ -76687,7 +76708,7 @@
       </c>
       <c r="C214" s="12"/>
       <c r="D214" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E214" s="12"/>
@@ -76707,7 +76728,7 @@
         <v>582</v>
       </c>
       <c r="D215" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E215" s="20"/>
@@ -76729,7 +76750,7 @@
       </c>
       <c r="C216" s="12"/>
       <c r="D216" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E216" s="12"/>
@@ -76749,7 +76770,7 @@
         <v>578</v>
       </c>
       <c r="D217" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E217" s="12"/>
@@ -76770,7 +76791,7 @@
         <v>574</v>
       </c>
       <c r="D218" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E218" s="18"/>
@@ -76794,7 +76815,7 @@
         <v>572</v>
       </c>
       <c r="D219" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E219" s="12"/>
@@ -76816,7 +76837,7 @@
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E220" s="12"/>
@@ -76836,7 +76857,7 @@
         <v>568</v>
       </c>
       <c r="D221" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E221" s="12"/>
@@ -76860,7 +76881,7 @@
         <v>565</v>
       </c>
       <c r="D222" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E222" s="18" t="b">
@@ -76882,7 +76903,7 @@
       </c>
       <c r="C223" s="12"/>
       <c r="D223" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E223" s="12"/>
@@ -76902,7 +76923,7 @@
         <v>561</v>
       </c>
       <c r="D224" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E224" s="12"/>
@@ -76924,7 +76945,7 @@
       </c>
       <c r="C225" s="12"/>
       <c r="D225" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E225" s="12"/>
@@ -76944,7 +76965,7 @@
         <v>557</v>
       </c>
       <c r="D226" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E226" s="12"/>
@@ -76968,7 +76989,7 @@
         <v>553</v>
       </c>
       <c r="D227" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E227" s="12"/>
@@ -76990,7 +77011,7 @@
       </c>
       <c r="C228" s="12"/>
       <c r="D228" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E228" s="12"/>
@@ -77010,7 +77031,7 @@
         <v>549</v>
       </c>
       <c r="D229" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E229" s="12"/>
@@ -77034,7 +77055,7 @@
         <v>546</v>
       </c>
       <c r="D230" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E230" s="12"/>
@@ -77058,7 +77079,7 @@
         <v>542</v>
       </c>
       <c r="D231" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E231" s="12"/>
@@ -77082,7 +77103,7 @@
         <v>538</v>
       </c>
       <c r="D232" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E232" s="12"/>
@@ -77106,7 +77127,7 @@
         <v>536</v>
       </c>
       <c r="D233" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E233" s="12"/>
@@ -77130,7 +77151,7 @@
         <v>532</v>
       </c>
       <c r="D234" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E234" s="12"/>
@@ -77154,7 +77175,7 @@
         <v>528</v>
       </c>
       <c r="D235" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E235" s="12"/>
@@ -77178,7 +77199,7 @@
         <v>525</v>
       </c>
       <c r="D236" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E236" s="12"/>
@@ -77202,7 +77223,7 @@
         <v>295</v>
       </c>
       <c r="D237" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E237" s="12"/>
@@ -77226,7 +77247,7 @@
         <v>520</v>
       </c>
       <c r="D238" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E238" s="12"/>
@@ -77250,7 +77271,7 @@
         <v>516</v>
       </c>
       <c r="D239" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E239" s="12"/>
@@ -77274,7 +77295,7 @@
         <v>512</v>
       </c>
       <c r="D240" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E240" s="12"/>
@@ -77298,7 +77319,7 @@
         <v>509</v>
       </c>
       <c r="D241" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E241" s="12"/>
@@ -77322,7 +77343,7 @@
         <v>505</v>
       </c>
       <c r="D242" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E242" s="12"/>
@@ -77346,7 +77367,7 @@
         <v>501</v>
       </c>
       <c r="D243" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E243" s="13"/>
@@ -77366,7 +77387,7 @@
         <v>499</v>
       </c>
       <c r="D244" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E244" s="12"/>
@@ -77390,7 +77411,7 @@
         <v>495</v>
       </c>
       <c r="D245" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E245" s="18"/>
@@ -77412,7 +77433,7 @@
       </c>
       <c r="C246" s="12"/>
       <c r="D246" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E246" s="12"/>
@@ -77432,7 +77453,7 @@
         <v>7679</v>
       </c>
       <c r="D247" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E247" s="12"/>
@@ -77456,7 +77477,7 @@
         <v>490</v>
       </c>
       <c r="D248" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E248" s="12"/>
@@ -77480,7 +77501,7 @@
         <v>486</v>
       </c>
       <c r="D249" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E249" s="12"/>
@@ -77504,7 +77525,7 @@
         <v>482</v>
       </c>
       <c r="D250" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E250" s="12"/>
@@ -77528,7 +77549,7 @@
         <v>478</v>
       </c>
       <c r="D251" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E251" s="12"/>
@@ -77552,7 +77573,7 @@
         <v>474</v>
       </c>
       <c r="D252" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E252" s="12"/>
@@ -77576,7 +77597,7 @@
         <v>412</v>
       </c>
       <c r="D253" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E253" s="18"/>
@@ -77600,7 +77621,7 @@
         <v>468</v>
       </c>
       <c r="D254" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E254" s="12"/>
@@ -77624,7 +77645,7 @@
         <v>464</v>
       </c>
       <c r="D255" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E255" s="12"/>
@@ -77648,7 +77669,7 @@
         <v>460</v>
       </c>
       <c r="D256" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E256" s="12"/>
@@ -77672,7 +77693,7 @@
         <v>457</v>
       </c>
       <c r="D257" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E257" s="12"/>
@@ -77696,7 +77717,7 @@
         <v>453</v>
       </c>
       <c r="D258" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E258" s="12"/>
@@ -77720,7 +77741,7 @@
         <v>450</v>
       </c>
       <c r="D259" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E259" s="12"/>
@@ -77744,7 +77765,7 @@
         <v>447</v>
       </c>
       <c r="D260" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E260" s="12"/>
@@ -77768,7 +77789,7 @@
         <v>443</v>
       </c>
       <c r="D261" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E261" s="12"/>
@@ -77792,7 +77813,7 @@
         <v>439</v>
       </c>
       <c r="D262" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E262" s="12"/>
@@ -77816,7 +77837,7 @@
         <v>435</v>
       </c>
       <c r="D263" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E263" s="12"/>
@@ -77840,7 +77861,7 @@
         <v>431</v>
       </c>
       <c r="D264" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E264" s="12"/>
@@ -77864,7 +77885,7 @@
         <v>427</v>
       </c>
       <c r="D265" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E265" s="13"/>
@@ -77884,7 +77905,7 @@
         <v>425</v>
       </c>
       <c r="D266" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E266" s="18"/>
@@ -77908,7 +77929,7 @@
         <v>421</v>
       </c>
       <c r="D267" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E267" s="18"/>
@@ -77932,7 +77953,7 @@
         <v>417</v>
       </c>
       <c r="D268" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E268" s="12"/>
@@ -77956,7 +77977,7 @@
         <v>415</v>
       </c>
       <c r="D269" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E269" s="12"/>
@@ -77980,7 +78001,7 @@
         <v>412</v>
       </c>
       <c r="D270" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E270" s="12"/>
@@ -78004,7 +78025,7 @@
         <v>408</v>
       </c>
       <c r="D271" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E271" s="12"/>
@@ -78028,7 +78049,7 @@
         <v>404</v>
       </c>
       <c r="D272" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E272" s="12"/>
@@ -78052,7 +78073,7 @@
         <v>400</v>
       </c>
       <c r="D273" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E273" s="14"/>
@@ -78074,7 +78095,7 @@
       </c>
       <c r="C274" s="12"/>
       <c r="D274" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E274" s="12"/>
@@ -78092,7 +78113,7 @@
       </c>
       <c r="C275" s="12"/>
       <c r="D275" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E275" s="12"/>
@@ -78112,7 +78133,7 @@
         <v>394</v>
       </c>
       <c r="D276" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E276" s="12"/>
@@ -78136,7 +78157,7 @@
         <v>390</v>
       </c>
       <c r="D277" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E277" s="12"/>
@@ -78158,7 +78179,7 @@
       </c>
       <c r="C278" s="12"/>
       <c r="D278" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E278" s="12"/>
@@ -78176,7 +78197,7 @@
       </c>
       <c r="C279" s="12"/>
       <c r="D279" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E279" s="12"/>
@@ -78194,7 +78215,7 @@
       </c>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E280" s="12"/>
@@ -78214,7 +78235,7 @@
         <v>386</v>
       </c>
       <c r="D281" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E281" s="12"/>
@@ -78238,7 +78259,7 @@
         <v>382</v>
       </c>
       <c r="D282" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E282" s="12"/>
@@ -78262,7 +78283,7 @@
         <v>378</v>
       </c>
       <c r="D283" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F283" s="18"/>
@@ -78281,7 +78302,7 @@
         <v>376</v>
       </c>
       <c r="D284" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E284" s="12"/>
@@ -78305,7 +78326,7 @@
         <v>372</v>
       </c>
       <c r="D285" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E285" s="18"/>
@@ -78325,7 +78346,7 @@
         <v>370</v>
       </c>
       <c r="D286" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E286" s="12"/>
@@ -78349,7 +78370,7 @@
         <v>366</v>
       </c>
       <c r="D287" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E287" s="12"/>
@@ -78373,7 +78394,7 @@
         <v>362</v>
       </c>
       <c r="D288" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E288" s="12"/>
@@ -78397,7 +78418,7 @@
         <v>358</v>
       </c>
       <c r="D289" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E289" s="12"/>
@@ -78419,7 +78440,7 @@
       </c>
       <c r="C290" s="12"/>
       <c r="D290" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E290" s="12"/>
@@ -78437,7 +78458,7 @@
       </c>
       <c r="C291" s="12"/>
       <c r="D291" s="18" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
       <c r="E291" s="12"/>
@@ -78461,7 +78482,7 @@
         <v>350</v>
       </c>
       <c r="D292" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E292" s="12"/>
@@ -78485,7 +78506,7 @@
         <v>346</v>
       </c>
       <c r="D293" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F293" s="18" t="s">
@@ -78506,7 +78527,7 @@
       </c>
       <c r="C294" s="12"/>
       <c r="D294" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E294" s="12"/>
@@ -78526,7 +78547,7 @@
         <v>326</v>
       </c>
       <c r="D295" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E295" s="12"/>
@@ -78550,7 +78571,7 @@
         <v>339</v>
       </c>
       <c r="D296" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E296" s="12"/>
@@ -78572,7 +78593,7 @@
       </c>
       <c r="C297" s="12"/>
       <c r="D297" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E297" s="12"/>
@@ -78590,7 +78611,7 @@
       </c>
       <c r="C298" s="12"/>
       <c r="D298" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E298" s="12"/>
@@ -78610,7 +78631,7 @@
         <v>333</v>
       </c>
       <c r="D299" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="F299" s="17" t="s">
@@ -78630,7 +78651,7 @@
         <v>330</v>
       </c>
       <c r="D300" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E300" s="18"/>
@@ -78652,7 +78673,7 @@
         <v>327</v>
       </c>
       <c r="D301" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E301" s="18"/>
@@ -78676,7 +78697,7 @@
         <v>323</v>
       </c>
       <c r="D302" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E302" s="12"/>
@@ -78700,7 +78721,7 @@
         <v>319</v>
       </c>
       <c r="D303" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E303" s="12"/>
@@ -78724,7 +78745,7 @@
         <v>315</v>
       </c>
       <c r="D304" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E304" s="12"/>
@@ -78748,7 +78769,7 @@
         <v>311</v>
       </c>
       <c r="D305" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E305" s="12"/>
@@ -78772,7 +78793,7 @@
         <v>307</v>
       </c>
       <c r="D306" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
       <c r="E306" s="12"/>
@@ -78794,7 +78815,7 @@
         <v>305</v>
       </c>
       <c r="D307" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E307" s="12"/>
@@ -78816,7 +78837,7 @@
         <v>303</v>
       </c>
       <c r="D308" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E308" s="12"/>
@@ -78837,7 +78858,7 @@
         <v>301</v>
       </c>
       <c r="D309" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E309" s="12"/>
@@ -78858,7 +78879,7 @@
         <v>299</v>
       </c>
       <c r="D310" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E310" s="12"/>
@@ -78880,7 +78901,7 @@
         <v>297</v>
       </c>
       <c r="D311" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E311" s="12"/>
@@ -78902,7 +78923,7 @@
         <v>293</v>
       </c>
       <c r="D312" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E312" s="12"/>
@@ -78924,7 +78945,7 @@
         <v>291</v>
       </c>
       <c r="D313" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="F313" s="12"/>
@@ -78947,7 +78968,7 @@
         <v>289</v>
       </c>
       <c r="D314" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="F314" s="12"/>
@@ -78970,7 +78991,7 @@
         <v>287</v>
       </c>
       <c r="D315" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="F315" s="12"/>
@@ -78991,7 +79012,7 @@
       </c>
       <c r="C316" s="14"/>
       <c r="D316" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="F316" s="12"/>
@@ -79010,7 +79031,7 @@
         <v>284</v>
       </c>
       <c r="D317" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G317" s="12" t="s">
@@ -79032,7 +79053,7 @@
         <v>282</v>
       </c>
       <c r="D318" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G318" s="12" t="s">
@@ -79054,7 +79075,7 @@
         <v>280</v>
       </c>
       <c r="D319" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G319" s="12" t="s">
@@ -79076,7 +79097,7 @@
         <v>278</v>
       </c>
       <c r="D320" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G320" s="12" t="s">
@@ -79098,7 +79119,7 @@
         <v>276</v>
       </c>
       <c r="D321" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G321" s="12" t="s">
@@ -79120,7 +79141,7 @@
         <v>273</v>
       </c>
       <c r="D322" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G322" s="12" t="s">
@@ -79139,7 +79160,7 @@
         <v>271</v>
       </c>
       <c r="D323" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G323" s="12" t="s">
@@ -79158,7 +79179,7 @@
         <v>269</v>
       </c>
       <c r="D324" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E324" s="12"/>
@@ -79178,7 +79199,7 @@
         <v>267</v>
       </c>
       <c r="D325" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="E325" s="12"/>
@@ -79192,11 +79213,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B326" s="51" t="str">
-        <f>Enums!$B$85</f>
+        <f>Enums!$B$87</f>
         <v>Fruit Brandy</v>
       </c>
       <c r="D326" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79206,11 +79227,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B327" s="51" t="str">
-        <f>Enums!$B$86</f>
+        <f>Enums!$B$88</f>
         <v>Vodka</v>
       </c>
       <c r="D327" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79220,11 +79241,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B328" s="51" t="str">
-        <f>Enums!$B$87</f>
+        <f>Enums!$B$89</f>
         <v>Gin</v>
       </c>
       <c r="D328" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79234,11 +79255,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B329" s="51" t="str">
-        <f>Enums!$B$88</f>
+        <f>Enums!$B$90</f>
         <v>Tequila</v>
       </c>
       <c r="D329" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79248,11 +79269,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B330" s="51" t="str">
-        <f>Enums!$B$89</f>
+        <f>Enums!$B$91</f>
         <v>Rum</v>
       </c>
       <c r="D330" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79262,11 +79283,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B331" s="51" t="str">
-        <f>Enums!$B$90</f>
+        <f>Enums!$B$92</f>
         <v>Whiskey</v>
       </c>
       <c r="D331" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79276,11 +79297,11 @@
         <v>1.0.0</v>
       </c>
       <c r="B332" s="51" t="str">
-        <f>Enums!$B$91</f>
+        <f>Enums!$B$93</f>
         <v>Carrot Wine</v>
       </c>
       <c r="D332" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79293,7 +79314,7 @@
         <v>7672</v>
       </c>
       <c r="D333" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79306,7 +79327,7 @@
         <v>7673</v>
       </c>
       <c r="D334" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79334,7 +79355,7 @@
         <v>7736</v>
       </c>
       <c r="D336" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G336" s="12" t="s">
@@ -79353,7 +79374,7 @@
         <v>7739</v>
       </c>
       <c r="D337" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79369,7 +79390,7 @@
         <v>7741</v>
       </c>
       <c r="D338" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79385,7 +79406,7 @@
         <v>693</v>
       </c>
       <c r="D339" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79398,7 +79419,7 @@
         <v>7751</v>
       </c>
       <c r="D340" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79411,7 +79432,7 @@
         <v>7781</v>
       </c>
       <c r="D341" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79424,7 +79445,7 @@
         <v>7782</v>
       </c>
       <c r="D342" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79437,7 +79458,7 @@
         <v>7783</v>
       </c>
       <c r="D343" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79450,7 +79471,7 @@
         <v>7784</v>
       </c>
       <c r="D344" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79463,7 +79484,7 @@
         <v>7785</v>
       </c>
       <c r="D345" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79476,7 +79497,7 @@
         <v>7786</v>
       </c>
       <c r="D346" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79489,7 +79510,7 @@
         <v>7787</v>
       </c>
       <c r="D347" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79502,7 +79523,7 @@
         <v>7788</v>
       </c>
       <c r="D348" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79515,7 +79536,7 @@
         <v>7789</v>
       </c>
       <c r="D349" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G349" s="1" t="s">
@@ -79531,7 +79552,7 @@
         <v>7791</v>
       </c>
       <c r="D350" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G350" s="1" t="s">
@@ -79550,7 +79571,7 @@
         <v>7793</v>
       </c>
       <c r="D351" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79566,7 +79587,7 @@
         <v>7818</v>
       </c>
       <c r="D352" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G352" s="1" t="s">
@@ -79585,7 +79606,7 @@
         <v>7820</v>
       </c>
       <c r="D353" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G353" s="1" t="s">
@@ -79604,7 +79625,7 @@
         <v>7821</v>
       </c>
       <c r="D354" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79620,7 +79641,7 @@
         <v>7825</v>
       </c>
       <c r="D355" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79633,7 +79654,7 @@
         <v>7834</v>
       </c>
       <c r="D356" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79646,7 +79667,7 @@
         <v>7835</v>
       </c>
       <c r="D357" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79659,7 +79680,7 @@
         <v>7836</v>
       </c>
       <c r="D358" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79672,7 +79693,7 @@
         <v>7837</v>
       </c>
       <c r="D359" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79685,7 +79706,7 @@
         <v>7838</v>
       </c>
       <c r="D360" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79698,7 +79719,7 @@
         <v>7839</v>
       </c>
       <c r="D361" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79711,7 +79732,7 @@
         <v>7840</v>
       </c>
       <c r="D362" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79724,7 +79745,7 @@
         <v>7842</v>
       </c>
       <c r="D363" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79737,7 +79758,7 @@
         <v>7843</v>
       </c>
       <c r="D364" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79750,7 +79771,7 @@
         <v>7862</v>
       </c>
       <c r="D365" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79763,7 +79784,7 @@
         <v>7863</v>
       </c>
       <c r="D366" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79776,7 +79797,7 @@
         <v>7864</v>
       </c>
       <c r="D367" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
     </row>
@@ -79789,7 +79810,7 @@
         <v>7866</v>
       </c>
       <c r="D368" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79802,7 +79823,7 @@
         <v>7867</v>
       </c>
       <c r="D369" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79815,7 +79836,7 @@
         <v>7868</v>
       </c>
       <c r="D370" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79828,7 +79849,7 @@
         <v>7904</v>
       </c>
       <c r="D371" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79841,7 +79862,7 @@
         <v>7905</v>
       </c>
       <c r="D372" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79854,7 +79875,7 @@
         <v>7874</v>
       </c>
       <c r="D373" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79867,7 +79888,7 @@
         <v>7877</v>
       </c>
       <c r="D374" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79880,7 +79901,7 @@
         <v>7899</v>
       </c>
       <c r="D375" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79893,7 +79914,7 @@
         <v>7878</v>
       </c>
       <c r="D376" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79906,7 +79927,7 @@
         <v>355</v>
       </c>
       <c r="D377" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79919,7 +79940,7 @@
         <v>7879</v>
       </c>
       <c r="D378" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79932,7 +79953,7 @@
         <v>7880</v>
       </c>
       <c r="D379" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79945,7 +79966,7 @@
         <v>7881</v>
       </c>
       <c r="D380" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -79958,7 +79979,7 @@
         <v>7882</v>
       </c>
       <c r="D381" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79971,7 +79992,7 @@
         <v>7883</v>
       </c>
       <c r="D382" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -79984,7 +80005,7 @@
         <v>7884</v>
       </c>
       <c r="D383" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G383" s="1" t="s">
@@ -80000,7 +80021,7 @@
         <v>7885</v>
       </c>
       <c r="D384" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
       <c r="G384" s="1" t="s">
@@ -80016,7 +80037,7 @@
         <v>7886</v>
       </c>
       <c r="D385" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -80029,7 +80050,7 @@
         <v>7887</v>
       </c>
       <c r="D386" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -80042,7 +80063,7 @@
         <v>7888</v>
       </c>
       <c r="D387" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -80055,7 +80076,7 @@
         <v>7889</v>
       </c>
       <c r="D388" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80068,7 +80089,7 @@
         <v>7895</v>
       </c>
       <c r="D389" s="12" t="str">
-        <f>Enums!$A$20</f>
+        <f>Enums!$A$22</f>
         <v>Gas</v>
       </c>
     </row>
@@ -80084,7 +80105,7 @@
         <v>7897</v>
       </c>
       <c r="D390" s="12" t="str">
-        <f>Enums!$A$18</f>
+        <f>Enums!$A$20</f>
         <v>Solid</v>
       </c>
     </row>
@@ -80097,7 +80118,7 @@
         <v>7898</v>
       </c>
       <c r="D391" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80113,7 +80134,7 @@
         <v>7900</v>
       </c>
       <c r="D392" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80129,7 +80150,7 @@
         <v>7902</v>
       </c>
       <c r="D393" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80145,7 +80166,7 @@
         <v>7907</v>
       </c>
       <c r="D394" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80158,7 +80179,7 @@
         <v>7908</v>
       </c>
       <c r="D395" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80171,7 +80192,7 @@
         <v>7909</v>
       </c>
       <c r="D396" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80184,7 +80205,7 @@
         <v>7910</v>
       </c>
       <c r="D397" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80197,7 +80218,7 @@
         <v>7911</v>
       </c>
       <c r="D398" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80210,7 +80231,7 @@
         <v>7912</v>
       </c>
       <c r="D399" s="12" t="str">
-        <f>Enums!$A$19</f>
+        <f>Enums!$A$21</f>
         <v>Liquid</v>
       </c>
     </row>
@@ -80271,15 +80292,15 @@
         <v>1331</v>
       </c>
       <c r="I1" s="34" t="str">
-        <f xml:space="preserve"> Enums!$A$46&amp;" 1"</f>
+        <f xml:space="preserve"> Enums!$A$48&amp;" 1"</f>
         <v>Polymer Class 1</v>
       </c>
       <c r="J1" s="34" t="str">
-        <f xml:space="preserve"> Enums!$A$46&amp;" 2"</f>
+        <f xml:space="preserve"> Enums!$A$48&amp;" 2"</f>
         <v>Polymer Class 2</v>
       </c>
       <c r="K1" s="34" t="str">
-        <f xml:space="preserve"> Enums!$A$46&amp;" 3"</f>
+        <f xml:space="preserve"> Enums!$A$48&amp;" 3"</f>
         <v>Polymer Class 3</v>
       </c>
       <c r="L1" s="34" t="s">
@@ -80315,11 +80336,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="str">
-        <f>Enums!$A$51</f>
+        <f>Enums!$A$53</f>
         <v>polyacrylate</v>
       </c>
       <c r="J2" s="8" t="str">
-        <f>Enums!$A$52</f>
+        <f>Enums!$A$54</f>
         <v>polyaldehyde</v>
       </c>
     </row>
@@ -80342,7 +80363,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="str">
-        <f>Enums!$A$69</f>
+        <f>Enums!$A$71</f>
         <v>synthetic rubber</v>
       </c>
       <c r="J3" s="8"/>
@@ -80368,7 +80389,7 @@
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32" t="str">
-        <f>Enums!$A$57</f>
+        <f>Enums!$A$59</f>
         <v>polyester</v>
       </c>
     </row>
@@ -80391,7 +80412,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>Enums!$A$57</f>
+        <f>Enums!$A$59</f>
         <v>polyester</v>
       </c>
     </row>
@@ -80414,7 +80435,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="str">
-        <f>Enums!$A$50</f>
+        <f>Enums!$A$52</f>
         <v>natural rubber</v>
       </c>
     </row>
@@ -80436,7 +80457,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>Enums!$A$64</f>
+        <f>Enums!$A$66</f>
         <v>polysaccharide</v>
       </c>
       <c r="J7" s="32"/>
@@ -80460,7 +80481,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8" t="str">
-        <f>Enums!$A$64</f>
+        <f>Enums!$A$66</f>
         <v>polysaccharide</v>
       </c>
     </row>
@@ -80482,7 +80503,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>Enums!$A$64</f>
+        <f>Enums!$A$66</f>
         <v>polysaccharide</v>
       </c>
     </row>
@@ -80506,7 +80527,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f>Enums!$A$64</f>
+        <f>Enums!$A$66</f>
         <v>polysaccharide</v>
       </c>
     </row>
@@ -80529,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f>Enums!$A$50</f>
+        <f>Enums!$A$52</f>
         <v>natural rubber</v>
       </c>
     </row>
@@ -80552,7 +80573,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f>Enums!$A$56</f>
+        <f>Enums!$A$58</f>
         <v>polyepoxide</v>
       </c>
     </row>
@@ -80575,7 +80596,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="8" t="str">
-        <f>Enums!$A$60</f>
+        <f>Enums!$A$62</f>
         <v>polyol</v>
       </c>
       <c r="J13" s="32"/>
@@ -80600,7 +80621,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>Enums!$A$61</f>
+        <f>Enums!$A$63</f>
         <v>polyolefin</v>
       </c>
     </row>
@@ -80623,7 +80644,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>Enums!$A$61</f>
+        <f>Enums!$A$63</f>
         <v>polyolefin</v>
       </c>
     </row>
@@ -80646,11 +80667,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>Enums!$A$61</f>
+        <f>Enums!$A$63</f>
         <v>polyolefin</v>
       </c>
       <c r="J16" s="8" t="str">
-        <f>Enums!$A$66</f>
+        <f>Enums!$A$68</f>
         <v>polyvinyl</v>
       </c>
     </row>
@@ -80673,7 +80694,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>Enums!$A$61</f>
+        <f>Enums!$A$63</f>
         <v>polyolefin</v>
       </c>
     </row>
@@ -80697,7 +80718,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f>Enums!$A$69</f>
+        <f>Enums!$A$71</f>
         <v>synthetic rubber</v>
       </c>
     </row>
@@ -80720,7 +80741,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f>Enums!$A$50</f>
+        <f>Enums!$A$52</f>
         <v>natural rubber</v>
       </c>
     </row>
@@ -80742,7 +80763,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f>Enums!$A$64</f>
+        <f>Enums!$A$66</f>
         <v>polysaccharide</v>
       </c>
     </row>
@@ -80765,7 +80786,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>Enums!$A$61</f>
+        <f>Enums!$A$63</f>
         <v>polyolefin</v>
       </c>
     </row>
@@ -80792,7 +80813,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="str">
-        <f>Enums!$A$57</f>
+        <f>Enums!$A$59</f>
         <v>polyester</v>
       </c>
     </row>
@@ -80815,7 +80836,7 @@
         <v>0</v>
       </c>
       <c r=